--- a/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="18600" windowHeight="13635"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="18600" windowHeight="13635" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="29" r:id="rId1"/>
@@ -627,21 +627,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="15">
-    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0;#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="166" formatCode="General_)"/>
-    <numFmt numFmtId="167" formatCode="ddd\,\ dd\-mmm\-yyyy\ h:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="ddd\,\ d\-mmm\-yyyy"/>
-    <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
-    <numFmt numFmtId="171" formatCode="0.0000%"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ h:mm:ss"/>
-    <numFmt numFmtId="174" formatCode="0.000000000"/>
-    <numFmt numFmtId="175" formatCode="ddd\,\ d\-mmm\-yy"/>
-    <numFmt numFmtId="176" formatCode="0.E+00"/>
-    <numFmt numFmtId="177" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0;#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="167" formatCode="General_)"/>
+    <numFmt numFmtId="168" formatCode="ddd\,\ dd\-mmm\-yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy"/>
+    <numFmt numFmtId="170" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
+    <numFmt numFmtId="171" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="172" formatCode="0.0000%"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="ddd\,\ dd\-mmm\-yyyy\,\ h:mm:ss"/>
+    <numFmt numFmtId="175" formatCode="0.000000000"/>
+    <numFmt numFmtId="176" formatCode="ddd\,\ d\-mmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="0.E+00"/>
+    <numFmt numFmtId="178" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1246,15 +1246,15 @@
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1277,7 +1277,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1301,18 +1301,18 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="3" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="11" fillId="3" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="3" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="3" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1342,7 +1342,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="5" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="5" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="3" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,10 +1357,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1372,13 +1372,13 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="16" fillId="3" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="16" fillId="3" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="15" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="3" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="3" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="3" borderId="2" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1390,10 +1390,10 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1"/>
@@ -1406,28 +1406,28 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="5" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="14" fillId="9" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="14" fillId="9" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="11" fillId="9" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="14" fillId="9" borderId="3" xfId="14" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="9" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,46 +1436,46 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="11" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="11" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="11" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="11" fillId="10" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="11" fillId="10" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="11" fillId="10" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="11" fillId="10" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1501,16 +1501,16 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="17" fillId="8" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="17" fillId="8" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="173" fontId="17" fillId="8" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="17" fillId="8" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="172" fontId="17" fillId="8" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="17" fillId="8" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="17" fillId="8" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1555,40 +1555,40 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="6" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="5" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="14" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="10" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="9" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="6" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="5" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="8" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="3" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="14" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="10" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="2" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="9" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="5" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="5" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="3" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="3" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="10" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="10" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="8" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="8" xfId="21" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1601,15 +1601,15 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="10" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="10" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="5" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="5" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="8" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="8" xfId="19" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1651,40 +1651,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="11" fillId="7" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="11" fillId="7" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="11" fillId="10" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="11" fillId="10" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="4" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="11" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="11" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="23" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -1728,11 +1728,11 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="11" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="11" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="11" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1742,7 +1742,7 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1767,11 +1767,11 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
@@ -1784,7 +1784,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1803,24 +1803,24 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="11" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="11" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -1860,7 +1860,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1875,7 +1875,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1893,7 +1893,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1909,13 +1909,13 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="20" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="11" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="11" fillId="10" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="10" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="11" fillId="10" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="11" fillId="10" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
@@ -2020,7 +2020,6 @@
       <sheetName val="Euribor 3M Time Series"/>
       <sheetName val="Euribor 6M Time Series"/>
       <sheetName val="EuriborSwapIsdaFixA1Y"/>
-      <sheetName val="EUR_Market20150828-171500_Manua"/>
     </sheetNames>
     <definedNames>
       <definedName name="LastFixingsTrigger" refersTo="='General Settings'!$D$7"/>
@@ -2030,46 +2029,354 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>101</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>EURSTD</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>EUR6M#0000</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>EUR6M#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>12E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>12E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>EURTND_Quote#0000</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>EURSND_Quote#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>EUR2x5F_Quote</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>EUR3x6F_Quote</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>U5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>V5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>Future Code</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>U5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>U5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>V5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>2W</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3W</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>OIS</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>OIS</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>H6</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>M6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>X1S</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>X1S</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>1E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>1E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="18">
+        <row r="6">
+          <cell r="D6">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>12</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="19">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="21">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="22">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>EUR1F2Y_Quote</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>EUR1F3Y_Quote</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="23">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>1E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>1E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="25">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="26">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="27">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>12E</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>12E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="28">
+        <row r="6">
+          <cell r="D6">
+            <v>42243</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>42242</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="29">
+        <row r="6">
+          <cell r="D6">
+            <v>42243</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>42242</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="30">
+        <row r="6">
+          <cell r="D6">
+            <v>42244</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>42243</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2365,7 +2672,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -2384,7 +2691,7 @@
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B1" s="44" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Aug 27 2015 09:05:58</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Sep 14 2015 10:30:18</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2604,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="212"/>
       <c r="G12" s="219"/>
@@ -2670,7 +2977,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="233">
-        <v>42244.715138888889</v>
+        <v>42261.475925925923</v>
       </c>
       <c r="J17" s="111"/>
     </row>
@@ -2698,9 +3005,9 @@
       <c r="C19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="25" t="e">
-        <f ca="1">_xll.qlInterpolation(,BasisInterpolation,'1YSynthDepo'!E5:E17,'1YSynthDepo'!I5:I17)</f>
-        <v>#NAME?</v>
+      <c r="D19" s="25" t="str">
+        <f>_xll.qlInterpolation(,BasisInterpolation,'1YSynthDepo'!E5:E17,'1YSynthDepo'!I5:I17)</f>
+        <v>obj_005d5#0001</v>
       </c>
       <c r="E19" s="212"/>
       <c r="G19" s="225"/>
@@ -2709,7 +3016,7 @@
       </c>
       <c r="I19" s="34">
         <f>[1]!TriggerCounter</f>
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J19" s="111"/>
     </row>
@@ -2724,7 +3031,7 @@
       </c>
       <c r="I20" s="35">
         <f>[1]!LastFixingsTrigger</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="111"/>
     </row>
@@ -2889,7 +3196,7 @@
       </c>
       <c r="D38" s="38">
         <f>_xll.qlYieldTSDiscount(D34,C38,,Trigger)</f>
-        <v>1.0003729351458266</v>
+        <v>1.0006039243680598</v>
       </c>
       <c r="E38" s="229"/>
     </row>
@@ -3119,15 +3426,15 @@
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R3,Trigger)</f>
         <v>42278</v>
       </c>
-      <c r="T3" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R3,Trigger),TRUE,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="T3" s="62">
+        <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R3,Trigger),TRUE,AllTriggers)</f>
+        <v>-9.7999999999975884E-4</v>
       </c>
       <c r="U3" s="239"/>
       <c r="V3" s="239"/>
-      <c r="W3" s="190" t="e">
-        <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R3,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="W3" s="190">
+        <f>_xll.qlTenorBasisValue(TenorBasis1M,R3,Trigger)</f>
+        <v>3.0883716299667796E-4</v>
       </c>
       <c r="X3" s="239"/>
       <c r="Y3" s="239"/>
@@ -3135,9 +3442,9 @@
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R3,,,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="59" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,R3,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="AA3" s="59">
+        <f>_xll.qlYieldTSDiscount(Discounting,R3,,AllTriggers)</f>
+        <v>1.00001444461398</v>
       </c>
       <c r="AB3" s="257"/>
       <c r="AD3" s="277" t="s">
@@ -3182,7 +3489,7 @@
       </c>
       <c r="K4" s="158" t="str">
         <f>_xll.qlSwapRateHelper2(,$J4,,C4,Calendar,$F4,$G4,$H4,$K$1,$I4,B4,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058f#0000</v>
+        <v>obj_00594#0000</v>
       </c>
       <c r="L4" s="309" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -3212,37 +3519,37 @@
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R4,Trigger)</f>
         <v>42278</v>
       </c>
-      <c r="T4" s="190" t="e">
-        <f ca="1">_xll.qlQuoteValue(Q4,LastFixingsTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U4" s="190" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R4),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V4" s="258" t="e">
-        <f ca="1">T4-U4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W4" s="186" t="e">
-        <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R4,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X4" s="187" t="e">
-        <f ca="1">Y4*10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y4" s="278" t="e">
-        <f ca="1">V4-W4</f>
-        <v>#NAME?</v>
+      <c r="T4" s="190">
+        <f>_xll.qlQuoteValue(Q4,LastFixingsTrigger)</f>
+        <v>-9.7999999999999997E-4</v>
+      </c>
+      <c r="U4" s="190">
+        <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R4),,AllTriggers)</f>
+        <v>-1.2888371629964368E-3</v>
+      </c>
+      <c r="V4" s="258">
+        <f>T4-U4</f>
+        <v>3.0883716299643683E-4</v>
+      </c>
+      <c r="W4" s="186">
+        <f>_xll.qlTenorBasisValue(TenorBasis1M,R4,Trigger)</f>
+        <v>3.0883716299667796E-4</v>
+      </c>
+      <c r="X4" s="187">
+        <f>Y4*10000</f>
+        <v>-2.4112656316077619E-12</v>
+      </c>
+      <c r="Y4" s="278">
+        <f>V4-W4</f>
+        <v>-2.4112656316077619E-16</v>
       </c>
       <c r="Z4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R4,,,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="336" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,R4,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="AA4" s="336">
+        <f>_xll.qlYieldTSDiscount(Discounting,R4,,AllTriggers)</f>
+        <v>1.00001444461398</v>
       </c>
       <c r="AB4" s="241" t="b">
         <v>0</v>
@@ -3284,7 +3591,7 @@
       </c>
       <c r="K5" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,,C5,Calendar,$F5,$G5,$H5,$K$1,$I5,B5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00594#0000</v>
+        <v>obj_00591#0000</v>
       </c>
       <c r="L5" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -3315,37 +3622,37 @@
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R5,Trigger)</f>
         <v>42278</v>
       </c>
-      <c r="T5" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R5,Trigger),TRUE,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U5" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R5),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V5" s="265" t="e">
-        <f ca="1">T5-U5</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W5" s="67" t="e">
-        <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R5,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X5" s="240" t="e">
-        <f ca="1">Y5*10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y5" s="234" t="e">
-        <f ca="1">V5-W5</f>
-        <v>#NAME?</v>
+      <c r="T5" s="62">
+        <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R5,Trigger),TRUE,AllTriggers)</f>
+        <v>-9.7999999999975884E-4</v>
+      </c>
+      <c r="U5" s="62">
+        <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R5),,AllTriggers)</f>
+        <v>-1.2888371629964368E-3</v>
+      </c>
+      <c r="V5" s="265">
+        <f>T5-U5</f>
+        <v>3.0883716299667796E-4</v>
+      </c>
+      <c r="W5" s="67">
+        <f>_xll.qlTenorBasisValue(TenorBasis1M,R5,Trigger)</f>
+        <v>3.0883716299667796E-4</v>
+      </c>
+      <c r="X5" s="240">
+        <f>Y5*10000</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="234">
+        <f>V5-W5</f>
+        <v>0</v>
       </c>
       <c r="Z5" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R5,,,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="59" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,R5,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="AA5" s="59">
+        <f>_xll.qlYieldTSDiscount(Discounting,R5,,AllTriggers)</f>
+        <v>1.00001444461398</v>
       </c>
       <c r="AB5" s="241" t="b">
         <v>1</v>
@@ -3389,7 +3696,7 @@
       </c>
       <c r="K6" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,,C6,Calendar,$F6,$G6,$H6,$K$1,$I6,B6,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00592#0000</v>
+        <v>obj_00590#0000</v>
       </c>
       <c r="L6" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -3420,37 +3727,37 @@
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R6,Trigger)</f>
         <v>42310</v>
       </c>
-      <c r="T6" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R6,Trigger),TRUE,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U6" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R6),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V6" s="265" t="e">
-        <f ca="1">T6-U6</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W6" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R6,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X6" s="188" t="e">
-        <f t="shared" ref="X6:X8" ca="1" si="1">Y6*10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y6" s="234" t="e">
-        <f t="shared" ref="Y6:Y8" ca="1" si="2">V6-W6</f>
-        <v>#NAME?</v>
+      <c r="T6" s="62">
+        <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R6,Trigger),TRUE,AllTriggers)</f>
+        <v>-9.8010695282702009E-4</v>
+      </c>
+      <c r="U6" s="62">
+        <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R6),,AllTriggers)</f>
+        <v>-1.3096264571162142E-3</v>
+      </c>
+      <c r="V6" s="265">
+        <f>T6-U6</f>
+        <v>3.2951950428919408E-4</v>
+      </c>
+      <c r="W6" s="62">
+        <f>_xll.qlTenorBasisValue(TenorBasis1M,R6,Trigger)</f>
+        <v>3.2951950428919397E-4</v>
+      </c>
+      <c r="X6" s="188">
+        <f t="shared" ref="X6:X8" si="1">Y6*10000</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="234">
+        <f t="shared" ref="Y6:Y8" si="2">V6-W6</f>
+        <v>0</v>
       </c>
       <c r="Z6" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R6,,,Trigger)</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="AA6" s="59" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,R6,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="AA6" s="59">
+        <f>_xll.qlYieldTSDiscount(Discounting,R6,,AllTriggers)</f>
+        <v>1.0001218607991236</v>
       </c>
       <c r="AB6" s="237" t="b">
         <v>1</v>
@@ -3458,9 +3765,9 @@
       <c r="AD6" s="277" t="s">
         <v>126</v>
       </c>
-      <c r="AE6" s="282" t="e">
-        <f ca="1">_xll.qlPolynomialCalibration(,_xll.ohFilter($Z$5:$Z$8,$AB$5:$AB$8),_xll.ohFilter($V$5:$V$8,$AB$5:$AB$8),_xll.ohFilter($AA$5:$AA$8,$AB$5:$AB$8),_xll.ohFilter(AG13:AG17,AF13:AF17),,,,,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="AE6" s="282" t="str">
+        <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($Z$5:$Z$8,$AB$5:$AB$8),_xll.ohFilter($V$5:$V$8,$AB$5:$AB$8),_xll.ohFilter($AA$5:$AA$8,$AB$5:$AB$8),_xll.ohFilter(AG13:AG17,AF13:AF17),,,,,Trigger)</f>
+        <v>obj_005d7#0001</v>
       </c>
       <c r="AF6" s="54"/>
       <c r="AG6" s="55"/>
@@ -3528,37 +3835,37 @@
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R7,Trigger)</f>
         <v>42340</v>
       </c>
-      <c r="T7" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R7,Trigger),TRUE,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U7" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R7),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V7" s="265" t="e">
-        <f ca="1">T7-U7</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W7" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R7,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X7" s="188" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y7" s="234" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+      <c r="T7" s="62">
+        <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R7,Trigger),TRUE,AllTriggers)</f>
+        <v>-1.0979987821357895E-3</v>
+      </c>
+      <c r="U7" s="62">
+        <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R7),,AllTriggers)</f>
+        <v>-1.3295198268474806E-3</v>
+      </c>
+      <c r="V7" s="265">
+        <f>T7-U7</f>
+        <v>2.315210447116911E-4</v>
+      </c>
+      <c r="W7" s="62">
+        <f>_xll.qlTenorBasisValue(TenorBasis1M,R7,Trigger)</f>
+        <v>2.3152104471169132E-4</v>
+      </c>
+      <c r="X7" s="188">
+        <f t="shared" si="1"/>
+        <v>-2.1684043449710089E-15</v>
+      </c>
+      <c r="Y7" s="234">
+        <f t="shared" si="2"/>
+        <v>-2.1684043449710089E-19</v>
       </c>
       <c r="Z7" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R7,,,Trigger)</f>
         <v>0.16986301369863013</v>
       </c>
-      <c r="AA7" s="59" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,R7,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="AA7" s="59">
+        <f>_xll.qlYieldTSDiscount(Discounting,R7,,AllTriggers)</f>
+        <v>1.0002382997805292</v>
       </c>
       <c r="AB7" s="237" t="b">
         <v>1</v>
@@ -3566,9 +3873,9 @@
       <c r="AD7" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="AE7" s="282" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationCompute($AE$6,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="AE7" s="282" t="b">
+        <f>_xll.qlPolynomialCalibrationCompute($AE$6,AllTriggers)</f>
+        <v>1</v>
       </c>
       <c r="AF7" s="54"/>
       <c r="AG7" s="55"/>
@@ -3605,7 +3912,7 @@
       </c>
       <c r="K8" s="160" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,,C8,Calendar,$F8,$G8,$H8,$K$1,$I8,B8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00590#0000</v>
+        <v>obj_00592#0000</v>
       </c>
       <c r="L8" s="202" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -3636,37 +3943,37 @@
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R8,Trigger)</f>
         <v>42373</v>
       </c>
-      <c r="T8" s="65" t="e">
-        <f ca="1">_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R8,Trigger),TRUE,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U8" s="65" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R8),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="V8" s="260" t="e">
-        <f ca="1">T8-U8</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="W8" s="65" t="e">
-        <f ca="1">_xll.qlTenorBasisValue(TenorBasis1M,R8,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="X8" s="189" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="Y8" s="235" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+      <c r="T8" s="65">
+        <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R8,Trigger),TRUE,AllTriggers)</f>
+        <v>-8.7330632441830777E-4</v>
+      </c>
+      <c r="U8" s="65">
+        <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R8),,AllTriggers)</f>
+        <v>-1.4162169893323509E-3</v>
+      </c>
+      <c r="V8" s="260">
+        <f>T8-U8</f>
+        <v>5.4291066491404317E-4</v>
+      </c>
+      <c r="W8" s="65">
+        <f>_xll.qlTenorBasisValue(TenorBasis1M,R8,Trigger)</f>
+        <v>5.4291066491404371E-4</v>
+      </c>
+      <c r="X8" s="189">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="235">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Z8" s="60">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R8,,,Trigger)</f>
         <v>0.24931506849315069</v>
       </c>
-      <c r="AA8" s="60" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,R8,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="AA8" s="60">
+        <f>_xll.qlYieldTSDiscount(Discounting,R8,,AllTriggers)</f>
+        <v>1.0003451404126165</v>
       </c>
       <c r="AB8" s="238" t="b">
         <v>1</v>
@@ -3674,9 +3981,9 @@
       <c r="AD8" s="277" t="s">
         <v>128</v>
       </c>
-      <c r="AE8" s="282" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationEndCriteria(AE6,)</f>
-        <v>#NAME?</v>
+      <c r="AE8" s="282" t="str">
+        <f>_xll.qlPolynomialCalibrationEndCriteria(AE6,)</f>
+        <v>None</v>
       </c>
       <c r="AF8" s="54"/>
       <c r="AG8" s="55"/>
@@ -3712,7 +4019,7 @@
       </c>
       <c r="K9" s="162" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,,C9,Calendar,$F9,$G9,$H9,$K$1,$I9,B9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00591#0000</v>
+        <v>obj_0058f#0000</v>
       </c>
       <c r="L9" s="203" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -3724,9 +4031,9 @@
       <c r="AD9" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="AE9" s="190" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationError(AE6,)</f>
-        <v>#NAME?</v>
+      <c r="AE9" s="190">
+        <f>_xll.qlPolynomialCalibrationError(AE6,)</f>
+        <v>3.0422630585494521E-4</v>
       </c>
       <c r="AF9" s="54"/>
       <c r="AG9" s="55"/>
@@ -3751,9 +4058,9 @@
       <c r="AD10" s="277" t="s">
         <v>124</v>
       </c>
-      <c r="AE10" s="190" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationMaxError(AE6,)</f>
-        <v>#NAME?</v>
+      <c r="AE10" s="190">
+        <f>_xll.qlPolynomialCalibrationMaxError(AE6,)</f>
+        <v>3.3969150007041914E-4</v>
       </c>
       <c r="AF10" s="54"/>
       <c r="AG10" s="55"/>
@@ -3782,9 +4089,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S11,"Following",,Trigger)</f>
         <v>42249</v>
       </c>
-      <c r="V11" s="287" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T11,U11,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="V11" s="287">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T11,U11,AllTriggers)</f>
+        <v>-1.1342460782204355E-3</v>
       </c>
       <c r="AD11" s="54"/>
       <c r="AE11" s="54"/>
@@ -3810,9 +4117,9 @@
       <c r="L12" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="201" t="e">
-        <f t="array" aca="1" ref="M12:M21" ca="1">_xll.qlPiecewiseYieldCurveData('General Settings'!D34,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="M12" s="201">
+        <f t="array" ref="M12:M21">_xll.qlPiecewiseYieldCurveData('General Settings'!D34,InterestRatesTrigger)</f>
+        <v>1</v>
       </c>
       <c r="S12" s="63" t="s">
         <v>39</v>
@@ -3825,9 +4132,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S12,"Following",,Trigger)</f>
         <v>42255</v>
       </c>
-      <c r="V12" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T12,U12,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="V12" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T12,U12,AllTriggers)</f>
+        <v>-1.0811660500533091E-3</v>
       </c>
       <c r="AD12" s="261" t="s">
         <v>111</v>
@@ -3851,7 +4158,7 @@
       </c>
       <c r="I13" s="194">
         <f>_xll.qlRateHelperRate(G13,Trigger)</f>
-        <v>-4.8000000000000001E-4</v>
+        <v>-9.7999999999999997E-4</v>
       </c>
       <c r="J13" s="195" t="str">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G13),"--")</f>
@@ -3865,9 +4172,8 @@
         <f>_xll.qlRateHelperLatestDate(G13,Trigger)</f>
         <v>42278</v>
       </c>
-      <c r="M13" s="196" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="M13" s="196">
+        <v>1.0000816733366558</v>
       </c>
       <c r="S13" s="63" t="s">
         <v>40</v>
@@ -3880,16 +4186,16 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S13,"Following",,Trigger)</f>
         <v>42262</v>
       </c>
-      <c r="V13" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T13,U13,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="V13" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T13,U13,AllTriggers)</f>
+        <v>-1.0424860683928244E-3</v>
       </c>
       <c r="AD13" s="277" t="s">
         <v>113</v>
       </c>
-      <c r="AE13" s="190" t="e">
-        <f t="array" aca="1" ref="AE13:AE17" ca="1">_xll.qlPolynomialCalibrationCoefficients($AE$6,AE7)</f>
-        <v>#NAME?</v>
+      <c r="AE13" s="190">
+        <f t="array" ref="AE13:AE17">_xll.qlPolynomialCalibrationCoefficients($AE$6,AE7)</f>
+        <v>3.0883716299667796E-4</v>
       </c>
       <c r="AF13" s="190" t="b">
         <v>1</v>
@@ -3900,7 +4206,7 @@
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="202" t="str">
-        <v>obj_0058f#0000</v>
+        <v>obj_00594#0000</v>
       </c>
       <c r="H14" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G14,Trigger)</f>
@@ -3908,7 +4214,7 @@
       </c>
       <c r="I14" s="194">
         <f>_xll.qlRateHelperRate(G14,Trigger)</f>
-        <v>-5.5000000000000003E-4</v>
+        <v>-9.7999999999999997E-4</v>
       </c>
       <c r="J14" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G14),"--")</f>
@@ -3922,9 +4228,8 @@
         <f>_xll.qlRateHelperLatestDate(G14,Trigger)</f>
         <v>42310</v>
       </c>
-      <c r="M14" s="196" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="M14" s="196">
+        <v>1.0001688086613998</v>
       </c>
       <c r="S14" s="63" t="s">
         <v>41</v>
@@ -3937,16 +4242,15 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S14,"Following",,Trigger)</f>
         <v>42269</v>
       </c>
-      <c r="V14" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T14,U14,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="V14" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T14,U14,AllTriggers)</f>
+        <v>-1.0165312532909151E-3</v>
       </c>
       <c r="AD14" s="277" t="s">
         <v>114</v>
       </c>
-      <c r="AE14" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="AE14" s="190">
+        <v>3.053497704825377E-3</v>
       </c>
       <c r="AF14" s="190" t="b">
         <v>1</v>
@@ -3957,7 +4261,7 @@
     </row>
     <row r="15" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G15" s="202" t="str">
-        <v>obj_00594#0000</v>
+        <v>obj_00591#0000</v>
       </c>
       <c r="H15" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G15,Trigger)</f>
@@ -3965,7 +4269,7 @@
       </c>
       <c r="I15" s="194">
         <f>_xll.qlRateHelperRate(G15,Trigger)</f>
-        <v>-5.8E-4</v>
+        <v>-1.0200000000000001E-3</v>
       </c>
       <c r="J15" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G15),"--")</f>
@@ -3979,9 +4283,8 @@
         <f>_xll.qlRateHelperLatestDate(G15,Trigger)</f>
         <v>42339</v>
       </c>
-      <c r="M15" s="196" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="M15" s="196">
+        <v>1.0002579052155995</v>
       </c>
       <c r="S15" s="267" t="s">
         <v>35</v>
@@ -3994,16 +4297,15 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S15,"mf",TRUE,Trigger)</f>
         <v>42278</v>
       </c>
-      <c r="V15" s="338" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis1M,T15,U15,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="V15" s="338">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T15,U15,AllTriggers)</f>
+        <v>-9.8526433823575843E-4</v>
       </c>
       <c r="AD15" s="277" t="s">
         <v>115</v>
       </c>
-      <c r="AE15" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="AE15" s="190">
+        <v>-4.6683211739018723E-2</v>
       </c>
       <c r="AF15" s="190" t="b">
         <v>1</v>
@@ -4014,7 +4316,7 @@
     </row>
     <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="202" t="str">
-        <v>obj_00592#0000</v>
+        <v>obj_00590#0000</v>
       </c>
       <c r="H16" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G16,Trigger)</f>
@@ -4022,7 +4324,7 @@
       </c>
       <c r="I16" s="194">
         <f>_xll.qlRateHelperRate(G16,Trigger)</f>
-        <v>-5.8999999999999992E-4</v>
+        <v>-9.7999999999999997E-4</v>
       </c>
       <c r="J16" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G16),"--")</f>
@@ -4036,16 +4338,14 @@
         <f>_xll.qlRateHelperLatestDate(G16,Trigger)</f>
         <v>42373</v>
       </c>
-      <c r="M16" s="196" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="M16" s="196">
+        <v>1.0003404122230752</v>
       </c>
       <c r="AD16" s="277" t="s">
         <v>116</v>
       </c>
-      <c r="AE16" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="AE16" s="190">
+        <v>0.15322558888261725</v>
       </c>
       <c r="AF16" s="190" t="b">
         <v>1</v>
@@ -4064,7 +4364,7 @@
       </c>
       <c r="I17" s="194">
         <f>_xll.qlRateHelperRate(G17,Trigger)</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-1.01E-3</v>
       </c>
       <c r="J17" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G17),"--")</f>
@@ -4078,16 +4378,14 @@
         <f>_xll.qlRateHelperLatestDate(G17,Trigger)</f>
         <v>42401</v>
       </c>
-      <c r="M17" s="196" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="M17" s="196">
+        <v>1.0004294603304413</v>
       </c>
       <c r="AD17" s="277" t="s">
         <v>117</v>
       </c>
       <c r="AE17" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="AF17" s="190" t="b">
         <v>0</v>
@@ -4098,7 +4396,7 @@
     </row>
     <row r="18" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="202" t="str">
-        <v>obj_00590#0000</v>
+        <v>obj_00592#0000</v>
       </c>
       <c r="H18" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G18,Trigger)</f>
@@ -4106,7 +4404,7 @@
       </c>
       <c r="I18" s="194">
         <f>_xll.qlRateHelperRate(G18,Trigger)</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-1.0200000000000001E-3</v>
       </c>
       <c r="J18" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G18),"--")</f>
@@ -4120,23 +4418,22 @@
         <f>_xll.qlRateHelperLatestDate(G18,Trigger)</f>
         <v>42430</v>
       </c>
-      <c r="M18" s="196" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="M18" s="196">
+        <v>1.0005159724444888</v>
       </c>
       <c r="AD18" s="277" t="s">
         <v>118</v>
       </c>
-      <c r="AE18" s="190" t="e">
-        <f ca="1">_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$S1,Discounting,SettlementDate,TRUE,_xll.ohFilter(AE13:AE17,AF13:AF17),,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="AE18" s="190" t="str">
+        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$S1,Discounting,SettlementDate,TRUE,_xll.ohFilter(AE13:AE17,AF13:AF17),,Trigger)</f>
+        <v>obj_005da#0001</v>
       </c>
       <c r="AF18" s="54"/>
       <c r="AG18" s="55"/>
     </row>
     <row r="19" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="202" t="str">
-        <v>obj_00591#0000</v>
+        <v>obj_0058f#0000</v>
       </c>
       <c r="H19" s="193" t="str">
         <f>_xll.qlRateHelperQuoteName(G19,Trigger)</f>
@@ -4144,7 +4441,7 @@
       </c>
       <c r="I19" s="194">
         <f>_xll.qlRateHelperRate(G19,Trigger)</f>
-        <v>-6.3000000000000003E-4</v>
+        <v>-1.0200000000000001E-3</v>
       </c>
       <c r="J19" s="195">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G19),"--")</f>
@@ -4158,9 +4455,8 @@
         <f>_xll.qlRateHelperLatestDate(G19,Trigger)</f>
         <v>42461</v>
       </c>
-      <c r="M19" s="196" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="M19" s="196">
+        <v>1.0006039243680598</v>
       </c>
       <c r="X19" s="54"/>
       <c r="Y19" s="54"/>
@@ -4195,8 +4491,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M20" s="196" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="X20" s="54"/>
       <c r="Y20" s="54"/>
@@ -4229,8 +4524,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M21" s="200" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="X21" s="54"/>
       <c r="Y21" s="54"/>
@@ -4391,15 +4685,15 @@
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
         <v>42339</v>
       </c>
-      <c r="G3" s="258" t="e">
-        <f ca="1">J3+$H$4</f>
-        <v>#NAME?</v>
+      <c r="G3" s="258">
+        <f>J3+$H$4</f>
+        <v>-3.3426038684041806E-4</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
-      <c r="J3" s="190" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="J3" s="190">
+        <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
+        <v>9.7353535548220333E-4</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -4441,37 +4735,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
         <v>42430</v>
       </c>
-      <c r="G4" s="190" t="e">
-        <f ca="1">_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H4" s="190" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E4),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I4" s="258" t="e">
-        <f t="shared" ref="I4:I22" ca="1" si="0">G4-H4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J4" s="186" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K4" s="187" t="e">
-        <f ca="1">M4*10000</f>
-        <v>#NAME?</v>
+      <c r="G4" s="190">
+        <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
+        <v>-3.2999999999999994E-4</v>
+      </c>
+      <c r="H4" s="190">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E4),,AllTriggers)</f>
+        <v>-1.3077957423226214E-3</v>
+      </c>
+      <c r="I4" s="258">
+        <f t="shared" ref="I4:I22" si="0">G4-H4</f>
+        <v>9.7779574232262139E-4</v>
+      </c>
+      <c r="J4" s="186">
+        <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
+        <v>9.7353535548220333E-4</v>
+      </c>
+      <c r="K4" s="187">
+        <f>M4*10000</f>
+        <v>4.2603868404180595E-2</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="278" t="e">
-        <f t="shared" ref="M4:M22" ca="1" si="1">I4-J4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N4" s="281" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M4" s="278">
+        <f t="shared" ref="M4:M22" si="1">I4-J4</f>
+        <v>4.2603868404180595E-6</v>
+      </c>
+      <c r="N4" s="281">
+        <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
+        <v>1.00001444461398</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>0</v>
@@ -4501,37 +4795,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
         <v>42461</v>
       </c>
-      <c r="G5" s="67" t="e">
-        <f ca="1">_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H5" s="67" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E5),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I5" s="280" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J5" s="67" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K5" s="240" t="e">
-        <f t="shared" ref="K5:K22" ca="1" si="4">M5*10000</f>
-        <v>#NAME?</v>
+      <c r="G5" s="67">
+        <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
+        <v>-3.4000000000000002E-4</v>
+      </c>
+      <c r="H5" s="67">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E5),,AllTriggers)</f>
+        <v>-1.3525637677944914E-3</v>
+      </c>
+      <c r="I5" s="280">
+        <f t="shared" si="0"/>
+        <v>1.0125637677944914E-3</v>
+      </c>
+      <c r="J5" s="67">
+        <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
+        <v>1.0106053085908592E-3</v>
+      </c>
+      <c r="K5" s="240">
+        <f t="shared" ref="K5:K22" si="4">M5*10000</f>
+        <v>1.9584592036321884E-2</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="M5" s="279" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N5" s="183" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M5" s="279">
+        <f t="shared" si="1"/>
+        <v>1.9584592036321884E-6</v>
+      </c>
+      <c r="N5" s="183">
+        <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
+        <v>1.0001218607991236</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>0</v>
@@ -4566,37 +4860,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
         <v>42492</v>
       </c>
-      <c r="G6" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E6),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I6" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J6" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K6" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G6" s="62">
+        <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
+        <v>-3.4999999999999994E-4</v>
+      </c>
+      <c r="H6" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E6),,AllTriggers)</f>
+        <v>-1.3901875117963342E-3</v>
+      </c>
+      <c r="I6" s="265">
+        <f t="shared" si="0"/>
+        <v>1.0401875117963342E-3</v>
+      </c>
+      <c r="J6" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
+        <v>1.049046125380002E-3</v>
+      </c>
+      <c r="K6" s="188">
+        <f t="shared" si="4"/>
+        <v>-8.8586135836678584E-2</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
         <v>0.16986301369863013</v>
       </c>
-      <c r="M6" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N6" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M6" s="234">
+        <f t="shared" si="1"/>
+        <v>-8.8586135836678584E-6</v>
+      </c>
+      <c r="N6" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
+        <v>1.0002382997805292</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>0</v>
@@ -4604,9 +4898,9 @@
       <c r="Q6" s="277" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="282" t="e">
-        <f ca="1">_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="R6" s="282" t="str">
+        <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
+        <v>obj_005d8#0001</v>
       </c>
       <c r="T6" s="55"/>
       <c r="X6" s="57"/>
@@ -4635,37 +4929,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
         <v>42522</v>
       </c>
-      <c r="G7" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H7" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E7),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I7" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K7" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G7" s="62">
+        <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
+        <v>-3.4000000000000002E-4</v>
+      </c>
+      <c r="H7" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E7),,AllTriggers)</f>
+        <v>-1.435264493154567E-3</v>
+      </c>
+      <c r="I7" s="265">
+        <f t="shared" si="0"/>
+        <v>1.095264493154567E-3</v>
+      </c>
+      <c r="J7" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
+        <v>1.0829100756267469E-3</v>
+      </c>
+      <c r="K7" s="188">
+        <f t="shared" si="4"/>
+        <v>0.12354417527820055</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
         <v>0.24931506849315069</v>
       </c>
-      <c r="M7" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N7" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M7" s="234">
+        <f t="shared" si="1"/>
+        <v>1.2354417527820055E-5</v>
+      </c>
+      <c r="N7" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
+        <v>1.0003451404126165</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>0</v>
@@ -4673,9 +4967,9 @@
       <c r="Q7" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="282" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="R7" s="282" t="b">
+        <f>_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
+        <v>1</v>
       </c>
       <c r="T7" s="55"/>
       <c r="X7" s="57"/>
@@ -4704,37 +4998,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
         <v>42555</v>
       </c>
-      <c r="G8" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E8),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I8" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K8" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G8" s="62">
+        <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
+        <v>-3.4000000000000002E-4</v>
+      </c>
+      <c r="H8" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E8),,AllTriggers)</f>
+        <v>-1.4574550702938971E-3</v>
+      </c>
+      <c r="I8" s="265">
+        <f t="shared" si="0"/>
+        <v>1.1174550702938971E-3</v>
+      </c>
+      <c r="J8" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
+        <v>1.1214447595630055E-3</v>
+      </c>
+      <c r="K8" s="188">
+        <f t="shared" si="4"/>
+        <v>-3.9896892691084013E-2</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
         <v>0.34246575342465752</v>
       </c>
-      <c r="M8" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N8" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M8" s="234">
+        <f t="shared" si="1"/>
+        <v>-3.9896892691084016E-6</v>
+      </c>
+      <c r="N8" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
+        <v>1.0004789583018925</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>0</v>
@@ -4742,9 +5036,9 @@
       <c r="Q8" s="277" t="s">
         <v>128</v>
       </c>
-      <c r="R8" s="282" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>#NAME?</v>
+      <c r="R8" s="282" t="str">
+        <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
+        <v>None</v>
       </c>
       <c r="T8" s="55"/>
       <c r="X8" s="57"/>
@@ -4773,37 +5067,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
         <v>42583</v>
       </c>
-      <c r="G9" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H9" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E9),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I9" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J9" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K9" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G9" s="62">
+        <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
+        <v>-3.2000000000000003E-4</v>
+      </c>
+      <c r="H9" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E9),,AllTriggers)</f>
+        <v>-1.476127031586189E-3</v>
+      </c>
+      <c r="I9" s="265">
+        <f t="shared" si="0"/>
+        <v>1.156127031586189E-3</v>
+      </c>
+      <c r="J9" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
+        <v>1.1522407092331175E-3</v>
+      </c>
+      <c r="K9" s="188">
+        <f t="shared" si="4"/>
+        <v>3.8863223530715731E-2</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
         <v>0.41917808219178082</v>
       </c>
-      <c r="M9" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N9" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M9" s="234">
+        <f t="shared" si="1"/>
+        <v>3.8863223530715731E-6</v>
+      </c>
+      <c r="N9" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
+        <v>1.0005896947083088</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>0</v>
@@ -4811,9 +5105,9 @@
       <c r="Q9" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="190" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>#NAME?</v>
+      <c r="R9" s="190">
+        <f>_xll.qlPolynomialCalibrationError(R6,)</f>
+        <v>2.0513056371963942E-4</v>
       </c>
       <c r="T9" s="55"/>
       <c r="X9" s="57"/>
@@ -4842,37 +5136,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
         <v>42614</v>
       </c>
-      <c r="G10" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H10" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E10),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I10" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J10" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K10" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G10" s="62">
+        <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
+        <v>-3.0000000000000003E-4</v>
+      </c>
+      <c r="H10" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E10),,AllTriggers)</f>
+        <v>-1.4858288420088498E-3</v>
+      </c>
+      <c r="I10" s="265">
+        <f t="shared" si="0"/>
+        <v>1.1858288420088497E-3</v>
+      </c>
+      <c r="J10" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
+        <v>1.1832505252889103E-3</v>
+      </c>
+      <c r="K10" s="188">
+        <f t="shared" si="4"/>
+        <v>2.5783167199393796E-2</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
         <v>0.49863013698630138</v>
       </c>
-      <c r="M10" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N10" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M10" s="234">
+        <f t="shared" si="1"/>
+        <v>2.5783167199393796E-6</v>
+      </c>
+      <c r="N10" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
+        <v>1.0007082003188978</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>0</v>
@@ -4880,9 +5174,9 @@
       <c r="Q10" s="277" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="190" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>#NAME?</v>
+      <c r="R10" s="190">
+        <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
+        <v>2.7677217080932458E-4</v>
       </c>
       <c r="T10" s="55"/>
       <c r="X10" s="57"/>
@@ -4908,37 +5202,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
         <v>42445</v>
       </c>
-      <c r="G11" s="67" t="e">
-        <f ca="1">1-_xll.qlQuoteValue(D11,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;"ConvAdj_Quote")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H11" s="67" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E11),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I11" s="280" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J11" s="67" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K11" s="240" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G11" s="67">
+        <f>1-_xll.qlQuoteValue(D11,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;"ConvAdj_Quote")</f>
+        <v>-3.249999999999087E-4</v>
+      </c>
+      <c r="H11" s="67">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E11),,AllTriggers)</f>
+        <v>-1.3312115739949493E-3</v>
+      </c>
+      <c r="I11" s="280">
+        <f t="shared" si="0"/>
+        <v>1.0062115739950406E-3</v>
+      </c>
+      <c r="J11" s="67">
+        <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
+        <v>9.9219566978581662E-4</v>
+      </c>
+      <c r="K11" s="240">
+        <f t="shared" si="4"/>
+        <v>0.14015904209224023</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
         <v>4.1095890410958902E-2</v>
       </c>
-      <c r="M11" s="279" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N11" s="183" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M11" s="279">
+        <f t="shared" si="1"/>
+        <v>1.4015904209224023E-5</v>
+      </c>
+      <c r="N11" s="183">
+        <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
+        <v>1.000067864945495</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -4967,37 +5261,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
         <v>42481</v>
       </c>
-      <c r="G12" s="62" t="e">
-        <f ca="1">1-_xll.qlQuoteValue(D12,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C12&amp;"ConvAdj_Quote")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H12" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E12),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I12" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J12" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K12" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G12" s="62">
+        <f>1-_xll.qlQuoteValue(D12,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C12&amp;"ConvAdj_Quote")</f>
+        <v>-3.7500000000001421E-4</v>
+      </c>
+      <c r="H12" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E12),,AllTriggers)</f>
+        <v>-1.3776261498200998E-3</v>
+      </c>
+      <c r="I12" s="265">
+        <f t="shared" si="0"/>
+        <v>1.0026261498200855E-3</v>
+      </c>
+      <c r="J12" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
+        <v>1.0347633308344433E-3</v>
+      </c>
+      <c r="K12" s="188">
+        <f t="shared" si="4"/>
+        <v>-0.32137181014357807</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
         <v>0.13698630136986301</v>
       </c>
-      <c r="M12" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N12" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M12" s="234">
+        <f t="shared" si="1"/>
+        <v>-3.2137181014357807E-5</v>
+      </c>
+      <c r="N12" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
+        <v>1.0001933299130052</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -5035,37 +5329,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
         <v>42537</v>
       </c>
-      <c r="G13" s="62" t="e">
-        <f ca="1">1-_xll.qlQuoteValue(D13,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C13&amp;"ConvAdj_Quote")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H13" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E13),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I13" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J13" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K13" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G13" s="62">
+        <f>1-_xll.qlQuoteValue(D13,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C13&amp;"ConvAdj_Quote")</f>
+        <v>-3.249999999999087E-4</v>
+      </c>
+      <c r="H13" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E13),,AllTriggers)</f>
+        <v>-1.4428460384494294E-3</v>
+      </c>
+      <c r="I13" s="265">
+        <f t="shared" si="0"/>
+        <v>1.1178460384495207E-3</v>
+      </c>
+      <c r="J13" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
+        <v>1.1000654248526308E-3</v>
+      </c>
+      <c r="K13" s="188">
+        <f t="shared" si="4"/>
+        <v>0.17780613596889888</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
         <v>0.29041095890410956</v>
       </c>
-      <c r="M13" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N13" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M13" s="234">
+        <f t="shared" si="1"/>
+        <v>1.7780613596889887E-5</v>
+      </c>
+      <c r="N13" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
+        <v>1.0004045017640497</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -5073,9 +5367,9 @@
       <c r="Q13" s="277" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="190" t="e">
-        <f t="array" aca="1" ref="R13:R17" ca="1">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>#NAME?</v>
+      <c r="R13" s="190">
+        <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
+        <v>9.7353535548220333E-4</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -5106,37 +5400,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
         <v>42629</v>
       </c>
-      <c r="G14" s="62" t="e">
-        <f ca="1">1-_xll.qlQuoteValue(D14,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C14&amp;"ConvAdj_Quote")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H14" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E14),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I14" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J14" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K14" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G14" s="62">
+        <f>1-_xll.qlQuoteValue(D14,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C14&amp;"ConvAdj_Quote")</f>
+        <v>-2.7500000000002522E-4</v>
+      </c>
+      <c r="H14" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E14),,AllTriggers)</f>
+        <v>-1.4910561886157274E-3</v>
+      </c>
+      <c r="I14" s="265">
+        <f t="shared" si="0"/>
+        <v>1.2160561886157021E-3</v>
+      </c>
+      <c r="J14" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
+        <v>1.1989387453538458E-3</v>
+      </c>
+      <c r="K14" s="188">
+        <f t="shared" si="4"/>
+        <v>0.17117443261856344</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
         <v>0.53972602739726028</v>
       </c>
-      <c r="M14" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N14" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M14" s="234">
+        <f t="shared" si="1"/>
+        <v>1.7117443261856343E-5</v>
+      </c>
+      <c r="N14" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
+        <v>1.0007695018315825</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -5144,9 +5438,8 @@
       <c r="Q14" s="277" t="s">
         <v>114</v>
       </c>
-      <c r="R14" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="R14" s="190">
+        <v>4.5712587171832763E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -5176,37 +5469,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
         <v>42719</v>
       </c>
-      <c r="G15" s="62" t="e">
-        <f ca="1">1-_xll.qlQuoteValue(D15,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C15&amp;"ConvAdj_Quote")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H15" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E15),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I15" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J15" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K15" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G15" s="62">
+        <f>1-_xll.qlQuoteValue(D15,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C15&amp;"ConvAdj_Quote")</f>
+        <v>-2.2500000000014175E-4</v>
+      </c>
+      <c r="H15" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E15),,AllTriggers)</f>
+        <v>-1.4865615344069076E-3</v>
+      </c>
+      <c r="I15" s="265">
+        <f t="shared" si="0"/>
+        <v>1.2615615344067658E-3</v>
+      </c>
+      <c r="J15" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
+        <v>1.2890451691845986E-3</v>
+      </c>
+      <c r="K15" s="188">
+        <f t="shared" si="4"/>
+        <v>-0.27483634777832749</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
         <v>0.78904109589041094</v>
       </c>
-      <c r="M15" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N15" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M15" s="234">
+        <f t="shared" si="1"/>
+        <v>-2.7483634777832749E-5</v>
+      </c>
+      <c r="N15" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
+        <v>1.0011468069699601</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -5214,9 +5507,8 @@
       <c r="Q15" s="277" t="s">
         <v>115</v>
       </c>
-      <c r="R15" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="R15" s="190">
+        <v>-7.4518226729547118E-5</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -5246,37 +5538,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
         <v>42815</v>
       </c>
-      <c r="G16" s="62" t="e">
-        <f ca="1">1-_xll.qlQuoteValue(D16,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C16&amp;"ConvAdj_Quote")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H16" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E16),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I16" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J16" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K16" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G16" s="62">
+        <f>1-_xll.qlQuoteValue(D16,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C16&amp;"ConvAdj_Quote")</f>
+        <v>-2.4999999999941735E-5</v>
+      </c>
+      <c r="H16" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E16),,AllTriggers)</f>
+        <v>-1.4123912914583564E-3</v>
+      </c>
+      <c r="I16" s="265">
+        <f t="shared" si="0"/>
+        <v>1.3873912914584147E-3</v>
+      </c>
+      <c r="J16" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
+        <v>1.3765417414012499E-3</v>
+      </c>
+      <c r="K16" s="188">
+        <f t="shared" si="4"/>
+        <v>0.10849550057164806</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
         <v>1.0575342465753426</v>
       </c>
-      <c r="M16" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N16" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M16" s="234">
+        <f t="shared" si="1"/>
+        <v>1.0849550057164805E-5</v>
+      </c>
+      <c r="N16" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
+        <v>1.0015516440740675</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -5284,9 +5576,8 @@
       <c r="Q16" s="277" t="s">
         <v>116</v>
       </c>
-      <c r="R16" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="R16" s="190">
+        <v>2.4686388584217755E-6</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -5316,37 +5607,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
         <v>42907</v>
       </c>
-      <c r="G17" s="62" t="e">
-        <f ca="1">1-_xll.qlQuoteValue(D17,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C17&amp;"ConvAdj_Quote")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H17" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I17" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J17" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K17" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G17" s="62">
+        <f>1-_xll.qlQuoteValue(D17,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C17&amp;"ConvAdj_Quote")</f>
+        <v>2.7500000000002522E-4</v>
+      </c>
+      <c r="H17" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
+        <v>-1.1784835561670093E-3</v>
+      </c>
+      <c r="I17" s="265">
+        <f t="shared" si="0"/>
+        <v>1.4534835561670345E-3</v>
+      </c>
+      <c r="J17" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
+        <v>1.4491734299186421E-3</v>
+      </c>
+      <c r="K17" s="188">
+        <f t="shared" si="4"/>
+        <v>4.3101262483923736E-2</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
         <v>1.3068493150684932</v>
       </c>
-      <c r="M17" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N17" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M17" s="234">
+        <f t="shared" si="1"/>
+        <v>4.3101262483923736E-6</v>
+      </c>
+      <c r="N17" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
+        <v>1.0019093468832607</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -5355,8 +5646,7 @@
         <v>117</v>
       </c>
       <c r="R17" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="S17" s="190" t="b">
         <v>0</v>
@@ -5386,37 +5676,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
         <v>42993</v>
       </c>
-      <c r="G18" s="62" t="e">
-        <f ca="1">1-_xll.qlQuoteValue(D18,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C18&amp;"ConvAdj_Quote")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H18" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E18),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I18" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J18" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K18" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G18" s="62">
+        <f>1-_xll.qlQuoteValue(D18,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C18&amp;"ConvAdj_Quote")</f>
+        <v>6.7499999999998117E-4</v>
+      </c>
+      <c r="H18" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E18),,AllTriggers)</f>
+        <v>-8.6442460007344398E-4</v>
+      </c>
+      <c r="I18" s="265">
+        <f t="shared" si="0"/>
+        <v>1.5394246000734252E-3</v>
+      </c>
+      <c r="J18" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
+        <v>1.5090584396054592E-3</v>
+      </c>
+      <c r="K18" s="188">
+        <f t="shared" si="4"/>
+        <v>0.30366160467965941</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
         <v>1.536986301369863</v>
       </c>
-      <c r="M18" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N18" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M18" s="234">
+        <f t="shared" si="1"/>
+        <v>3.0366160467965942E-5</v>
+      </c>
+      <c r="N18" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
+        <v>1.0021874863312035</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -5424,9 +5714,9 @@
       <c r="Q18" s="277" t="s">
         <v>118</v>
       </c>
-      <c r="R18" s="190" t="e">
-        <f ca="1">_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="R18" s="190" t="str">
+        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
+        <v>obj_005dd#0001</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -5451,37 +5741,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
         <v>43090</v>
       </c>
-      <c r="G19" s="62" t="e">
-        <f ca="1">1-_xll.qlQuoteValue(D19,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C19&amp;"ConvAdj_Quote")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H19" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E19),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I19" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J19" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K19" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G19" s="62">
+        <f>1-_xll.qlQuoteValue(D19,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C19&amp;"ConvAdj_Quote")</f>
+        <v>1.0750000000000481E-3</v>
+      </c>
+      <c r="H19" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E19),,AllTriggers)</f>
+        <v>-5.4298292165522177E-4</v>
+      </c>
+      <c r="I19" s="265">
+        <f t="shared" si="0"/>
+        <v>1.6179829216552699E-3</v>
+      </c>
+      <c r="J19" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
+        <v>1.5704844661769066E-3</v>
+      </c>
+      <c r="K19" s="188">
+        <f t="shared" si="4"/>
+        <v>0.47498455478363344</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
         <v>1.8054794520547945</v>
       </c>
-      <c r="M19" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N19" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M19" s="234">
+        <f t="shared" si="1"/>
+        <v>4.7498455478363344E-5</v>
+      </c>
+      <c r="N19" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
+        <v>1.0024208755783439</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -5509,37 +5799,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
         <v>43179</v>
       </c>
-      <c r="G20" s="62" t="e">
-        <f ca="1">1-_xll.qlQuoteValue(D20,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C20&amp;"ConvAdj_Quote")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H20" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E20),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I20" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J20" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K20" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G20" s="62">
+        <f>1-_xll.qlQuoteValue(D20,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C20&amp;"ConvAdj_Quote")</f>
+        <v>1.5249999999999986E-3</v>
+      </c>
+      <c r="H20" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E20),,AllTriggers)</f>
+        <v>-1.2806066499446492E-4</v>
+      </c>
+      <c r="I20" s="265">
+        <f t="shared" si="0"/>
+        <v>1.6530606649944636E-3</v>
+      </c>
+      <c r="J20" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
+        <v>1.6196228897080534E-3</v>
+      </c>
+      <c r="K20" s="188">
+        <f t="shared" si="4"/>
+        <v>0.33437775286410248</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
         <v>2.0547945205479454</v>
       </c>
-      <c r="M20" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N20" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M20" s="234">
+        <f t="shared" si="1"/>
+        <v>3.3437775286410251E-5</v>
+      </c>
+      <c r="N20" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
+        <v>1.0025590067907129</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -5567,37 +5857,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
         <v>43271</v>
       </c>
-      <c r="G21" s="62" t="e">
-        <f ca="1">1-_xll.qlQuoteValue(D21,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C21&amp;"ConvAdj_Quote")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H21" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E21),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I21" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J21" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K21" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G21" s="62">
+        <f>1-_xll.qlQuoteValue(D21,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C21&amp;"ConvAdj_Quote")</f>
+        <v>2.074999999999938E-3</v>
+      </c>
+      <c r="H21" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E21),,AllTriggers)</f>
+        <v>3.9398791318401294E-4</v>
+      </c>
+      <c r="I21" s="265">
+        <f t="shared" si="0"/>
+        <v>1.6810120868159251E-3</v>
+      </c>
+      <c r="J21" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
+        <v>1.661389300700727E-3</v>
+      </c>
+      <c r="K21" s="188">
+        <f t="shared" si="4"/>
+        <v>0.19622786115198065</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
         <v>2.3041095890410959</v>
       </c>
-      <c r="M21" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N21" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M21" s="234">
+        <f t="shared" si="1"/>
+        <v>1.9622786115198066E-5</v>
+      </c>
+      <c r="N21" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
+        <v>1.0025914615689491</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -5625,37 +5915,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
         <v>43364</v>
       </c>
-      <c r="G22" s="65" t="e">
-        <f ca="1">1-_xll.qlQuoteValue(D22,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C22&amp;"ConvAdj_Quote")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H22" s="65" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I22" s="260" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J22" s="65" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K22" s="189" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G22" s="65">
+        <f>1-_xll.qlQuoteValue(D22,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C22&amp;"ConvAdj_Quote")</f>
+        <v>2.7250000000000885E-3</v>
+      </c>
+      <c r="H22" s="65">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
+        <v>1.0291295212164814E-3</v>
+      </c>
+      <c r="I22" s="260">
+        <f t="shared" si="0"/>
+        <v>1.6958704787836071E-3</v>
+      </c>
+      <c r="J22" s="65">
+        <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
+        <v>1.6960132370500639E-3</v>
+      </c>
+      <c r="K22" s="189">
+        <f t="shared" si="4"/>
+        <v>-1.4275826645685288E-3</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
         <v>2.5534246575342467</v>
       </c>
-      <c r="M22" s="235" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N22" s="185" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M22" s="235">
+        <f t="shared" si="1"/>
+        <v>-1.4275826645685288E-7</v>
+      </c>
+      <c r="N22" s="185">
+        <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
+        <v>1.0024907958364024</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -5705,9 +5995,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
         <v>42249</v>
       </c>
-      <c r="I25" s="287" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G25,H25,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I25" s="287">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G25,H25,AllTriggers)</f>
+        <v>-3.669401369954528E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5723,9 +6013,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
         <v>42255</v>
       </c>
-      <c r="I26" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G26,H26,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I26" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G26,H26,AllTriggers)</f>
+        <v>-3.6308890584432367E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5741,9 +6031,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
         <v>42262</v>
       </c>
-      <c r="I27" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G27,H27,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I27" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G27,H27,AllTriggers)</f>
+        <v>-3.6862881669438456E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5759,9 +6049,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
         <v>42269</v>
       </c>
-      <c r="I28" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G28,H28,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I28" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G28,H28,AllTriggers)</f>
+        <v>-3.7418734480836643E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5777,9 +6067,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
         <v>42278</v>
       </c>
-      <c r="I29" s="289" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G29,H29,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I29" s="289">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G29,H29,AllTriggers)</f>
+        <v>-3.6734028804641383E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5795,9 +6085,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
         <v>42310</v>
       </c>
-      <c r="I30" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G30,H30,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I30" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G30,H30,AllTriggers)</f>
+        <v>-3.580322806802954E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5813,9 +6103,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
         <v>42339</v>
       </c>
-      <c r="I31" s="291" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I31" s="291">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
+        <v>-3.4856752005203002E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6089,15 +6379,15 @@
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
         <v>42430</v>
       </c>
-      <c r="G3" s="258" t="e">
-        <f ca="1">J3+$H$4</f>
-        <v>#NAME?</v>
+      <c r="G3" s="258">
+        <f>J3+$H$4</f>
+        <v>3.8998975902494238E-4</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
-      <c r="J3" s="190" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="J3" s="190">
+        <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
+        <v>1.7612826406745213E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="283">
@@ -6137,37 +6427,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
         <v>42430</v>
       </c>
-      <c r="G4" s="190" t="e">
-        <f ca="1">_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H4" s="190" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E4),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I4" s="258" t="e">
-        <f t="shared" ref="I4:I22" ca="1" si="0">G4-H4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J4" s="186" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K4" s="187" t="e">
-        <f ca="1">M4*10000</f>
-        <v>#NAME?</v>
+      <c r="G4" s="190">
+        <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H4" s="190">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E4),,AllTriggers)</f>
+        <v>-1.3712928816495789E-3</v>
+      </c>
+      <c r="I4" s="258">
+        <f t="shared" ref="I4:I22" si="0">G4-H4</f>
+        <v>1.7712928816495789E-3</v>
+      </c>
+      <c r="J4" s="186">
+        <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
+        <v>1.7612826406745213E-3</v>
+      </c>
+      <c r="K4" s="187">
+        <f>M4*10000</f>
+        <v>0.10010240975057583</v>
       </c>
       <c r="L4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="278" t="e">
-        <f t="shared" ref="M4:M22" ca="1" si="1">I4-J4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N4" s="281" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M4" s="278">
+        <f t="shared" ref="M4:M22" si="1">I4-J4</f>
+        <v>1.0010240975057583E-5</v>
+      </c>
+      <c r="N4" s="281">
+        <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
+        <v>1.00001444461398</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>0</v>
@@ -6196,37 +6486,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
         <v>42461</v>
       </c>
-      <c r="G5" s="67" t="e">
-        <f ca="1">_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H5" s="67" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E5),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I5" s="280" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J5" s="67" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K5" s="240" t="e">
-        <f t="shared" ref="K5:K22" ca="1" si="4">M5*10000</f>
-        <v>#NAME?</v>
+      <c r="G5" s="67">
+        <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="H5" s="67">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E5),,AllTriggers)</f>
+        <v>-1.4023903836355106E-3</v>
+      </c>
+      <c r="I5" s="280">
+        <f t="shared" si="0"/>
+        <v>1.7923903836355106E-3</v>
+      </c>
+      <c r="J5" s="67">
+        <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
+        <v>1.7961898195892573E-3</v>
+      </c>
+      <c r="K5" s="240">
+        <f t="shared" ref="K5:K22" si="4">M5*10000</f>
+        <v>-3.7994359537467035E-2</v>
       </c>
       <c r="L5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="M5" s="279" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N5" s="183" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M5" s="279">
+        <f t="shared" si="1"/>
+        <v>-3.7994359537467035E-6</v>
+      </c>
+      <c r="N5" s="183">
+        <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
+        <v>1.0001218607991236</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -6259,37 +6549,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
         <v>42492</v>
       </c>
-      <c r="G6" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E6),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I6" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J6" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K6" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G6" s="62">
+        <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H6" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E6),,AllTriggers)</f>
+        <v>-1.4324615712720606E-3</v>
+      </c>
+      <c r="I6" s="265">
+        <f t="shared" si="0"/>
+        <v>1.8324615712720605E-3</v>
+      </c>
+      <c r="J6" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
+        <v>1.8359102752328116E-3</v>
+      </c>
+      <c r="K6" s="188">
+        <f t="shared" si="4"/>
+        <v>-3.4487039607510997E-2</v>
       </c>
       <c r="L6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
         <v>0.16986301369863013</v>
       </c>
-      <c r="M6" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N6" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M6" s="234">
+        <f t="shared" si="1"/>
+        <v>-3.4487039607510993E-6</v>
+      </c>
+      <c r="N6" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
+        <v>1.0002382997805292</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -6297,9 +6587,9 @@
       <c r="Q6" s="277" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="282" t="e">
-        <f ca="1">_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="R6" s="282" t="str">
+        <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
+        <v>obj_005d6#0001</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6326,37 +6616,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
         <v>42522</v>
       </c>
-      <c r="G7" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H7" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E7),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I7" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K7" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G7" s="62">
+        <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="H7" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E7),,AllTriggers)</f>
+        <v>-1.4604138171325593E-3</v>
+      </c>
+      <c r="I7" s="265">
+        <f t="shared" si="0"/>
+        <v>1.8804138171325594E-3</v>
+      </c>
+      <c r="J7" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
+        <v>1.8738001294560335E-3</v>
+      </c>
+      <c r="K7" s="188">
+        <f t="shared" si="4"/>
+        <v>6.6136876765258978E-2</v>
       </c>
       <c r="L7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
         <v>0.24931506849315069</v>
       </c>
-      <c r="M7" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N7" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M7" s="234">
+        <f t="shared" si="1"/>
+        <v>6.6136876765258978E-6</v>
+      </c>
+      <c r="N7" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
+        <v>1.0003451404126165</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -6364,9 +6654,9 @@
       <c r="Q7" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="282" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="R7" s="282" t="b">
+        <f>_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6393,37 +6683,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
         <v>42555</v>
       </c>
-      <c r="G8" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E8),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I8" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K8" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G8" s="62">
+        <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="H8" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E8),,AllTriggers)</f>
+        <v>-1.4761486711602776E-3</v>
+      </c>
+      <c r="I8" s="265">
+        <f t="shared" si="0"/>
+        <v>1.9261486711602775E-3</v>
+      </c>
+      <c r="J8" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
+        <v>1.9201061329185824E-3</v>
+      </c>
+      <c r="K8" s="188">
+        <f t="shared" si="4"/>
+        <v>6.0425382416950772E-2</v>
       </c>
       <c r="L8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
         <v>0.34246575342465752</v>
       </c>
-      <c r="M8" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N8" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M8" s="234">
+        <f t="shared" si="1"/>
+        <v>6.0425382416950772E-6</v>
+      </c>
+      <c r="N8" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
+        <v>1.0004789583018925</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -6431,9 +6721,9 @@
       <c r="Q8" s="277" t="s">
         <v>128</v>
       </c>
-      <c r="R8" s="282" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>#NAME?</v>
+      <c r="R8" s="282" t="str">
+        <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
+        <v>None</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6460,37 +6750,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
         <v>42583</v>
       </c>
-      <c r="G9" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H9" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E9),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I9" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J9" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K9" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G9" s="62">
+        <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H9" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E9),,AllTriggers)</f>
+        <v>-1.487100567955225E-3</v>
+      </c>
+      <c r="I9" s="265">
+        <f t="shared" si="0"/>
+        <v>1.9671005679552252E-3</v>
+      </c>
+      <c r="J9" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
+        <v>1.9594494266863827E-3</v>
+      </c>
+      <c r="K9" s="188">
+        <f t="shared" si="4"/>
+        <v>7.6511412688425567E-2</v>
       </c>
       <c r="L9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
         <v>0.41917808219178082</v>
       </c>
-      <c r="M9" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N9" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M9" s="234">
+        <f t="shared" si="1"/>
+        <v>7.651141268842556E-6</v>
+      </c>
+      <c r="N9" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
+        <v>1.0005896947083088</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -6498,9 +6788,9 @@
       <c r="Q9" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="190" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>#NAME?</v>
+      <c r="R9" s="190">
+        <f>_xll.qlPolynomialCalibrationError(R6,)</f>
+        <v>1.0960269707896253E-4</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6527,37 +6817,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
         <v>42614</v>
       </c>
-      <c r="G10" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H10" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E10),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I10" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J10" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K10" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G10" s="62">
+        <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="H10" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E10),,AllTriggers)</f>
+        <v>-1.4886257383553306E-3</v>
+      </c>
+      <c r="I10" s="265">
+        <f t="shared" si="0"/>
+        <v>1.9986257383553304E-3</v>
+      </c>
+      <c r="J10" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
+        <v>2.0010466645362219E-3</v>
+      </c>
+      <c r="K10" s="188">
+        <f t="shared" si="4"/>
+        <v>-2.4209261808914688E-2</v>
       </c>
       <c r="L10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
         <v>0.49863013698630138</v>
       </c>
-      <c r="M10" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N10" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M10" s="234">
+        <f t="shared" si="1"/>
+        <v>-2.4209261808914688E-6</v>
+      </c>
+      <c r="N10" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
+        <v>1.0007082003188978</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -6565,9 +6855,9 @@
       <c r="Q10" s="277" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="190" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>#NAME?</v>
+      <c r="R10" s="190">
+        <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
+        <v>1.6858027593363812E-4</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6594,37 +6884,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
         <v>42646</v>
       </c>
-      <c r="G11" s="67" t="e">
-        <f ca="1">_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H11" s="67" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E11),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I11" s="280" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J11" s="67" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K11" s="240" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G11" s="67">
+        <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="H11" s="67">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E11),,AllTriggers)</f>
+        <v>-1.4858557992495809E-3</v>
+      </c>
+      <c r="I11" s="280">
+        <f t="shared" si="0"/>
+        <v>2.0358557992495811E-3</v>
+      </c>
+      <c r="J11" s="67">
+        <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
+        <v>2.0461388457011947E-3</v>
+      </c>
+      <c r="K11" s="240">
+        <f t="shared" si="4"/>
+        <v>-0.10283046451613642</v>
       </c>
       <c r="L11" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
         <v>0.58356164383561648</v>
       </c>
-      <c r="M11" s="279" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N11" s="183" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M11" s="279">
+        <f t="shared" si="1"/>
+        <v>-1.0283046451613643E-5</v>
+      </c>
+      <c r="N11" s="183">
+        <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
+        <v>1.0008353380747639</v>
       </c>
       <c r="O11" s="241" t="b">
         <v>1</v>
@@ -6654,37 +6944,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
         <v>42676</v>
       </c>
-      <c r="G12" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H12" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E12),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I12" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J12" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K12" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G12" s="62">
+        <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="H12" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E12),,AllTriggers)</f>
+        <v>-1.4777562431859657E-3</v>
+      </c>
+      <c r="I12" s="265">
+        <f t="shared" si="0"/>
+        <v>2.0877562431859658E-3</v>
+      </c>
+      <c r="J12" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
+        <v>2.0915265601186713E-3</v>
+      </c>
+      <c r="K12" s="188">
+        <f t="shared" si="4"/>
+        <v>-3.7703169327055024E-2</v>
       </c>
       <c r="L12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
         <v>0.66849315068493154</v>
       </c>
-      <c r="M12" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N12" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M12" s="234">
+        <f t="shared" si="1"/>
+        <v>-3.7703169327055024E-6</v>
+      </c>
+      <c r="N12" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
+        <v>1.0009631862147763</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -6724,37 +7014,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
         <v>42705</v>
       </c>
-      <c r="G13" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H13" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E13),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I13" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J13" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K13" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G13" s="62">
+        <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="H13" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E13),,AllTriggers)</f>
+        <v>-1.4622747896823908E-3</v>
+      </c>
+      <c r="I13" s="265">
+        <f t="shared" si="0"/>
+        <v>2.1322747896823906E-3</v>
+      </c>
+      <c r="J13" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
+        <v>2.1353931821316281E-3</v>
+      </c>
+      <c r="K13" s="188">
+        <f t="shared" si="4"/>
+        <v>-3.1183924492374747E-2</v>
       </c>
       <c r="L13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
         <v>0.75068493150684934</v>
       </c>
-      <c r="M13" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N13" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M13" s="234">
+        <f t="shared" si="1"/>
+        <v>-3.1183924492374747E-6</v>
+      </c>
+      <c r="N13" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
+        <v>1.001088325384085</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -6762,9 +7052,9 @@
       <c r="Q13" s="277" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="190" t="e">
-        <f t="array" aca="1" ref="R13:R17" ca="1">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>#NAME?</v>
+      <c r="R13" s="190">
+        <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
+        <v>1.7612826406745213E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -6797,37 +7087,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
         <v>42737</v>
       </c>
-      <c r="G14" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H14" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E14),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I14" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J14" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K14" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G14" s="62">
+        <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
+        <v>7.5000000000000012E-4</v>
+      </c>
+      <c r="H14" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E14),,AllTriggers)</f>
+        <v>-1.4250893481310477E-3</v>
+      </c>
+      <c r="I14" s="265">
+        <f t="shared" si="0"/>
+        <v>2.1750893481310477E-3</v>
+      </c>
+      <c r="J14" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
+        <v>2.1788745703407524E-3</v>
+      </c>
+      <c r="K14" s="188">
+        <f t="shared" si="4"/>
+        <v>-3.7852222097047028E-2</v>
       </c>
       <c r="L14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
         <v>0.83287671232876714</v>
       </c>
-      <c r="M14" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N14" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M14" s="234">
+        <f t="shared" si="1"/>
+        <v>-3.7852222097047028E-6</v>
+      </c>
+      <c r="N14" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
+        <v>1.0012136369818765</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -6835,9 +7125,8 @@
       <c r="Q14" s="277" t="s">
         <v>114</v>
       </c>
-      <c r="R14" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="R14" s="190">
+        <v>4.0961825802793473E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -6870,37 +7159,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
         <v>42767</v>
       </c>
-      <c r="G15" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H15" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E15),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I15" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J15" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K15" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G15" s="62">
+        <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
+        <v>8.4000000000000014E-4</v>
+      </c>
+      <c r="H15" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E15),,AllTriggers)</f>
+        <v>-1.3899494975617083E-3</v>
+      </c>
+      <c r="I15" s="265">
+        <f t="shared" si="0"/>
+        <v>2.2299494975617086E-3</v>
+      </c>
+      <c r="J15" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
+        <v>2.223054790801995E-3</v>
+      </c>
+      <c r="K15" s="188">
+        <f t="shared" si="4"/>
+        <v>6.894706759713598E-2</v>
       </c>
       <c r="L15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
         <v>0.9178082191780822</v>
       </c>
-      <c r="M15" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N15" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M15" s="234">
+        <f t="shared" si="1"/>
+        <v>6.894706759713598E-6</v>
+      </c>
+      <c r="N15" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
+        <v>1.0013425159816716</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -6908,9 +7197,8 @@
       <c r="Q15" s="277" t="s">
         <v>115</v>
       </c>
-      <c r="R15" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="R15" s="190">
+        <v>1.9157574030833453E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -6943,37 +7231,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
         <v>42795</v>
       </c>
-      <c r="G16" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H16" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E16),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I16" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J16" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K16" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G16" s="62">
+        <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
+        <v>9.2999999999999995E-4</v>
+      </c>
+      <c r="H16" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E16),,AllTriggers)</f>
+        <v>-1.3406840810164862E-3</v>
+      </c>
+      <c r="I16" s="265">
+        <f t="shared" si="0"/>
+        <v>2.2706840810164863E-3</v>
+      </c>
+      <c r="J16" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
+        <v>2.2661167898207725E-3</v>
+      </c>
+      <c r="K16" s="188">
+        <f t="shared" si="4"/>
+        <v>4.5672911957138351E-2</v>
       </c>
       <c r="L16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
         <v>1.0027397260273974</v>
       </c>
-      <c r="M16" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N16" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M16" s="234">
+        <f t="shared" si="1"/>
+        <v>4.5672911957138351E-6</v>
+      </c>
+      <c r="N16" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
+        <v>1.001470172059107</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -6981,9 +7269,8 @@
       <c r="Q16" s="277" t="s">
         <v>116</v>
       </c>
-      <c r="R16" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="R16" s="190">
+        <v>-9.7727814082013885E-5</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -7016,37 +7303,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
         <v>42828</v>
       </c>
-      <c r="G17" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H17" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E17),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I17" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J17" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K17" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G17" s="62">
+        <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
+        <v>1.0500000000000002E-3</v>
+      </c>
+      <c r="H17" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E17),,AllTriggers)</f>
+        <v>-1.2632980144393453E-3</v>
+      </c>
+      <c r="I17" s="265">
+        <f t="shared" si="0"/>
+        <v>2.3132980144393456E-3</v>
+      </c>
+      <c r="J17" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
+        <v>2.3090141213304182E-3</v>
+      </c>
+      <c r="K17" s="188">
+        <f t="shared" si="4"/>
+        <v>4.2838931089274161E-2</v>
       </c>
       <c r="L17" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
         <v>1.0904109589041096</v>
       </c>
-      <c r="M17" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N17" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M17" s="234">
+        <f t="shared" si="1"/>
+        <v>4.2838931089274161E-6</v>
+      </c>
+      <c r="N17" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
+        <v>1.001600124659332</v>
       </c>
       <c r="O17" s="237" t="b">
         <v>0</v>
@@ -7055,8 +7342,7 @@
         <v>117</v>
       </c>
       <c r="R17" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="S17" s="190" t="b">
         <v>0</v>
@@ -7089,37 +7375,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
         <v>42857</v>
       </c>
-      <c r="G18" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D18,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H18" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E18),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I18" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J18" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K18" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G18" s="62">
+        <f>_xll.qlQuoteValue(D18,AllTriggers)</f>
+        <v>1.17E-3</v>
+      </c>
+      <c r="H18" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E18),,AllTriggers)</f>
+        <v>-1.1783446848797289E-3</v>
+      </c>
+      <c r="I18" s="265">
+        <f t="shared" si="0"/>
+        <v>2.3483446848797289E-3</v>
+      </c>
+      <c r="J18" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
+        <v>2.3461993497579138E-3</v>
+      </c>
+      <c r="K18" s="188">
+        <f t="shared" si="4"/>
+        <v>2.1453351218151187E-2</v>
       </c>
       <c r="L18" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
         <v>1.1698630136986301</v>
       </c>
-      <c r="M18" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N18" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M18" s="234">
+        <f t="shared" si="1"/>
+        <v>2.1453351218151187E-6</v>
+      </c>
+      <c r="N18" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
+        <v>1.0017158330973288</v>
       </c>
       <c r="O18" s="237" t="b">
         <v>0</v>
@@ -7127,9 +7413,9 @@
       <c r="Q18" s="277" t="s">
         <v>118</v>
       </c>
-      <c r="R18" s="190" t="e">
-        <f ca="1">_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="R18" s="190" t="str">
+        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
+        <v>obj_005dc#0001</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -7157,37 +7443,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
         <v>42887</v>
       </c>
-      <c r="G19" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H19" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E19),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I19" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J19" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K19" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G19" s="62">
+        <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H19" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E19),,AllTriggers)</f>
+        <v>-1.079341672526019E-3</v>
+      </c>
+      <c r="I19" s="265">
+        <f t="shared" si="0"/>
+        <v>2.3793416725260189E-3</v>
+      </c>
+      <c r="J19" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
+        <v>2.3826516849666276E-3</v>
+      </c>
+      <c r="K19" s="188">
+        <f t="shared" si="4"/>
+        <v>-3.3100124406087311E-2</v>
       </c>
       <c r="L19" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
         <v>1.252054794520548</v>
       </c>
-      <c r="M19" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N19" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M19" s="234">
+        <f t="shared" si="1"/>
+        <v>-3.3100124406087311E-6</v>
+      </c>
+      <c r="N19" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
+        <v>1.0018330109213838</v>
       </c>
       <c r="O19" s="237" t="b">
         <v>0</v>
@@ -7218,37 +7504,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
         <v>42919</v>
       </c>
-      <c r="G20" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H20" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E20),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I20" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J20" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K20" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G20" s="62">
+        <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
+        <v>1.4299999999999998E-3</v>
+      </c>
+      <c r="H20" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E20),,AllTriggers)</f>
+        <v>-9.7965480651355337E-4</v>
+      </c>
+      <c r="I20" s="265">
+        <f t="shared" si="0"/>
+        <v>2.4096548065135532E-3</v>
+      </c>
+      <c r="J20" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
+        <v>2.4189125484258048E-3</v>
+      </c>
+      <c r="K20" s="188">
+        <f t="shared" si="4"/>
+        <v>-9.2577419122516144E-2</v>
       </c>
       <c r="L20" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
         <v>1.3397260273972602</v>
       </c>
-      <c r="M20" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N20" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M20" s="234">
+        <f t="shared" si="1"/>
+        <v>-9.2577419122516144E-6</v>
+      </c>
+      <c r="N20" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
+        <v>1.0019474007182876</v>
       </c>
       <c r="O20" s="237" t="b">
         <v>0</v>
@@ -7279,37 +7565,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
         <v>42948</v>
       </c>
-      <c r="G21" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H21" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E21),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I21" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J21" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K21" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G21" s="62">
+        <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
+        <v>1.57E-3</v>
+      </c>
+      <c r="H21" s="62">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E21),,AllTriggers)</f>
+        <v>-8.7224667415560127E-4</v>
+      </c>
+      <c r="I21" s="265">
+        <f t="shared" si="0"/>
+        <v>2.4422466741556015E-3</v>
+      </c>
+      <c r="J21" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
+        <v>2.4501054257198718E-3</v>
+      </c>
+      <c r="K21" s="188">
+        <f t="shared" si="4"/>
+        <v>-7.8587515642703637E-2</v>
       </c>
       <c r="L21" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
         <v>1.4219178082191781</v>
       </c>
-      <c r="M21" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N21" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M21" s="234">
+        <f t="shared" si="1"/>
+        <v>-7.8587515642703637E-6</v>
+      </c>
+      <c r="N21" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
+        <v>1.0020543940936004</v>
       </c>
       <c r="O21" s="237" t="b">
         <v>0</v>
@@ -7340,37 +7626,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
         <v>42979</v>
       </c>
-      <c r="G22" s="65" t="e">
-        <f ca="1">_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H22" s="65" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E22),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I22" s="260" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J22" s="65" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K22" s="189" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+      <c r="G22" s="65">
+        <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="H22" s="65">
+        <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E22),,AllTriggers)</f>
+        <v>-7.6533551553389326E-4</v>
+      </c>
+      <c r="I22" s="260">
+        <f t="shared" si="0"/>
+        <v>2.4753355155338933E-3</v>
+      </c>
+      <c r="J22" s="65">
+        <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
+        <v>2.4764788345138988E-3</v>
+      </c>
+      <c r="K22" s="189">
+        <f t="shared" si="4"/>
+        <v>-1.1433189800054942E-2</v>
       </c>
       <c r="L22" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
         <v>1.4986301369863013</v>
       </c>
-      <c r="M22" s="235" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="N22" s="185" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="M22" s="235">
+        <f t="shared" si="1"/>
+        <v>-1.1433189800054942E-6</v>
+      </c>
+      <c r="N22" s="185">
+        <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
+        <v>1.0021456845554177</v>
       </c>
       <c r="O22" s="238" t="b">
         <v>1</v>
@@ -7417,9 +7703,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
         <v>42249</v>
       </c>
-      <c r="I25" s="287" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G25,H25,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I25" s="287">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G25,H25,AllTriggers)</f>
+        <v>3.7347125160458461E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7434,9 +7720,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
         <v>42255</v>
       </c>
-      <c r="I26" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G26,H26,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I26" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G26,H26,AllTriggers)</f>
+        <v>3.7593795601103305E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7451,9 +7737,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
         <v>42262</v>
       </c>
-      <c r="I27" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G27,H27,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I27" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G27,H27,AllTriggers)</f>
+        <v>3.6885816643929454E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7468,9 +7754,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
         <v>42269</v>
       </c>
-      <c r="I28" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G28,H28,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I28" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G28,H28,AllTriggers)</f>
+        <v>3.6183999049604107E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7485,9 +7771,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
         <v>42278</v>
       </c>
-      <c r="I29" s="289" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G29,H29,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I29" s="289">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G29,H29,AllTriggers)</f>
+        <v>3.669274257420696E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7502,9 +7788,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
         <v>42310</v>
       </c>
-      <c r="I30" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G30,H30,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I30" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G30,H30,AllTriggers)</f>
+        <v>3.710081155069183E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7519,9 +7805,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
         <v>42339</v>
       </c>
-      <c r="I31" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G31,H31,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I31" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G31,H31,AllTriggers)</f>
+        <v>3.7706142789183399E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7536,9 +7822,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
         <v>42373</v>
       </c>
-      <c r="I32" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G32,H32,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I32" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G32,H32,AllTriggers)</f>
+        <v>3.6562370490059951E-4</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7553,9 +7839,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
         <v>42401</v>
       </c>
-      <c r="I33" s="290" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G33,H33,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I33" s="290">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G33,H33,AllTriggers)</f>
+        <v>3.6563375287718461E-4</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7570,9 +7856,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
         <v>42430</v>
       </c>
-      <c r="I34" s="291" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis6M,G34,H34,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I34" s="291">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G34,H34,AllTriggers)</f>
+        <v>3.639137439375357E-4</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7773,15 +8059,15 @@
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
         <v>42614</v>
       </c>
-      <c r="G3" s="258" t="e">
-        <f ca="1">J3+$H$4</f>
-        <v>#NAME?</v>
+      <c r="G3" s="258">
+        <f>J3+$H$4</f>
+        <v>1.5777993372924862E-3</v>
       </c>
       <c r="H3" s="239"/>
       <c r="I3" s="239"/>
-      <c r="J3" s="190" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="J3" s="190">
+        <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
+        <v>3.0075604033026676E-3</v>
       </c>
       <c r="K3" s="239"/>
       <c r="L3" s="239"/>
@@ -7822,37 +8108,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E4)</f>
         <v>42614</v>
       </c>
-      <c r="G4" s="190" t="e">
-        <f ca="1">_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H4" s="190" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E4),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I4" s="258" t="e">
-        <f t="shared" ref="I4:I14" ca="1" si="0">G4-H4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J4" s="186" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K4" s="187" t="e">
-        <f ca="1">L4*10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L4" s="278" t="e">
-        <f t="shared" ref="L4:L16" ca="1" si="1">I4-J4</f>
-        <v>#NAME?</v>
+      <c r="G4" s="190">
+        <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
+        <v>1.6099999999999997E-3</v>
+      </c>
+      <c r="H4" s="190">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E4),,AllTriggers)</f>
+        <v>-1.4297610660101814E-3</v>
+      </c>
+      <c r="I4" s="258">
+        <f t="shared" ref="I4:I14" si="0">G4-H4</f>
+        <v>3.039761066010181E-3</v>
+      </c>
+      <c r="J4" s="186">
+        <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
+        <v>3.0075604033026676E-3</v>
+      </c>
+      <c r="K4" s="187">
+        <f>L4*10000</f>
+        <v>0.32200662707513455</v>
+      </c>
+      <c r="L4" s="278">
+        <f t="shared" ref="L4:L16" si="1">I4-J4</f>
+        <v>3.2200662707513455E-5</v>
       </c>
       <c r="M4" s="284">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="281" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N4" s="281">
+        <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
+        <v>1.00001444461398</v>
       </c>
       <c r="O4" s="236" t="b">
         <v>1</v>
@@ -7881,37 +8167,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E5)</f>
         <v>42646</v>
       </c>
-      <c r="G5" s="67" t="e">
-        <f ca="1">_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H5" s="67" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E5),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I5" s="280" t="e">
-        <f t="shared" ref="I5:I13" ca="1" si="3">G5-H5</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J5" s="67" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K5" s="240" t="e">
-        <f t="shared" ref="K5:K16" ca="1" si="4">L5*10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L5" s="279" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="G5" s="67">
+        <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
+        <v>1.57E-3</v>
+      </c>
+      <c r="H5" s="67">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E5),,AllTriggers)</f>
+        <v>-1.443817401506668E-3</v>
+      </c>
+      <c r="I5" s="280">
+        <f t="shared" ref="I5:I13" si="3">G5-H5</f>
+        <v>3.013817401506668E-3</v>
+      </c>
+      <c r="J5" s="67">
+        <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
+        <v>3.0481936539027625E-3</v>
+      </c>
+      <c r="K5" s="240">
+        <f t="shared" ref="K5:K16" si="4">L5*10000</f>
+        <v>-0.34376252396094498</v>
+      </c>
+      <c r="L5" s="279">
+        <f t="shared" si="1"/>
+        <v>-3.43762523960945E-5</v>
       </c>
       <c r="M5" s="285">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="N5" s="183" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N5" s="183">
+        <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
+        <v>1.0001218607991236</v>
       </c>
       <c r="O5" s="241" t="b">
         <v>1</v>
@@ -7945,37 +8231,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E6)</f>
         <v>42676</v>
       </c>
-      <c r="G6" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E6),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I6" s="265" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J6" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K6" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="L6" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="G6" s="62">
+        <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
+        <v>1.6299999999999997E-3</v>
+      </c>
+      <c r="H6" s="62">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E6),,AllTriggers)</f>
+        <v>-1.454694651850545E-3</v>
+      </c>
+      <c r="I6" s="265">
+        <f t="shared" si="3"/>
+        <v>3.0846946518505447E-3</v>
+      </c>
+      <c r="J6" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
+        <v>3.0972931121412278E-3</v>
+      </c>
+      <c r="K6" s="188">
+        <f t="shared" si="4"/>
+        <v>-0.12598460290683122</v>
+      </c>
+      <c r="L6" s="234">
+        <f t="shared" si="1"/>
+        <v>-1.2598460290683122E-5</v>
       </c>
       <c r="M6" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
         <v>0.16986301369863013</v>
       </c>
-      <c r="N6" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N6" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
+        <v>1.0002382997805292</v>
       </c>
       <c r="O6" s="237" t="b">
         <v>1</v>
@@ -7983,9 +8269,9 @@
       <c r="Q6" s="277" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="282" t="e">
-        <f ca="1">_xll.qlPolynomialCalibration(,_xll.ohFilter($M$4:$M$17,$O$4:$O$17),_xll.ohFilter($I$4:$I$17,$O$4:$O$17),_xll.ohFilter($N$4:$N$17,$O$4:$O$17),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="R6" s="282" t="str">
+        <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($M$4:$M$17,$O$4:$O$17),_xll.ohFilter($I$4:$I$17,$O$4:$O$17),_xll.ohFilter($N$4:$N$17,$O$4:$O$17),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
+        <v>obj_005d9#0001</v>
       </c>
       <c r="T6" s="55"/>
     </row>
@@ -8013,37 +8299,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E7)</f>
         <v>42705</v>
       </c>
-      <c r="G7" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H7" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E7),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I7" s="265" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K7" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="L7" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="G7" s="62">
+        <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
+        <v>1.6799999999999999E-3</v>
+      </c>
+      <c r="H7" s="62">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E7),,AllTriggers)</f>
+        <v>-1.4608015238043539E-3</v>
+      </c>
+      <c r="I7" s="265">
+        <f t="shared" si="3"/>
+        <v>3.1408015238043535E-3</v>
+      </c>
+      <c r="J7" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
+        <v>3.1462795313332978E-3</v>
+      </c>
+      <c r="K7" s="188">
+        <f t="shared" si="4"/>
+        <v>-5.4780075289442148E-2</v>
+      </c>
+      <c r="L7" s="234">
+        <f t="shared" si="1"/>
+        <v>-5.4780075289442148E-6</v>
       </c>
       <c r="M7" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
         <v>0.24931506849315069</v>
       </c>
-      <c r="N7" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N7" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
+        <v>1.0003451404126165</v>
       </c>
       <c r="O7" s="237" t="b">
         <v>1</v>
@@ -8051,9 +8337,9 @@
       <c r="Q7" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="282" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="R7" s="282" t="b">
+        <f>_xll.qlPolynomialCalibrationCompute($R$6,AllTriggers)</f>
+        <v>1</v>
       </c>
       <c r="T7" s="55"/>
     </row>
@@ -8081,37 +8367,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E8)</f>
         <v>42739</v>
       </c>
-      <c r="G8" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E8),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I8" s="265" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K8" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="L8" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="G8" s="62">
+        <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
+        <v>1.7599999999999998E-3</v>
+      </c>
+      <c r="H8" s="62">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E8),,AllTriggers)</f>
+        <v>-1.4487838224260499E-3</v>
+      </c>
+      <c r="I8" s="265">
+        <f t="shared" si="3"/>
+        <v>3.2087838224260498E-3</v>
+      </c>
+      <c r="J8" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
+        <v>3.2083353706390838E-3</v>
+      </c>
+      <c r="K8" s="188">
+        <f t="shared" si="4"/>
+        <v>4.4845178696602608E-3</v>
+      </c>
+      <c r="L8" s="234">
+        <f t="shared" si="1"/>
+        <v>4.4845178696602608E-7</v>
       </c>
       <c r="M8" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
         <v>0.34246575342465752</v>
       </c>
-      <c r="N8" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N8" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
+        <v>1.0004789583018925</v>
       </c>
       <c r="O8" s="237" t="b">
         <v>1</v>
@@ -8119,9 +8405,9 @@
       <c r="Q8" s="277" t="s">
         <v>128</v>
       </c>
-      <c r="R8" s="282" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>#NAME?</v>
+      <c r="R8" s="282" t="str">
+        <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
+        <v>StationaryFunctionValue</v>
       </c>
       <c r="T8" s="55"/>
     </row>
@@ -8149,37 +8435,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E9)</f>
         <v>42767</v>
       </c>
-      <c r="G9" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H9" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E9),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I9" s="265" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J9" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K9" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="L9" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="G9" s="62">
+        <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="H9" s="62">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E9),,AllTriggers)</f>
+        <v>-1.4377342472133192E-3</v>
+      </c>
+      <c r="I9" s="265">
+        <f t="shared" si="3"/>
+        <v>3.2777342472133193E-3</v>
+      </c>
+      <c r="J9" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
+        <v>3.262555934862953E-3</v>
+      </c>
+      <c r="K9" s="188">
+        <f t="shared" si="4"/>
+        <v>0.15178312350366296</v>
+      </c>
+      <c r="L9" s="234">
+        <f t="shared" si="1"/>
+        <v>1.5178312350366298E-5</v>
       </c>
       <c r="M9" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
         <v>0.41917808219178082</v>
       </c>
-      <c r="N9" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N9" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
+        <v>1.0005896947083088</v>
       </c>
       <c r="O9" s="237" t="b">
         <v>1</v>
@@ -8187,9 +8473,9 @@
       <c r="Q9" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="190" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>#NAME?</v>
+      <c r="R9" s="190">
+        <f>_xll.qlPolynomialCalibrationError(R6,)</f>
+        <v>1.4839030437076197E-5</v>
       </c>
       <c r="T9" s="55"/>
     </row>
@@ -8217,37 +8503,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E10)</f>
         <v>42795</v>
       </c>
-      <c r="G10" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H10" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E10),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I10" s="265" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J10" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K10" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="L10" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="G10" s="62">
+        <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
+        <v>1.91E-3</v>
+      </c>
+      <c r="H10" s="62">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E10),,AllTriggers)</f>
+        <v>-1.4147570492857584E-3</v>
+      </c>
+      <c r="I10" s="265">
+        <f t="shared" si="3"/>
+        <v>3.3247570492857584E-3</v>
+      </c>
+      <c r="J10" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
+        <v>3.3210785393252744E-3</v>
+      </c>
+      <c r="K10" s="188">
+        <f t="shared" si="4"/>
+        <v>3.6785099604840117E-2</v>
+      </c>
+      <c r="L10" s="234">
+        <f t="shared" si="1"/>
+        <v>3.6785099604840117E-6</v>
       </c>
       <c r="M10" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
         <v>0.49863013698630138</v>
       </c>
-      <c r="N10" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N10" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
+        <v>1.0007082003188978</v>
       </c>
       <c r="O10" s="237" t="b">
         <v>1</v>
@@ -8255,9 +8541,9 @@
       <c r="Q10" s="277" t="s">
         <v>124</v>
       </c>
-      <c r="R10" s="190" t="e">
-        <f ca="1">_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>#NAME?</v>
+      <c r="R10" s="190">
+        <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
+        <v>3.43762523960945E-5</v>
       </c>
       <c r="T10" s="55"/>
     </row>
@@ -8285,37 +8571,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E11)</f>
         <v>42828</v>
       </c>
-      <c r="G11" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H11" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E11),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I11" s="265" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J11" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K11" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="L11" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="G11" s="62">
+        <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="H11" s="62">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E11),,AllTriggers)</f>
+        <v>-1.3750081811754607E-3</v>
+      </c>
+      <c r="I11" s="265">
+        <f t="shared" si="3"/>
+        <v>3.3950081811754606E-3</v>
+      </c>
+      <c r="J11" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
+        <v>3.3856448319754531E-3</v>
+      </c>
+      <c r="K11" s="188">
+        <f t="shared" si="4"/>
+        <v>9.3633492000075313E-2</v>
+      </c>
+      <c r="L11" s="234">
+        <f t="shared" si="1"/>
+        <v>9.3633492000075313E-6</v>
       </c>
       <c r="M11" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
         <v>0.58356164383561648</v>
       </c>
-      <c r="N11" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N11" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
+        <v>1.0008353380747639</v>
       </c>
       <c r="O11" s="237" t="b">
         <v>1</v>
@@ -8346,37 +8632,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E12)</f>
         <v>42857</v>
       </c>
-      <c r="G12" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H12" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E12),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I12" s="265" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J12" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K12" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="L12" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="G12" s="62">
+        <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
+        <v>2.1299999999999999E-3</v>
+      </c>
+      <c r="H12" s="62">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E12),,AllTriggers)</f>
+        <v>-1.3281818125413347E-3</v>
+      </c>
+      <c r="I12" s="265">
+        <f t="shared" si="3"/>
+        <v>3.4581818125413348E-3</v>
+      </c>
+      <c r="J12" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
+        <v>3.4515866610435333E-3</v>
+      </c>
+      <c r="K12" s="188">
+        <f t="shared" si="4"/>
+        <v>6.5951514978015824E-2</v>
+      </c>
+      <c r="L12" s="234">
+        <f t="shared" si="1"/>
+        <v>6.5951514978015817E-6</v>
       </c>
       <c r="M12" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
         <v>0.66849315068493154</v>
       </c>
-      <c r="N12" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N12" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
+        <v>1.0009631862147763</v>
       </c>
       <c r="O12" s="237" t="b">
         <v>1</v>
@@ -8416,37 +8702,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E13)</f>
         <v>42887</v>
       </c>
-      <c r="G13" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H13" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E13),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I13" s="265" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J13" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K13" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="L13" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="G13" s="62">
+        <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
+        <v>2.2400000000000002E-3</v>
+      </c>
+      <c r="H13" s="62">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E13),,AllTriggers)</f>
+        <v>-1.2709327463036994E-3</v>
+      </c>
+      <c r="I13" s="265">
+        <f t="shared" si="3"/>
+        <v>3.5109327463036999E-3</v>
+      </c>
+      <c r="J13" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
+        <v>3.5160381430278291E-3</v>
+      </c>
+      <c r="K13" s="188">
+        <f t="shared" si="4"/>
+        <v>-5.1053967241292825E-2</v>
+      </c>
+      <c r="L13" s="234">
+        <f t="shared" si="1"/>
+        <v>-5.1053967241292825E-6</v>
       </c>
       <c r="M13" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
         <v>0.75068493150684934</v>
       </c>
-      <c r="N13" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N13" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
+        <v>1.001088325384085</v>
       </c>
       <c r="O13" s="237" t="b">
         <v>1</v>
@@ -8454,9 +8740,9 @@
       <c r="Q13" s="277" t="s">
         <v>113</v>
       </c>
-      <c r="R13" s="190" t="e">
-        <f t="array" aca="1" ref="R13:R17" ca="1">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>#NAME?</v>
+      <c r="R13" s="190">
+        <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
+        <v>3.0075604033026676E-3</v>
       </c>
       <c r="S13" s="190" t="b">
         <v>1</v>
@@ -8489,37 +8775,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E14)</f>
         <v>42919</v>
       </c>
-      <c r="G14" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H14" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E14),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I14" s="265" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J14" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K14" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="L14" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="G14" s="62">
+        <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="H14" s="62">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E14),,AllTriggers)</f>
+        <v>-1.203836867759988E-3</v>
+      </c>
+      <c r="I14" s="265">
+        <f t="shared" si="0"/>
+        <v>3.5738368677599884E-3</v>
+      </c>
+      <c r="J14" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
+        <v>3.580461333999824E-3</v>
+      </c>
+      <c r="K14" s="188">
+        <f t="shared" si="4"/>
+        <v>-6.6244662398355803E-2</v>
+      </c>
+      <c r="L14" s="234">
+        <f t="shared" si="1"/>
+        <v>-6.6244662398355809E-6</v>
       </c>
       <c r="M14" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
         <v>0.83287671232876714</v>
       </c>
-      <c r="N14" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N14" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
+        <v>1.0012136369818765</v>
       </c>
       <c r="O14" s="237" t="b">
         <v>1</v>
@@ -8527,9 +8813,8 @@
       <c r="Q14" s="277" t="s">
         <v>114</v>
       </c>
-      <c r="R14" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="R14" s="190">
+        <v>4.5988229807286695E-4</v>
       </c>
       <c r="S14" s="190" t="b">
         <v>1</v>
@@ -8562,37 +8847,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E15)</f>
         <v>42948</v>
       </c>
-      <c r="G15" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H15" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E15),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I15" s="265" t="e">
-        <f ca="1">G15-H15</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J15" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K15" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="L15" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="G15" s="62">
+        <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="H15" s="62">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E15),,AllTriggers)</f>
+        <v>-1.1329183481128783E-3</v>
+      </c>
+      <c r="I15" s="265">
+        <f>G15-H15</f>
+        <v>3.6429183481128781E-3</v>
+      </c>
+      <c r="J15" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
+        <v>3.646314486461574E-3</v>
+      </c>
+      <c r="K15" s="188">
+        <f t="shared" si="4"/>
+        <v>-3.3961383486959089E-2</v>
+      </c>
+      <c r="L15" s="234">
+        <f t="shared" si="1"/>
+        <v>-3.3961383486959089E-6</v>
       </c>
       <c r="M15" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
         <v>0.9178082191780822</v>
       </c>
-      <c r="N15" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N15" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
+        <v>1.0013425159816716</v>
       </c>
       <c r="O15" s="237" t="b">
         <v>1</v>
@@ -8600,9 +8885,8 @@
       <c r="Q15" s="277" t="s">
         <v>115</v>
       </c>
-      <c r="R15" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="R15" s="190">
+        <v>4.3558899289011262E-4</v>
       </c>
       <c r="S15" s="190" t="b">
         <v>1</v>
@@ -8635,37 +8919,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E16)</f>
         <v>42979</v>
       </c>
-      <c r="G16" s="62" t="e">
-        <f ca="1">_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H16" s="62" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E16),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I16" s="265" t="e">
-        <f ca="1">G16-H16</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J16" s="62" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K16" s="188" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="L16" s="234" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="G16" s="62">
+        <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
+        <v>2.66E-3</v>
+      </c>
+      <c r="H16" s="62">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E16),,AllTriggers)</f>
+        <v>-1.0503852886459542E-3</v>
+      </c>
+      <c r="I16" s="265">
+        <f>G16-H16</f>
+        <v>3.7103852886459544E-3</v>
+      </c>
+      <c r="J16" s="62">
+        <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
+        <v>3.7107316854769318E-3</v>
+      </c>
+      <c r="K16" s="188">
+        <f t="shared" si="4"/>
+        <v>-3.4639683097739335E-3</v>
+      </c>
+      <c r="L16" s="234">
+        <f t="shared" si="1"/>
+        <v>-3.4639683097739335E-7</v>
       </c>
       <c r="M16" s="206">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
         <v>1.0027397260273974</v>
       </c>
-      <c r="N16" s="184" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N16" s="184">
+        <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
+        <v>1.001470172059107</v>
       </c>
       <c r="O16" s="237" t="b">
         <v>1</v>
@@ -8673,9 +8957,8 @@
       <c r="Q16" s="277" t="s">
         <v>116</v>
       </c>
-      <c r="R16" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="R16" s="190">
+        <v>-1.9434825555574888E-4</v>
       </c>
       <c r="S16" s="190" t="b">
         <v>1</v>
@@ -8706,37 +8989,37 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E17)</f>
         <v>43346</v>
       </c>
-      <c r="G17" s="65" t="e">
-        <f ca="1">_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H17" s="65" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E17),,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I17" s="260" t="e">
-        <f ca="1">G17-H17</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J17" s="65" t="e">
-        <f ca="1">_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K17" s="189" t="e">
-        <f t="shared" ref="K17" ca="1" si="7">L17*10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L17" s="235" t="e">
-        <f t="shared" ref="L17" ca="1" si="8">I17-J17</f>
-        <v>#NAME?</v>
+      <c r="G17" s="65">
+        <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
+        <v>4.7599999999999995E-3</v>
+      </c>
+      <c r="H17" s="65">
+        <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E17),,AllTriggers)</f>
+        <v>6.4500571438469846E-4</v>
+      </c>
+      <c r="I17" s="260">
+        <f>G17-H17</f>
+        <v>4.1149942856153008E-3</v>
+      </c>
+      <c r="J17" s="65">
+        <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
+        <v>4.1145334371733367E-3</v>
+      </c>
+      <c r="K17" s="189">
+        <f t="shared" ref="K17" si="7">L17*10000</f>
+        <v>4.6084844196412483E-3</v>
+      </c>
+      <c r="L17" s="235">
+        <f t="shared" ref="L17" si="8">I17-J17</f>
+        <v>4.6084844196412483E-7</v>
       </c>
       <c r="M17" s="207">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
         <v>2.0027397260273974</v>
       </c>
-      <c r="N17" s="185" t="e">
-        <f ca="1">_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="N17" s="185">
+        <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
+        <v>1.002537848775211</v>
       </c>
       <c r="O17" s="238" t="b">
         <v>1</v>
@@ -8745,8 +9028,7 @@
         <v>117</v>
       </c>
       <c r="R17" s="190" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+        <v>#N/A</v>
       </c>
       <c r="S17" s="190" t="b">
         <v>0</v>
@@ -8770,9 +9052,9 @@
       <c r="Q18" s="277" t="s">
         <v>118</v>
       </c>
-      <c r="R18" s="190" t="e">
-        <f ca="1">_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>#NAME?</v>
+      <c r="R18" s="190" t="str">
+        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
+        <v>obj_005db#0001</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -8810,9 +9092,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F20,"Following",,Trigger)</f>
         <v>42249</v>
       </c>
-      <c r="I20" s="287" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G20,H20,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I20" s="287">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G20,H20,AllTriggers)</f>
+        <v>1.5396768962183671E-3</v>
       </c>
       <c r="T20" s="55"/>
     </row>
@@ -8828,9 +9110,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F21,"Following",,Trigger)</f>
         <v>42255</v>
       </c>
-      <c r="I21" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G21,H21,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I21" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G21,H21,AllTriggers)</f>
+        <v>1.5391068560547236E-3</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8845,9 +9127,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F22,"Following",,Trigger)</f>
         <v>42262</v>
       </c>
-      <c r="I22" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G22,H22,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I22" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G22,H22,AllTriggers)</f>
+        <v>1.5285874085702034E-3</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8862,9 +9144,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F23,"Following",,Trigger)</f>
         <v>42269</v>
       </c>
-      <c r="I23" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G23,H23,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I23" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G23,H23,AllTriggers)</f>
+        <v>1.5182398161225511E-3</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8879,9 +9161,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F24,"mf",TRUE,Trigger)</f>
         <v>42278</v>
       </c>
-      <c r="I24" s="289" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G24,H24,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I24" s="289">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G24,H24,AllTriggers)</f>
+        <v>1.5192083113433341E-3</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8896,9 +9178,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"mf",TRUE,Trigger)</f>
         <v>42310</v>
       </c>
-      <c r="I25" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G25,H25,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I25" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G25,H25,AllTriggers)</f>
+        <v>1.5100783600260456E-3</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8913,9 +9195,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"mf",TRUE,Trigger)</f>
         <v>42339</v>
       </c>
-      <c r="I26" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G26,H26,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I26" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G26,H26,AllTriggers)</f>
+        <v>1.5060354995468993E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8930,9 +9212,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"mf",TRUE,Trigger)</f>
         <v>42373</v>
       </c>
-      <c r="I27" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G27,H27,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I27" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G27,H27,AllTriggers)</f>
+        <v>1.4849260759376649E-3</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8947,9 +9229,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"mf",TRUE,Trigger)</f>
         <v>42401</v>
       </c>
-      <c r="I28" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G28,H28,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I28" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G28,H28,AllTriggers)</f>
+        <v>1.4786566461091073E-3</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8964,9 +9246,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
         <v>42430</v>
       </c>
-      <c r="I29" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisForwardRate2(TenorBasis12M,G29,H29,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I29" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G29,H29,AllTriggers)</f>
+        <v>1.471961076343876E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8981,9 +9263,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
         <v>42461</v>
       </c>
-      <c r="I30" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G30,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I30" s="288">
+        <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G30,AllTriggers)</f>
+        <v>1.5777993372924862E-3</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8998,9 +9280,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
         <v>42492</v>
       </c>
-      <c r="I31" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G31,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I31" s="288">
+        <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G31,AllTriggers)</f>
+        <v>1.5777993372924862E-3</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9015,9 +9297,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
         <v>42522</v>
       </c>
-      <c r="I32" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G32,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I32" s="288">
+        <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G32,AllTriggers)</f>
+        <v>1.5777993372924862E-3</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9032,9 +9314,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
         <v>42552</v>
       </c>
-      <c r="I33" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G33,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I33" s="288">
+        <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G33,AllTriggers)</f>
+        <v>1.5777993372924862E-3</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9049,9 +9331,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
         <v>42583</v>
       </c>
-      <c r="I34" s="288" t="e">
-        <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G34,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I34" s="288">
+        <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G34,AllTriggers)</f>
+        <v>1.5777993372924862E-3</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9066,9 +9348,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F35,"mf",TRUE,Trigger)</f>
         <v>42614</v>
       </c>
-      <c r="I35" s="291" t="e">
-        <f ca="1">_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G35,AllTriggers)</f>
-        <v>#NAME?</v>
+      <c r="I35" s="291">
+        <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G35,AllTriggers)</f>
+        <v>1.5777993372924862E-3</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9231,17 +9513,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C3)</f>
         <v>42614</v>
       </c>
-      <c r="E3" s="75" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B3,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F3" s="76" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C3,TRUE,E3)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G3" s="75" t="e">
-        <f t="shared" ref="G3:G27" ca="1" si="0">E3+F3</f>
-        <v>#NAME?</v>
+      <c r="E3" s="75">
+        <f>_xll.qlIndexFixing(ON_12M_index,B3,,AllTriggers)</f>
+        <v>-1.4297610660101814E-3</v>
+      </c>
+      <c r="F3" s="76">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C3,TRUE,E3)</f>
+        <v>2.9471236450435861E-3</v>
+      </c>
+      <c r="G3" s="75">
+        <f t="shared" ref="G3:G27" si="0">E3+F3</f>
+        <v>1.5173625790334047E-3</v>
       </c>
       <c r="Z3" s="71"/>
       <c r="AA3" s="71"/>
@@ -9263,17 +9545,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C4)</f>
         <v>42646</v>
       </c>
-      <c r="E4" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B4,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F4" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C4,TRUE,E4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G4" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E4" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B4,,AllTriggers)</f>
+        <v>-1.443817401506668E-3</v>
+      </c>
+      <c r="F4" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C4,TRUE,E4)</f>
+        <v>3.013817401506668E-3</v>
+      </c>
+      <c r="G4" s="79">
+        <f t="shared" si="0"/>
+        <v>1.57E-3</v>
       </c>
       <c r="Z4" s="71"/>
       <c r="AA4" s="71"/>
@@ -9295,17 +9577,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C5)</f>
         <v>42676</v>
       </c>
-      <c r="E5" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B5,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F5" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C5,TRUE,E5)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G5" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E5" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B5,,AllTriggers)</f>
+        <v>-1.454694651850545E-3</v>
+      </c>
+      <c r="F5" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C5,TRUE,E5)</f>
+        <v>3.0846946518505447E-3</v>
+      </c>
+      <c r="G5" s="79">
+        <f t="shared" si="0"/>
+        <v>1.6299999999999997E-3</v>
       </c>
       <c r="Z5" s="71"/>
       <c r="AA5" s="71"/>
@@ -9327,17 +9609,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C6)</f>
         <v>42705</v>
       </c>
-      <c r="E6" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B6,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F6" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C6,TRUE,E6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E6" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B6,,AllTriggers)</f>
+        <v>-1.4608015238043539E-3</v>
+      </c>
+      <c r="F6" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C6,TRUE,E6)</f>
+        <v>3.1408015238043535E-3</v>
+      </c>
+      <c r="G6" s="79">
+        <f t="shared" si="0"/>
+        <v>1.6799999999999996E-3</v>
       </c>
       <c r="Z6" s="71"/>
       <c r="AA6" s="71"/>
@@ -9359,17 +9641,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C7)</f>
         <v>42739</v>
       </c>
-      <c r="E7" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B7,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F7" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C7,TRUE,E7)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G7" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E7" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B7,,AllTriggers)</f>
+        <v>-1.4487838224260499E-3</v>
+      </c>
+      <c r="F7" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C7,TRUE,E7)</f>
+        <v>3.2087838224260498E-3</v>
+      </c>
+      <c r="G7" s="79">
+        <f t="shared" si="0"/>
+        <v>1.7599999999999998E-3</v>
       </c>
       <c r="Z7" s="71"/>
       <c r="AA7" s="71"/>
@@ -9391,17 +9673,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C8)</f>
         <v>42767</v>
       </c>
-      <c r="E8" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B8,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F8" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C8,TRUE,E8)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G8" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E8" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B8,,AllTriggers)</f>
+        <v>-1.4377342472133192E-3</v>
+      </c>
+      <c r="F8" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C8,TRUE,E8)</f>
+        <v>3.2777342472133193E-3</v>
+      </c>
+      <c r="G8" s="79">
+        <f t="shared" si="0"/>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="Z8" s="71"/>
       <c r="AA8" s="71"/>
@@ -9423,17 +9705,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C9)</f>
         <v>42795</v>
       </c>
-      <c r="E9" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B9,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F9" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C9,TRUE,E9)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G9" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E9" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B9,,AllTriggers)</f>
+        <v>-1.4147570492857584E-3</v>
+      </c>
+      <c r="F9" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C9,TRUE,E9)</f>
+        <v>3.3247570492857584E-3</v>
+      </c>
+      <c r="G9" s="79">
+        <f t="shared" si="0"/>
+        <v>1.91E-3</v>
       </c>
       <c r="Z9" s="71"/>
       <c r="AA9" s="71"/>
@@ -9455,17 +9737,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C10)</f>
         <v>42828</v>
       </c>
-      <c r="E10" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B10,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F10" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C10,TRUE,E10)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G10" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E10" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B10,,AllTriggers)</f>
+        <v>-1.3750081811754607E-3</v>
+      </c>
+      <c r="F10" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C10,TRUE,E10)</f>
+        <v>3.3950081811754606E-3</v>
+      </c>
+      <c r="G10" s="79">
+        <f t="shared" si="0"/>
+        <v>2.0200000000000001E-3</v>
       </c>
       <c r="H10" s="72"/>
       <c r="Z10" s="71"/>
@@ -9488,17 +9770,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C11)</f>
         <v>42857</v>
       </c>
-      <c r="E11" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B11,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F11" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C11,TRUE,E11)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G11" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E11" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B11,,AllTriggers)</f>
+        <v>-1.3281818125413347E-3</v>
+      </c>
+      <c r="F11" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C11,TRUE,E11)</f>
+        <v>3.4581818125413348E-3</v>
+      </c>
+      <c r="G11" s="79">
+        <f t="shared" si="0"/>
+        <v>2.1299999999999999E-3</v>
       </c>
       <c r="H11" s="72"/>
       <c r="Z11" s="71"/>
@@ -9521,17 +9803,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C12)</f>
         <v>42887</v>
       </c>
-      <c r="E12" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B12,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F12" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C12,TRUE,E12)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G12" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E12" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B12,,AllTriggers)</f>
+        <v>-1.2709327463036994E-3</v>
+      </c>
+      <c r="F12" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C12,TRUE,E12)</f>
+        <v>3.5109327463036999E-3</v>
+      </c>
+      <c r="G12" s="79">
+        <f t="shared" si="0"/>
+        <v>2.2400000000000007E-3</v>
       </c>
       <c r="H12" s="72"/>
       <c r="Z12" s="71"/>
@@ -9554,17 +9836,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C13)</f>
         <v>42919</v>
       </c>
-      <c r="E13" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B13,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F13" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C13,TRUE,E13)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G13" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E13" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B13,,AllTriggers)</f>
+        <v>-1.203836867759988E-3</v>
+      </c>
+      <c r="F13" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C13,TRUE,E13)</f>
+        <v>3.5738368677599884E-3</v>
+      </c>
+      <c r="G13" s="79">
+        <f t="shared" si="0"/>
+        <v>2.3700000000000006E-3</v>
       </c>
       <c r="H13" s="72"/>
       <c r="Z13" s="71"/>
@@ -9587,17 +9869,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C14)</f>
         <v>42948</v>
       </c>
-      <c r="E14" s="83" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B14,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F14" s="84" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C14,TRUE,E14)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G14" s="83" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E14" s="83">
+        <f>_xll.qlIndexFixing(ON_12M_index,B14,,AllTriggers)</f>
+        <v>-1.1329183481128783E-3</v>
+      </c>
+      <c r="F14" s="84">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C14,TRUE,E14)</f>
+        <v>3.6429183481128781E-3</v>
+      </c>
+      <c r="G14" s="83">
+        <f t="shared" si="0"/>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="H14" s="72"/>
       <c r="Z14" s="71"/>
@@ -9620,17 +9902,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C15)</f>
         <v>42979</v>
       </c>
-      <c r="E15" s="75" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B15,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F15" s="76" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C15,TRUE,E15)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G15" s="75" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E15" s="75">
+        <f>_xll.qlIndexFixing(ON_12M_index,B15,,AllTriggers)</f>
+        <v>-1.0503852886459542E-3</v>
+      </c>
+      <c r="F15" s="76">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C15,TRUE,E15)</f>
+        <v>3.7103852886459544E-3</v>
+      </c>
+      <c r="G15" s="75">
+        <f t="shared" si="0"/>
+        <v>2.66E-3</v>
       </c>
       <c r="H15" s="72"/>
       <c r="Z15" s="71"/>
@@ -9653,17 +9935,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C16)</f>
         <v>43011</v>
       </c>
-      <c r="E16" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B16,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F16" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C16,TRUE,E16)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G16" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E16" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B16,,AllTriggers)</f>
+        <v>-9.5493095024793437E-4</v>
+      </c>
+      <c r="F16" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C16,TRUE,E16)</f>
+        <v>3.7732034095028289E-3</v>
+      </c>
+      <c r="G16" s="79">
+        <f t="shared" si="0"/>
+        <v>2.8182724592548947E-3</v>
       </c>
       <c r="H16" s="72"/>
       <c r="Z16" s="71"/>
@@ -9686,17 +9968,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C17)</f>
         <v>43040</v>
       </c>
-      <c r="E17" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B17,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F17" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C17,TRUE,E17)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G17" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E17" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B17,,AllTriggers)</f>
+        <v>-8.5885427532283553E-4</v>
+      </c>
+      <c r="F17" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C17,TRUE,E17)</f>
+        <v>3.8236155583891303E-3</v>
+      </c>
+      <c r="G17" s="79">
+        <f t="shared" si="0"/>
+        <v>2.964761283066295E-3</v>
       </c>
       <c r="H17" s="72"/>
       <c r="Z17" s="71"/>
@@ -9719,17 +10001,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C18)</f>
         <v>43070</v>
       </c>
-      <c r="E18" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B18,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F18" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C18,TRUE,E18)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G18" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E18" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B18,,AllTriggers)</f>
+        <v>-7.4942423893535257E-4</v>
+      </c>
+      <c r="F18" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C18,TRUE,E18)</f>
+        <v>3.8698377774565979E-3</v>
+      </c>
+      <c r="G18" s="79">
+        <f t="shared" si="0"/>
+        <v>3.1204135385212452E-3</v>
       </c>
       <c r="H18" s="72"/>
       <c r="Z18" s="71"/>
@@ -9752,17 +10034,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C19)</f>
         <v>43102</v>
       </c>
-      <c r="E19" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B19,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F19" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C19,TRUE,E19)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G19" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E19" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B19,,AllTriggers)</f>
+        <v>-6.2806685319771434E-4</v>
+      </c>
+      <c r="F19" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C19,TRUE,E19)</f>
+        <v>3.9131602193475156E-3</v>
+      </c>
+      <c r="G19" s="79">
+        <f t="shared" si="0"/>
+        <v>3.2850933661498012E-3</v>
       </c>
       <c r="H19" s="72"/>
       <c r="Z19" s="71"/>
@@ -9785,17 +10067,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C20)</f>
         <v>43132</v>
       </c>
-      <c r="E20" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B20,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F20" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C20,TRUE,E20)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G20" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E20" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B20,,AllTriggers)</f>
+        <v>-4.9944584852602207E-4</v>
+      </c>
+      <c r="F20" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C20,TRUE,E20)</f>
+        <v>3.9487967050951707E-3</v>
+      </c>
+      <c r="G20" s="79">
+        <f t="shared" si="0"/>
+        <v>3.4493508565691484E-3</v>
       </c>
       <c r="H20" s="72"/>
       <c r="Z20" s="71"/>
@@ -9818,17 +10100,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C21)</f>
         <v>43160</v>
       </c>
-      <c r="E21" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B21,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F21" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C21,TRUE,E21)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G21" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E21" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B21,,AllTriggers)</f>
+        <v>-3.7382214954159303E-4</v>
+      </c>
+      <c r="F21" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C21,TRUE,E21)</f>
+        <v>3.978248137623379E-3</v>
+      </c>
+      <c r="G21" s="79">
+        <f t="shared" si="0"/>
+        <v>3.6044259880817862E-3</v>
       </c>
       <c r="H21" s="72"/>
       <c r="Z21" s="71"/>
@@ -9851,17 +10133,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C22)</f>
         <v>43193</v>
       </c>
-      <c r="E22" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B22,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F22" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C22,TRUE,E22)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G22" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E22" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B22,,AllTriggers)</f>
+        <v>-2.2020183674065374E-4</v>
+      </c>
+      <c r="F22" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C22,TRUE,E22)</f>
+        <v>4.0089104968416764E-3</v>
+      </c>
+      <c r="G22" s="79">
+        <f t="shared" si="0"/>
+        <v>3.7887086601010225E-3</v>
       </c>
       <c r="H22" s="72"/>
       <c r="Z22" s="71"/>
@@ -9884,17 +10166,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C23)</f>
         <v>43222</v>
       </c>
-      <c r="E23" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B23,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F23" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C23,TRUE,E23)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G23" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E23" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B23,,AllTriggers)</f>
+        <v>-7.8044621116507646E-5</v>
+      </c>
+      <c r="F23" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C23,TRUE,E23)</f>
+        <v>4.0328352606419189E-3</v>
+      </c>
+      <c r="G23" s="79">
+        <f t="shared" si="0"/>
+        <v>3.9547906395254115E-3</v>
       </c>
       <c r="H23" s="72"/>
       <c r="Z23" s="71"/>
@@ -9917,17 +10199,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C24)</f>
         <v>43252</v>
       </c>
-      <c r="E24" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B24,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F24" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C24,TRUE,E24)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G24" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E24" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B24,,AllTriggers)</f>
+        <v>7.899896823455173E-5</v>
+      </c>
+      <c r="F24" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C24,TRUE,E24)</f>
+        <v>4.0552097999198922E-3</v>
+      </c>
+      <c r="G24" s="79">
+        <f t="shared" si="0"/>
+        <v>4.134208768154444E-3</v>
       </c>
       <c r="H24" s="72"/>
       <c r="Z24" s="71"/>
@@ -9950,17 +10232,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C25)</f>
         <v>43284</v>
       </c>
-      <c r="E25" s="79" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B25,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F25" s="80" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C25,TRUE,E25)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G25" s="79" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E25" s="79">
+        <f>_xll.qlIndexFixing(ON_12M_index,B25,,AllTriggers)</f>
+        <v>2.6025029168201639E-4</v>
+      </c>
+      <c r="F25" s="80">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C25,TRUE,E25)</f>
+        <v>4.0770773595220789E-3</v>
+      </c>
+      <c r="G25" s="79">
+        <f t="shared" si="0"/>
+        <v>4.3373276512040952E-3</v>
       </c>
       <c r="H25" s="72"/>
       <c r="Z25" s="71"/>
@@ -9983,17 +10265,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C26)</f>
         <v>43313</v>
       </c>
-      <c r="E26" s="83" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B26,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F26" s="84" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C26,TRUE,E26)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G26" s="83" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E26" s="83">
+        <f>_xll.qlIndexFixing(ON_12M_index,B26,,AllTriggers)</f>
+        <v>4.3672067060810868E-4</v>
+      </c>
+      <c r="F26" s="84">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C26,TRUE,E26)</f>
+        <v>4.0957046463051096E-3</v>
+      </c>
+      <c r="G26" s="83">
+        <f t="shared" si="0"/>
+        <v>4.5324253169132184E-3</v>
       </c>
       <c r="H26" s="72"/>
       <c r="Z26" s="71"/>
@@ -10016,17 +10298,17 @@
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C27)</f>
         <v>43346</v>
       </c>
-      <c r="E27" s="341" t="e">
-        <f ca="1">_xll.qlIndexFixing(ON_12M_index,B27,,AllTriggers)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F27" s="342" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisInterpolator,C27,TRUE,E27)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G27" s="341" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="E27" s="341">
+        <f>_xll.qlIndexFixing(ON_12M_index,B27,,AllTriggers)</f>
+        <v>6.4500571438469846E-4</v>
+      </c>
+      <c r="F27" s="342">
+        <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C27,TRUE,E27)</f>
+        <v>4.1149942856153008E-3</v>
+      </c>
+      <c r="G27" s="341">
+        <f t="shared" si="0"/>
+        <v>4.7599999999999995E-3</v>
       </c>
       <c r="H27" s="72"/>
       <c r="Z27" s="71"/>
@@ -10066,7 +10348,7 @@
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -10135,9 +10417,9 @@
       <c r="M2" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="102" t="e">
-        <f ca="1">_xll.ohTrigger(M3:M7)</f>
-        <v>#NAME?</v>
+      <c r="N2" s="102">
+        <f>_xll.ohTrigger(M3:M7)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -10163,9 +10445,9 @@
       <c r="G3" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="139" t="e">
-        <f ca="1">'1MSynthDepo'!V11</f>
-        <v>#NAME?</v>
+      <c r="H3" s="139">
+        <f>'1MSynthDepo'!V11</f>
+        <v>-1.1342460782204355E-3</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>56</v>
@@ -10174,13 +10456,13 @@
         <v>-1.316477993937859E-3</v>
       </c>
       <c r="K3" s="14"/>
-      <c r="L3" s="120" t="e">
-        <f t="array" ref="L3:L63" ca="1">QuoteLive</f>
-        <v>#NAME?</v>
+      <c r="L3" s="120">
+        <f t="array" ref="L3:L63">QuoteStatic</f>
+        <v>-1.316477993937859E-3</v>
       </c>
       <c r="M3" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D3,ROUND($L3,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D3,ROUND($L3,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N3" s="104"/>
     </row>
@@ -10208,9 +10490,9 @@
       <c r="G4" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="139" t="e">
-        <f ca="1">'1MSynthDepo'!V12</f>
-        <v>#NAME?</v>
+      <c r="H4" s="139">
+        <f>'1MSynthDepo'!V12</f>
+        <v>-1.0811660500533091E-3</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>56</v>
@@ -10219,13 +10501,12 @@
         <v>-1.2209335795405301E-3</v>
       </c>
       <c r="K4" s="14"/>
-      <c r="L4" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L4" s="120">
+        <v>-1.2209335795405301E-3</v>
       </c>
       <c r="M4" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D4,ROUND($L4,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D4,ROUND($L4,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N4" s="104"/>
     </row>
@@ -10250,9 +10531,9 @@
       <c r="G5" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="139" t="e">
-        <f ca="1">'1MSynthDepo'!V13</f>
-        <v>#NAME?</v>
+      <c r="H5" s="139">
+        <f>'1MSynthDepo'!V13</f>
+        <v>-1.0424860683928244E-3</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>56</v>
@@ -10261,13 +10542,12 @@
         <v>-1.1410782631239766E-3</v>
       </c>
       <c r="K5" s="14"/>
-      <c r="L5" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L5" s="120">
+        <v>-1.1410782631239766E-3</v>
       </c>
       <c r="M5" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D5,ROUND($L5,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D5,ROUND($L5,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N5" s="104"/>
     </row>
@@ -10292,9 +10572,9 @@
       <c r="G6" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="139" t="e">
-        <f ca="1">'1MSynthDepo'!V14</f>
-        <v>#NAME?</v>
+      <c r="H6" s="139">
+        <f>'1MSynthDepo'!V14</f>
+        <v>-1.0165312532909151E-3</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>56</v>
@@ -10303,13 +10583,12 @@
         <v>-1.0821725298689902E-3</v>
       </c>
       <c r="K6" s="14"/>
-      <c r="L6" s="122" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L6" s="122">
+        <v>-1.0821725298689902E-3</v>
       </c>
       <c r="M6" s="123" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D6,ROUND($L6,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D6,ROUND($L6,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N6" s="104"/>
     </row>
@@ -10334,9 +10613,9 @@
       <c r="G7" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="142" t="e">
-        <f ca="1">'1MSynthDepo'!V15</f>
-        <v>#NAME?</v>
+      <c r="H7" s="142">
+        <f>'1MSynthDepo'!V15</f>
+        <v>-9.8526433823575843E-4</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>56</v>
@@ -10345,13 +10624,12 @@
         <v>-9.8600069793430833E-4</v>
       </c>
       <c r="K7" s="14"/>
-      <c r="L7" s="124" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L7" s="124">
+        <v>-9.8600069793430833E-4</v>
       </c>
       <c r="M7" s="125" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D7,ROUND($L7,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D7,ROUND($L7,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N7" s="107"/>
     </row>
@@ -10375,26 +10653,25 @@
       <c r="G8" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="144" t="e">
-        <f ca="1">'3MSynthDepo'!I25</f>
-        <v>#NAME?</v>
+      <c r="H8" s="144">
+        <f>'3MSynthDepo'!I25</f>
+        <v>-3.669401369954528E-4</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="132">
         <v>-3.3860769632187981E-4</v>
       </c>
       <c r="K8" s="16"/>
-      <c r="L8" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L8" s="120">
+        <v>-3.3860769632187981E-4</v>
       </c>
       <c r="M8" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D8,ROUND($L8,6),EvaluationDate)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N8" s="108" t="e">
-        <f ca="1">_xll.ohTrigger(M8:M14)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D8,ROUND($L8,6),EvaluationDate)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N8" s="108">
+        <f>_xll.ohTrigger(M8:M14)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -10418,22 +10695,21 @@
       <c r="G9" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="139" t="e">
-        <f ca="1">'3MSynthDepo'!I26</f>
-        <v>#NAME?</v>
+      <c r="H9" s="139">
+        <f>'3MSynthDepo'!I26</f>
+        <v>-3.6308890584432367E-4</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="132">
         <v>-3.360562792899456E-4</v>
       </c>
       <c r="K9" s="16"/>
-      <c r="L9" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L9" s="120">
+        <v>-3.360562792899456E-4</v>
       </c>
       <c r="M9" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D9,ROUND($L9,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D9,ROUND($L9,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N9" s="104"/>
     </row>
@@ -10455,22 +10731,21 @@
       <c r="G10" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="139" t="e">
-        <f ca="1">'3MSynthDepo'!I27</f>
-        <v>#NAME?</v>
+      <c r="H10" s="139">
+        <f>'3MSynthDepo'!I27</f>
+        <v>-3.6862881669438456E-4</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="132">
         <v>-3.4306991797405928E-4</v>
       </c>
       <c r="K10" s="16"/>
-      <c r="L10" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L10" s="120">
+        <v>-3.4306991797405928E-4</v>
       </c>
       <c r="M10" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D10,ROUND($L10,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D10,ROUND($L10,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N10" s="104"/>
     </row>
@@ -10492,22 +10767,21 @@
       <c r="G11" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="147" t="e">
-        <f ca="1">'3MSynthDepo'!I28</f>
-        <v>#NAME?</v>
+      <c r="H11" s="147">
+        <f>'3MSynthDepo'!I28</f>
+        <v>-3.7418734480836643E-4</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="133">
         <v>-3.5005666844270929E-4</v>
       </c>
       <c r="K11" s="16"/>
-      <c r="L11" s="122" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L11" s="122">
+        <v>-3.5005666844270929E-4</v>
       </c>
       <c r="M11" s="123" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D11,ROUND($L11,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D11,ROUND($L11,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N11" s="104"/>
     </row>
@@ -10529,22 +10803,21 @@
       <c r="G12" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="139" t="e">
-        <f ca="1">'3MSynthDepo'!I29</f>
-        <v>#NAME?</v>
+      <c r="H12" s="139">
+        <f>'3MSynthDepo'!I29</f>
+        <v>-3.6734028804641383E-4</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="132">
         <v>-3.1168070535292358E-4</v>
       </c>
       <c r="K12" s="16"/>
-      <c r="L12" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L12" s="120">
+        <v>-3.1168070535292358E-4</v>
       </c>
       <c r="M12" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D12,ROUND($L12,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D12,ROUND($L12,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N12" s="104"/>
     </row>
@@ -10566,22 +10839,21 @@
       <c r="G13" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="139" t="e">
-        <f ca="1">'3MSynthDepo'!I30</f>
-        <v>#NAME?</v>
+      <c r="H13" s="139">
+        <f>'3MSynthDepo'!I30</f>
+        <v>-3.580322806802954E-4</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="132">
         <v>-3.4856932392404098E-4</v>
       </c>
       <c r="K13" s="16"/>
-      <c r="L13" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L13" s="120">
+        <v>-3.4856932392404098E-4</v>
       </c>
       <c r="M13" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D13,ROUND($L13,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D13,ROUND($L13,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N13" s="104"/>
     </row>
@@ -10603,22 +10875,21 @@
       <c r="G14" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="147" t="e">
-        <f ca="1">'3MSynthDepo'!I31</f>
-        <v>#NAME?</v>
+      <c r="H14" s="147">
+        <f>'3MSynthDepo'!I31</f>
+        <v>-3.4856752005203002E-4</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="133">
         <v>-3.2849599587920461E-4</v>
       </c>
       <c r="K14" s="16"/>
-      <c r="L14" s="122" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L14" s="122">
+        <v>-3.2849599587920461E-4</v>
       </c>
       <c r="M14" s="123" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D14,ROUND($L14,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D14,ROUND($L14,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N14" s="104"/>
     </row>
@@ -10645,26 +10916,25 @@
       <c r="G15" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="144" t="e">
-        <f ca="1">'6MSynthDepo'!I25</f>
-        <v>#NAME?</v>
+      <c r="H15" s="144">
+        <f>'6MSynthDepo'!I25</f>
+        <v>3.7347125160458461E-4</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="132">
         <v>3.8811684514250544E-4</v>
       </c>
       <c r="K15" s="16"/>
-      <c r="L15" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L15" s="120">
+        <v>3.8811684514250544E-4</v>
       </c>
       <c r="M15" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D15,ROUND($L15,6),EvaluationDate)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N15" s="110" t="e">
-        <f ca="1">_xll.ohTrigger(M15:M24)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D15,ROUND($L15,6),EvaluationDate)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="110">
+        <f>_xll.ohTrigger(M15:M24)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -10691,22 +10961,21 @@
       <c r="G16" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="139" t="e">
-        <f ca="1">'6MSynthDepo'!I26</f>
-        <v>#NAME?</v>
+      <c r="H16" s="139">
+        <f>'6MSynthDepo'!I26</f>
+        <v>3.7593795601103305E-4</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="132">
         <v>3.900531099823975E-4</v>
       </c>
       <c r="K16" s="16"/>
-      <c r="L16" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L16" s="120">
+        <v>3.900531099823975E-4</v>
       </c>
       <c r="M16" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D16,ROUND($L16,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D16,ROUND($L16,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N16" s="111"/>
     </row>
@@ -10731,22 +11000,21 @@
       <c r="G17" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="139" t="e">
-        <f ca="1">'6MSynthDepo'!I27</f>
-        <v>#NAME?</v>
+      <c r="H17" s="139">
+        <f>'6MSynthDepo'!I27</f>
+        <v>3.6885816643929454E-4</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="132">
         <v>3.8237034142391782E-4</v>
       </c>
       <c r="K17" s="16"/>
-      <c r="L17" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L17" s="120">
+        <v>3.8237034142391782E-4</v>
       </c>
       <c r="M17" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D17,ROUND($L17,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D17,ROUND($L17,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N17" s="111"/>
     </row>
@@ -10771,22 +11039,21 @@
       <c r="G18" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="139" t="e">
-        <f ca="1">'6MSynthDepo'!I28</f>
-        <v>#NAME?</v>
+      <c r="H18" s="139">
+        <f>'6MSynthDepo'!I28</f>
+        <v>3.6183999049604107E-4</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="132">
         <v>3.7476605910009245E-4</v>
       </c>
       <c r="K18" s="16"/>
-      <c r="L18" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L18" s="120">
+        <v>3.7476605910009245E-4</v>
       </c>
       <c r="M18" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D18,ROUND($L18,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D18,ROUND($L18,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N18" s="111"/>
     </row>
@@ -10811,22 +11078,21 @@
       <c r="G19" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="144" t="e">
-        <f ca="1">'6MSynthDepo'!I29</f>
-        <v>#NAME?</v>
+      <c r="H19" s="144">
+        <f>'6MSynthDepo'!I29</f>
+        <v>3.669274257420696E-4</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="135">
         <v>4.124255326827253E-4</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="126" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L19" s="126">
+        <v>4.124255326827253E-4</v>
       </c>
       <c r="M19" s="127" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D19,ROUND($L19,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D19,ROUND($L19,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N19" s="111"/>
     </row>
@@ -10851,22 +11117,21 @@
       <c r="G20" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="139" t="e">
-        <f ca="1">'6MSynthDepo'!I30</f>
-        <v>#NAME?</v>
+      <c r="H20" s="139">
+        <f>'6MSynthDepo'!I30</f>
+        <v>3.710081155069183E-4</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="132">
         <v>3.7363881997795525E-4</v>
       </c>
       <c r="K20" s="16"/>
-      <c r="L20" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L20" s="120">
+        <v>3.7363881997795525E-4</v>
       </c>
       <c r="M20" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D20,ROUND($L20,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D20,ROUND($L20,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N20" s="111"/>
     </row>
@@ -10891,22 +11156,21 @@
       <c r="G21" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="139" t="e">
-        <f ca="1">'6MSynthDepo'!I31</f>
-        <v>#NAME?</v>
+      <c r="H21" s="139">
+        <f>'6MSynthDepo'!I31</f>
+        <v>3.7706142789183399E-4</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="132">
         <v>3.9284258309291777E-4</v>
       </c>
       <c r="K21" s="16"/>
-      <c r="L21" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L21" s="120">
+        <v>3.9284258309291777E-4</v>
       </c>
       <c r="M21" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D21,ROUND($L21,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D21,ROUND($L21,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N21" s="111"/>
     </row>
@@ -10931,22 +11195,21 @@
       <c r="G22" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="139" t="e">
-        <f ca="1">'6MSynthDepo'!I32</f>
-        <v>#NAME?</v>
+      <c r="H22" s="139">
+        <f>'6MSynthDepo'!I32</f>
+        <v>3.6562370490059951E-4</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="132">
         <v>3.7577283564729671E-4</v>
       </c>
       <c r="K22" s="16"/>
-      <c r="L22" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L22" s="120">
+        <v>3.7577283564729671E-4</v>
       </c>
       <c r="M22" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D22,ROUND($L22,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D22,ROUND($L22,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N22" s="111"/>
     </row>
@@ -10971,22 +11234,21 @@
       <c r="G23" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="139" t="e">
-        <f ca="1">'6MSynthDepo'!I33</f>
-        <v>#NAME?</v>
+      <c r="H23" s="139">
+        <f>'6MSynthDepo'!I33</f>
+        <v>3.6563375287718461E-4</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="132">
         <v>3.7978627978653342E-4</v>
       </c>
       <c r="K23" s="16"/>
-      <c r="L23" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L23" s="120">
+        <v>3.7978627978653342E-4</v>
       </c>
       <c r="M23" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D23,ROUND($L23,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D23,ROUND($L23,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N23" s="111"/>
     </row>
@@ -11011,22 +11273,21 @@
       <c r="G24" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="147" t="e">
-        <f ca="1">'6MSynthDepo'!I34</f>
-        <v>#NAME?</v>
+      <c r="H24" s="147">
+        <f>'6MSynthDepo'!I34</f>
+        <v>3.639137439375357E-4</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="133">
         <v>3.7343250152188157E-4</v>
       </c>
       <c r="K24" s="16"/>
-      <c r="L24" s="122" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L24" s="122">
+        <v>3.7343250152188157E-4</v>
       </c>
       <c r="M24" s="123" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D24,ROUND($L24,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D24,ROUND($L24,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N24" s="111"/>
     </row>
@@ -11053,26 +11314,25 @@
       <c r="G25" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="144" t="e">
-        <f ca="1">'1YSynthDepo'!I20</f>
-        <v>#NAME?</v>
+      <c r="H25" s="144">
+        <f>'1YSynthDepo'!I20</f>
+        <v>1.5396768962183671E-3</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="132">
         <v>1.5304876962574099E-3</v>
       </c>
       <c r="K25" s="16"/>
-      <c r="L25" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L25" s="120">
+        <v>1.5304876962574099E-3</v>
       </c>
       <c r="M25" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D25,ROUND($L25,6),EvaluationDate)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N25" s="110" t="e">
-        <f ca="1">_xll.ohTrigger(M25:M40)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D25,ROUND($L25,6),EvaluationDate)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N25" s="110">
+        <f>_xll.ohTrigger(M25:M40)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -11099,22 +11359,21 @@
       <c r="G26" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="139" t="e">
-        <f ca="1">'1YSynthDepo'!I21</f>
-        <v>#NAME?</v>
+      <c r="H26" s="139">
+        <f>'1YSynthDepo'!I21</f>
+        <v>1.5391068560547236E-3</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="132">
         <v>1.5299868322899662E-3</v>
       </c>
       <c r="K26" s="16"/>
-      <c r="L26" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L26" s="120">
+        <v>1.5299868322899662E-3</v>
       </c>
       <c r="M26" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D26,ROUND($L26,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D26,ROUND($L26,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N26" s="111"/>
     </row>
@@ -11139,22 +11398,21 @@
       <c r="G27" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="139" t="e">
-        <f ca="1">'1YSynthDepo'!I22</f>
-        <v>#NAME?</v>
+      <c r="H27" s="139">
+        <f>'1YSynthDepo'!I22</f>
+        <v>1.5285874085702034E-3</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="132">
         <v>1.5195489405104923E-3</v>
       </c>
       <c r="K27" s="16"/>
-      <c r="L27" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L27" s="120">
+        <v>1.5195489405104923E-3</v>
       </c>
       <c r="M27" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D27,ROUND($L27,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D27,ROUND($L27,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N27" s="111"/>
     </row>
@@ -11179,22 +11437,21 @@
       <c r="G28" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="139" t="e">
-        <f ca="1">'1YSynthDepo'!I23</f>
-        <v>#NAME?</v>
+      <c r="H28" s="139">
+        <f>'1YSynthDepo'!I23</f>
+        <v>1.5182398161225511E-3</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="132">
         <v>1.5092837959989375E-3</v>
       </c>
       <c r="K28" s="16"/>
-      <c r="L28" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L28" s="120">
+        <v>1.5092837959989375E-3</v>
       </c>
       <c r="M28" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D28,ROUND($L28,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D28,ROUND($L28,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N28" s="111"/>
     </row>
@@ -11219,22 +11476,21 @@
       <c r="G29" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="147" t="e">
-        <f ca="1">'1YSynthDepo'!I24</f>
-        <v>#NAME?</v>
+      <c r="H29" s="147">
+        <f>'1YSynthDepo'!I24</f>
+        <v>1.5192083113433341E-3</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="133">
         <v>1.5436638581656226E-3</v>
       </c>
       <c r="K29" s="16"/>
-      <c r="L29" s="122" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L29" s="122">
+        <v>1.5436638581656226E-3</v>
       </c>
       <c r="M29" s="123" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D29,ROUND($L29,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D29,ROUND($L29,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N29" s="111"/>
     </row>
@@ -11259,22 +11515,21 @@
       <c r="G30" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="139" t="e">
-        <f ca="1">'1YSynthDepo'!I25</f>
-        <v>#NAME?</v>
+      <c r="H30" s="139">
+        <f>'1YSynthDepo'!I25</f>
+        <v>1.5100783600260456E-3</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="132">
         <v>1.4944309809768051E-3</v>
       </c>
       <c r="K30" s="16"/>
-      <c r="L30" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L30" s="120">
+        <v>1.4944309809768051E-3</v>
       </c>
       <c r="M30" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D30,ROUND($L30,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D30,ROUND($L30,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N30" s="110"/>
     </row>
@@ -11299,22 +11554,21 @@
       <c r="G31" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="139" t="e">
-        <f ca="1">'1YSynthDepo'!I26</f>
-        <v>#NAME?</v>
+      <c r="H31" s="139">
+        <f>'1YSynthDepo'!I26</f>
+        <v>1.5060354995468993E-3</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="132">
         <v>1.5057875805543112E-3</v>
       </c>
       <c r="K31" s="16"/>
-      <c r="L31" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L31" s="120">
+        <v>1.5057875805543112E-3</v>
       </c>
       <c r="M31" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D31,ROUND($L31,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D31,ROUND($L31,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N31" s="111"/>
     </row>
@@ -11339,22 +11593,21 @@
       <c r="G32" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="139" t="e">
-        <f ca="1">'1YSynthDepo'!I27</f>
-        <v>#NAME?</v>
+      <c r="H32" s="139">
+        <f>'1YSynthDepo'!I27</f>
+        <v>1.4849260759376649E-3</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="132">
         <v>1.4813785667117684E-3</v>
       </c>
       <c r="K32" s="16"/>
-      <c r="L32" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L32" s="120">
+        <v>1.4813785667117684E-3</v>
       </c>
       <c r="M32" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D32,ROUND($L32,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D32,ROUND($L32,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N32" s="111"/>
     </row>
@@ -11379,22 +11632,21 @@
       <c r="G33" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="139" t="e">
-        <f ca="1">'1YSynthDepo'!I28</f>
-        <v>#NAME?</v>
+      <c r="H33" s="139">
+        <f>'1YSynthDepo'!I28</f>
+        <v>1.4786566461091073E-3</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="132">
         <v>1.4808094695501909E-3</v>
       </c>
       <c r="K33" s="16"/>
-      <c r="L33" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L33" s="120">
+        <v>1.4808094695501909E-3</v>
       </c>
       <c r="M33" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D33,ROUND($L33,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D33,ROUND($L33,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N33" s="111"/>
     </row>
@@ -11419,22 +11671,21 @@
       <c r="G34" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="139" t="e">
-        <f ca="1">'1YSynthDepo'!I29</f>
-        <v>#NAME?</v>
+      <c r="H34" s="139">
+        <f>'1YSynthDepo'!I29</f>
+        <v>1.471961076343876E-3</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="132">
         <v>1.4710321275872768E-3</v>
       </c>
       <c r="K34" s="16"/>
-      <c r="L34" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L34" s="120">
+        <v>1.4710321275872768E-3</v>
       </c>
       <c r="M34" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D34,ROUND($L34,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D34,ROUND($L34,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N34" s="111"/>
     </row>
@@ -11459,22 +11710,21 @@
       <c r="G35" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="139" t="e">
-        <f ca="1">'1YSynthDepo'!I30</f>
-        <v>#NAME?</v>
+      <c r="H35" s="139">
+        <f>'1YSynthDepo'!I30</f>
+        <v>1.5777993372924862E-3</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="132">
         <v>1.5784204210785721E-3</v>
       </c>
       <c r="K35" s="16"/>
-      <c r="L35" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L35" s="120">
+        <v>1.5784204210785721E-3</v>
       </c>
       <c r="M35" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D35,ROUND($L35,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D35,ROUND($L35,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N35" s="111"/>
     </row>
@@ -11499,22 +11749,21 @@
       <c r="G36" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="139" t="e">
-        <f ca="1">'1YSynthDepo'!I31</f>
-        <v>#NAME?</v>
+      <c r="H36" s="139">
+        <f>'1YSynthDepo'!I31</f>
+        <v>1.5777993372924862E-3</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="132">
         <v>1.5784204210785721E-3</v>
       </c>
       <c r="K36" s="16"/>
-      <c r="L36" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L36" s="120">
+        <v>1.5784204210785721E-3</v>
       </c>
       <c r="M36" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D36,ROUND($L36,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D36,ROUND($L36,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N36" s="111"/>
     </row>
@@ -11539,22 +11788,21 @@
       <c r="G37" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="139" t="e">
-        <f ca="1">'1YSynthDepo'!I32</f>
-        <v>#NAME?</v>
+      <c r="H37" s="139">
+        <f>'1YSynthDepo'!I32</f>
+        <v>1.5777993372924862E-3</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="132">
         <v>1.5784204210785721E-3</v>
       </c>
       <c r="K37" s="16"/>
-      <c r="L37" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L37" s="120">
+        <v>1.5784204210785721E-3</v>
       </c>
       <c r="M37" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D37,ROUND($L37,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D37,ROUND($L37,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N37" s="111"/>
     </row>
@@ -11579,22 +11827,21 @@
       <c r="G38" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="139" t="e">
-        <f ca="1">'1YSynthDepo'!I33</f>
-        <v>#NAME?</v>
+      <c r="H38" s="139">
+        <f>'1YSynthDepo'!I33</f>
+        <v>1.5777993372924862E-3</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="132">
         <v>1.5784204210785721E-3</v>
       </c>
       <c r="K38" s="16"/>
-      <c r="L38" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L38" s="120">
+        <v>1.5784204210785721E-3</v>
       </c>
       <c r="M38" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D38,ROUND($L38,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D38,ROUND($L38,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N38" s="111"/>
     </row>
@@ -11619,22 +11866,21 @@
       <c r="G39" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="139" t="e">
-        <f ca="1">'1YSynthDepo'!I34</f>
-        <v>#NAME?</v>
+      <c r="H39" s="139">
+        <f>'1YSynthDepo'!I34</f>
+        <v>1.5777993372924862E-3</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="132">
         <v>1.5784204210785721E-3</v>
       </c>
       <c r="K39" s="16"/>
-      <c r="L39" s="120" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L39" s="120">
+        <v>1.5784204210785721E-3</v>
       </c>
       <c r="M39" s="121" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D39,ROUND($L39,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D39,ROUND($L39,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N39" s="111"/>
     </row>
@@ -11659,22 +11905,21 @@
       <c r="G40" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="147" t="e">
-        <f ca="1">'1YSynthDepo'!I35</f>
-        <v>#NAME?</v>
+      <c r="H40" s="147">
+        <f>'1YSynthDepo'!I35</f>
+        <v>1.5777993372924862E-3</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="133">
         <v>1.5784204210785721E-3</v>
       </c>
       <c r="K40" s="16"/>
-      <c r="L40" s="122" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L40" s="122">
+        <v>1.5784204210785721E-3</v>
       </c>
       <c r="M40" s="123" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D40,ROUND($L40,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D40,ROUND($L40,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N40" s="110"/>
     </row>
@@ -11705,26 +11950,25 @@
         <f t="shared" ref="G41:G62" si="7">F41&amp;"x"&amp;(F41+Months12M)&amp;"F"</f>
         <v>1x13F</v>
       </c>
-      <c r="H41" s="152" t="e">
-        <f ca="1">SynthFra!G4</f>
-        <v>#NAME?</v>
+      <c r="H41" s="152">
+        <f>SynthFra!G4</f>
+        <v>1.57E-3</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="136">
         <v>1.5700000000000002E-3</v>
       </c>
       <c r="K41" s="19"/>
-      <c r="L41" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L41" s="128">
+        <v>1.5700000000000002E-3</v>
       </c>
       <c r="M41" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D41,ROUND(L41,6),EvaluationDate)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N41" s="110" t="e">
-        <f ca="1">_xll.ohTrigger(M41:M63)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(L41,6),EvaluationDate)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N41" s="110">
+        <f>_xll.ohTrigger(M41:M63)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -11754,22 +11998,21 @@
         <f t="shared" si="7"/>
         <v>2x14F</v>
       </c>
-      <c r="H42" s="154" t="e">
-        <f ca="1">SynthFra!G5</f>
-        <v>#NAME?</v>
+      <c r="H42" s="154">
+        <f>SynthFra!G5</f>
+        <v>1.6299999999999997E-3</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="136">
         <v>1.6299999999999999E-3</v>
       </c>
       <c r="K42" s="19"/>
-      <c r="L42" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L42" s="128">
+        <v>1.6299999999999999E-3</v>
       </c>
       <c r="M42" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D42,ROUND(L42,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(L42,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N42" s="111"/>
     </row>
@@ -11800,22 +12043,21 @@
         <f t="shared" si="7"/>
         <v>3x15F</v>
       </c>
-      <c r="H43" s="154" t="e">
-        <f ca="1">SynthFra!G6</f>
-        <v>#NAME?</v>
+      <c r="H43" s="154">
+        <f>SynthFra!G6</f>
+        <v>1.6799999999999996E-3</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="136">
         <v>1.6799999999999996E-3</v>
       </c>
       <c r="K43" s="19"/>
-      <c r="L43" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L43" s="128">
+        <v>1.6799999999999996E-3</v>
       </c>
       <c r="M43" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D43,ROUND(L43,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(L43,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N43" s="111"/>
     </row>
@@ -11846,22 +12088,21 @@
         <f t="shared" si="7"/>
         <v>4x16F</v>
       </c>
-      <c r="H44" s="154" t="e">
-        <f ca="1">SynthFra!G7</f>
-        <v>#NAME?</v>
+      <c r="H44" s="154">
+        <f>SynthFra!G7</f>
+        <v>1.7599999999999998E-3</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="136">
         <v>1.7599999999999998E-3</v>
       </c>
       <c r="K44" s="19"/>
-      <c r="L44" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L44" s="128">
+        <v>1.7599999999999998E-3</v>
       </c>
       <c r="M44" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D44,ROUND(L44,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(L44,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N44" s="111"/>
     </row>
@@ -11892,22 +12133,21 @@
         <f t="shared" si="7"/>
         <v>5x17F</v>
       </c>
-      <c r="H45" s="154" t="e">
-        <f ca="1">SynthFra!G8</f>
-        <v>#NAME?</v>
+      <c r="H45" s="154">
+        <f>SynthFra!G8</f>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="136">
         <v>1.8400000000000001E-3</v>
       </c>
       <c r="K45" s="19"/>
-      <c r="L45" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L45" s="128">
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="M45" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D45,ROUND(L45,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(L45,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N45" s="111"/>
     </row>
@@ -11938,22 +12178,21 @@
         <f t="shared" si="7"/>
         <v>6x18F</v>
       </c>
-      <c r="H46" s="154" t="e">
-        <f ca="1">SynthFra!G9</f>
-        <v>#NAME?</v>
+      <c r="H46" s="154">
+        <f>SynthFra!G9</f>
+        <v>1.91E-3</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="136">
         <v>1.9099999999999998E-3</v>
       </c>
       <c r="K46" s="19"/>
-      <c r="L46" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L46" s="128">
+        <v>1.9099999999999998E-3</v>
       </c>
       <c r="M46" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D46,ROUND(L46,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(L46,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N46" s="111"/>
     </row>
@@ -11984,22 +12223,21 @@
         <f t="shared" si="7"/>
         <v>7x19F</v>
       </c>
-      <c r="H47" s="154" t="e">
-        <f ca="1">SynthFra!G10</f>
-        <v>#NAME?</v>
+      <c r="H47" s="154">
+        <f>SynthFra!G10</f>
+        <v>2.0200000000000001E-3</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="136">
         <v>2.0200000000000001E-3</v>
       </c>
       <c r="K47" s="19"/>
-      <c r="L47" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L47" s="128">
+        <v>2.0200000000000001E-3</v>
       </c>
       <c r="M47" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D47,ROUND(L47,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(L47,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N47" s="111"/>
     </row>
@@ -12030,22 +12268,21 @@
         <f t="shared" si="7"/>
         <v>8x20F</v>
       </c>
-      <c r="H48" s="154" t="e">
-        <f ca="1">SynthFra!G11</f>
-        <v>#NAME?</v>
+      <c r="H48" s="154">
+        <f>SynthFra!G11</f>
+        <v>2.1299999999999999E-3</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="136">
         <v>2.1299999999999999E-3</v>
       </c>
       <c r="K48" s="19"/>
-      <c r="L48" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L48" s="128">
+        <v>2.1299999999999999E-3</v>
       </c>
       <c r="M48" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D48,ROUND(L48,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(L48,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N48" s="111"/>
     </row>
@@ -12076,22 +12313,21 @@
         <f t="shared" si="7"/>
         <v>9x21F</v>
       </c>
-      <c r="H49" s="154" t="e">
-        <f ca="1">SynthFra!G12</f>
-        <v>#NAME?</v>
+      <c r="H49" s="154">
+        <f>SynthFra!G12</f>
+        <v>2.2400000000000007E-3</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="136">
         <v>2.2400000000000002E-3</v>
       </c>
       <c r="K49" s="19"/>
-      <c r="L49" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L49" s="128">
+        <v>2.2400000000000002E-3</v>
       </c>
       <c r="M49" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D49,ROUND(L49,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(L49,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N49" s="111"/>
     </row>
@@ -12122,22 +12358,21 @@
         <f t="shared" si="7"/>
         <v>10x22F</v>
       </c>
-      <c r="H50" s="154" t="e">
-        <f ca="1">SynthFra!G13</f>
-        <v>#NAME?</v>
+      <c r="H50" s="154">
+        <f>SynthFra!G13</f>
+        <v>2.3700000000000006E-3</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="136">
         <v>2.3700000000000001E-3</v>
       </c>
       <c r="K50" s="19"/>
-      <c r="L50" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L50" s="128">
+        <v>2.3700000000000001E-3</v>
       </c>
       <c r="M50" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D50,ROUND(L50,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(L50,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N50" s="111"/>
     </row>
@@ -12168,22 +12403,21 @@
         <f t="shared" si="7"/>
         <v>11x23F</v>
       </c>
-      <c r="H51" s="154" t="e">
-        <f ca="1">SynthFra!G14</f>
-        <v>#NAME?</v>
+      <c r="H51" s="154">
+        <f>SynthFra!G14</f>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="136">
         <v>2.5100000000000001E-3</v>
       </c>
       <c r="K51" s="19"/>
-      <c r="L51" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L51" s="128">
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="M51" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D51,ROUND(L51,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(L51,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N51" s="111"/>
     </row>
@@ -12214,22 +12448,21 @@
         <f t="shared" si="7"/>
         <v>13x25F</v>
       </c>
-      <c r="H52" s="154" t="e">
-        <f ca="1">SynthFra!G16</f>
-        <v>#NAME?</v>
+      <c r="H52" s="154">
+        <f>SynthFra!G16</f>
+        <v>2.8182724592548947E-3</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="136">
         <v>2.8190718310976731E-3</v>
       </c>
       <c r="K52" s="19"/>
-      <c r="L52" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L52" s="128">
+        <v>2.8190718310976731E-3</v>
       </c>
       <c r="M52" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D52,ROUND(L52,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(L52,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N52" s="111"/>
     </row>
@@ -12260,22 +12493,21 @@
         <f t="shared" si="7"/>
         <v>14x26F</v>
       </c>
-      <c r="H53" s="154" t="e">
-        <f ca="1">SynthFra!G17</f>
-        <v>#NAME?</v>
+      <c r="H53" s="154">
+        <f>SynthFra!G17</f>
+        <v>2.964761283066295E-3</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="136">
         <v>2.9672873658795093E-3</v>
       </c>
       <c r="K53" s="19"/>
-      <c r="L53" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L53" s="128">
+        <v>2.9672873658795093E-3</v>
       </c>
       <c r="M53" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D53,ROUND(L53,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(L53,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N53" s="111"/>
     </row>
@@ -12306,22 +12538,21 @@
         <f t="shared" si="7"/>
         <v>15x27F</v>
       </c>
-      <c r="H54" s="154" t="e">
-        <f ca="1">SynthFra!G18</f>
-        <v>#NAME?</v>
+      <c r="H54" s="154">
+        <f>SynthFra!G18</f>
+        <v>3.1204135385212452E-3</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="136">
         <v>3.1261417308532692E-3</v>
       </c>
       <c r="K54" s="19"/>
-      <c r="L54" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L54" s="128">
+        <v>3.1261417308532692E-3</v>
       </c>
       <c r="M54" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D54,ROUND(L54,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(L54,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N54" s="111"/>
     </row>
@@ -12352,22 +12583,21 @@
         <f t="shared" si="7"/>
         <v>16x28F</v>
       </c>
-      <c r="H55" s="154" t="e">
-        <f ca="1">SynthFra!G19</f>
-        <v>#NAME?</v>
+      <c r="H55" s="154">
+        <f>SynthFra!G19</f>
+        <v>3.2850933661498012E-3</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="136">
         <v>3.2819703487922854E-3</v>
       </c>
       <c r="K55" s="19"/>
-      <c r="L55" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L55" s="128">
+        <v>3.2819703487922854E-3</v>
       </c>
       <c r="M55" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D55,ROUND(L55,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(L55,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N55" s="111"/>
     </row>
@@ -12398,22 +12628,21 @@
         <f t="shared" si="7"/>
         <v>17x29F</v>
       </c>
-      <c r="H56" s="154" t="e">
-        <f ca="1">SynthFra!G20</f>
-        <v>#NAME?</v>
+      <c r="H56" s="154">
+        <f>SynthFra!G20</f>
+        <v>3.4493508565691484E-3</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="136">
         <v>3.451083383114617E-3</v>
       </c>
       <c r="K56" s="19"/>
-      <c r="L56" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L56" s="128">
+        <v>3.451083383114617E-3</v>
       </c>
       <c r="M56" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D56,ROUND(L56,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(L56,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N56" s="111"/>
     </row>
@@ -12444,22 +12673,21 @@
         <f t="shared" si="7"/>
         <v>18x30F</v>
       </c>
-      <c r="H57" s="154" t="e">
-        <f ca="1">SynthFra!G21</f>
-        <v>#NAME?</v>
+      <c r="H57" s="154">
+        <f>SynthFra!G21</f>
+        <v>3.6044259880817862E-3</v>
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="136">
         <v>3.6093059062306636E-3</v>
       </c>
       <c r="K57" s="19"/>
-      <c r="L57" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L57" s="128">
+        <v>3.6093059062306636E-3</v>
       </c>
       <c r="M57" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D57,ROUND(L57,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(L57,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N57" s="111"/>
     </row>
@@ -12490,22 +12718,21 @@
         <f t="shared" si="7"/>
         <v>19x31F</v>
       </c>
-      <c r="H58" s="154" t="e">
-        <f ca="1">SynthFra!G22</f>
-        <v>#NAME?</v>
+      <c r="H58" s="154">
+        <f>SynthFra!G22</f>
+        <v>3.7887086601010225E-3</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="136">
         <v>3.7943510668206281E-3</v>
       </c>
       <c r="K58" s="19"/>
-      <c r="L58" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L58" s="128">
+        <v>3.7943510668206281E-3</v>
       </c>
       <c r="M58" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D58,ROUND(L58,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(L58,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N58" s="111"/>
     </row>
@@ -12536,22 +12763,21 @@
         <f t="shared" si="7"/>
         <v>20x32F</v>
       </c>
-      <c r="H59" s="154" t="e">
-        <f ca="1">SynthFra!G23</f>
-        <v>#NAME?</v>
+      <c r="H59" s="154">
+        <f>SynthFra!G23</f>
+        <v>3.9547906395254115E-3</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="136">
         <v>3.9592973152967302E-3</v>
       </c>
       <c r="K59" s="19"/>
-      <c r="L59" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L59" s="128">
+        <v>3.9592973152967302E-3</v>
       </c>
       <c r="M59" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D59,ROUND(L59,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(L59,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N59" s="111"/>
     </row>
@@ -12582,22 +12808,21 @@
         <f t="shared" si="7"/>
         <v>21x33F</v>
       </c>
-      <c r="H60" s="154" t="e">
-        <f ca="1">SynthFra!G24</f>
-        <v>#NAME?</v>
+      <c r="H60" s="154">
+        <f>SynthFra!G24</f>
+        <v>4.134208768154444E-3</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="136">
         <v>4.1370111496454908E-3</v>
       </c>
       <c r="K60" s="19"/>
-      <c r="L60" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L60" s="128">
+        <v>4.1370111496454908E-3</v>
       </c>
       <c r="M60" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D60,ROUND(L60,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(L60,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N60" s="111"/>
     </row>
@@ -12628,22 +12853,21 @@
         <f t="shared" si="7"/>
         <v>22x34F</v>
       </c>
-      <c r="H61" s="154" t="e">
-        <f ca="1">SynthFra!G25</f>
-        <v>#NAME?</v>
+      <c r="H61" s="154">
+        <f>SynthFra!G25</f>
+        <v>4.3373276512040952E-3</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="136">
         <v>4.3387994579556256E-3</v>
       </c>
       <c r="K61" s="19"/>
-      <c r="L61" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L61" s="128">
+        <v>4.3387994579556256E-3</v>
       </c>
       <c r="M61" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D61,ROUND(L61,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(L61,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N61" s="111"/>
     </row>
@@ -12674,22 +12898,21 @@
         <f t="shared" si="7"/>
         <v>23x35F</v>
       </c>
-      <c r="H62" s="154" t="e">
-        <f ca="1">SynthFra!G26</f>
-        <v>#NAME?</v>
+      <c r="H62" s="154">
+        <f>SynthFra!G26</f>
+        <v>4.5324253169132184E-3</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="136">
         <v>4.5331055202903845E-3</v>
       </c>
       <c r="K62" s="19"/>
-      <c r="L62" s="128" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L62" s="128">
+        <v>4.5331055202903845E-3</v>
       </c>
       <c r="M62" s="129" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D62,ROUND(L62,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(L62,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N62" s="111"/>
     </row>
@@ -12720,22 +12943,21 @@
         <f t="shared" ref="G63" si="8">F63&amp;"x"&amp;(F63+Months12M)&amp;"F"</f>
         <v>24x36F</v>
       </c>
-      <c r="H63" s="156" t="e">
-        <f ca="1">SynthFra!G27</f>
-        <v>#NAME?</v>
+      <c r="H63" s="156">
+        <f>SynthFra!G27</f>
+        <v>4.7599999999999995E-3</v>
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="137">
         <v>4.7599999999999995E-3</v>
       </c>
       <c r="K63" s="19"/>
-      <c r="L63" s="130" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="L63" s="130">
+        <v>4.7599999999999995E-3</v>
       </c>
       <c r="M63" s="131" t="e">
-        <f ca="1">_xll.qlSimpleQuoteSetValue(D63,ROUND(L63,6),EvaluationDate)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(L63,6),EvaluationDate)</f>
+        <v>#N/A</v>
       </c>
       <c r="N63" s="111"/>
     </row>

--- a/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18660" yWindow="-15" windowWidth="18720" windowHeight="13740" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="19065" yWindow="-15" windowWidth="19110" windowHeight="12810" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="29" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <definedName name="Serialize">'General Settings'!$I$6</definedName>
     <definedName name="SettlementDate">'General Settings'!$D$17</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'1YSynthDepo'!$T$13:$T$17</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'3MSynthDepo'!$T$13:$T$17</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'3MSynthDepo'!$T$14:$T$18</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'6MSynthDepo'!$T$13:$T$17</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0000000000001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0000000000001</definedName>
@@ -144,7 +144,7 @@
     <definedName name="Tenor6M" localSheetId="6">Contribution!$A$16</definedName>
     <definedName name="TenorBasis12M" localSheetId="4">'1YSynthDepo'!$R$18</definedName>
     <definedName name="TenorBasis1M" localSheetId="1">'1MSynthDepo'!$AE$18</definedName>
-    <definedName name="TenorBasis3M" localSheetId="2">'3MSynthDepo'!$R$18</definedName>
+    <definedName name="TenorBasis3M" localSheetId="2">'3MSynthDepo'!$R$19</definedName>
     <definedName name="TenorBasis6M">'6MSynthDepo'!$R$18</definedName>
     <definedName name="Trigger">'General Settings'!$I$17</definedName>
     <definedName name="TriggerCounter">'General Settings'!$I$21</definedName>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="141">
   <si>
     <t>General Settings</t>
   </si>
@@ -2115,12 +2115,12 @@
       <sheetData sheetId="8">
         <row r="7">
           <cell r="D7" t="str">
-            <v>F6</v>
+            <v>Z5</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>G6</v>
+            <v>F6</v>
           </cell>
         </row>
       </sheetData>
@@ -2248,12 +2248,12 @@
       <sheetData sheetId="20">
         <row r="7">
           <cell r="D7" t="str">
-            <v>F6</v>
+            <v>Z5</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>G6</v>
+            <v>F6</v>
           </cell>
         </row>
       </sheetData>
@@ -2320,36 +2320,36 @@
       <sheetData sheetId="26">
         <row r="7">
           <cell r="D7">
-            <v>42305</v>
+            <v>42275</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>42304</v>
+            <v>42272</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="27">
         <row r="7">
           <cell r="D7">
-            <v>42305</v>
+            <v>42275</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>42304</v>
+            <v>42272</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="28">
         <row r="7">
           <cell r="D7">
-            <v>42306</v>
+            <v>42276</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>42305</v>
+            <v>42275</v>
           </cell>
         </row>
       </sheetData>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="D17" s="8">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlCalendarAdjust(Calendar,EvaluationDate,"f",Trigger),"2D","f")</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="E17" s="209"/>
       <c r="G17" s="222"/>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="I18" s="33">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42307</v>
+        <v>42277</v>
       </c>
       <c r="J18" s="108"/>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D19" s="25" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,'1YSynthDepo'!E5:E17,'1YSynthDepo'!I5:I17)</f>
-        <v>obj_00594#0001</v>
+        <v>obj_0059e#0002</v>
       </c>
       <c r="E19" s="209"/>
       <c r="G19" s="222"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D28" s="36" t="str">
         <f>_xll.qlEuribor(,"1M",D34,,Trigger)</f>
-        <v>obj_0048f#0001</v>
+        <v>obj_0048f#0002</v>
       </c>
       <c r="E28" s="209"/>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="D34" s="52" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,2,Calendar,_xll.ohPack('1MSynthDepo'!G13:G21),"actual/365",,,,D31,D32,,Trigger)</f>
-        <v>obj_0048e#0001</v>
+        <v>obj_0048e#0002</v>
       </c>
       <c r="E34" s="209"/>
     </row>
@@ -3154,7 +3154,7 @@
       <c r="B37" s="208"/>
       <c r="C37" s="26">
         <f>_xll.qlTermStructureReferenceDate(D34)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="D37" s="37">
         <f>_xll.qlYieldTSDiscount(D34,C37,,Trigger)</f>
@@ -3166,11 +3166,11 @@
       <c r="B38" s="208"/>
       <c r="C38" s="27">
         <f>_xll.qlTermStructureMaxDate(D34)</f>
-        <v>42524</v>
+        <v>42492</v>
       </c>
       <c r="D38" s="38">
         <f>_xll.qlYieldTSDiscount(D34,C38,,Trigger)</f>
-        <v>1.0011077182672847</v>
+        <v>1.0007402016501707</v>
       </c>
       <c r="E38" s="226"/>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="K3" s="307" t="str">
         <f>_xll.qlDepositRateHelper(,J3,K1,,Trigger)</f>
-        <v>obj_0046c#0001</v>
+        <v>obj_00467#0002</v>
       </c>
       <c r="L3" s="306" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -3394,21 +3394,21 @@
       </c>
       <c r="R3" s="328">
         <f>SettlementDate</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="S3" s="328">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R3,Trigger)</f>
-        <v>42341</v>
+        <v>42310</v>
       </c>
       <c r="T3" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R3,Trigger),TRUE,AllTriggers)</f>
-        <v>-1.1900000000011346E-3</v>
+        <v>-1.1300000000010854E-3</v>
       </c>
       <c r="U3" s="236"/>
       <c r="V3" s="236"/>
       <c r="W3" s="187">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R3,Trigger)</f>
-        <v>2.4000000000024002E-4</v>
+        <v>2.6999999976827808E-4</v>
       </c>
       <c r="X3" s="236"/>
       <c r="Y3" s="236"/>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="AA3" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R3,,AllTriggers)</f>
-        <v>1.0000144446139678</v>
+        <v>1.0000063889195219</v>
       </c>
       <c r="AB3" s="254"/>
       <c r="AD3" s="274" t="s">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="AE3" s="187" t="str">
         <f>_xll.qlIborIndex(,,S1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_0044b#0001</v>
+        <v>obj_0044c#0002</v>
       </c>
       <c r="AF3" s="54"/>
       <c r="AG3" s="54"/>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="K4" s="155" t="str">
         <f>_xll.qlSwapRateHelper2(,$J4,,C4,Calendar,$F4,$G4,$H4,$K$1,$I4,B4,Discounting,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0044a#0001</v>
+        <v>obj_0044b#0002</v>
       </c>
       <c r="L4" s="306" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -3487,35 +3487,35 @@
       </c>
       <c r="R4" s="291">
         <f>SettlementDate</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="S4" s="291">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R4,Trigger)</f>
-        <v>42341</v>
+        <v>42310</v>
       </c>
       <c r="T4" s="187">
         <f>_xll.qlQuoteValue(Q4,LastFixingsTrigger)</f>
-        <v>-1.1899999999999999E-3</v>
+        <v>-1.1299999999999999E-3</v>
       </c>
       <c r="U4" s="187">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R4),,AllTriggers)</f>
-        <v>-1.4300000000013746E-3</v>
+        <v>-1.3999999997693635E-3</v>
       </c>
       <c r="V4" s="255">
         <f>T4-U4</f>
-        <v>2.4000000000137475E-4</v>
+        <v>2.6999999976936358E-4</v>
       </c>
       <c r="W4" s="183">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R4,Trigger)</f>
-        <v>2.4000000000024002E-4</v>
+        <v>2.6999999976827808E-4</v>
       </c>
       <c r="X4" s="184">
         <f>Y4*10000</f>
-        <v>1.1347259937233289E-11</v>
+        <v>1.085503215092487E-11</v>
       </c>
       <c r="Y4" s="275">
         <f>V4-W4</f>
-        <v>1.1347259937233289E-15</v>
+        <v>1.085503215092487E-15</v>
       </c>
       <c r="Z4" s="281">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R4,,,Trigger)</f>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="AA4" s="333">
         <f>_xll.qlYieldTSDiscount(Discounting,R4,,AllTriggers)</f>
-        <v>1.0000144446139678</v>
+        <v>1.0000063889195219</v>
       </c>
       <c r="AB4" s="238" t="b">
         <v>0</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="K5" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,,C5,Calendar,$F5,$G5,$H5,$K$1,$I5,B5,Discounting,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00449#0001</v>
+        <v>obj_0044a#0002</v>
       </c>
       <c r="L5" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -3590,27 +3590,27 @@
       </c>
       <c r="R5" s="328">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N5&amp;"M","mf",,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="S5" s="328">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R5,Trigger)</f>
-        <v>42341</v>
+        <v>42310</v>
       </c>
       <c r="T5" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R5,Trigger),TRUE,AllTriggers)</f>
-        <v>-1.1900000000011346E-3</v>
+        <v>-1.1300000000010854E-3</v>
       </c>
       <c r="U5" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R5),,AllTriggers)</f>
-        <v>-1.4300000000013746E-3</v>
+        <v>-1.3999999997693635E-3</v>
       </c>
       <c r="V5" s="262">
         <f>T5-U5</f>
-        <v>2.4000000000024002E-4</v>
+        <v>2.6999999976827808E-4</v>
       </c>
       <c r="W5" s="67">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R5,Trigger)</f>
-        <v>2.4000000000024002E-4</v>
+        <v>2.6999999976827808E-4</v>
       </c>
       <c r="X5" s="237">
         <f>Y5*10000</f>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="AA5" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R5,,AllTriggers)</f>
-        <v>1.0000144446139678</v>
+        <v>1.0000063889195219</v>
       </c>
       <c r="AB5" s="238" t="b">
         <v>1</v>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="K6" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,,C6,Calendar,$F6,$G6,$H6,$K$1,$I6,B6,Discounting,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00448#0001</v>
+        <v>obj_00449#0002</v>
       </c>
       <c r="L6" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -3695,27 +3695,27 @@
       </c>
       <c r="R6" s="328">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N6&amp;"M","mf",,Trigger)</f>
-        <v>42341</v>
+        <v>42310</v>
       </c>
       <c r="S6" s="328">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R6,Trigger)</f>
-        <v>42373</v>
+        <v>42340</v>
       </c>
       <c r="T6" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R6,Trigger),TRUE,AllTriggers)</f>
-        <v>-1.5001937079794914E-3</v>
+        <v>-1.2318128047916765E-3</v>
       </c>
       <c r="U6" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R6),,AllTriggers)</f>
-        <v>-1.9533577751756903E-3</v>
+        <v>-1.501847722991112E-3</v>
       </c>
       <c r="V6" s="262">
         <f>T6-U6</f>
-        <v>4.5316406719619895E-4</v>
+        <v>2.7003491819943548E-4</v>
       </c>
       <c r="W6" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R6,Trigger)</f>
-        <v>4.5316406719619884E-4</v>
+        <v>2.7003491819943548E-4</v>
       </c>
       <c r="X6" s="185">
         <f t="shared" ref="X6:X8" si="1">Y6*10000</f>
@@ -3727,11 +3727,11 @@
       </c>
       <c r="Z6" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R6,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="AA6" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R6,,AllTriggers)</f>
-        <v>1.0001336272045431</v>
+        <v>1.0001269597807645</v>
       </c>
       <c r="AB6" s="234" t="b">
         <v>1</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="AE6" s="279" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($Z$5:$Z$8,$AB$5:$AB$8),_xll.ohFilter($V$5:$V$8,$AB$5:$AB$8),_xll.ohFilter($AA$5:$AA$8,$AB$5:$AB$8),_xll.ohFilter(AG13:AG17,AF13:AF17),,,,,Trigger)</f>
-        <v>obj_00590#0001</v>
+        <v>obj_0059c#0002</v>
       </c>
       <c r="AF6" s="54"/>
       <c r="AG6" s="55"/>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="K7" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,,C7,Calendar,$F7,$G7,$H7,$K$1,$I7,B7,Discounting,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00447#0001</v>
+        <v>obj_00448#0002</v>
       </c>
       <c r="L7" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -3803,27 +3803,27 @@
       </c>
       <c r="R7" s="328">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N7&amp;"M","mf",,Trigger)</f>
-        <v>42373</v>
+        <v>42340</v>
       </c>
       <c r="S7" s="328">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R7,Trigger)</f>
-        <v>42404</v>
+        <v>42373</v>
       </c>
       <c r="T7" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R7,Trigger),TRUE,AllTriggers)</f>
-        <v>-1.935351417021653E-3</v>
+        <v>-1.1802784638134415E-3</v>
       </c>
       <c r="U7" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R7),,AllTriggers)</f>
-        <v>-2.3207682665641579E-3</v>
+        <v>-1.3927059087363732E-3</v>
       </c>
       <c r="V7" s="262">
         <f>T7-U7</f>
-        <v>3.8541684954250489E-4</v>
+        <v>2.1242744492293167E-4</v>
       </c>
       <c r="W7" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R7,Trigger)</f>
-        <v>3.8541684954250473E-4</v>
+        <v>2.1242744492293156E-4</v>
       </c>
       <c r="X7" s="185">
         <f t="shared" si="1"/>
@@ -3835,11 +3835,11 @@
       </c>
       <c r="Z7" s="59">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R7,,,Trigger)</f>
-        <v>0.16986301369863013</v>
+        <v>0.16712328767123288</v>
       </c>
       <c r="AA7" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R7,,AllTriggers)</f>
-        <v>1.0003073123659809</v>
+        <v>1.0002521453146693</v>
       </c>
       <c r="AB7" s="234" t="b">
         <v>1</v>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="K8" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,,C8,Calendar,$F8,$G8,$H8,$K$1,$I8,B8,Discounting,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00446#0001</v>
+        <v>obj_00446#0002</v>
       </c>
       <c r="L8" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -3911,27 +3911,27 @@
       </c>
       <c r="R8" s="329">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,N8&amp;"M","mf",,Trigger)</f>
-        <v>42403</v>
+        <v>42373</v>
       </c>
       <c r="S8" s="329">
         <f>_xll.qlInterestRateIndexMaturity(iborindex1M,R8,Trigger)</f>
-        <v>42432</v>
+        <v>42404</v>
       </c>
       <c r="T8" s="65">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R8,Trigger),TRUE,AllTriggers)</f>
-        <v>-1.9998714824592621E-3</v>
+        <v>-1.30825497960518E-3</v>
       </c>
       <c r="U8" s="65">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R8),,AllTriggers)</f>
-        <v>-2.3020008416784542E-3</v>
+        <v>-1.6807117566641056E-3</v>
       </c>
       <c r="V8" s="257">
         <f>T8-U8</f>
-        <v>3.0212935921919209E-4</v>
+        <v>3.7245677705892563E-4</v>
       </c>
       <c r="W8" s="65">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R8,Trigger)</f>
-        <v>3.0212935921919231E-4</v>
+        <v>3.7245677705892563E-4</v>
       </c>
       <c r="X8" s="186">
         <f t="shared" si="1"/>
@@ -3943,11 +3943,11 @@
       </c>
       <c r="Z8" s="60">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,R8,,,Trigger)</f>
-        <v>0.25205479452054796</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="AA8" s="60">
         <f>_xll.qlYieldTSDiscount(Discounting,R8,,AllTriggers)</f>
-        <v>1.0005008273785223</v>
+        <v>1.000379858517497</v>
       </c>
       <c r="AB8" s="235" t="b">
         <v>1</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="K9" s="159" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,,C9,Calendar,$F9,$G9,$H9,$K$1,$I9,B9,Discounting,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00445#0001</v>
+        <v>obj_00447#0002</v>
       </c>
       <c r="L9" s="200" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="AE9" s="187">
         <f>_xll.qlPolynomialCalibrationError(AE6,)</f>
-        <v>1.6855880480415874E-19</v>
+        <v>6.2598344377647085E-20</v>
       </c>
       <c r="AF9" s="54"/>
       <c r="AG9" s="55"/>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="AE10" s="187">
         <f>_xll.qlPolynomialCalibrationMaxError(AE6,)</f>
-        <v>2.1684043449710089E-19</v>
+        <v>1.0842021724855044E-19</v>
       </c>
       <c r="AF10" s="54"/>
       <c r="AG10" s="55"/>
@@ -4057,15 +4057,15 @@
       </c>
       <c r="T11" s="265">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="U11" s="266">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S11,"Following",,Trigger)</f>
-        <v>42312</v>
+        <v>42282</v>
       </c>
       <c r="V11" s="284">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T11,U11,AllTriggers)</f>
-        <v>-1.3274231898474653E-3</v>
+        <v>-1.1818933969509615E-3</v>
       </c>
       <c r="AD11" s="54"/>
       <c r="AE11" s="54"/>
@@ -4100,15 +4100,15 @@
       </c>
       <c r="T12" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="U12" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S12,"Following",,Trigger)</f>
-        <v>42318</v>
+        <v>42286</v>
       </c>
       <c r="V12" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T12,U12,AllTriggers)</f>
-        <v>-1.3658298046616477E-3</v>
+        <v>-1.2193612458258737E-3</v>
       </c>
       <c r="AD12" s="258" t="s">
         <v>111</v>
@@ -4124,7 +4124,7 @@
     <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="306" t="str">
         <f t="array" ref="G13:G19">_xll.ohFilter(K3:K9,M3:M9)</f>
-        <v>obj_0046c#0001</v>
+        <v>obj_00467#0002</v>
       </c>
       <c r="H13" s="190" t="str">
         <f>_xll.qlRateHelperQuoteName(G13,Trigger)</f>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="I13" s="191">
         <f>_xll.qlRateHelperRate(G13,Trigger)</f>
-        <v>-1.1899999999999999E-3</v>
+        <v>-1.1299999999999999E-3</v>
       </c>
       <c r="J13" s="192" t="str">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G13),"--")</f>
@@ -4140,36 +4140,36 @@
       </c>
       <c r="K13" s="326">
         <f>_xll.qlRateHelperEarliestDate(G13,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="L13" s="326">
         <f>_xll.qlRateHelperPillarDate(G13,Trigger)</f>
-        <v>42341</v>
+        <v>42310</v>
       </c>
       <c r="M13" s="193">
-        <v>1.0000991765016698</v>
+        <v>1.0000973150248482</v>
       </c>
       <c r="S13" s="63" t="s">
         <v>40</v>
       </c>
       <c r="T13" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="U13" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S13,"Following",,Trigger)</f>
-        <v>42325</v>
+        <v>42293</v>
       </c>
       <c r="V13" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T13,U13,AllTriggers)</f>
-        <v>-1.3000285639425918E-3</v>
+        <v>-1.1962377503417696E-3</v>
       </c>
       <c r="AD13" s="274" t="s">
         <v>113</v>
       </c>
       <c r="AE13" s="187">
         <f t="array" ref="AE13:AE17">_xll.qlPolynomialCalibrationCoefficients($AE$6,AE7)</f>
-        <v>2.4000000000024002E-4</v>
+        <v>2.6999999976827808E-4</v>
       </c>
       <c r="AF13" s="187" t="b">
         <v>1</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="199" t="str">
-        <v>obj_0044a#0001</v>
+        <v>obj_0044b#0002</v>
       </c>
       <c r="H14" s="190" t="str">
         <f>_xll.qlRateHelperQuoteName(G14,Trigger)</f>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="I14" s="191">
         <f>_xll.qlRateHelperRate(G14,Trigger)</f>
-        <v>-1.3500000000000001E-3</v>
+        <v>-1.1799999999999998E-3</v>
       </c>
       <c r="J14" s="192">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G14),"--")</f>
@@ -4196,35 +4196,35 @@
       </c>
       <c r="K14" s="326">
         <f>_xll.qlRateHelperEarliestDate(G14,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="L14" s="326">
         <f>_xll.qlRateHelperPillarDate(G14,Trigger)</f>
-        <v>42373</v>
+        <v>42340</v>
       </c>
       <c r="M14" s="193">
-        <v>1.0002325580652365</v>
+        <v>1.0001999866207543</v>
       </c>
       <c r="S14" s="63" t="s">
         <v>41</v>
       </c>
       <c r="T14" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="U14" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S14,"Following",,Trigger)</f>
-        <v>42332</v>
+        <v>42300</v>
       </c>
       <c r="V14" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T14,U14,AllTriggers)</f>
-        <v>-1.2441557417356261E-3</v>
+        <v>-1.1792565643663011E-3</v>
       </c>
       <c r="AD14" s="274" t="s">
         <v>114</v>
       </c>
       <c r="AE14" s="187">
-        <v>5.2415540989726919E-3</v>
+        <v>1.3770972945503928E-3</v>
       </c>
       <c r="AF14" s="187" t="b">
         <v>1</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="15" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G15" s="199" t="str">
-        <v>obj_00449#0001</v>
+        <v>obj_0044a#0002</v>
       </c>
       <c r="H15" s="190" t="str">
         <f>_xll.qlRateHelperQuoteName(G15,Trigger)</f>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="I15" s="191">
         <f>_xll.qlRateHelperRate(G15,Trigger)</f>
-        <v>-1.5399999999999999E-3</v>
+        <v>-1.1799999999999998E-3</v>
       </c>
       <c r="J15" s="192">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G15),"--")</f>
@@ -4251,35 +4251,35 @@
       </c>
       <c r="K15" s="326">
         <f>_xll.qlRateHelperEarliestDate(G15,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="L15" s="326">
         <f>_xll.qlRateHelperPillarDate(G15,Trigger)</f>
-        <v>42403</v>
+        <v>42373</v>
       </c>
       <c r="M15" s="193">
-        <v>1.0003937220193346</v>
+        <v>1.0003082121594198</v>
       </c>
       <c r="S15" s="264" t="s">
         <v>35</v>
       </c>
       <c r="T15" s="273">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="U15" s="334">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,S15,"mf",TRUE,Trigger)</f>
-        <v>42341</v>
+        <v>42310</v>
       </c>
       <c r="V15" s="335">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T15,U15,AllTriggers)</f>
-        <v>-1.1956808793867069E-3</v>
+        <v>-1.1341642445812157E-3</v>
       </c>
       <c r="AD15" s="274" t="s">
         <v>115</v>
       </c>
       <c r="AE15" s="187">
-        <v>-3.8218362739675459E-2</v>
+        <v>-2.2314363769644938E-2</v>
       </c>
       <c r="AF15" s="187" t="b">
         <v>1</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="199" t="str">
-        <v>obj_00448#0001</v>
+        <v>obj_00449#0002</v>
       </c>
       <c r="H16" s="190" t="str">
         <f>_xll.qlRateHelperQuoteName(G16,Trigger)</f>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="I16" s="191">
         <f>_xll.qlRateHelperRate(G16,Trigger)</f>
-        <v>-1.6499999999999998E-3</v>
+        <v>-1.2099999999999999E-3</v>
       </c>
       <c r="J16" s="192">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G16),"--")</f>
@@ -4306,20 +4306,20 @@
       </c>
       <c r="K16" s="326">
         <f>_xll.qlRateHelperEarliestDate(G16,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="L16" s="326">
         <f>_xll.qlRateHelperPillarDate(G16,Trigger)</f>
-        <v>42432</v>
+        <v>42402</v>
       </c>
       <c r="M16" s="193">
-        <v>1.0005549121744159</v>
+        <v>1.0004136029847832</v>
       </c>
       <c r="AD16" s="274" t="s">
         <v>116</v>
       </c>
       <c r="AE16" s="187">
-        <v>7.3003946517058285E-2</v>
+        <v>7.188138671126991E-2</v>
       </c>
       <c r="AF16" s="187" t="b">
         <v>1</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="17" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="199" t="str">
-        <v>obj_00447#0001</v>
+        <v>obj_00448#0002</v>
       </c>
       <c r="H17" s="190" t="str">
         <f>_xll.qlRateHelperQuoteName(G17,Trigger)</f>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="I17" s="191">
         <f>_xll.qlRateHelperRate(G17,Trigger)</f>
-        <v>-1.7299999999999998E-3</v>
+        <v>-1.23E-3</v>
       </c>
       <c r="J17" s="192">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G17),"--")</f>
@@ -4346,14 +4346,14 @@
       </c>
       <c r="K17" s="326">
         <f>_xll.qlRateHelperEarliestDate(G17,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="L17" s="326">
         <f>_xll.qlRateHelperPillarDate(G17,Trigger)</f>
-        <v>42464</v>
+        <v>42431</v>
       </c>
       <c r="M17" s="193">
-        <v>1.0007358288399133</v>
+        <v>1.000519630516616</v>
       </c>
       <c r="AD17" s="274" t="s">
         <v>117</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="18" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="199" t="str">
-        <v>obj_00446#0001</v>
+        <v>obj_00446#0002</v>
       </c>
       <c r="H18" s="190" t="str">
         <f>_xll.qlRateHelperQuoteName(G18,Trigger)</f>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="I18" s="191">
         <f>_xll.qlRateHelperRate(G18,Trigger)</f>
-        <v>-1.8E-3</v>
+        <v>-1.24E-3</v>
       </c>
       <c r="J18" s="192">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G18),"--")</f>
@@ -4386,28 +4386,28 @@
       </c>
       <c r="K18" s="326">
         <f>_xll.qlRateHelperEarliestDate(G18,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="L18" s="326">
         <f>_xll.qlRateHelperPillarDate(G18,Trigger)</f>
-        <v>42493</v>
+        <v>42464</v>
       </c>
       <c r="M18" s="193">
-        <v>1.0009108856861679</v>
+        <v>1.0006376760091424</v>
       </c>
       <c r="AD18" s="274" t="s">
         <v>118</v>
       </c>
       <c r="AE18" s="187" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$S1,Discounting,SettlementDate,TRUE,_xll.ohFilter(AE13:AE17,AF13:AF17),,Trigger)</f>
-        <v>obj_00591#0001</v>
+        <v>obj_005a1#0002</v>
       </c>
       <c r="AF18" s="54"/>
       <c r="AG18" s="55"/>
     </row>
     <row r="19" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="200" t="str">
-        <v>obj_00445#0001</v>
+        <v>obj_00447#0002</v>
       </c>
       <c r="H19" s="194" t="str">
         <f>_xll.qlRateHelperQuoteName(G19,Trigger)</f>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="I19" s="195">
         <f>_xll.qlRateHelperRate(G19,Trigger)</f>
-        <v>-1.8699999999999999E-3</v>
+        <v>-1.25E-3</v>
       </c>
       <c r="J19" s="196">
         <f>IFERROR(_xll.qlSwapRateHelperSpread(G19),"--")</f>
@@ -4423,14 +4423,14 @@
       </c>
       <c r="K19" s="327">
         <f>_xll.qlRateHelperEarliestDate(G19,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="L19" s="327">
         <f>_xll.qlRateHelperPillarDate(G19,Trigger)</f>
-        <v>42524</v>
+        <v>42492</v>
       </c>
       <c r="M19" s="197">
-        <v>1.0011077182672847</v>
+        <v>1.0007402016501707</v>
       </c>
       <c r="X19" s="54"/>
       <c r="Y19" s="54"/>
@@ -4501,7 +4501,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -4601,21 +4601,21 @@
       </c>
       <c r="E3" s="291">
         <f>SettlementDate</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="F3" s="291">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42403</v>
+        <v>42373</v>
       </c>
       <c r="G3" s="255">
         <f>J3+$H$4</f>
-        <v>-6.9197428504283389E-4</v>
+        <v>-4.2126914632234437E-4</v>
       </c>
       <c r="H3" s="236"/>
       <c r="I3" s="236"/>
       <c r="J3" s="187">
-        <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.2103099037320971E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E3,Trigger)</f>
+        <v>1.0084968435163785E-3</v>
       </c>
       <c r="K3" s="236"/>
       <c r="L3" s="280">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="R3" s="187" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_0044e#0001</v>
+        <v>obj_0044f#0012</v>
       </c>
       <c r="X3" s="57"/>
     </row>
@@ -4651,43 +4651,43 @@
       </c>
       <c r="E4" s="291">
         <f>SettlementDate</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="F4" s="291">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42493</v>
+        <v>42464</v>
       </c>
       <c r="G4" s="187">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>-6.7999999999999994E-4</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="H4" s="187">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E4),,AllTriggers)</f>
-        <v>-1.902284188774931E-3</v>
+        <v>-1.4297659898387229E-3</v>
       </c>
       <c r="I4" s="255">
-        <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.2222841887749311E-3</v>
+        <f t="shared" ref="I4:I28" si="0">G4-H4</f>
+        <v>1.0297659898387229E-3</v>
       </c>
       <c r="J4" s="183">
-        <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.2103099037320971E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E4,Trigger)</f>
+        <v>1.0084968435163785E-3</v>
       </c>
       <c r="K4" s="184">
         <f>M4*10000</f>
-        <v>0.11974285042834054</v>
+        <v>0.21269146322344407</v>
       </c>
       <c r="L4" s="281">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
         <v>0</v>
       </c>
       <c r="M4" s="275">
-        <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>1.1974285042834053E-5</v>
+        <f t="shared" ref="M4:M28" si="1">I4-J4</f>
+        <v>2.1269146322344407E-5</v>
       </c>
       <c r="N4" s="278">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000144446139678</v>
+        <v>1.0000063889195219</v>
       </c>
       <c r="O4" s="233" t="b">
         <v>0</v>
@@ -4711,43 +4711,43 @@
       </c>
       <c r="E5" s="292">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42341</v>
+        <v>42310</v>
       </c>
       <c r="F5" s="292">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42524</v>
+        <v>42492</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>-9.7000000000000005E-4</v>
+        <v>-4.6000000000000001E-4</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E5),,AllTriggers)</f>
-        <v>-2.1852682801168214E-3</v>
+        <v>-1.5186614339271127E-3</v>
       </c>
       <c r="I5" s="277">
         <f t="shared" si="0"/>
-        <v>1.2152682801168215E-3</v>
+        <v>1.0586614339271128E-3</v>
       </c>
       <c r="J5" s="67">
-        <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.1805355003829229E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E5,Trigger)</f>
+        <v>1.058319505105145E-3</v>
       </c>
       <c r="K5" s="237">
-        <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>0.34732779733898533</v>
+        <f t="shared" ref="K5:K28" si="4">M5*10000</f>
+        <v>3.4192882196774563E-3</v>
       </c>
       <c r="L5" s="282">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="M5" s="276">
         <f t="shared" si="1"/>
-        <v>3.4732779733898534E-5</v>
+        <v>3.4192882196774563E-7</v>
       </c>
       <c r="N5" s="180">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001336272045431</v>
+        <v>1.0001269597807645</v>
       </c>
       <c r="O5" s="238" t="b">
         <v>1</v>
@@ -4776,43 +4776,43 @@
       </c>
       <c r="E6" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42373</v>
+        <v>42340</v>
       </c>
       <c r="F6" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42555</v>
+        <v>42523</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>-1.1999999999999999E-3</v>
+        <v>-4.8999999999999998E-4</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E6),,AllTriggers)</f>
-        <v>-2.3327282743009197E-3</v>
+        <v>-1.5741704349917715E-3</v>
       </c>
       <c r="I6" s="262">
         <f t="shared" si="0"/>
-        <v>1.1327282743009198E-3</v>
+        <v>1.0841704349917715E-3</v>
       </c>
       <c r="J6" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.1555792412326212E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E6,Trigger)</f>
+        <v>1.1018726334625563E-3</v>
       </c>
       <c r="K6" s="185">
         <f t="shared" si="4"/>
-        <v>-0.22850966931701414</v>
+        <v>-0.17702198470784811</v>
       </c>
       <c r="L6" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.16986301369863013</v>
+        <v>0.16712328767123288</v>
       </c>
       <c r="M6" s="231">
         <f t="shared" si="1"/>
-        <v>-2.2850966931701414E-5</v>
+        <v>-1.7702198470784811E-5</v>
       </c>
       <c r="N6" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0003073123659809</v>
+        <v>1.0002521453146693</v>
       </c>
       <c r="O6" s="234" t="b">
         <v>1</v>
@@ -4821,8 +4821,8 @@
         <v>126</v>
       </c>
       <c r="R6" s="279" t="str">
-        <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_00595#0015</v>
+        <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$28,$O$4:$O$28),_xll.ohFilter($I$4:$I$28,$O$4:$O$28),_xll.ohFilter($N$4:$N$28,$O$4:$O$28),_xll.ohFilter(T14:T18,S14:S18),,,,,Trigger)</f>
+        <v>obj_0059f#0014</v>
       </c>
       <c r="T6" s="55"/>
       <c r="X6" s="57"/>
@@ -4845,43 +4845,43 @@
       </c>
       <c r="E7" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42403</v>
+        <v>42373</v>
       </c>
       <c r="F7" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42585</v>
+        <v>42555</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>-1.2900000000000001E-3</v>
+        <v>-5.2999999999999998E-4</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E7),,AllTriggers)</f>
-        <v>-2.3875997731819254E-3</v>
+        <v>-1.6889836863753173E-3</v>
       </c>
       <c r="I7" s="262">
         <f t="shared" si="0"/>
-        <v>1.0975997731819253E-3</v>
+        <v>1.1589836863753174E-3</v>
       </c>
       <c r="J7" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.138155572363245E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E7,Trigger)</f>
+        <v>1.1448276293711834E-3</v>
       </c>
       <c r="K7" s="185">
         <f t="shared" si="4"/>
-        <v>-0.40555799181319707</v>
+        <v>0.14156057004134029</v>
       </c>
       <c r="L7" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
-        <v>0.25205479452054796</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="M7" s="231">
         <f t="shared" si="1"/>
-        <v>-4.0555799181319708E-5</v>
+        <v>1.415605700413403E-5</v>
       </c>
       <c r="N7" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0005008273785223</v>
+        <v>1.000379858517497</v>
       </c>
       <c r="O7" s="234" t="b">
         <v>1</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="8" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="241">
-        <f t="shared" ref="A8:A10" si="5">A7+1</f>
+        <f t="shared" ref="A8:A16" si="5">A7+1</f>
         <v>4</v>
       </c>
       <c r="B8" s="56" t="s">
@@ -4914,43 +4914,43 @@
       </c>
       <c r="E8" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42432</v>
+        <v>42402</v>
       </c>
       <c r="F8" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42618</v>
+        <v>42584</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>-1.3500000000000001E-3</v>
+        <v>-5.5000000000000003E-4</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E8),,AllTriggers)</f>
-        <v>-2.4619410528882025E-3</v>
+        <v>-1.7231792205825158E-3</v>
       </c>
       <c r="I8" s="262">
         <f t="shared" si="0"/>
-        <v>1.1119410528882025E-3</v>
+        <v>1.1731792205825157E-3</v>
       </c>
       <c r="J8" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>1.126438462914877E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E8,Trigger)</f>
+        <v>1.1785826014393305E-3</v>
       </c>
       <c r="K8" s="185">
         <f t="shared" si="4"/>
-        <v>-0.1449741002667454</v>
+        <v>-5.4033808568147976E-2</v>
       </c>
       <c r="L8" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33150684931506852</v>
+        <v>0.33698630136986302</v>
       </c>
       <c r="M8" s="231">
         <f t="shared" si="1"/>
-        <v>-1.449741002667454E-5</v>
+        <v>-5.4033808568147972E-6</v>
       </c>
       <c r="N8" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0006863936193298</v>
+        <v>1.0005152621216613</v>
       </c>
       <c r="O8" s="234" t="b">
         <v>1</v>
@@ -4983,43 +4983,43 @@
       </c>
       <c r="E9" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42464</v>
+        <v>42431</v>
       </c>
       <c r="F9" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42647</v>
+        <v>42615</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>-1.4099999999999998E-3</v>
+        <v>-5.6999999999999998E-4</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E9),,AllTriggers)</f>
-        <v>-2.543421334880322E-3</v>
+        <v>-1.7770579331012194E-3</v>
       </c>
       <c r="I9" s="262">
         <f t="shared" si="0"/>
-        <v>1.1334213348803222E-3</v>
+        <v>1.2070579331012194E-3</v>
       </c>
       <c r="J9" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>1.1189364889113596E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E9,Trigger)</f>
+        <v>1.2088707247650339E-3</v>
       </c>
       <c r="K9" s="185">
         <f t="shared" si="4"/>
-        <v>0.1448484596896257</v>
+        <v>-1.8127916638144888E-2</v>
       </c>
       <c r="L9" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.41917808219178082</v>
+        <v>0.41643835616438357</v>
       </c>
       <c r="M9" s="231">
         <f t="shared" si="1"/>
-        <v>1.4484845968962571E-5</v>
+        <v>-1.8127916638144888E-6</v>
       </c>
       <c r="N9" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0008975034588854</v>
+        <v>1.0006503193911085</v>
       </c>
       <c r="O9" s="234" t="b">
         <v>1</v>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="R9" s="187">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>2.3434800524635468E-5</v>
+        <v>9.1655900618315892E-6</v>
       </c>
       <c r="T9" s="55"/>
       <c r="X9" s="57"/>
@@ -5052,43 +5052,43 @@
       </c>
       <c r="E10" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42493</v>
+        <v>42464</v>
       </c>
       <c r="F10" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42677</v>
+        <v>42647</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>-1.4599999999999999E-3</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E10),,AllTriggers)</f>
-        <v>-2.6005596862695942E-3</v>
+        <v>-1.8442645914370174E-3</v>
       </c>
       <c r="I10" s="262">
         <f t="shared" si="0"/>
-        <v>1.1405596862695943E-3</v>
+        <v>1.2442645914370176E-3</v>
       </c>
       <c r="J10" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>1.1166793782875425E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E10,Trigger)</f>
+        <v>1.239446473618301E-3</v>
       </c>
       <c r="K10" s="185">
         <f t="shared" si="4"/>
-        <v>0.23880307982051749</v>
+        <v>4.8181178187165552E-2</v>
       </c>
       <c r="L10" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.49863013698630138</v>
+        <v>0.50684931506849318</v>
       </c>
       <c r="M10" s="231">
         <f t="shared" si="1"/>
-        <v>2.3880307982051749E-5</v>
+        <v>4.8181178187165549E-6</v>
       </c>
       <c r="N10" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0010983829465363</v>
+        <v>1.0008071406590917</v>
       </c>
       <c r="O10" s="234" t="b">
         <v>1</v>
@@ -5098,979 +5098,1304 @@
       </c>
       <c r="R10" s="187">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>4.0555799181319708E-5</v>
+        <v>2.4259521209725118E-5</v>
       </c>
       <c r="T10" s="55"/>
       <c r="X10" s="57"/>
     </row>
     <row r="11" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="290" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="289"/>
-      <c r="C11" s="249" t="str">
-        <f>_xll.qlIMMNextCode(SettlementDate,A12)</f>
-        <v>X5</v>
-      </c>
-      <c r="D11" s="245" t="str">
-        <f t="shared" ref="D11:D22" si="6">Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;QuoteSuffix</f>
-        <v>EURFUT3MX5_Quote</v>
-      </c>
-      <c r="E11" s="292">
-        <f>_xll.qlIMMdate(C11,SettlementDate,Trigger)</f>
-        <v>42326</v>
-      </c>
-      <c r="F11" s="292">
+      <c r="A11" s="241">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="248">
+        <f t="shared" ref="C11:C16" si="6">A11+SUBSTITUTE($F$1,"M","")</f>
+        <v>10</v>
+      </c>
+      <c r="D11" s="246" t="str">
+        <f t="shared" ref="D11:D16" si="7">Currency&amp;A11&amp;B11&amp;C11&amp;"F"&amp;QuoteSuffix</f>
+        <v>EUR7x10F_Quote</v>
+      </c>
+      <c r="E11" s="293">
+        <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
+        <v>42492</v>
+      </c>
+      <c r="F11" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
-        <v>42508</v>
-      </c>
-      <c r="G11" s="67">
-        <f>1-_xll.qlQuoteValue(D11,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C11&amp;"ConvAdj_Quote")</f>
-        <v>-8.2499999999985363E-4</v>
-      </c>
-      <c r="H11" s="67">
+        <v>42676</v>
+      </c>
+      <c r="G11" s="62">
+        <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
+        <v>-6.2E-4</v>
+      </c>
+      <c r="H11" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E11),,AllTriggers)</f>
-        <v>-2.0468772781319189E-3</v>
-      </c>
-      <c r="I11" s="277">
-        <f t="shared" si="0"/>
-        <v>1.2218772781320652E-3</v>
-      </c>
-      <c r="J11" s="67">
-        <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>1.194626146815931E-3</v>
-      </c>
-      <c r="K11" s="237">
-        <f t="shared" si="4"/>
-        <v>0.27251131316134236</v>
-      </c>
-      <c r="L11" s="282">
+        <v>-1.8909719771031954E-3</v>
+      </c>
+      <c r="I11" s="262">
+        <f t="shared" ref="I11:I16" si="8">G11-H11</f>
+        <v>1.2709719771031953E-3</v>
+      </c>
+      <c r="J11" s="62">
+        <f>_xll.qlTenorBasisValue($R$19,E11,Trigger)</f>
+        <v>1.2624121526341988E-3</v>
+      </c>
+      <c r="K11" s="185">
+        <f t="shared" ref="K11:K16" si="9">M11*10000</f>
+        <v>8.5598244689965436E-2</v>
+      </c>
+      <c r="L11" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
-        <v>4.1095890410958902E-2</v>
-      </c>
-      <c r="M11" s="276">
-        <f t="shared" si="1"/>
-        <v>2.7251131316134236E-5</v>
-      </c>
-      <c r="N11" s="180">
+        <v>0.58356164383561648</v>
+      </c>
+      <c r="M11" s="231">
+        <f t="shared" ref="M11:M16" si="10">I11-J11</f>
+        <v>8.5598244689965436E-6</v>
+      </c>
+      <c r="N11" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.000073550308187</v>
-      </c>
-      <c r="O11" s="238" t="b">
+        <v>1.0009464646588653</v>
+      </c>
+      <c r="O11" s="234" t="b">
         <v>1</v>
       </c>
       <c r="T11" s="55"/>
       <c r="X11" s="57"/>
     </row>
     <row r="12" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="241" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="248" t="str">
-        <f>_xll.qlIMMNextCode(C11,A12)</f>
-        <v>Z5</v>
+      <c r="A12" s="241">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="248">
+        <f t="shared" si="6"/>
+        <v>11</v>
       </c>
       <c r="D12" s="246" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MZ5_Quote</v>
+        <f t="shared" si="7"/>
+        <v>EUR8x11F_Quote</v>
       </c>
       <c r="E12" s="293">
-        <f>_xll.qlIMMdate(C12,SettlementDate,Trigger)</f>
-        <v>42354</v>
+        <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
+        <v>42523</v>
       </c>
       <c r="F12" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
-        <v>42537</v>
+        <v>42706</v>
       </c>
       <c r="G12" s="62">
-        <f>1-_xll.qlQuoteValue(D12,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C12&amp;"ConvAdj_Quote")</f>
-        <v>-1.1250000000000426E-3</v>
+        <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
+        <v>-6.4999999999999997E-4</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E12),,AllTriggers)</f>
-        <v>-2.2631179188202311E-3</v>
+        <v>-1.9308440846384043E-3</v>
       </c>
       <c r="I12" s="262">
-        <f t="shared" si="0"/>
-        <v>1.1381179188201885E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.2808440846384043E-3</v>
       </c>
       <c r="J12" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>1.1695752037513337E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E12,Trigger)</f>
+        <v>1.2849457168812727E-3</v>
       </c>
       <c r="K12" s="185">
-        <f t="shared" si="4"/>
-        <v>-0.3145728493114523</v>
+        <f t="shared" si="9"/>
+        <v>-4.1016322428683638E-2</v>
       </c>
       <c r="L12" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
-        <v>0.11780821917808219</v>
+        <v>0.66849315068493154</v>
       </c>
       <c r="M12" s="231">
-        <f t="shared" si="1"/>
-        <v>-3.1457284931145227E-5</v>
+        <f t="shared" si="10"/>
+        <v>-4.1016322428683635E-6</v>
       </c>
       <c r="N12" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0001978950470356</v>
+        <v>1.0011049582208984</v>
       </c>
       <c r="O12" s="234" t="b">
         <v>1</v>
       </c>
-      <c r="Q12" s="258" t="s">
-        <v>111</v>
-      </c>
-      <c r="R12" s="259"/>
-      <c r="S12" s="260" t="s">
-        <v>122</v>
-      </c>
-      <c r="T12" s="259" t="s">
-        <v>133</v>
-      </c>
+      <c r="T12" s="55"/>
       <c r="X12" s="57"/>
     </row>
     <row r="13" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="241" t="b">
-        <v>1</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="248" t="str">
-        <f>_xll.qlIMMNextCode(C12,A13)</f>
-        <v>H6</v>
+      <c r="A13" s="241">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="248">
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="D13" s="246" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MH6_Quote</v>
+        <f t="shared" si="7"/>
+        <v>EUR9x12F_Quote</v>
       </c>
       <c r="E13" s="293">
-        <f>_xll.qlIMMdate(C13,SettlementDate,Trigger)</f>
-        <v>42445</v>
+        <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
+        <v>42555</v>
       </c>
       <c r="F13" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
-        <v>42629</v>
+        <v>42739</v>
       </c>
       <c r="G13" s="62">
-        <f>1-_xll.qlQuoteValue(D13,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C13&amp;"ConvAdj_Quote")</f>
-        <v>-1.3750000000001261E-3</v>
+        <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
+        <v>-6.4999999999999997E-4</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E13),,AllTriggers)</f>
-        <v>-2.4982927443152193E-3</v>
+        <v>-1.9608274772662539E-3</v>
       </c>
       <c r="I13" s="262">
-        <f t="shared" si="0"/>
-        <v>1.1232927443150932E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.3108274772662539E-3</v>
       </c>
       <c r="J13" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>1.1227285966408042E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E13,Trigger)</f>
+        <v>1.3053399541220734E-3</v>
       </c>
       <c r="K13" s="185">
-        <f t="shared" si="4"/>
-        <v>5.6414767428901967E-3</v>
+        <f t="shared" si="9"/>
+        <v>5.4875231441805193E-2</v>
       </c>
       <c r="L13" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.36712328767123287</v>
+        <v>0.75616438356164384</v>
       </c>
       <c r="M13" s="231">
-        <f t="shared" si="1"/>
-        <v>5.6414767428901967E-7</v>
+        <f t="shared" si="10"/>
+        <v>5.4875231441805193E-6</v>
       </c>
       <c r="N13" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.000770401685952</v>
+        <v>1.0012739236534773</v>
       </c>
       <c r="O13" s="234" t="b">
         <v>1</v>
       </c>
-      <c r="Q13" s="274" t="s">
-        <v>113</v>
-      </c>
-      <c r="R13" s="187">
-        <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>1.2103099037320971E-3</v>
-      </c>
-      <c r="S13" s="187" t="b">
-        <v>1</v>
-      </c>
-      <c r="T13" s="187">
-        <v>1.2482629747766444E-3</v>
+      <c r="Q13" s="258" t="s">
+        <v>111</v>
+      </c>
+      <c r="R13" s="259"/>
+      <c r="S13" s="260" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" s="259" t="s">
+        <v>133</v>
       </c>
       <c r="X13" s="57"/>
     </row>
     <row r="14" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="241" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="248" t="str">
-        <f>_xll.qlIMMNextCode(C13,A14)</f>
-        <v>M6</v>
+      <c r="A14" s="241">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="248">
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="D14" s="246" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MM6_Quote</v>
+        <f t="shared" si="7"/>
+        <v>EUR10x13F_Quote</v>
       </c>
       <c r="E14" s="293">
-        <f>_xll.qlIMMdate(C14,SettlementDate,Trigger)</f>
-        <v>42536</v>
+        <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
+        <v>42584</v>
       </c>
       <c r="F14" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
-        <v>42719</v>
+        <v>42768</v>
       </c>
       <c r="G14" s="62">
-        <f>1-_xll.qlQuoteValue(D14,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C14&amp;"ConvAdj_Quote")</f>
-        <v>-1.5249999999999986E-3</v>
+        <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
+        <v>-6.4999999999999997E-4</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E14),,AllTriggers)</f>
-        <v>-2.6654043382180327E-3</v>
+        <v>-1.9752694976449756E-3</v>
       </c>
       <c r="I14" s="262">
-        <f t="shared" si="0"/>
-        <v>1.1404043382180341E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.3252694976449756E-3</v>
       </c>
       <c r="J14" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>1.1205187668691806E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E14,Trigger)</f>
+        <v>1.3215930714413641E-3</v>
       </c>
       <c r="K14" s="185">
-        <f t="shared" si="4"/>
-        <v>0.19885571348853515</v>
+        <f t="shared" si="9"/>
+        <v>3.6764262036114492E-2</v>
       </c>
       <c r="L14" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.61643835616438358</v>
+        <v>0.83561643835616439</v>
       </c>
       <c r="M14" s="231">
-        <f t="shared" si="1"/>
-        <v>1.9885571348853513E-5</v>
+        <f t="shared" si="10"/>
+        <v>3.6764262036114489E-6</v>
       </c>
       <c r="N14" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0014025150784902</v>
+        <v>1.0014304042935918</v>
       </c>
       <c r="O14" s="234" t="b">
         <v>1</v>
       </c>
       <c r="Q14" s="274" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R14" s="187">
-        <v>-4.0140975237598847E-4</v>
+        <f t="array" ref="R14:R18">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
+        <v>1.0084968435163785E-3</v>
       </c>
       <c r="S14" s="187" t="b">
         <v>1</v>
       </c>
       <c r="T14" s="187">
-        <v>-5.8046388975472739E-4</v>
-      </c>
+        <v>1.2482629747766444E-3</v>
+      </c>
+      <c r="X14" s="57"/>
     </row>
     <row r="15" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="241" t="b">
-        <v>1</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="248" t="str">
-        <f>_xll.qlIMMNextCode(C14,A15)</f>
-        <v>U6</v>
+      <c r="A15" s="241">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="248">
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="D15" s="246" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MU6_Quote</v>
+        <f t="shared" si="7"/>
+        <v>EUR11x14F_Quote</v>
       </c>
       <c r="E15" s="293">
-        <f>_xll.qlIMMdate(C15,SettlementDate,Trigger)</f>
-        <v>42634</v>
+        <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
+        <v>42615</v>
       </c>
       <c r="F15" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
-        <v>42815</v>
+        <v>42796</v>
       </c>
       <c r="G15" s="62">
-        <f>1-_xll.qlQuoteValue(D15,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C15&amp;"ConvAdj_Quote")</f>
-        <v>-1.5249999999999986E-3</v>
+        <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
+        <v>-6.4000000000000005E-4</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E15),,AllTriggers)</f>
-        <v>-2.6788824265805119E-3</v>
+        <v>-1.9755242991646152E-3</v>
       </c>
       <c r="I15" s="262">
-        <f t="shared" si="0"/>
-        <v>1.1538824265805133E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.3355242991646152E-3</v>
       </c>
       <c r="J15" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>1.1557811736102269E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E15,Trigger)</f>
+        <v>1.3369238560283403E-3</v>
       </c>
       <c r="K15" s="185">
-        <f t="shared" si="4"/>
-        <v>-1.8987470297136561E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.3995568637250721E-2</v>
       </c>
       <c r="L15" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.8849315068493151</v>
+        <v>0.92054794520547945</v>
       </c>
       <c r="M15" s="231">
-        <f t="shared" si="1"/>
-        <v>-1.8987470297136561E-6</v>
+        <f t="shared" si="10"/>
+        <v>-1.3995568637250721E-6</v>
       </c>
       <c r="N15" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0021302026586336</v>
+        <v>1.0015991852523043</v>
       </c>
       <c r="O15" s="234" t="b">
         <v>1</v>
       </c>
       <c r="Q15" s="274" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R15" s="187">
-        <v>4.8584125610587889E-4</v>
+        <v>6.1666170543504557E-4</v>
       </c>
       <c r="S15" s="187" t="b">
         <v>1</v>
       </c>
       <c r="T15" s="187">
-        <v>6.6230807226711451E-4</v>
-      </c>
+        <v>-5.8046388975472739E-4</v>
+      </c>
+      <c r="X15" s="57"/>
     </row>
     <row r="16" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="241" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="248" t="str">
-        <f>_xll.qlIMMNextCode(C15,A16)</f>
-        <v>Z6</v>
+      <c r="A16" s="241">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="248">
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="D16" s="246" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MZ6_Quote</v>
+        <f t="shared" si="7"/>
+        <v>EUR12x15F_Quote</v>
       </c>
       <c r="E16" s="293">
-        <f>_xll.qlIMMdate(C16,SettlementDate,Trigger)</f>
-        <v>42725</v>
+        <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
+        <v>42646</v>
       </c>
       <c r="F16" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
-        <v>42907</v>
+        <v>42828</v>
       </c>
       <c r="G16" s="62">
-        <f>1-_xll.qlQuoteValue(D16,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C16&amp;"ConvAdj_Quote")</f>
-        <v>-1.3750000000001261E-3</v>
+        <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
+        <v>-5.8999999999999992E-4</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E16),,AllTriggers)</f>
-        <v>-2.5770707007506388E-3</v>
+        <v>-1.9424117584394167E-3</v>
       </c>
       <c r="I16" s="262">
-        <f t="shared" si="0"/>
-        <v>1.2020707007505127E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.3524117584394167E-3</v>
       </c>
       <c r="J16" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>1.2120782468933488E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E16,Trigger)</f>
+        <v>1.3504505330253014E-3</v>
       </c>
       <c r="K16" s="185">
-        <f t="shared" si="4"/>
-        <v>-0.10007546142836062</v>
+        <f t="shared" si="9"/>
+        <v>1.9612254141153015E-2</v>
       </c>
       <c r="L16" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.1342465753424658</v>
+        <v>1.0054794520547945</v>
       </c>
       <c r="M16" s="231">
-        <f t="shared" si="1"/>
-        <v>-1.0007546142836062E-5</v>
+        <f t="shared" si="10"/>
+        <v>1.9612254141153015E-6</v>
       </c>
       <c r="N16" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0028092669340185</v>
+        <v>1.0017703617001901</v>
       </c>
       <c r="O16" s="234" t="b">
         <v>1</v>
       </c>
       <c r="Q16" s="274" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R16" s="187">
-        <v>-1.1511326973200338E-4</v>
+        <v>-3.6095213007046188E-4</v>
       </c>
       <c r="S16" s="187" t="b">
         <v>1</v>
       </c>
       <c r="T16" s="187">
+        <v>6.6230807226711451E-4</v>
+      </c>
+      <c r="X16" s="57"/>
+    </row>
+    <row r="17" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="290" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="289"/>
+      <c r="C17" s="249" t="str">
+        <f>_xll.qlIMMNextCode(SettlementDate,A18)</f>
+        <v>V5</v>
+      </c>
+      <c r="D17" s="245" t="str">
+        <f t="shared" ref="D17:D28" si="11">Currency&amp;"FUT"&amp;"3M"&amp;C17&amp;QuoteSuffix</f>
+        <v>EURFUT3MV5_Quote</v>
+      </c>
+      <c r="E17" s="292">
+        <f>_xll.qlIMMdate(C17,SettlementDate,Trigger)</f>
+        <v>42298</v>
+      </c>
+      <c r="F17" s="292">
+        <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
+        <v>42481</v>
+      </c>
+      <c r="G17" s="67">
+        <f>1-_xll.qlQuoteValue(D17,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C17&amp;"ConvAdj_Quote")</f>
+        <v>-4.2500000000011973E-4</v>
+      </c>
+      <c r="H17" s="67">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
+        <v>-1.4730746465816693E-3</v>
+      </c>
+      <c r="I17" s="277">
+        <f t="shared" si="0"/>
+        <v>1.0480746465815496E-3</v>
+      </c>
+      <c r="J17" s="67">
+        <f>_xll.qlTenorBasisValue($R$19,E17,Trigger)</f>
+        <v>1.0396310180147323E-3</v>
+      </c>
+      <c r="K17" s="237">
+        <f t="shared" si="4"/>
+        <v>8.4436285668172073E-2</v>
+      </c>
+      <c r="L17" s="282">
+        <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
+        <v>5.2054794520547946E-2</v>
+      </c>
+      <c r="M17" s="276">
+        <f t="shared" si="1"/>
+        <v>8.4436285668172077E-6</v>
+      </c>
+      <c r="N17" s="180">
+        <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
+        <v>1.0000818852243938</v>
+      </c>
+      <c r="O17" s="238" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="274" t="s">
+        <v>116</v>
+      </c>
+      <c r="R17" s="187">
+        <v>8.5419754614082691E-5</v>
+      </c>
+      <c r="S17" s="187" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" s="187">
         <v>-1.5418896936616623E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="241" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="248" t="str">
-        <f>_xll.qlIMMNextCode(C16,A17)</f>
-        <v>H7</v>
-      </c>
-      <c r="D17" s="246" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MH7_Quote</v>
-      </c>
-      <c r="E17" s="293">
-        <f>_xll.qlIMMdate(C17,SettlementDate,Trigger)</f>
-        <v>42809</v>
-      </c>
-      <c r="F17" s="293">
-        <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
-        <v>42993</v>
-      </c>
-      <c r="G17" s="62">
-        <f>1-_xll.qlQuoteValue(D17,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C17&amp;"ConvAdj_Quote")</f>
-        <v>-1.1250000000000426E-3</v>
-      </c>
-      <c r="H17" s="62">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
-        <v>-2.4052760442898036E-3</v>
-      </c>
-      <c r="I17" s="262">
-        <f t="shared" si="0"/>
-        <v>1.280276044289761E-3</v>
-      </c>
-      <c r="J17" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>1.2746758262228565E-3</v>
-      </c>
-      <c r="K17" s="185">
-        <f t="shared" si="4"/>
-        <v>5.6002180669045137E-2</v>
-      </c>
-      <c r="L17" s="203">
-        <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.3643835616438356</v>
-      </c>
-      <c r="M17" s="231">
-        <f t="shared" si="1"/>
-        <v>5.6002180669045137E-6</v>
-      </c>
-      <c r="N17" s="181">
-        <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.003413788730265</v>
-      </c>
-      <c r="O17" s="234" t="b">
+      <c r="X17" s="57"/>
+    </row>
+    <row r="18" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="241" t="b">
         <v>0</v>
-      </c>
-      <c r="Q17" s="274" t="s">
-        <v>117</v>
-      </c>
-      <c r="R17" s="187" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S17" s="187" t="b">
-        <v>0</v>
-      </c>
-      <c r="T17" s="187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="241" t="b">
-        <v>1</v>
       </c>
       <c r="B18" s="56"/>
       <c r="C18" s="248" t="str">
         <f>_xll.qlIMMNextCode(C17,A18)</f>
-        <v>M7</v>
+        <v>X5</v>
       </c>
       <c r="D18" s="246" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MM7_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MX5_Quote</v>
       </c>
       <c r="E18" s="293">
         <f>_xll.qlIMMdate(C18,SettlementDate,Trigger)</f>
-        <v>42907</v>
+        <v>42326</v>
       </c>
       <c r="F18" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
-        <v>43090</v>
+        <v>42508</v>
       </c>
       <c r="G18" s="62">
         <f>1-_xll.qlQuoteValue(D18,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C18&amp;"ConvAdj_Quote")</f>
-        <v>-8.2499999999985363E-4</v>
+        <v>-4.750000000000032E-4</v>
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E18),,AllTriggers)</f>
-        <v>-2.1568560034399362E-3</v>
+        <v>-1.5510412744285831E-3</v>
       </c>
       <c r="I18" s="262">
         <f t="shared" si="0"/>
-        <v>1.3318560034400826E-3</v>
+        <v>1.0760412744285799E-3</v>
       </c>
       <c r="J18" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>1.3490785920645385E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E18,Trigger)</f>
+        <v>1.0821000385479351E-3</v>
       </c>
       <c r="K18" s="185">
         <f t="shared" si="4"/>
-        <v>-0.17222588624455931</v>
+        <v>-6.0587641193552214E-2</v>
       </c>
       <c r="L18" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
-        <v>1.6328767123287671</v>
+        <v>0.12876712328767123</v>
       </c>
       <c r="M18" s="231">
         <f t="shared" si="1"/>
-        <v>-1.7222588624455932E-5</v>
+        <v>-6.0587641193552214E-6</v>
       </c>
       <c r="N18" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0040700017010598</v>
+        <v>1.0001933936690752</v>
       </c>
       <c r="O18" s="234" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="274" t="s">
+        <v>117</v>
+      </c>
+      <c r="R18" s="187" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S18" s="187" t="b">
         <v>0</v>
       </c>
-      <c r="Q18" s="274" t="s">
-        <v>118</v>
-      </c>
-      <c r="R18" s="187" t="str">
-        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_00596#0015</v>
-      </c>
-      <c r="T18" s="55"/>
-    </row>
-    <row r="19" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T18" s="187">
+        <v>0</v>
+      </c>
+      <c r="X18" s="57"/>
+    </row>
+    <row r="19" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="241" t="b">
         <v>1</v>
       </c>
       <c r="B19" s="56"/>
       <c r="C19" s="248" t="str">
         <f>_xll.qlIMMNextCode(C18,A19)</f>
-        <v>U7</v>
+        <v>Z5</v>
       </c>
       <c r="D19" s="246" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MU7_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="E19" s="293">
         <f>_xll.qlIMMdate(C19,SettlementDate,Trigger)</f>
-        <v>42998</v>
+        <v>42354</v>
       </c>
       <c r="F19" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
-        <v>43179</v>
+        <v>42537</v>
       </c>
       <c r="G19" s="62">
         <f>1-_xll.qlQuoteValue(D19,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C19&amp;"ConvAdj_Quote")</f>
-        <v>-3.7500000000001421E-4</v>
+        <v>-5.0000000000016698E-4</v>
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E19),,AllTriggers)</f>
-        <v>-1.726238838295675E-3</v>
+        <v>-1.6219754461787529E-3</v>
       </c>
       <c r="I19" s="262">
         <f t="shared" si="0"/>
-        <v>1.3512388382956608E-3</v>
+        <v>1.1219754461785859E-3</v>
       </c>
       <c r="J19" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>1.4083750408796286E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E19,Trigger)</f>
+        <v>1.1207091796337349E-3</v>
       </c>
       <c r="K19" s="185">
         <f t="shared" si="4"/>
-        <v>-0.57136202583967777</v>
+        <v>1.2662665448510621E-2</v>
       </c>
       <c r="L19" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
-        <v>1.8821917808219177</v>
+        <v>0.20547945205479451</v>
       </c>
       <c r="M19" s="231">
         <f t="shared" si="1"/>
-        <v>-5.7136202583967779E-5</v>
+        <v>1.2662665448510621E-6</v>
       </c>
       <c r="N19" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0046183166280096</v>
+        <v>1.0003054818747072</v>
       </c>
       <c r="O19" s="234" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="274" t="s">
+        <v>118</v>
+      </c>
+      <c r="R19" s="187" t="str">
+        <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R14:R18,S14:S18),,Trigger)</f>
+        <v>obj_005a2#0014</v>
       </c>
       <c r="T19" s="55"/>
-    </row>
-    <row r="20" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X19" s="57"/>
+    </row>
+    <row r="20" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="241" t="b">
         <v>1</v>
       </c>
       <c r="B20" s="56"/>
       <c r="C20" s="248" t="str">
         <f>_xll.qlIMMNextCode(C19,A20)</f>
-        <v>Z7</v>
+        <v>H6</v>
       </c>
       <c r="D20" s="246" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MZ7_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="E20" s="293">
         <f>_xll.qlIMMdate(C20,SettlementDate,Trigger)</f>
-        <v>43089</v>
+        <v>42445</v>
       </c>
       <c r="F20" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
-        <v>43271</v>
+        <v>42629</v>
       </c>
       <c r="G20" s="62">
         <f>1-_xll.qlQuoteValue(D20,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C20&amp;"ConvAdj_Quote")</f>
-        <v>7.4999999999936229E-5</v>
+        <v>-5.7499999999999218E-4</v>
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E20),,AllTriggers)</f>
-        <v>-1.2531930361876498E-3</v>
+        <v>-1.8073896993099216E-3</v>
       </c>
       <c r="I20" s="262">
         <f t="shared" si="0"/>
-        <v>1.328193036187586E-3</v>
+        <v>1.2323896993099294E-3</v>
       </c>
       <c r="J20" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>1.44726445846573E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E20,Trigger)</f>
+        <v>1.2223279063650295E-3</v>
       </c>
       <c r="K20" s="185">
         <f t="shared" si="4"/>
-        <v>-1.1907142227814398</v>
+        <v>0.10061792944899856</v>
       </c>
       <c r="L20" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>2.1315068493150684</v>
+        <v>0.45479452054794522</v>
       </c>
       <c r="M20" s="231">
         <f t="shared" si="1"/>
-        <v>-1.1907142227814398E-4</v>
+        <v>1.0061792944899856E-5</v>
       </c>
       <c r="N20" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0050568780385611</v>
+        <v>1.0007157746907596</v>
       </c>
       <c r="O20" s="234" t="b">
-        <v>0</v>
-      </c>
-      <c r="T20" s="55"/>
-    </row>
-    <row r="21" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="241" t="b">
         <v>1</v>
       </c>
       <c r="B21" s="56"/>
       <c r="C21" s="248" t="str">
         <f>_xll.qlIMMNextCode(C20,A21)</f>
-        <v>H8</v>
+        <v>M6</v>
       </c>
       <c r="D21" s="246" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MH8_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="E21" s="293">
         <f>_xll.qlIMMdate(C21,SettlementDate,Trigger)</f>
-        <v>43180</v>
+        <v>42536</v>
       </c>
       <c r="F21" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
-        <v>43364</v>
+        <v>42719</v>
       </c>
       <c r="G21" s="62">
         <f>1-_xll.qlQuoteValue(D21,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C21&amp;"ConvAdj_Quote")</f>
-        <v>6.7499999999998117E-4</v>
+        <v>-6.7499999999998117E-4</v>
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E21),,AllTriggers)</f>
-        <v>-7.0229031858633044E-4</v>
+        <v>-1.9443034318716616E-3</v>
       </c>
       <c r="I21" s="262">
         <f t="shared" si="0"/>
-        <v>1.3772903185863116E-3</v>
+        <v>1.2693034318716804E-3</v>
       </c>
       <c r="J21" s="62">
-        <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>1.4550434332863532E-3</v>
+        <f>_xll.qlTenorBasisValue($R$19,E21,Trigger)</f>
+        <v>1.2935629530814055E-3</v>
       </c>
       <c r="K21" s="185">
         <f t="shared" si="4"/>
-        <v>-0.77753114700041637</v>
+        <v>-0.24259521209725118</v>
       </c>
       <c r="L21" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
-        <v>2.3808219178082193</v>
+        <v>0.70410958904109588</v>
       </c>
       <c r="M21" s="231">
         <f t="shared" si="1"/>
-        <v>-7.7753114700041632E-5</v>
+        <v>-2.4259521209725118E-5</v>
       </c>
       <c r="N21" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0053746297020936</v>
+        <v>1.001172937288769</v>
       </c>
       <c r="O21" s="234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="241" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="248" t="str">
+        <f>_xll.qlIMMNextCode(C21,A22)</f>
+        <v>U6</v>
+      </c>
+      <c r="D22" s="246" t="str">
+        <f t="shared" si="11"/>
+        <v>EURFUT3MU6_Quote</v>
+      </c>
+      <c r="E22" s="293">
+        <f>_xll.qlIMMdate(C22,SettlementDate,Trigger)</f>
+        <v>42634</v>
+      </c>
+      <c r="F22" s="293">
+        <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
+        <v>42815</v>
+      </c>
+      <c r="G22" s="62">
+        <f>1-_xll.qlQuoteValue(D22,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C22&amp;"ConvAdj_Quote")</f>
+        <v>-6.250000000000977E-4</v>
+      </c>
+      <c r="H22" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
+        <v>-1.9724181850110391E-3</v>
+      </c>
+      <c r="I22" s="262">
+        <f t="shared" si="0"/>
+        <v>1.3474181850109414E-3</v>
+      </c>
+      <c r="J22" s="62">
+        <f>_xll.qlTenorBasisValue($R$19,E22,Trigger)</f>
+        <v>1.3454083892826556E-3</v>
+      </c>
+      <c r="K22" s="185">
+        <f t="shared" si="4"/>
+        <v>2.0097957282858622E-2</v>
+      </c>
+      <c r="L22" s="203">
+        <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
+        <v>0.9726027397260274</v>
+      </c>
+      <c r="M22" s="231">
+        <f t="shared" si="1"/>
+        <v>2.0097957282858622E-6</v>
+      </c>
+      <c r="N22" s="181">
+        <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
+        <v>1.0017038095513664</v>
+      </c>
+      <c r="O22" s="234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="241" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="248" t="str">
+        <f>_xll.qlIMMNextCode(C22,A23)</f>
+        <v>Z6</v>
+      </c>
+      <c r="D23" s="246" t="str">
+        <f t="shared" si="11"/>
+        <v>EURFUT3MZ6_Quote</v>
+      </c>
+      <c r="E23" s="293">
+        <f>_xll.qlIMMdate(C23,SettlementDate,Trigger)</f>
+        <v>42725</v>
+      </c>
+      <c r="F23" s="293">
+        <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E23)</f>
+        <v>42907</v>
+      </c>
+      <c r="G23" s="62">
+        <f>1-_xll.qlQuoteValue(D23,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C23&amp;"ConvAdj_Quote")</f>
+        <v>-4.750000000000032E-4</v>
+      </c>
+      <c r="H23" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E23),,AllTriggers)</f>
+        <v>-1.8348999336903482E-3</v>
+      </c>
+      <c r="I23" s="262">
+        <f t="shared" si="0"/>
+        <v>1.359899933690345E-3</v>
+      </c>
+      <c r="J23" s="62">
+        <f>_xll.qlTenorBasisValue($R$19,E23,Trigger)</f>
+        <v>1.3789171512172313E-3</v>
+      </c>
+      <c r="K23" s="185">
+        <f t="shared" si="4"/>
+        <v>-0.1901721752688634</v>
+      </c>
+      <c r="L23" s="203">
+        <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E23,,,Trigger)</f>
+        <v>1.2219178082191782</v>
+      </c>
+      <c r="M23" s="231">
+        <f t="shared" si="1"/>
+        <v>-1.901721752688634E-5</v>
+      </c>
+      <c r="N23" s="181">
+        <f>_xll.qlYieldTSDiscount(Discounting,E23,,AllTriggers)</f>
+        <v>1.0022034916615752</v>
+      </c>
+      <c r="O23" s="234" t="b">
         <v>0</v>
       </c>
-      <c r="T21" s="55"/>
-    </row>
-    <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="242" t="b">
+    </row>
+    <row r="24" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="241" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="243"/>
-      <c r="C22" s="250" t="str">
-        <f>_xll.qlIMMNextCode(C21,A22)</f>
-        <v>M8</v>
-      </c>
-      <c r="D22" s="247" t="str">
-        <f t="shared" si="6"/>
-        <v>EURFUT3MM8_Quote</v>
-      </c>
-      <c r="E22" s="294">
-        <f>_xll.qlIMMdate(C22,SettlementDate,Trigger)</f>
+      <c r="B24" s="56"/>
+      <c r="C24" s="248" t="str">
+        <f>_xll.qlIMMNextCode(C23,A24)</f>
+        <v>H7</v>
+      </c>
+      <c r="D24" s="246" t="str">
+        <f t="shared" si="11"/>
+        <v>EURFUT3MH7_Quote</v>
+      </c>
+      <c r="E24" s="293">
+        <f>_xll.qlIMMdate(C24,SettlementDate,Trigger)</f>
+        <v>42809</v>
+      </c>
+      <c r="F24" s="293">
+        <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E24)</f>
+        <v>42993</v>
+      </c>
+      <c r="G24" s="62">
+        <f>1-_xll.qlQuoteValue(D24,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C24&amp;"ConvAdj_Quote")</f>
+        <v>-2.2500000000014175E-4</v>
+      </c>
+      <c r="H24" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E24),,AllTriggers)</f>
+        <v>-1.6800928635114607E-3</v>
+      </c>
+      <c r="I24" s="262">
+        <f t="shared" si="0"/>
+        <v>1.4550928635113189E-3</v>
+      </c>
+      <c r="J24" s="62">
+        <f>_xll.qlTenorBasisValue($R$19,E24,Trigger)</f>
+        <v>1.4043906345690251E-3</v>
+      </c>
+      <c r="K24" s="185">
+        <f t="shared" si="4"/>
+        <v>0.50702228942293848</v>
+      </c>
+      <c r="L24" s="203">
+        <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E24,,,Trigger)</f>
+        <v>1.452054794520548</v>
+      </c>
+      <c r="M24" s="231">
+        <f t="shared" si="1"/>
+        <v>5.0702228942293851E-5</v>
+      </c>
+      <c r="N24" s="181">
+        <f>_xll.qlYieldTSDiscount(Discounting,E24,,AllTriggers)</f>
+        <v>1.0026340345514717</v>
+      </c>
+      <c r="O24" s="234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="241" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="248" t="str">
+        <f>_xll.qlIMMNextCode(C24,A25)</f>
+        <v>M7</v>
+      </c>
+      <c r="D25" s="246" t="str">
+        <f t="shared" si="11"/>
+        <v>EURFUT3MM7_Quote</v>
+      </c>
+      <c r="E25" s="293">
+        <f>_xll.qlIMMdate(C25,SettlementDate,Trigger)</f>
+        <v>42907</v>
+      </c>
+      <c r="F25" s="293">
+        <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E25)</f>
+        <v>43090</v>
+      </c>
+      <c r="G25" s="62">
+        <f>1-_xll.qlQuoteValue(D25,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C25&amp;"ConvAdj_Quote")</f>
+        <v>1.2500000000004174E-4</v>
+      </c>
+      <c r="H25" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E25),,AllTriggers)</f>
+        <v>-1.4042404588627919E-3</v>
+      </c>
+      <c r="I25" s="262">
+        <f t="shared" si="0"/>
+        <v>1.5292404588628337E-3</v>
+      </c>
+      <c r="J25" s="62">
+        <f>_xll.qlTenorBasisValue($R$19,E25,Trigger)</f>
+        <v>1.4360411323487399E-3</v>
+      </c>
+      <c r="K25" s="185">
+        <f t="shared" si="4"/>
+        <v>0.93199326514093728</v>
+      </c>
+      <c r="L25" s="203">
+        <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E25,,,Trigger)</f>
+        <v>1.7205479452054795</v>
+      </c>
+      <c r="M25" s="231">
+        <f t="shared" si="1"/>
+        <v>9.319932651409373E-5</v>
+      </c>
+      <c r="N25" s="181">
+        <f>_xll.qlYieldTSDiscount(Discounting,E25,,AllTriggers)</f>
+        <v>1.0030909587369332</v>
+      </c>
+      <c r="O25" s="234" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" s="55"/>
+    </row>
+    <row r="26" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="241" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="248" t="str">
+        <f>_xll.qlIMMNextCode(C25,A26)</f>
+        <v>U7</v>
+      </c>
+      <c r="D26" s="246" t="str">
+        <f t="shared" si="11"/>
+        <v>EURFUT3MU7_Quote</v>
+      </c>
+      <c r="E26" s="293">
+        <f>_xll.qlIMMdate(C26,SettlementDate,Trigger)</f>
+        <v>42998</v>
+      </c>
+      <c r="F26" s="293">
+        <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E26)</f>
+        <v>43179</v>
+      </c>
+      <c r="G26" s="62">
+        <f>1-_xll.qlQuoteValue(D26,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C26&amp;"ConvAdj_Quote")</f>
+        <v>5.2500000000010871E-4</v>
+      </c>
+      <c r="H26" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E26),,AllTriggers)</f>
+        <v>-1.0033691236714401E-3</v>
+      </c>
+      <c r="I26" s="262">
+        <f t="shared" si="0"/>
+        <v>1.5283691236715488E-3</v>
+      </c>
+      <c r="J26" s="62">
+        <f>_xll.qlTenorBasisValue($R$19,E26,Trigger)</f>
+        <v>1.4755412758312735E-3</v>
+      </c>
+      <c r="K26" s="185">
+        <f t="shared" si="4"/>
+        <v>0.52827847840275277</v>
+      </c>
+      <c r="L26" s="203">
+        <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E26,,,Trigger)</f>
+        <v>1.9698630136986301</v>
+      </c>
+      <c r="M26" s="231">
+        <f t="shared" si="1"/>
+        <v>5.2827847840275282E-5</v>
+      </c>
+      <c r="N26" s="181">
+        <f>_xll.qlYieldTSDiscount(Discounting,E26,,AllTriggers)</f>
+        <v>1.003447645816721</v>
+      </c>
+      <c r="O26" s="234" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" s="55"/>
+    </row>
+    <row r="27" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="241" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="56"/>
+      <c r="C27" s="248" t="str">
+        <f>_xll.qlIMMNextCode(C26,A27)</f>
+        <v>Z7</v>
+      </c>
+      <c r="D27" s="246" t="str">
+        <f t="shared" si="11"/>
+        <v>EURFUT3MZ7_Quote</v>
+      </c>
+      <c r="E27" s="293">
+        <f>_xll.qlIMMdate(C27,SettlementDate,Trigger)</f>
+        <v>43089</v>
+      </c>
+      <c r="F27" s="293">
+        <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E27)</f>
         <v>43271</v>
       </c>
-      <c r="F22" s="294">
-        <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
-        <v>43454</v>
-      </c>
-      <c r="G22" s="65">
-        <f>1-_xll.qlQuoteValue(D22,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C22&amp;"ConvAdj_Quote")</f>
-        <v>1.3249999999999096E-3</v>
-      </c>
-      <c r="H22" s="65">
-        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
-        <v>-9.6476394320378219E-5</v>
-      </c>
-      <c r="I22" s="257">
+      <c r="G27" s="62">
+        <f>1-_xll.qlQuoteValue(D27,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C27&amp;"ConvAdj_Quote")</f>
+        <v>1.0750000000000481E-3</v>
+      </c>
+      <c r="H27" s="62">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E27),,AllTriggers)</f>
+        <v>-5.0913265329066704E-4</v>
+      </c>
+      <c r="I27" s="262">
         <f t="shared" si="0"/>
-        <v>1.4214763943202879E-3</v>
-      </c>
-      <c r="J22" s="65">
-        <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>1.4210085538050097E-3</v>
-      </c>
-      <c r="K22" s="186">
+        <v>1.5841326532907152E-3</v>
+      </c>
+      <c r="J27" s="62">
+        <f>_xll.qlTenorBasisValue($R$19,E27,Trigger)</f>
+        <v>1.532923470782061E-3</v>
+      </c>
+      <c r="K27" s="185">
         <f t="shared" si="4"/>
-        <v>4.6784051527812634E-3</v>
-      </c>
-      <c r="L22" s="204">
-        <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>2.6301369863013697</v>
-      </c>
-      <c r="M22" s="232">
+        <v>0.51209182508654216</v>
+      </c>
+      <c r="L27" s="203">
+        <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E27,,,Trigger)</f>
+        <v>2.2191780821917808</v>
+      </c>
+      <c r="M27" s="231">
         <f t="shared" si="1"/>
-        <v>4.6784051527812634E-7</v>
-      </c>
-      <c r="N22" s="182">
-        <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.005553959307361</v>
-      </c>
-      <c r="O22" s="235" t="b">
+        <v>5.1209182508654217E-5</v>
+      </c>
+      <c r="N27" s="181">
+        <f>_xll.qlYieldTSDiscount(Discounting,E27,,AllTriggers)</f>
+        <v>1.0037022142245302</v>
+      </c>
+      <c r="O27" s="234" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" s="55"/>
+    </row>
+    <row r="28" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="242" t="b">
         <v>1</v>
       </c>
-      <c r="T22" s="55"/>
-    </row>
-    <row r="23" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="T23" s="55"/>
-    </row>
-    <row r="24" spans="1:20" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="179"/>
-      <c r="F24" s="58" t="s">
+      <c r="B28" s="243"/>
+      <c r="C28" s="250" t="str">
+        <f>_xll.qlIMMNextCode(C27,A28)</f>
+        <v>H8</v>
+      </c>
+      <c r="D28" s="247" t="str">
+        <f t="shared" si="11"/>
+        <v>EURFUT3MH8_Quote</v>
+      </c>
+      <c r="E28" s="294">
+        <f>_xll.qlIMMdate(C28,SettlementDate,Trigger)</f>
+        <v>43180</v>
+      </c>
+      <c r="F28" s="294">
+        <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E28)</f>
+        <v>43364</v>
+      </c>
+      <c r="G28" s="65">
+        <f>1-_xll.qlQuoteValue(D28,AllTriggers)/100-_xll.qlQuoteValue(Currency&amp;"FUT"&amp;"3M"&amp;C28&amp;"ConvAdj_Quote")</f>
+        <v>1.6750000000000931E-3</v>
+      </c>
+      <c r="H28" s="65">
+        <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E28),,AllTriggers)</f>
+        <v>5.8914404855484172E-5</v>
+      </c>
+      <c r="I28" s="257">
+        <f t="shared" si="0"/>
+        <v>1.6160855951446089E-3</v>
+      </c>
+      <c r="J28" s="65">
+        <f>_xll.qlTenorBasisValue($R$19,E28,Trigger)</f>
+        <v>1.6161301793439029E-3</v>
+      </c>
+      <c r="K28" s="186">
+        <f t="shared" si="4"/>
+        <v>-4.4584199294017343E-4</v>
+      </c>
+      <c r="L28" s="204">
+        <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E28,,,Trigger)</f>
+        <v>2.4684931506849317</v>
+      </c>
+      <c r="M28" s="232">
+        <f t="shared" si="1"/>
+        <v>-4.4584199294017343E-8</v>
+      </c>
+      <c r="N28" s="182">
+        <f>_xll.qlYieldTSDiscount(Discounting,E28,,AllTriggers)</f>
+        <v>1.0038306484911559</v>
+      </c>
+      <c r="O28" s="235" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" s="55"/>
+    </row>
+    <row r="29" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="T29" s="55"/>
+    </row>
+    <row r="30" spans="1:24" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="179"/>
+      <c r="F30" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G30" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="58" t="s">
+      <c r="H30" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="283" t="s">
+      <c r="I30" s="283" t="s">
         <v>129</v>
       </c>
-      <c r="T24" s="55"/>
-    </row>
-    <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="179"/>
-      <c r="F25" s="61" t="s">
+      <c r="T30" s="55"/>
+    </row>
+    <row r="31" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="179"/>
+      <c r="F31" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="265">
+      <c r="G31" s="265">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
-      </c>
-      <c r="H25" s="266">
-        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42312</v>
-      </c>
-      <c r="I25" s="284">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G25,H25,AllTriggers)</f>
-        <v>-6.7893388511208741E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="179"/>
-      <c r="F26" s="63" t="s">
+        <v>42279</v>
+      </c>
+      <c r="H31" s="266">
+        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"Following",,Trigger)</f>
+        <v>42282</v>
+      </c>
+      <c r="I31" s="284">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
+        <v>-4.6216392257214522E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="179"/>
+      <c r="F32" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="267">
+      <c r="G32" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
-      </c>
-      <c r="H26" s="268">
-        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42318</v>
-      </c>
-      <c r="I26" s="285">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G26,H26,AllTriggers)</f>
-        <v>-1.7542686747251679E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="179"/>
-      <c r="F27" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="267">
-        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
-      </c>
-      <c r="H27" s="268">
-        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42325</v>
-      </c>
-      <c r="I27" s="285">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G27,H27,AllTriggers)</f>
-        <v>-1.8026150816601621E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="179"/>
-      <c r="F28" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="267">
-        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
-      </c>
-      <c r="H28" s="268">
-        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42332</v>
-      </c>
-      <c r="I28" s="285">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G28,H28,AllTriggers)</f>
-        <v>-1.8497035113489751E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="179"/>
-      <c r="F29" s="263" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="269">
-        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
-      </c>
-      <c r="H29" s="270">
-        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42341</v>
-      </c>
-      <c r="I29" s="286">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G29,H29,AllTriggers)</f>
-        <v>-2.0084268985520737E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="179"/>
-      <c r="F30" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="267">
-        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
-      </c>
-      <c r="H30" s="268">
-        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42373</v>
-      </c>
-      <c r="I30" s="285">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G30,H30,AllTriggers)</f>
-        <v>-4.9014604394956578E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="179"/>
-      <c r="F31" s="261" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="271">
-        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
-      </c>
-      <c r="H31" s="272">
-        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42403</v>
-      </c>
-      <c r="I31" s="288">
-        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
-        <v>-7.0832887756179107E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
+        <v>42279</v>
+      </c>
+      <c r="H32" s="268">
+        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"Following",,Trigger)</f>
+        <v>42286</v>
+      </c>
+      <c r="I32" s="285">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G32,H32,AllTriggers)</f>
+        <v>-5.1208307960872086E-4</v>
+      </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
+      <c r="F33" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="267">
+        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
+        <v>42279</v>
+      </c>
+      <c r="H33" s="268">
+        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"Following",,Trigger)</f>
+        <v>42293</v>
+      </c>
+      <c r="I33" s="285">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G33,H33,AllTriggers)</f>
+        <v>-5.0549147297105994E-4</v>
+      </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
+      <c r="F34" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="267">
+        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
+        <v>42279</v>
+      </c>
+      <c r="H34" s="268">
+        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"Following",,Trigger)</f>
+        <v>42300</v>
+      </c>
+      <c r="I34" s="285">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G34,H34,AllTriggers)</f>
+        <v>-4.9899359318634443E-4</v>
+      </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
+      <c r="F35" s="263" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="269">
+        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
+        <v>42279</v>
+      </c>
+      <c r="H35" s="270">
+        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F35,"mf",TRUE,Trigger)</f>
+        <v>42310</v>
+      </c>
+      <c r="I35" s="286">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G35,H35,AllTriggers)</f>
+        <v>-4.5986928879109484E-4</v>
+      </c>
     </row>
     <row r="36" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E36" s="179"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-    </row>
-    <row r="37" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="267">
+        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
+        <v>42279</v>
+      </c>
+      <c r="H36" s="268">
+        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F36,"mf",TRUE,Trigger)</f>
+        <v>42340</v>
+      </c>
+      <c r="I36" s="285">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G36,H36,AllTriggers)</f>
+        <v>-4.8361993965124637E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E37" s="179"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
+      <c r="F37" s="261" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="271">
+        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
+        <v>42279</v>
+      </c>
+      <c r="H37" s="272">
+        <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F37,"mf",TRUE,Trigger)</f>
+        <v>42373</v>
+      </c>
+      <c r="I37" s="288">
+        <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G37,H37,AllTriggers)</f>
+        <v>-4.3636004553916906E-4</v>
+      </c>
     </row>
     <row r="38" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="179"/>
@@ -6184,9 +6509,51 @@
       <c r="H53" s="57"/>
       <c r="I53" s="57"/>
     </row>
+    <row r="54" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="179"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+    </row>
+    <row r="55" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="179"/>
+      <c r="F55" s="179"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+    </row>
+    <row r="56" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="179"/>
+      <c r="F56" s="179"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+    </row>
+    <row r="57" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="179"/>
+      <c r="F57" s="179"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+    </row>
+    <row r="58" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="179"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+    </row>
+    <row r="59" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="179"/>
+      <c r="F59" s="179"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O22 S13:S17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S14:S18 O4:O28">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6295,21 +6662,21 @@
       </c>
       <c r="E3" s="291">
         <f>SettlementDate</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="F3" s="291">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42493</v>
+        <v>42464</v>
       </c>
       <c r="G3" s="255">
         <f>J3+$H$4</f>
-        <v>4.7031733816315768E-5</v>
+        <v>2.7039529257642716E-4</v>
       </c>
       <c r="H3" s="236"/>
       <c r="I3" s="236"/>
       <c r="J3" s="187">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>2.1887331701229825E-3</v>
+        <v>1.8273582058294271E-3</v>
       </c>
       <c r="K3" s="236"/>
       <c r="L3" s="280">
@@ -6324,7 +6691,7 @@
       </c>
       <c r="R3" s="187" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_0044d#0001</v>
+        <v>obj_0044e#0002</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6343,31 +6710,31 @@
       </c>
       <c r="E4" s="291">
         <f>SettlementDate</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="F4" s="291">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E4)</f>
-        <v>42493</v>
+        <v>42464</v>
       </c>
       <c r="G4" s="187">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>6.0000000000000002E-5</v>
+        <v>2.9E-4</v>
       </c>
       <c r="H4" s="187">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E4),,AllTriggers)</f>
-        <v>-2.1417014363066668E-3</v>
+        <v>-1.556962913253E-3</v>
       </c>
       <c r="I4" s="255">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>2.2017014363066669E-3</v>
+        <v>1.8469629132529999E-3</v>
       </c>
       <c r="J4" s="183">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>2.1887331701229825E-3</v>
+        <v>1.8273582058294271E-3</v>
       </c>
       <c r="K4" s="184">
         <f>M4*10000</f>
-        <v>0.1296826618368439</v>
+        <v>0.19604707423572734</v>
       </c>
       <c r="L4" s="281">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -6375,11 +6742,11 @@
       </c>
       <c r="M4" s="275">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>1.296826618368439E-5</v>
+        <v>1.9604707423572735E-5</v>
       </c>
       <c r="N4" s="278">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000144446139678</v>
+        <v>1.0000063889195219</v>
       </c>
       <c r="O4" s="233" t="b">
         <v>1</v>
@@ -6402,43 +6769,43 @@
       </c>
       <c r="E5" s="292">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42341</v>
+        <v>42310</v>
       </c>
       <c r="F5" s="292">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E5)</f>
-        <v>42524</v>
+        <v>42492</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>-1.7000000000000001E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E5),,AllTriggers)</f>
-        <v>-2.3236769149078012E-3</v>
+        <v>-1.6194658927457797E-3</v>
       </c>
       <c r="I5" s="277">
         <f t="shared" si="0"/>
-        <v>2.1536769149078012E-3</v>
+        <v>1.8694658927457797E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>2.1454661004101394E-3</v>
+        <v>1.8813249670941057E-3</v>
       </c>
       <c r="K5" s="237">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>8.2108144976618391E-2</v>
+        <v>-0.11859074348326021</v>
       </c>
       <c r="L5" s="282">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="M5" s="276">
         <f t="shared" si="1"/>
-        <v>8.2108144976618391E-6</v>
+        <v>-1.1859074348326022E-5</v>
       </c>
       <c r="N5" s="180">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001336272045431</v>
+        <v>1.0001269597807645</v>
       </c>
       <c r="O5" s="238" t="b">
         <v>1</v>
@@ -6465,43 +6832,43 @@
       </c>
       <c r="E6" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42373</v>
+        <v>42340</v>
       </c>
       <c r="F6" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E6)</f>
-        <v>42555</v>
+        <v>42523</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>-3.4999999999999994E-4</v>
+        <v>2.3000000000000001E-4</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E6),,AllTriggers)</f>
-        <v>-2.4373249253011884E-3</v>
+        <v>-1.6758130301811013E-3</v>
       </c>
       <c r="I6" s="262">
         <f t="shared" si="0"/>
-        <v>2.0873249253011883E-3</v>
+        <v>1.9058130301811012E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>2.1101723280969849E-3</v>
+        <v>1.9296662926708329E-3</v>
       </c>
       <c r="K6" s="185">
         <f t="shared" si="4"/>
-        <v>-0.22847402795796601</v>
+        <v>-0.23853262489731669</v>
       </c>
       <c r="L6" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.16986301369863013</v>
+        <v>0.16712328767123288</v>
       </c>
       <c r="M6" s="231">
         <f t="shared" si="1"/>
-        <v>-2.2847402795796602E-5</v>
+        <v>-2.3853262489731668E-5</v>
       </c>
       <c r="N6" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0003073123659809</v>
+        <v>1.0002521453146693</v>
       </c>
       <c r="O6" s="234" t="b">
         <v>1</v>
@@ -6511,7 +6878,7 @@
       </c>
       <c r="R6" s="279" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_00592#0012</v>
+        <v>obj_005a0#0002</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6532,43 +6899,43 @@
       </c>
       <c r="E7" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42403</v>
+        <v>42373</v>
       </c>
       <c r="F7" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E7)</f>
-        <v>42585</v>
+        <v>42555</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>-4.2999999999999999E-4</v>
+        <v>2.1999999999999998E-4</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E7),,AllTriggers)</f>
-        <v>-2.4944651731959979E-3</v>
+        <v>-1.7662304460096426E-3</v>
       </c>
       <c r="I7" s="262">
         <f t="shared" si="0"/>
-        <v>2.064465173195998E-3</v>
+        <v>1.9862304460096427E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>2.0864836360640583E-3</v>
+        <v>1.9788745412316982E-3</v>
       </c>
       <c r="K7" s="185">
         <f t="shared" si="4"/>
-        <v>-0.22018462868060237</v>
+        <v>7.3559047779445275E-2</v>
       </c>
       <c r="L7" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
-        <v>0.25205479452054796</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="M7" s="231">
         <f t="shared" si="1"/>
-        <v>-2.2018462868060237E-5</v>
+        <v>7.3559047779445282E-6</v>
       </c>
       <c r="N7" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0005008273785223</v>
+        <v>1.000379858517497</v>
       </c>
       <c r="O7" s="234" t="b">
         <v>1</v>
@@ -6599,43 +6966,43 @@
       </c>
       <c r="E8" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42432</v>
+        <v>42402</v>
       </c>
       <c r="F8" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E8)</f>
-        <v>42618</v>
+        <v>42584</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>-4.8999999999999998E-4</v>
+        <v>2.0999999999999998E-4</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E8),,AllTriggers)</f>
-        <v>-2.5569842452193145E-3</v>
+        <v>-1.8075857506743571E-3</v>
       </c>
       <c r="I8" s="262">
         <f t="shared" si="0"/>
-        <v>2.0669842452193145E-3</v>
+        <v>2.017585750674357E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>2.071521177153405E-3</v>
+        <v>2.0190645997408426E-3</v>
       </c>
       <c r="K8" s="185">
         <f t="shared" si="4"/>
-        <v>-4.5369319340905247E-2</v>
+        <v>-1.4788490664855922E-2</v>
       </c>
       <c r="L8" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33150684931506852</v>
+        <v>0.33698630136986302</v>
       </c>
       <c r="M8" s="231">
         <f t="shared" si="1"/>
-        <v>-4.5369319340905247E-6</v>
+        <v>-1.4788490664855922E-6</v>
       </c>
       <c r="N8" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0006863936193298</v>
+        <v>1.0005152621216613</v>
       </c>
       <c r="O8" s="234" t="b">
         <v>1</v>
@@ -6666,43 +7033,43 @@
       </c>
       <c r="E9" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42464</v>
+        <v>42431</v>
       </c>
       <c r="F9" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E9)</f>
-        <v>42647</v>
+        <v>42615</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>-5.4000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E9),,AllTriggers)</f>
-        <v>-2.6120154726727756E-3</v>
+        <v>-1.8535125749734498E-3</v>
       </c>
       <c r="I9" s="262">
         <f t="shared" si="0"/>
-        <v>2.0720154726727755E-3</v>
+        <v>2.0535125749734499E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>2.0632557661007492E-3</v>
+        <v>2.0567473618959622E-3</v>
       </c>
       <c r="K9" s="185">
         <f t="shared" si="4"/>
-        <v>8.7597065720262587E-2</v>
+        <v>-3.2347869225123581E-2</v>
       </c>
       <c r="L9" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.41917808219178082</v>
+        <v>0.41643835616438357</v>
       </c>
       <c r="M9" s="231">
         <f t="shared" si="1"/>
-        <v>8.7597065720262587E-6</v>
+        <v>-3.2347869225123581E-6</v>
       </c>
       <c r="N9" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0008975034588854</v>
+        <v>1.0006503193911085</v>
       </c>
       <c r="O9" s="234" t="b">
         <v>1</v>
@@ -6712,7 +7079,7 @@
       </c>
       <c r="R9" s="187">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>1.2850742056372337E-5</v>
+        <v>1.1339044162289581E-5</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6733,43 +7100,43 @@
       </c>
       <c r="E10" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42493</v>
+        <v>42464</v>
       </c>
       <c r="F10" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E10)</f>
-        <v>42677</v>
+        <v>42647</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>-5.6999999999999998E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E10),,AllTriggers)</f>
-        <v>-2.6475218937710675E-3</v>
+        <v>-1.9024049563927188E-3</v>
       </c>
       <c r="I10" s="262">
         <f t="shared" si="0"/>
-        <v>2.0775218937710673E-3</v>
+        <v>2.1024049563927189E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>2.0625115127692745E-3</v>
+        <v>2.0970026842366887E-3</v>
       </c>
       <c r="K10" s="185">
         <f t="shared" si="4"/>
-        <v>0.15010381001792811</v>
+        <v>5.4022721560301884E-2</v>
       </c>
       <c r="L10" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.49863013698630138</v>
+        <v>0.50684931506849318</v>
       </c>
       <c r="M10" s="231">
         <f t="shared" si="1"/>
-        <v>1.5010381001792812E-5</v>
+        <v>5.4022721560301884E-6</v>
       </c>
       <c r="N10" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0010983829465363</v>
+        <v>1.0008071406590917</v>
       </c>
       <c r="O10" s="234" t="b">
         <v>1</v>
@@ -6779,7 +7146,7 @@
       </c>
       <c r="R10" s="187">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>2.2847402795796602E-5</v>
+        <v>2.3853262489731668E-5</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6800,31 +7167,31 @@
       </c>
       <c r="E11" s="292">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42524</v>
+        <v>42492</v>
       </c>
       <c r="F11" s="292">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E11)</f>
-        <v>42709</v>
+        <v>42676</v>
       </c>
       <c r="G11" s="67">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>-5.8999999999999992E-4</v>
+        <v>2.0999999999999998E-4</v>
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E11),,AllTriggers)</f>
-        <v>-2.6724024048911227E-3</v>
+        <v>-1.9326434644676717E-3</v>
       </c>
       <c r="I11" s="277">
         <f t="shared" si="0"/>
-        <v>2.0824024048911229E-3</v>
+        <v>2.1426434644676719E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>2.0680293068745291E-3</v>
+        <v>2.1293180698774058E-3</v>
       </c>
       <c r="K11" s="237">
         <f t="shared" si="4"/>
-        <v>0.14373098016593788</v>
+        <v>0.13325394590266074</v>
       </c>
       <c r="L11" s="282">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
@@ -6832,11 +7199,11 @@
       </c>
       <c r="M11" s="276">
         <f t="shared" si="1"/>
-        <v>1.437309801659379E-5</v>
+        <v>1.3325394590266073E-5</v>
       </c>
       <c r="N11" s="180">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0013163845529229</v>
+        <v>1.0009464646588653</v>
       </c>
       <c r="O11" s="238" t="b">
         <v>1</v>
@@ -6860,31 +7227,31 @@
       </c>
       <c r="E12" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42555</v>
+        <v>42523</v>
       </c>
       <c r="F12" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E12)</f>
-        <v>42739</v>
+        <v>42706</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>-5.8E-4</v>
+        <v>2.0999999999999998E-4</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E12),,AllTriggers)</f>
-        <v>-2.6556925745951682E-3</v>
+        <v>-1.9525773788836487E-3</v>
       </c>
       <c r="I12" s="262">
         <f t="shared" si="0"/>
-        <v>2.075692574595168E-3</v>
+        <v>2.1625773788836486E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>2.0792737456409283E-3</v>
+        <v>2.1635087266186686E-3</v>
       </c>
       <c r="K12" s="185">
         <f t="shared" si="4"/>
-        <v>-3.5811710457603514E-2</v>
+        <v>-9.3134773502005427E-3</v>
       </c>
       <c r="L12" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
@@ -6892,11 +7259,11 @@
       </c>
       <c r="M12" s="231">
         <f t="shared" si="1"/>
-        <v>-3.5811710457603514E-6</v>
+        <v>-9.3134773502005427E-7</v>
       </c>
       <c r="N12" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0015414148589159</v>
+        <v>1.0011049582208984</v>
       </c>
       <c r="O12" s="234" t="b">
         <v>1</v>
@@ -6930,43 +7297,43 @@
       </c>
       <c r="E13" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42585</v>
+        <v>42555</v>
       </c>
       <c r="F13" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E13)</f>
-        <v>42769</v>
+        <v>42739</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>-5.5000000000000003E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E13),,AllTriggers)</f>
-        <v>-2.6576324652454577E-3</v>
+        <v>-1.9508822083120143E-3</v>
       </c>
       <c r="I13" s="262">
         <f t="shared" si="0"/>
-        <v>2.1076324652454575E-3</v>
+        <v>2.2008822083120143E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>2.0948406300488219E-3</v>
+        <v>2.197471555735517E-3</v>
       </c>
       <c r="K13" s="185">
         <f t="shared" si="4"/>
-        <v>0.12791835196635654</v>
+        <v>3.4106525764973118E-2</v>
       </c>
       <c r="L13" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.75068493150684934</v>
+        <v>0.75616438356164384</v>
       </c>
       <c r="M13" s="231">
         <f t="shared" si="1"/>
-        <v>1.2791835196635654E-5</v>
+        <v>3.4106525764973118E-6</v>
       </c>
       <c r="N13" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0017641428491586</v>
+        <v>1.0012739236534773</v>
       </c>
       <c r="O13" s="234" t="b">
         <v>1</v>
@@ -6976,7 +7343,7 @@
       </c>
       <c r="R13" s="187">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>2.1887331701229825E-3</v>
+        <v>1.8273582058294271E-3</v>
       </c>
       <c r="S13" s="187" t="b">
         <v>1</v>
@@ -7003,43 +7370,43 @@
       </c>
       <c r="E14" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42618</v>
+        <v>42584</v>
       </c>
       <c r="F14" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E14)</f>
-        <v>42800</v>
+        <v>42768</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>-5.2999999999999998E-4</v>
+        <v>2.9000000000000006E-4</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E14),,AllTriggers)</f>
-        <v>-2.6419492999569124E-3</v>
+        <v>-1.945400900621018E-3</v>
       </c>
       <c r="I14" s="262">
         <f t="shared" si="0"/>
-        <v>2.1119492999569123E-3</v>
+        <v>2.2354009006210181E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>2.1163961409719476E-3</v>
+        <v>2.227454016484086E-3</v>
       </c>
       <c r="K14" s="185">
         <f t="shared" si="4"/>
-        <v>-4.4468410150353549E-2</v>
+        <v>7.9468841369320642E-2</v>
       </c>
       <c r="L14" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.84109589041095889</v>
+        <v>0.83561643835616439</v>
       </c>
       <c r="M14" s="231">
         <f t="shared" si="1"/>
-        <v>-4.4468410150353549E-6</v>
+        <v>7.9468841369320642E-6</v>
       </c>
       <c r="N14" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.002010157782613</v>
+        <v>1.0014304042935918</v>
       </c>
       <c r="O14" s="234" t="b">
         <v>1</v>
@@ -7048,7 +7415,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="187">
-        <v>-5.8943602591392567E-4</v>
+        <v>6.6100855687893146E-4</v>
       </c>
       <c r="S14" s="187" t="b">
         <v>1</v>
@@ -7075,43 +7442,43 @@
       </c>
       <c r="E15" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42646</v>
+        <v>42615</v>
       </c>
       <c r="F15" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E15)</f>
-        <v>42828</v>
+        <v>42796</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>-4.8000000000000001E-4</v>
+        <v>3.3E-4</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E15),,AllTriggers)</f>
-        <v>-2.6116175066787646E-3</v>
+        <v>-1.9252099783542314E-3</v>
       </c>
       <c r="I15" s="262">
         <f t="shared" si="0"/>
-        <v>2.1316175066787646E-3</v>
+        <v>2.2552099783542312E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>2.1376183019593156E-3</v>
+        <v>2.259057372856939E-3</v>
       </c>
       <c r="K15" s="185">
         <f t="shared" si="4"/>
-        <v>-6.000795280550978E-2</v>
+        <v>-3.8473945027078099E-2</v>
       </c>
       <c r="L15" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.9178082191780822</v>
+        <v>0.92054794520547945</v>
       </c>
       <c r="M15" s="231">
         <f t="shared" si="1"/>
-        <v>-6.000795280550978E-6</v>
+        <v>-3.8473945027078099E-6</v>
       </c>
       <c r="N15" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0022206846604216</v>
+        <v>1.0015991852523043</v>
       </c>
       <c r="O15" s="234" t="b">
         <v>1</v>
@@ -7120,7 +7487,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="187">
-        <v>7.8496004026477374E-4</v>
+        <v>-3.1076610578557038E-4</v>
       </c>
       <c r="S15" s="187" t="b">
         <v>1</v>
@@ -7147,43 +7514,43 @@
       </c>
       <c r="E16" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42677</v>
+        <v>42646</v>
       </c>
       <c r="F16" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E16)</f>
-        <v>42858</v>
+        <v>42828</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>-4.0999999999999994E-4</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E16),,AllTriggers)</f>
-        <v>-2.5618545349424425E-3</v>
+        <v>-1.8861878294122222E-3</v>
       </c>
       <c r="I16" s="262">
         <f t="shared" si="0"/>
-        <v>2.1518545349424427E-3</v>
+        <v>2.2761878294122223E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>2.1634877198366204E-3</v>
+        <v>2.2905980617379381E-3</v>
       </c>
       <c r="K16" s="185">
         <f t="shared" si="4"/>
-        <v>-0.11633184894177702</v>
+        <v>-0.14410232325715813</v>
       </c>
       <c r="L16" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.0027397260273974</v>
+        <v>1.0054794520547945</v>
       </c>
       <c r="M16" s="231">
         <f t="shared" si="1"/>
-        <v>-1.1633184894177702E-5</v>
+        <v>-1.4410232325715814E-5</v>
       </c>
       <c r="N16" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0024548826962583</v>
+        <v>1.0017703617001901</v>
       </c>
       <c r="O16" s="234" t="b">
         <v>1</v>
@@ -7192,7 +7559,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="187">
-        <v>-2.2163496168971935E-4</v>
+        <v>1.1095647217264012E-4</v>
       </c>
       <c r="S16" s="187" t="b">
         <v>1</v>
@@ -7219,43 +7586,43 @@
       </c>
       <c r="E17" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>42709</v>
+        <v>42676</v>
       </c>
       <c r="F17" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E17)</f>
-        <v>42891</v>
+        <v>42857</v>
       </c>
       <c r="G17" s="62">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>-3.3E-4</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E17),,AllTriggers)</f>
-        <v>-2.5062704762541846E-3</v>
+        <v>-1.8411467937071541E-3</v>
       </c>
       <c r="I17" s="262">
         <f t="shared" si="0"/>
-        <v>2.1762704762541846E-3</v>
+        <v>2.3211467937071543E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>2.1919715906157074E-3</v>
+        <v>2.3214458019691557E-3</v>
       </c>
       <c r="K17" s="185">
         <f t="shared" si="4"/>
-        <v>-0.15701114361522767</v>
+        <v>-2.990082620013719E-3</v>
       </c>
       <c r="L17" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
-        <v>1.0904109589041096</v>
+        <v>1.0876712328767124</v>
       </c>
       <c r="M17" s="231">
         <f t="shared" si="1"/>
-        <v>-1.5701114361522765E-5</v>
+        <v>-2.990082620013719E-7</v>
       </c>
       <c r="N17" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0026934013517315</v>
+        <v>1.0019361727501948</v>
       </c>
       <c r="O17" s="234" t="b">
         <v>0</v>
@@ -7291,31 +7658,31 @@
       </c>
       <c r="E18" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A18&amp;"M","mf",,Trigger)</f>
-        <v>42738</v>
+        <v>42706</v>
       </c>
       <c r="F18" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E18)</f>
-        <v>42919</v>
+        <v>42888</v>
       </c>
       <c r="G18" s="62">
         <f>_xll.qlQuoteValue(D18,AllTriggers)</f>
-        <v>-2.6000000000000003E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E18),,AllTriggers)</f>
-        <v>-2.4797183222570302E-3</v>
+        <v>-1.7892768647274585E-3</v>
       </c>
       <c r="I18" s="262">
         <f t="shared" si="0"/>
-        <v>2.21971832225703E-3</v>
+        <v>2.3492768647274584E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>2.2186051938191966E-3</v>
+        <v>2.3529864713740098E-3</v>
       </c>
       <c r="K18" s="185">
         <f t="shared" si="4"/>
-        <v>1.1131284378333543E-2</v>
+        <v>-3.7096066465513132E-2</v>
       </c>
       <c r="L18" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
@@ -7323,11 +7690,11 @@
       </c>
       <c r="M18" s="231">
         <f t="shared" si="1"/>
-        <v>1.1131284378333543E-6</v>
+        <v>-3.7096066465513132E-6</v>
       </c>
       <c r="N18" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0028955318164527</v>
+        <v>1.002099602370178</v>
       </c>
       <c r="O18" s="234" t="b">
         <v>0</v>
@@ -7337,7 +7704,7 @@
       </c>
       <c r="R18" s="187" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_0048d#0008</v>
+        <v>obj_005a4#0002</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -7359,31 +7726,31 @@
       </c>
       <c r="E19" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A19&amp;"M","mf",,Trigger)</f>
-        <v>42769</v>
+        <v>42737</v>
       </c>
       <c r="F19" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E19)</f>
-        <v>42950</v>
+        <v>42919</v>
       </c>
       <c r="G19" s="62">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
-        <v>-1.4999999999999999E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E19),,AllTriggers)</f>
-        <v>-2.4059668649893313E-3</v>
+        <v>-1.7354869528748711E-3</v>
       </c>
       <c r="I19" s="262">
         <f t="shared" si="0"/>
-        <v>2.2559668649893313E-3</v>
+        <v>2.3954869528748711E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>2.2471579408215813E-3</v>
+        <v>2.3866991082537085E-3</v>
       </c>
       <c r="K19" s="185">
         <f t="shared" si="4"/>
-        <v>8.8089241677500457E-2</v>
+        <v>8.7878446211626243E-2</v>
       </c>
       <c r="L19" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
@@ -7391,11 +7758,11 @@
       </c>
       <c r="M19" s="231">
         <f t="shared" si="1"/>
-        <v>8.8089241677500457E-6</v>
+        <v>8.7878446211626243E-6</v>
       </c>
       <c r="N19" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0031267355184608</v>
+        <v>1.0022624468364867</v>
       </c>
       <c r="O19" s="234" t="b">
         <v>0</v>
@@ -7420,43 +7787,43 @@
       </c>
       <c r="E20" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A20&amp;"M","mf",,Trigger)</f>
-        <v>42797</v>
+        <v>42768</v>
       </c>
       <c r="F20" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E20)</f>
-        <v>42982</v>
+        <v>42949</v>
       </c>
       <c r="G20" s="62">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>-4.9999999999999996E-5</v>
+        <v>7.7000000000000018E-4</v>
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E20),,AllTriggers)</f>
-        <v>-2.3257779962689764E-3</v>
+        <v>-1.6631490120679992E-3</v>
       </c>
       <c r="I20" s="262">
         <f t="shared" si="0"/>
-        <v>2.2757779962689763E-3</v>
+        <v>2.4331490120679993E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>2.2723580525595933E-3</v>
+        <v>2.4219542013716277E-3</v>
       </c>
       <c r="K20" s="185">
         <f t="shared" si="4"/>
-        <v>3.4199437093829395E-2</v>
+        <v>0.1119481069637154</v>
       </c>
       <c r="L20" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
-        <v>1.3315068493150686</v>
+        <v>1.3397260273972602</v>
       </c>
       <c r="M20" s="231">
         <f t="shared" si="1"/>
-        <v>3.4199437093829395E-6</v>
+        <v>1.119481069637154E-5</v>
       </c>
       <c r="N20" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0033289733066619</v>
+        <v>1.0024271336473229</v>
       </c>
       <c r="O20" s="234" t="b">
         <v>0</v>
@@ -7481,31 +7848,31 @@
       </c>
       <c r="E21" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A21&amp;"M","mf",,Trigger)</f>
-        <v>42828</v>
+        <v>42796</v>
       </c>
       <c r="F21" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E21)</f>
-        <v>43011</v>
+        <v>42982</v>
       </c>
       <c r="G21" s="62">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>7.0000000000000007E-5</v>
+        <v>8.7999999999999992E-4</v>
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E21),,AllTriggers)</f>
-        <v>-2.2363940954223571E-3</v>
+        <v>-1.5850956108551517E-3</v>
       </c>
       <c r="I21" s="262">
         <f t="shared" si="0"/>
-        <v>2.3063940954223573E-3</v>
+        <v>2.4650956108551517E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>2.2988552858978894E-3</v>
+        <v>2.4554625405920805E-3</v>
       </c>
       <c r="K21" s="185">
         <f t="shared" si="4"/>
-        <v>7.5388095244679348E-2</v>
+        <v>9.6330702630711806E-2</v>
       </c>
       <c r="L21" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
@@ -7513,11 +7880,11 @@
       </c>
       <c r="M21" s="231">
         <f t="shared" si="1"/>
-        <v>7.5388095244679348E-6</v>
+        <v>9.6330702630711799E-6</v>
       </c>
       <c r="N21" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0035456838291674</v>
+        <v>1.0025696253229894</v>
       </c>
       <c r="O21" s="234" t="b">
         <v>0</v>
@@ -7542,43 +7909,43 @@
       </c>
       <c r="E22" s="294">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A22&amp;"M","mf",,Trigger)</f>
-        <v>42858</v>
+        <v>42828</v>
       </c>
       <c r="F22" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_6M_index,E22)</f>
-        <v>43042</v>
+        <v>43011</v>
       </c>
       <c r="G22" s="65">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
-        <v>1.9000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E22),,AllTriggers)</f>
-        <v>-2.1353017934615673E-3</v>
+        <v>-1.4986612017675049E-3</v>
       </c>
       <c r="I22" s="257">
         <f t="shared" si="0"/>
-        <v>2.3253017934615674E-3</v>
+        <v>2.4986612017675047E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>2.3223517759494708E-3</v>
+        <v>2.4960916012925836E-3</v>
       </c>
       <c r="K22" s="186">
         <f t="shared" si="4"/>
-        <v>2.9500175120966352E-2</v>
+        <v>2.5696004749210972E-2</v>
       </c>
       <c r="L22" s="204">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
-        <v>1.4986301369863013</v>
+        <v>1.5041095890410958</v>
       </c>
       <c r="M22" s="232">
         <f t="shared" si="1"/>
-        <v>2.9500175120966352E-6</v>
+        <v>2.5696004749210972E-6</v>
       </c>
       <c r="N22" s="182">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0037477534959693</v>
+        <v>1.002726534385024</v>
       </c>
       <c r="O22" s="235" t="b">
         <v>1</v>
@@ -7619,15 +7986,15 @@
       </c>
       <c r="G25" s="295">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H25" s="292">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"Following",,Trigger)</f>
-        <v>42312</v>
+        <v>42282</v>
       </c>
       <c r="I25" s="284">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G25,H25,AllTriggers)</f>
-        <v>1.0206039526305943E-3</v>
+        <v>2.4841679715947862E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7636,15 +8003,15 @@
       </c>
       <c r="G26" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H26" s="293">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"Following",,Trigger)</f>
-        <v>42318</v>
+        <v>42286</v>
       </c>
       <c r="I26" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G26,H26,AllTriggers)</f>
-        <v>9.0919279760903748E-4</v>
+        <v>1.9915279379897503E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7653,15 +8020,15 @@
       </c>
       <c r="G27" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H27" s="293">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"Following",,Trigger)</f>
-        <v>42325</v>
+        <v>42293</v>
       </c>
       <c r="I27" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G27,H27,AllTriggers)</f>
-        <v>8.9992815750252115E-4</v>
+        <v>2.0689150706346533E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7670,15 +8037,15 @@
       </c>
       <c r="G28" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H28" s="293">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"Following",,Trigger)</f>
-        <v>42332</v>
+        <v>42300</v>
       </c>
       <c r="I28" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G28,H28,AllTriggers)</f>
-        <v>8.9088906333602475E-4</v>
+        <v>2.1453675867430126E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7687,15 +8054,15 @@
       </c>
       <c r="G29" s="297">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H29" s="298">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42341</v>
+        <v>42310</v>
       </c>
       <c r="I29" s="286">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G29,H29,AllTriggers)</f>
-        <v>8.6959317254731161E-4</v>
+        <v>2.5530299606777872E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7704,15 +8071,15 @@
       </c>
       <c r="G30" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H30" s="293">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42373</v>
+        <v>42340</v>
       </c>
       <c r="I30" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G30,H30,AllTriggers)</f>
-        <v>5.6224517115356686E-4</v>
+        <v>2.3648247379867021E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7721,15 +8088,15 @@
       </c>
       <c r="G31" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H31" s="293">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42403</v>
+        <v>42373</v>
       </c>
       <c r="I31" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G31,H31,AllTriggers)</f>
-        <v>3.2886751359194756E-4</v>
+        <v>2.8921669697613866E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7738,15 +8105,15 @@
       </c>
       <c r="G32" s="296">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H32" s="293">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42432</v>
+        <v>42402</v>
       </c>
       <c r="I32" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G32,H32,AllTriggers)</f>
-        <v>2.067783813081377E-4</v>
+        <v>2.5740963889514659E-4</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7755,15 +8122,15 @@
       </c>
       <c r="G33" s="299">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H33" s="294">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42464</v>
+        <v>42431</v>
       </c>
       <c r="I33" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G33,H33,AllTriggers)</f>
-        <v>1.0314218224185284E-4</v>
+        <v>2.4767050351172165E-4</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7772,15 +8139,15 @@
       </c>
       <c r="G34" s="300">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"0D","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H34" s="291">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42493</v>
+        <v>42464</v>
       </c>
       <c r="I34" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G34,H34,AllTriggers)</f>
-        <v>1.7461247375038705E-5</v>
+        <v>2.4264060312497609E-4</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7975,21 +8342,21 @@
       </c>
       <c r="E3" s="291">
         <f>SettlementDate</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="F3" s="291">
         <f>_xll.qlInterestRateIndexMaturity(PROPER(Currency)&amp;"ibor"&amp;$F$1,E3)</f>
-        <v>42677</v>
+        <v>42646</v>
       </c>
       <c r="G3" s="255">
         <f>J3+$H$4</f>
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="H3" s="236"/>
       <c r="I3" s="236"/>
       <c r="J3" s="187">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>3.4317089566619917E-3</v>
+        <v>3.1303464320642811E-3</v>
       </c>
       <c r="K3" s="236"/>
       <c r="L3" s="236"/>
@@ -8004,7 +8371,7 @@
       </c>
       <c r="R3" s="187" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_0044c#0001</v>
+        <v>obj_0044d#0002</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8024,35 +8391,35 @@
       </c>
       <c r="E4" s="291">
         <f>SettlementDate</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="F4" s="291">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E4)</f>
-        <v>42677</v>
+        <v>42646</v>
       </c>
       <c r="G4" s="187">
         <f>_xll.qlQuoteValue(D4,LastFixingsTrigger)</f>
-        <v>1.07E-3</v>
+        <v>1.4199999999999998E-3</v>
       </c>
       <c r="H4" s="187">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E4),,AllTriggers)</f>
-        <v>-2.3945525549809946E-3</v>
+        <v>-1.7272696312701742E-3</v>
       </c>
       <c r="I4" s="255">
         <f t="shared" ref="I4:I14" si="0">G4-H4</f>
-        <v>3.4645525549809944E-3</v>
+        <v>3.147269631270174E-3</v>
       </c>
       <c r="J4" s="183">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>3.4317089566619917E-3</v>
+        <v>3.1303464320642811E-3</v>
       </c>
       <c r="K4" s="184">
         <f>L4*10000</f>
-        <v>0.32843598319002698</v>
+        <v>0.16923199205892953</v>
       </c>
       <c r="L4" s="275">
         <f t="shared" ref="L4:L16" si="1">I4-J4</f>
-        <v>3.2843598319002697E-5</v>
+        <v>1.6923199205892952E-5</v>
       </c>
       <c r="M4" s="281">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -8060,7 +8427,7 @@
       </c>
       <c r="N4" s="278">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000144446139678</v>
+        <v>1.0000063889195219</v>
       </c>
       <c r="O4" s="233" t="b">
         <v>1</v>
@@ -8083,43 +8450,43 @@
       </c>
       <c r="E5" s="292">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A5&amp;"M","mf",,Trigger)</f>
-        <v>42341</v>
+        <v>42310</v>
       </c>
       <c r="F5" s="292">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E5)</f>
-        <v>42709</v>
+        <v>42676</v>
       </c>
       <c r="G5" s="67">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
-        <v>8.7000000000000011E-4</v>
+        <v>1.3999999999999998E-3</v>
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E5),,AllTriggers)</f>
-        <v>-2.4974003815555553E-3</v>
+        <v>-1.7761148752006815E-3</v>
       </c>
       <c r="I5" s="277">
         <f t="shared" ref="I5:I13" si="3">G5-H5</f>
-        <v>3.3674003815555554E-3</v>
+        <v>3.1761148752006813E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>3.3669773401014094E-3</v>
+        <v>3.1814406688396987E-3</v>
       </c>
       <c r="K5" s="237">
         <f t="shared" ref="K5:K16" si="4">L5*10000</f>
-        <v>4.2304145414593514E-3</v>
+        <v>-5.3257936390173864E-2</v>
       </c>
       <c r="L5" s="276">
         <f t="shared" si="1"/>
-        <v>4.2304145414593514E-7</v>
+        <v>-5.3257936390173864E-6</v>
       </c>
       <c r="M5" s="282">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
-        <v>8.2191780821917804E-2</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="N5" s="180">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001336272045431</v>
+        <v>1.0001269597807645</v>
       </c>
       <c r="O5" s="238" t="b">
         <v>1</v>
@@ -8147,43 +8514,43 @@
       </c>
       <c r="E6" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A6&amp;"M","mf",,Trigger)</f>
-        <v>42373</v>
+        <v>42340</v>
       </c>
       <c r="F6" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E6)</f>
-        <v>42739</v>
+        <v>42706</v>
       </c>
       <c r="G6" s="62">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>7.2000000000000005E-4</v>
+        <v>1.3999999999999998E-3</v>
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E6),,AllTriggers)</f>
-        <v>-2.5454602656284058E-3</v>
+        <v>-1.813363531901284E-3</v>
       </c>
       <c r="I6" s="262">
         <f t="shared" si="3"/>
-        <v>3.265460265628406E-3</v>
+        <v>3.2133635319012838E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>3.3154668564691282E-3</v>
+        <v>3.2311940175810613E-3</v>
       </c>
       <c r="K6" s="185">
         <f t="shared" si="4"/>
-        <v>-0.50006590840722276</v>
+        <v>-0.17830485679777575</v>
       </c>
       <c r="L6" s="231">
         <f t="shared" si="1"/>
-        <v>-5.0006590840722277E-5</v>
+        <v>-1.7830485679777575E-5</v>
       </c>
       <c r="M6" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
-        <v>0.16986301369863013</v>
+        <v>0.16712328767123288</v>
       </c>
       <c r="N6" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0003073123659809</v>
+        <v>1.0002521453146693</v>
       </c>
       <c r="O6" s="234" t="b">
         <v>1</v>
@@ -8193,7 +8560,7 @@
       </c>
       <c r="R6" s="279" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($M$4:$M$17,$O$4:$O$17),_xll.ohFilter($I$4:$I$17,$O$4:$O$17),_xll.ohFilter($N$4:$N$17,$O$4:$O$17),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_00593#0001</v>
+        <v>obj_0059d#0002</v>
       </c>
       <c r="T6" s="55"/>
     </row>
@@ -8215,43 +8582,43 @@
       </c>
       <c r="E7" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A7&amp;"M","mf",,Trigger)</f>
-        <v>42403</v>
+        <v>42373</v>
       </c>
       <c r="F7" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E7)</f>
-        <v>42769</v>
+        <v>42739</v>
       </c>
       <c r="G7" s="62">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>6.9000000000000008E-4</v>
+        <v>1.4199999999999998E-3</v>
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E7),,AllTriggers)</f>
-        <v>-2.5748097165193317E-3</v>
+        <v>-1.8581850823209912E-3</v>
       </c>
       <c r="I7" s="262">
         <f t="shared" si="3"/>
-        <v>3.2648097165193317E-3</v>
+        <v>3.278185082320991E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>3.282324268386439E-3</v>
+        <v>3.2861280724972783E-3</v>
       </c>
       <c r="K7" s="185">
         <f t="shared" si="4"/>
-        <v>-0.17514551867107292</v>
+        <v>-7.9429901762872485E-2</v>
       </c>
       <c r="L7" s="231">
         <f t="shared" si="1"/>
-        <v>-1.7514551867107292E-5</v>
+        <v>-7.9429901762872492E-6</v>
       </c>
       <c r="M7" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
-        <v>0.25205479452054796</v>
+        <v>0.25753424657534246</v>
       </c>
       <c r="N7" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.0005008273785223</v>
+        <v>1.000379858517497</v>
       </c>
       <c r="O7" s="234" t="b">
         <v>1</v>
@@ -8283,43 +8650,43 @@
       </c>
       <c r="E8" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A8&amp;"M","mf",,Trigger)</f>
-        <v>42432</v>
+        <v>42402</v>
       </c>
       <c r="F8" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E8)</f>
-        <v>42797</v>
+        <v>42768</v>
       </c>
       <c r="G8" s="62">
         <f>_xll.qlQuoteValue(D8,AllTriggers)</f>
-        <v>6.6E-4</v>
+        <v>1.4599999999999999E-3</v>
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E8),,AllTriggers)</f>
-        <v>-2.597732184487913E-3</v>
+        <v>-1.8759761247293504E-3</v>
       </c>
       <c r="I8" s="262">
         <f t="shared" si="3"/>
-        <v>3.257732184487913E-3</v>
+        <v>3.3359761247293502E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>3.2630457893586522E-3</v>
+        <v>3.3344593861252998E-3</v>
       </c>
       <c r="K8" s="185">
         <f t="shared" si="4"/>
-        <v>-5.3136048707392788E-2</v>
+        <v>1.5167386040503342E-2</v>
       </c>
       <c r="L8" s="231">
         <f t="shared" si="1"/>
-        <v>-5.3136048707392788E-6</v>
+        <v>1.5167386040503342E-6</v>
       </c>
       <c r="M8" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
-        <v>0.33150684931506852</v>
+        <v>0.33698630136986302</v>
       </c>
       <c r="N8" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0006863936193298</v>
+        <v>1.0005152621216613</v>
       </c>
       <c r="O8" s="234" t="b">
         <v>1</v>
@@ -8351,43 +8718,43 @@
       </c>
       <c r="E9" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A9&amp;"M","mf",,Trigger)</f>
-        <v>42464</v>
+        <v>42431</v>
       </c>
       <c r="F9" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E9)</f>
-        <v>42829</v>
+        <v>42796</v>
       </c>
       <c r="G9" s="62">
         <f>_xll.qlQuoteValue(D9,AllTriggers)</f>
-        <v>6.6E-4</v>
+        <v>1.49E-3</v>
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E9),,AllTriggers)</f>
-        <v>-2.6093987715479516E-3</v>
+        <v>-1.888162200396386E-3</v>
       </c>
       <c r="I9" s="262">
         <f t="shared" si="3"/>
-        <v>3.2693987715479516E-3</v>
+        <v>3.3781622003963858E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>3.254988321548359E-3</v>
+        <v>3.3827304299022375E-3</v>
       </c>
       <c r="K9" s="185">
         <f t="shared" si="4"/>
-        <v>0.14410449999592567</v>
+        <v>-4.5682295058517564E-2</v>
       </c>
       <c r="L9" s="231">
         <f t="shared" si="1"/>
-        <v>1.4410449999592567E-5</v>
+        <v>-4.5682295058517564E-6</v>
       </c>
       <c r="M9" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
-        <v>0.41917808219178082</v>
+        <v>0.41643835616438357</v>
       </c>
       <c r="N9" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0008975034588854</v>
+        <v>1.0006503193911085</v>
       </c>
       <c r="O9" s="234" t="b">
         <v>1</v>
@@ -8397,7 +8764,7 @@
       </c>
       <c r="R9" s="187">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>2.0290424741117075E-5</v>
+        <v>3.2344813679542947E-4</v>
       </c>
       <c r="T9" s="55"/>
     </row>
@@ -8419,43 +8786,43 @@
       </c>
       <c r="E10" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A10&amp;"M","mf",,Trigger)</f>
-        <v>42493</v>
+        <v>42464</v>
       </c>
       <c r="F10" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E10)</f>
-        <v>42858</v>
+        <v>42829</v>
       </c>
       <c r="G10" s="62">
         <f>_xll.qlQuoteValue(D10,AllTriggers)</f>
-        <v>6.7000000000000002E-4</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E10),,AllTriggers)</f>
-        <v>-2.6033211960668269E-3</v>
+        <v>-1.8926872068370569E-3</v>
       </c>
       <c r="I10" s="262">
         <f t="shared" si="3"/>
-        <v>3.2733211960668269E-3</v>
+        <v>3.4426872068370569E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>3.2584605192288313E-3</v>
+        <v>3.437449276301447E-3</v>
       </c>
       <c r="K10" s="185">
         <f t="shared" si="4"/>
-        <v>0.14860676837995593</v>
+        <v>5.2379305356098881E-2</v>
       </c>
       <c r="L10" s="231">
         <f t="shared" si="1"/>
-        <v>1.4860676837995593E-5</v>
+        <v>5.2379305356098881E-6</v>
       </c>
       <c r="M10" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
-        <v>0.49863013698630138</v>
+        <v>0.50684931506849318</v>
       </c>
       <c r="N10" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0010983829465363</v>
+        <v>1.0008071406590917</v>
       </c>
       <c r="O10" s="234" t="b">
         <v>1</v>
@@ -8465,7 +8832,7 @@
       </c>
       <c r="R10" s="187">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>5.3788859180950877E-4</v>
+        <v>5.4884881937923916E-4</v>
       </c>
       <c r="T10" s="55"/>
     </row>
@@ -8487,35 +8854,35 @@
       </c>
       <c r="E11" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A11&amp;"M","mf",,Trigger)</f>
-        <v>42524</v>
+        <v>42492</v>
       </c>
       <c r="F11" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E11)</f>
-        <v>42891</v>
+        <v>42857</v>
       </c>
       <c r="G11" s="62">
         <f>_xll.qlQuoteValue(D11,AllTriggers)</f>
-        <v>6.9000000000000008E-4</v>
+        <v>1.6099999999999997E-3</v>
       </c>
       <c r="H11" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E11),,AllTriggers)</f>
-        <v>-2.588308568584352E-3</v>
+        <v>-1.8863692785127696E-3</v>
       </c>
       <c r="I11" s="262">
         <f t="shared" si="3"/>
-        <v>3.2783085685843521E-3</v>
+        <v>3.4963692785127693E-3</v>
       </c>
       <c r="J11" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>3.2722086538026331E-3</v>
+        <v>3.4835887756993257E-3</v>
       </c>
       <c r="K11" s="185">
         <f t="shared" si="4"/>
-        <v>6.0999147817189861E-2</v>
+        <v>0.12780502813443656</v>
       </c>
       <c r="L11" s="231">
         <f t="shared" si="1"/>
-        <v>6.0999147817189861E-6</v>
+        <v>1.2780502813443655E-5</v>
       </c>
       <c r="M11" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
@@ -8523,7 +8890,7 @@
       </c>
       <c r="N11" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0013163845529229</v>
+        <v>1.0009464646588653</v>
       </c>
       <c r="O11" s="234" t="b">
         <v>1</v>
@@ -8548,35 +8915,35 @@
       </c>
       <c r="E12" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A12&amp;"M","mf",,Trigger)</f>
-        <v>42555</v>
+        <v>42523</v>
       </c>
       <c r="F12" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E12)</f>
-        <v>42920</v>
+        <v>42888</v>
       </c>
       <c r="G12" s="62">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
-        <v>7.400000000000001E-4</v>
+        <v>1.6699999999999998E-3</v>
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E12),,AllTriggers)</f>
-        <v>-2.5659971806656252E-3</v>
+        <v>-1.870265271496427E-3</v>
       </c>
       <c r="I12" s="262">
         <f t="shared" si="3"/>
-        <v>3.3059971806656254E-3</v>
+        <v>3.5402652714964268E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>3.2950072085645302E-3</v>
+        <v>3.5342389549789617E-3</v>
       </c>
       <c r="K12" s="185">
         <f t="shared" si="4"/>
-        <v>0.10989972101095244</v>
+        <v>6.026316517465137E-2</v>
       </c>
       <c r="L12" s="231">
         <f t="shared" si="1"/>
-        <v>1.0989972101095244E-5</v>
+        <v>6.026316517465137E-6</v>
       </c>
       <c r="M12" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
@@ -8584,7 +8951,7 @@
       </c>
       <c r="N12" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0015414148589159</v>
+        <v>1.0011049582208984</v>
       </c>
       <c r="O12" s="234" t="b">
         <v>1</v>
@@ -8618,43 +8985,43 @@
       </c>
       <c r="E13" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A13&amp;"M","mf",,Trigger)</f>
-        <v>42585</v>
+        <v>42555</v>
       </c>
       <c r="F13" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E13)</f>
-        <v>42950</v>
+        <v>42920</v>
       </c>
       <c r="G13" s="62">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
-        <v>8.1000000000000006E-4</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E13),,AllTriggers)</f>
-        <v>-2.5312132708880156E-3</v>
+        <v>-1.841462166369908E-3</v>
       </c>
       <c r="I13" s="262">
         <f t="shared" si="3"/>
-        <v>3.3412132708880156E-3</v>
+        <v>3.5914621663699076E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>3.3244163232105371E-3</v>
+        <v>3.5859109676464438E-3</v>
       </c>
       <c r="K13" s="185">
         <f t="shared" si="4"/>
-        <v>0.16796947677478502</v>
+        <v>5.5511987234638065E-2</v>
       </c>
       <c r="L13" s="231">
         <f t="shared" si="1"/>
-        <v>1.6796947677478503E-5</v>
+        <v>5.5511987234638065E-6</v>
       </c>
       <c r="M13" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
-        <v>0.75068493150684934</v>
+        <v>0.75616438356164384</v>
       </c>
       <c r="N13" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0017641428491586</v>
+        <v>1.0012739236534773</v>
       </c>
       <c r="O13" s="234" t="b">
         <v>1</v>
@@ -8664,7 +9031,7 @@
       </c>
       <c r="R13" s="187">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>3.4317089566619917E-3</v>
+        <v>3.1303464320642811E-3</v>
       </c>
       <c r="S13" s="187" t="b">
         <v>1</v>
@@ -8691,43 +9058,43 @@
       </c>
       <c r="E14" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A14&amp;"M","mf",,Trigger)</f>
-        <v>42618</v>
+        <v>42584</v>
       </c>
       <c r="F14" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E14)</f>
-        <v>42983</v>
+        <v>42949</v>
       </c>
       <c r="G14" s="62">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
-        <v>8.8999999999999995E-4</v>
+        <v>1.83E-3</v>
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E14),,AllTriggers)</f>
-        <v>-2.4792352542288934E-3</v>
+        <v>-1.8046148437726216E-3</v>
       </c>
       <c r="I14" s="262">
         <f t="shared" si="0"/>
-        <v>3.3692352542288931E-3</v>
+        <v>3.6346148437726216E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>3.3636363125939331E-3</v>
+        <v>3.6320819547688782E-3</v>
       </c>
       <c r="K14" s="185">
         <f t="shared" si="4"/>
-        <v>5.5989416349599974E-2</v>
+        <v>2.5328890037434187E-2</v>
       </c>
       <c r="L14" s="231">
         <f t="shared" si="1"/>
-        <v>5.5989416349599974E-6</v>
+        <v>2.5328890037434187E-6</v>
       </c>
       <c r="M14" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
-        <v>0.84109589041095889</v>
+        <v>0.83561643835616439</v>
       </c>
       <c r="N14" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.002010157782613</v>
+        <v>1.0014304042935918</v>
       </c>
       <c r="O14" s="234" t="b">
         <v>1</v>
@@ -8736,7 +9103,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="187">
-        <v>-8.8948109996368448E-4</v>
+        <v>5.9918557082299392E-4</v>
       </c>
       <c r="S14" s="187" t="b">
         <v>1</v>
@@ -8763,43 +9130,43 @@
       </c>
       <c r="E15" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A15&amp;"M","mf",,Trigger)</f>
-        <v>42646</v>
+        <v>42615</v>
       </c>
       <c r="F15" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E15)</f>
-        <v>43011</v>
+        <v>42982</v>
       </c>
       <c r="G15" s="62">
         <f>_xll.qlQuoteValue(D15,AllTriggers)</f>
-        <v>9.7000000000000005E-4</v>
+        <v>1.92E-3</v>
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E15),,AllTriggers)</f>
-        <v>-2.4220113761151737E-3</v>
+        <v>-1.7520583387576148E-3</v>
       </c>
       <c r="I15" s="262">
         <f>G15-H15</f>
-        <v>3.3920113761151736E-3</v>
+        <v>3.6720583387576146E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>3.4013843247628025E-3</v>
+        <v>3.6806207111433923E-3</v>
       </c>
       <c r="K15" s="185">
         <f t="shared" si="4"/>
-        <v>-9.3729486476288801E-2</v>
+        <v>-8.5623723857777487E-2</v>
       </c>
       <c r="L15" s="231">
         <f t="shared" si="1"/>
-        <v>-9.3729486476288801E-6</v>
+        <v>-8.5623723857777487E-6</v>
       </c>
       <c r="M15" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
-        <v>0.9178082191780822</v>
+        <v>0.92054794520547945</v>
       </c>
       <c r="N15" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0022206846604216</v>
+        <v>1.0015991852523043</v>
       </c>
       <c r="O15" s="234" t="b">
         <v>1</v>
@@ -8808,7 +9175,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="187">
-        <v>1.2701203055158143E-3</v>
+        <v>3.1388670846379781E-5</v>
       </c>
       <c r="S15" s="187" t="b">
         <v>1</v>
@@ -8835,43 +9202,43 @@
       </c>
       <c r="E16" s="293">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A16&amp;"M","mf",,Trigger)</f>
-        <v>42677</v>
+        <v>42646</v>
       </c>
       <c r="F16" s="293">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E16)</f>
-        <v>43042</v>
+        <v>43011</v>
       </c>
       <c r="G16" s="62">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>1.0800000000000002E-3</v>
+        <v>2.0299999999999997E-3</v>
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E16),,AllTriggers)</f>
-        <v>-2.3454387240441675E-3</v>
+        <v>-1.6911771583174098E-3</v>
       </c>
       <c r="I16" s="262">
         <f>G16-H16</f>
-        <v>3.4254387240441678E-3</v>
+        <v>3.7211771583174095E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>3.4466933986971792E-3</v>
+        <v>3.7281871571942689E-3</v>
       </c>
       <c r="K16" s="185">
         <f t="shared" si="4"/>
-        <v>-0.21254674653011474</v>
+        <v>-7.0099988768593594E-2</v>
       </c>
       <c r="L16" s="231">
         <f t="shared" si="1"/>
-        <v>-2.1254674653011472E-5</v>
+        <v>-7.0099988768593594E-6</v>
       </c>
       <c r="M16" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
-        <v>1.0027397260273974</v>
+        <v>1.0054794520547945</v>
       </c>
       <c r="N16" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0024548826962583</v>
+        <v>1.0017703617001901</v>
       </c>
       <c r="O16" s="234" t="b">
         <v>1</v>
@@ -8880,7 +9247,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="187">
-        <v>-3.6716088983621323E-4</v>
+        <v>-3.5770418290078184E-5</v>
       </c>
       <c r="S16" s="187" t="b">
         <v>1</v>
@@ -8905,35 +9272,35 @@
       </c>
       <c r="E17" s="294">
         <f>_xll.qlCalendarAdvance("target",SettlementDate,A17&amp;"M","mf",,Trigger)</f>
-        <v>43042</v>
+        <v>43010</v>
       </c>
       <c r="F17" s="294">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,E17)</f>
-        <v>43409</v>
+        <v>43375</v>
       </c>
       <c r="G17" s="65">
         <f>_xll.qlQuoteValue(D17,AllTriggers)</f>
-        <v>3.1299999999999995E-3</v>
+        <v>4.0500000000000006E-3</v>
       </c>
       <c r="H17" s="65">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E17),,AllTriggers)</f>
-        <v>-6.6678200104512892E-4</v>
+        <v>-1.1958855942131673E-4</v>
       </c>
       <c r="I17" s="257">
         <f>G17-H17</f>
-        <v>3.7967820010451287E-3</v>
+        <v>4.1695885594213175E-3</v>
       </c>
       <c r="J17" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>3.7953449996925613E-3</v>
+        <v>4.1689171106538301E-3</v>
       </c>
       <c r="K17" s="186">
         <f t="shared" ref="K17" si="7">L17*10000</f>
-        <v>1.4370013525673297E-2</v>
+        <v>6.71448767487412E-3</v>
       </c>
       <c r="L17" s="232">
         <f t="shared" ref="L17" si="8">I17-J17</f>
-        <v>1.4370013525673297E-6</v>
+        <v>6.71448767487412E-7</v>
       </c>
       <c r="M17" s="204">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
@@ -8941,7 +9308,7 @@
       </c>
       <c r="N17" s="182">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.004844417050974</v>
+        <v>1.003487755432563</v>
       </c>
       <c r="O17" s="235" t="b">
         <v>1</v>
@@ -8976,7 +9343,7 @@
       </c>
       <c r="R18" s="187" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_00597#0001</v>
+        <v>obj_005a3#0002</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -9008,15 +9375,15 @@
       </c>
       <c r="G20" s="265">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H20" s="266">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F20,"Following",,Trigger)</f>
-        <v>42312</v>
+        <v>42282</v>
       </c>
       <c r="I20" s="284">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G20,H20,AllTriggers)</f>
-        <v>2.7265604548531996E-3</v>
+        <v>1.4175468018873261E-3</v>
       </c>
       <c r="T20" s="55"/>
     </row>
@@ -9026,15 +9393,15 @@
       </c>
       <c r="G21" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H21" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F21,"Following",,Trigger)</f>
-        <v>42318</v>
+        <v>42286</v>
       </c>
       <c r="I21" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G21,H21,AllTriggers)</f>
-        <v>2.6043100673029634E-3</v>
+        <v>1.3667900797211172E-3</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9043,15 +9410,15 @@
       </c>
       <c r="G22" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H22" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F22,"Following",,Trigger)</f>
-        <v>42325</v>
+        <v>42293</v>
       </c>
       <c r="I22" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G22,H22,AllTriggers)</f>
-        <v>2.5825939642271883E-3</v>
+        <v>1.3720079071712274E-3</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9060,15 +9427,15 @@
       </c>
       <c r="G23" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H23" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F23,"Following",,Trigger)</f>
-        <v>42332</v>
+        <v>42300</v>
       </c>
       <c r="I23" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G23,H23,AllTriggers)</f>
-        <v>2.5613106729454366E-3</v>
+        <v>1.3772460871981046E-3</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9077,15 +9444,15 @@
       </c>
       <c r="G24" s="269">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H24" s="270">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F24,"mf",TRUE,Trigger)</f>
-        <v>42341</v>
+        <v>42310</v>
       </c>
       <c r="I24" s="286">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G24,H24,AllTriggers)</f>
-        <v>2.5245730915859355E-3</v>
+        <v>1.4147710458356499E-3</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9094,15 +9461,15 @@
       </c>
       <c r="G25" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H25" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F25,"mf",TRUE,Trigger)</f>
-        <v>42373</v>
+        <v>42340</v>
       </c>
       <c r="I25" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G25,H25,AllTriggers)</f>
-        <v>2.1649595494358772E-3</v>
+        <v>1.3875411050914604E-3</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9111,15 +9478,15 @@
       </c>
       <c r="G26" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H26" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F26,"mf",TRUE,Trigger)</f>
-        <v>42403</v>
+        <v>42373</v>
       </c>
       <c r="I26" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G26,H26,AllTriggers)</f>
-        <v>1.8862869050789469E-3</v>
+        <v>1.4332284729959347E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9128,15 +9495,15 @@
       </c>
       <c r="G27" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H27" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F27,"mf",TRUE,Trigger)</f>
-        <v>42432</v>
+        <v>42402</v>
       </c>
       <c r="I27" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G27,H27,AllTriggers)</f>
-        <v>1.7237574751833979E-3</v>
+        <v>1.3969750873161605E-3</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9145,15 +9512,15 @@
       </c>
       <c r="G28" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H28" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F28,"mf",TRUE,Trigger)</f>
-        <v>42464</v>
+        <v>42431</v>
       </c>
       <c r="I28" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G28,H28,AllTriggers)</f>
-        <v>1.5791737653364176E-3</v>
+        <v>1.3843348357612864E-3</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9162,15 +9529,15 @@
       </c>
       <c r="G29" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H29" s="268">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F29,"mf",TRUE,Trigger)</f>
-        <v>42493</v>
+        <v>42464</v>
       </c>
       <c r="I29" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G29,H29,AllTriggers)</f>
-        <v>1.4595960496213488E-3</v>
+        <v>1.3777408141027985E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9179,15 +9546,15 @@
       </c>
       <c r="G30" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H30" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F30,"mf",TRUE,Trigger)</f>
-        <v>42524</v>
+        <v>42492</v>
       </c>
       <c r="I30" s="285">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G30,AllTriggers)</f>
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9196,15 +9563,15 @@
       </c>
       <c r="G31" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H31" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F31,"mf",TRUE,Trigger)</f>
-        <v>42555</v>
+        <v>42523</v>
       </c>
       <c r="I31" s="285">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G31,AllTriggers)</f>
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9213,15 +9580,15 @@
       </c>
       <c r="G32" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H32" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F32,"mf",TRUE,Trigger)</f>
-        <v>42585</v>
+        <v>42555</v>
       </c>
       <c r="I32" s="285">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G32,AllTriggers)</f>
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9230,15 +9597,15 @@
       </c>
       <c r="G33" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H33" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F33,"mf",TRUE,Trigger)</f>
-        <v>42618</v>
+        <v>42584</v>
       </c>
       <c r="I33" s="285">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G33,AllTriggers)</f>
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9247,15 +9614,15 @@
       </c>
       <c r="G34" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H34" s="267">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F34,"mf",TRUE,Trigger)</f>
-        <v>42646</v>
+        <v>42615</v>
       </c>
       <c r="I34" s="285">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G34,AllTriggers)</f>
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9264,15 +9631,15 @@
       </c>
       <c r="G35" s="300">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,0&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="H35" s="291">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,F35,"mf",TRUE,Trigger)</f>
-        <v>42677</v>
+        <v>42646</v>
       </c>
       <c r="I35" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G35,AllTriggers)</f>
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9425,27 +9792,27 @@
       </c>
       <c r="B3" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C3)</f>
-        <v>42307</v>
+        <v>42277</v>
       </c>
       <c r="C3" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A3&amp;"M","mf")</f>
-        <v>42311</v>
+        <v>42279</v>
       </c>
       <c r="D3" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C3)</f>
-        <v>42677</v>
+        <v>42646</v>
       </c>
       <c r="E3" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B3,,AllTriggers)</f>
-        <v>-2.3945525549809946E-3</v>
+        <v>-1.7272696312701742E-3</v>
       </c>
       <c r="F3" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C3,TRUE,E3)</f>
-        <v>3.3946455014302198E-3</v>
+        <v>3.1372653265116395E-3</v>
       </c>
       <c r="G3" s="75">
         <f t="shared" ref="G3:G27" si="0">E3+F3</f>
-        <v>1.0000929464492252E-3</v>
+        <v>1.4099956952414654E-3</v>
       </c>
       <c r="Z3" s="71"/>
       <c r="AA3" s="71"/>
@@ -9457,27 +9824,27 @@
       </c>
       <c r="B4" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C4)</f>
-        <v>42339</v>
+        <v>42306</v>
       </c>
       <c r="C4" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A4&amp;"M","mf")</f>
-        <v>42341</v>
+        <v>42310</v>
       </c>
       <c r="D4" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C4)</f>
-        <v>42709</v>
+        <v>42676</v>
       </c>
       <c r="E4" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B4,,AllTriggers)</f>
-        <v>-2.4974003815555553E-3</v>
+        <v>-1.7761148752006815E-3</v>
       </c>
       <c r="F4" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C4,TRUE,E4)</f>
-        <v>3.3674003815555554E-3</v>
+        <v>3.1761148752006813E-3</v>
       </c>
       <c r="G4" s="79">
         <f t="shared" si="0"/>
-        <v>8.7000000000000011E-4</v>
+        <v>1.3999999999999998E-3</v>
       </c>
       <c r="Z4" s="71"/>
       <c r="AA4" s="71"/>
@@ -9489,27 +9856,27 @@
       </c>
       <c r="B5" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C5)</f>
-        <v>42368</v>
+        <v>42338</v>
       </c>
       <c r="C5" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A5&amp;"M","mf")</f>
-        <v>42373</v>
+        <v>42340</v>
       </c>
       <c r="D5" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C5)</f>
-        <v>42739</v>
+        <v>42706</v>
       </c>
       <c r="E5" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B5,,AllTriggers)</f>
-        <v>-2.5454602656284058E-3</v>
+        <v>-1.813363531901284E-3</v>
       </c>
       <c r="F5" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C5,TRUE,E5)</f>
-        <v>3.265460265628406E-3</v>
+        <v>3.2133635319012838E-3</v>
       </c>
       <c r="G5" s="79">
         <f t="shared" si="0"/>
-        <v>7.2000000000000015E-4</v>
+        <v>1.3999999999999998E-3</v>
       </c>
       <c r="Z5" s="71"/>
       <c r="AA5" s="71"/>
@@ -9521,27 +9888,27 @@
       </c>
       <c r="B6" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C6)</f>
-        <v>42401</v>
+        <v>42368</v>
       </c>
       <c r="C6" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A6&amp;"M","mf")</f>
-        <v>42403</v>
+        <v>42373</v>
       </c>
       <c r="D6" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C6)</f>
-        <v>42769</v>
+        <v>42739</v>
       </c>
       <c r="E6" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B6,,AllTriggers)</f>
-        <v>-2.5748097165193317E-3</v>
+        <v>-1.8581850823209912E-3</v>
       </c>
       <c r="F6" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C6,TRUE,E6)</f>
-        <v>3.2648097165193317E-3</v>
+        <v>3.278185082320991E-3</v>
       </c>
       <c r="G6" s="79">
         <f t="shared" si="0"/>
-        <v>6.9000000000000008E-4</v>
+        <v>1.4199999999999998E-3</v>
       </c>
       <c r="Z6" s="71"/>
       <c r="AA6" s="71"/>
@@ -9553,27 +9920,27 @@
       </c>
       <c r="B7" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C7)</f>
-        <v>42430</v>
+        <v>42398</v>
       </c>
       <c r="C7" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A7&amp;"M","mf")</f>
-        <v>42432</v>
+        <v>42402</v>
       </c>
       <c r="D7" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C7)</f>
-        <v>42797</v>
+        <v>42768</v>
       </c>
       <c r="E7" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B7,,AllTriggers)</f>
-        <v>-2.597732184487913E-3</v>
+        <v>-1.8759761247293504E-3</v>
       </c>
       <c r="F7" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C7,TRUE,E7)</f>
-        <v>3.257732184487913E-3</v>
+        <v>3.3359761247293502E-3</v>
       </c>
       <c r="G7" s="79">
         <f t="shared" si="0"/>
-        <v>6.6E-4</v>
+        <v>1.4599999999999997E-3</v>
       </c>
       <c r="Z7" s="71"/>
       <c r="AA7" s="71"/>
@@ -9585,27 +9952,27 @@
       </c>
       <c r="B8" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C8)</f>
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="C8" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A8&amp;"M","mf")</f>
-        <v>42464</v>
+        <v>42431</v>
       </c>
       <c r="D8" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C8)</f>
-        <v>42829</v>
+        <v>42796</v>
       </c>
       <c r="E8" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B8,,AllTriggers)</f>
-        <v>-2.6093987715479516E-3</v>
+        <v>-1.888162200396386E-3</v>
       </c>
       <c r="F8" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C8,TRUE,E8)</f>
-        <v>3.2693987715479516E-3</v>
+        <v>3.3781622003963858E-3</v>
       </c>
       <c r="G8" s="79">
         <f t="shared" si="0"/>
-        <v>6.6E-4</v>
+        <v>1.4899999999999998E-3</v>
       </c>
       <c r="Z8" s="71"/>
       <c r="AA8" s="71"/>
@@ -9617,27 +9984,27 @@
       </c>
       <c r="B9" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C9)</f>
-        <v>42489</v>
+        <v>42460</v>
       </c>
       <c r="C9" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A9&amp;"M","mf")</f>
-        <v>42493</v>
+        <v>42464</v>
       </c>
       <c r="D9" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C9)</f>
-        <v>42858</v>
+        <v>42829</v>
       </c>
       <c r="E9" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B9,,AllTriggers)</f>
-        <v>-2.6033211960668269E-3</v>
+        <v>-1.8926872068370569E-3</v>
       </c>
       <c r="F9" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C9,TRUE,E9)</f>
-        <v>3.2733211960668269E-3</v>
+        <v>3.4426872068370569E-3</v>
       </c>
       <c r="G9" s="79">
         <f t="shared" si="0"/>
-        <v>6.7000000000000002E-4</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="Z9" s="71"/>
       <c r="AA9" s="71"/>
@@ -9649,27 +10016,27 @@
       </c>
       <c r="B10" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C10)</f>
-        <v>42522</v>
+        <v>42488</v>
       </c>
       <c r="C10" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A10&amp;"M","mf")</f>
-        <v>42524</v>
+        <v>42492</v>
       </c>
       <c r="D10" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C10)</f>
-        <v>42891</v>
+        <v>42857</v>
       </c>
       <c r="E10" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B10,,AllTriggers)</f>
-        <v>-2.588308568584352E-3</v>
+        <v>-1.8863692785127696E-3</v>
       </c>
       <c r="F10" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C10,TRUE,E10)</f>
-        <v>3.2783085685843521E-3</v>
+        <v>3.4963692785127693E-3</v>
       </c>
       <c r="G10" s="79">
         <f t="shared" si="0"/>
-        <v>6.9000000000000008E-4</v>
+        <v>1.6099999999999997E-3</v>
       </c>
       <c r="H10" s="72"/>
       <c r="Z10" s="71"/>
@@ -9682,27 +10049,27 @@
       </c>
       <c r="B11" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C11)</f>
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="C11" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A11&amp;"M","mf")</f>
-        <v>42555</v>
+        <v>42523</v>
       </c>
       <c r="D11" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C11)</f>
-        <v>42920</v>
+        <v>42888</v>
       </c>
       <c r="E11" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B11,,AllTriggers)</f>
-        <v>-2.5659971806656252E-3</v>
+        <v>-1.870265271496427E-3</v>
       </c>
       <c r="F11" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C11,TRUE,E11)</f>
-        <v>3.3059971806656254E-3</v>
+        <v>3.5402652714964268E-3</v>
       </c>
       <c r="G11" s="79">
         <f t="shared" si="0"/>
-        <v>7.4000000000000021E-4</v>
+        <v>1.6699999999999998E-3</v>
       </c>
       <c r="H11" s="72"/>
       <c r="Z11" s="71"/>
@@ -9715,27 +10082,27 @@
       </c>
       <c r="B12" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C12)</f>
-        <v>42583</v>
+        <v>42551</v>
       </c>
       <c r="C12" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>42585</v>
+        <v>42555</v>
       </c>
       <c r="D12" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C12)</f>
-        <v>42950</v>
+        <v>42920</v>
       </c>
       <c r="E12" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B12,,AllTriggers)</f>
-        <v>-2.5312132708880156E-3</v>
+        <v>-1.841462166369908E-3</v>
       </c>
       <c r="F12" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C12,TRUE,E12)</f>
-        <v>3.3412132708880156E-3</v>
+        <v>3.5914621663699076E-3</v>
       </c>
       <c r="G12" s="79">
         <f t="shared" si="0"/>
-        <v>8.0999999999999996E-4</v>
+        <v>1.7499999999999996E-3</v>
       </c>
       <c r="H12" s="72"/>
       <c r="Z12" s="71"/>
@@ -9748,27 +10115,27 @@
       </c>
       <c r="B13" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C13)</f>
-        <v>42614</v>
+        <v>42580</v>
       </c>
       <c r="C13" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>42618</v>
+        <v>42584</v>
       </c>
       <c r="D13" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C13)</f>
-        <v>42983</v>
+        <v>42949</v>
       </c>
       <c r="E13" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B13,,AllTriggers)</f>
-        <v>-2.4792352542288934E-3</v>
+        <v>-1.8046148437726216E-3</v>
       </c>
       <c r="F13" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C13,TRUE,E13)</f>
-        <v>3.3692352542288931E-3</v>
+        <v>3.6346148437726216E-3</v>
       </c>
       <c r="G13" s="79">
         <f t="shared" si="0"/>
-        <v>8.8999999999999973E-4</v>
+        <v>1.83E-3</v>
       </c>
       <c r="H13" s="72"/>
       <c r="Z13" s="71"/>
@@ -9781,27 +10148,27 @@
       </c>
       <c r="B14" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C14)</f>
-        <v>42642</v>
+        <v>42613</v>
       </c>
       <c r="C14" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>42646</v>
+        <v>42615</v>
       </c>
       <c r="D14" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C14)</f>
-        <v>43011</v>
+        <v>42982</v>
       </c>
       <c r="E14" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B14,,AllTriggers)</f>
-        <v>-2.4220113761151737E-3</v>
+        <v>-1.7520583387576148E-3</v>
       </c>
       <c r="F14" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C14,TRUE,E14)</f>
-        <v>3.3920113761151736E-3</v>
+        <v>3.6720583387576146E-3</v>
       </c>
       <c r="G14" s="83">
         <f t="shared" si="0"/>
-        <v>9.6999999999999994E-4</v>
+        <v>1.9199999999999998E-3</v>
       </c>
       <c r="H14" s="72"/>
       <c r="Z14" s="71"/>
@@ -9814,27 +10181,27 @@
       </c>
       <c r="B15" s="74">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C15)</f>
-        <v>42675</v>
+        <v>42642</v>
       </c>
       <c r="C15" s="74">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A15&amp;"M","mf")</f>
-        <v>42677</v>
+        <v>42646</v>
       </c>
       <c r="D15" s="74">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C15)</f>
-        <v>43042</v>
+        <v>43011</v>
       </c>
       <c r="E15" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B15,,AllTriggers)</f>
-        <v>-2.3454387240441675E-3</v>
+        <v>-1.6911771583174098E-3</v>
       </c>
       <c r="F15" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C15,TRUE,E15)</f>
-        <v>3.4254387240441678E-3</v>
+        <v>3.7211771583174095E-3</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" si="0"/>
-        <v>1.0800000000000002E-3</v>
+        <v>2.0299999999999997E-3</v>
       </c>
       <c r="H15" s="72"/>
       <c r="Z15" s="71"/>
@@ -9847,27 +10214,27 @@
       </c>
       <c r="B16" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C16)</f>
-        <v>42705</v>
+        <v>42674</v>
       </c>
       <c r="C16" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A16&amp;"M","mf")</f>
-        <v>42709</v>
+        <v>42676</v>
       </c>
       <c r="D16" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C16)</f>
-        <v>43074</v>
+        <v>43041</v>
       </c>
       <c r="E16" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B16,,AllTriggers)</f>
-        <v>-2.2562731220699215E-3</v>
+        <v>-1.617951038122894E-3</v>
       </c>
       <c r="F16" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C16,TRUE,E16)</f>
-        <v>3.4613912984544468E-3</v>
+        <v>3.7697042334231719E-3</v>
       </c>
       <c r="G16" s="79">
         <f t="shared" si="0"/>
-        <v>1.2051181763845253E-3</v>
+        <v>2.1517531953002779E-3</v>
       </c>
       <c r="H16" s="72"/>
       <c r="Z16" s="71"/>
@@ -9880,27 +10247,27 @@
       </c>
       <c r="B17" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C17)</f>
-        <v>42734</v>
+        <v>42704</v>
       </c>
       <c r="C17" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A17&amp;"M","mf")</f>
-        <v>42738</v>
+        <v>42706</v>
       </c>
       <c r="D17" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C17)</f>
-        <v>43103</v>
+        <v>43073</v>
       </c>
       <c r="E17" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B17,,AllTriggers)</f>
-        <v>-2.1770195509758076E-3</v>
+        <v>-1.530980315033481E-3</v>
       </c>
       <c r="F17" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C17,TRUE,E17)</f>
-        <v>3.4931639038490989E-3</v>
+        <v>3.815247617311608E-3</v>
       </c>
       <c r="G17" s="79">
         <f t="shared" si="0"/>
-        <v>1.3161443528732913E-3</v>
+        <v>2.284267302278127E-3</v>
       </c>
       <c r="H17" s="72"/>
       <c r="Z17" s="71"/>
@@ -9913,27 +10280,27 @@
       </c>
       <c r="B18" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C18)</f>
-        <v>42767</v>
+        <v>42733</v>
       </c>
       <c r="C18" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A18&amp;"M","mf")</f>
-        <v>42769</v>
+        <v>42737</v>
       </c>
       <c r="D18" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C18)</f>
-        <v>43136</v>
+        <v>43102</v>
       </c>
       <c r="E18" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B18,,AllTriggers)</f>
-        <v>-2.0594406072060416E-3</v>
+        <v>-1.4408003962847191E-3</v>
       </c>
       <c r="F18" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C18,TRUE,E18)</f>
-        <v>3.5263548112864462E-3</v>
+        <v>3.8594592538035008E-3</v>
       </c>
       <c r="G18" s="79">
         <f t="shared" si="0"/>
-        <v>1.4669142040804046E-3</v>
+        <v>2.4186588575187814E-3</v>
       </c>
       <c r="H18" s="72"/>
       <c r="Z18" s="71"/>
@@ -9946,27 +10313,27 @@
       </c>
       <c r="B19" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C19)</f>
-        <v>42795</v>
+        <v>42766</v>
       </c>
       <c r="C19" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>42797</v>
+        <v>42768</v>
       </c>
       <c r="D19" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C19)</f>
-        <v>43164</v>
+        <v>43133</v>
       </c>
       <c r="E19" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B19,,AllTriggers)</f>
-        <v>-1.9508070439442403E-3</v>
+        <v>-1.3304468676922274E-3</v>
       </c>
       <c r="F19" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C19,TRUE,E19)</f>
-        <v>3.5557136012610434E-3</v>
+        <v>3.9010668306083043E-3</v>
       </c>
       <c r="G19" s="79">
         <f t="shared" si="0"/>
-        <v>1.6049065573168031E-3</v>
+        <v>2.5706199629160769E-3</v>
       </c>
       <c r="H19" s="72"/>
       <c r="Z19" s="71"/>
@@ -9979,27 +10346,27 @@
       </c>
       <c r="B20" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C20)</f>
-        <v>42824</v>
+        <v>42794</v>
       </c>
       <c r="C20" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>42828</v>
+        <v>42796</v>
       </c>
       <c r="D20" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C20)</f>
-        <v>43193</v>
+        <v>43161</v>
       </c>
       <c r="E20" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B20,,AllTriggers)</f>
-        <v>-1.8280151783279387E-3</v>
+        <v>-1.2237571807575257E-3</v>
       </c>
       <c r="F20" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C20,TRUE,E20)</f>
-        <v>3.5876066108804549E-3</v>
+        <v>3.9366555838442124E-3</v>
       </c>
       <c r="G20" s="79">
         <f t="shared" si="0"/>
-        <v>1.7595914325525162E-3</v>
+        <v>2.7128984030866865E-3</v>
       </c>
       <c r="H20" s="72"/>
       <c r="Z20" s="71"/>
@@ -10012,27 +10379,27 @@
       </c>
       <c r="B21" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C21)</f>
-        <v>42853</v>
+        <v>42824</v>
       </c>
       <c r="C21" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>42858</v>
+        <v>42828</v>
       </c>
       <c r="D21" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C21)</f>
-        <v>43223</v>
+        <v>43193</v>
       </c>
       <c r="E21" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B21,,AllTriggers)</f>
-        <v>-1.6968833181525698E-3</v>
+        <v>-1.091753098582873E-3</v>
       </c>
       <c r="F21" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C21,TRUE,E21)</f>
-        <v>3.6179334877510837E-3</v>
+        <v>3.9753019962523511E-3</v>
       </c>
       <c r="G21" s="79">
         <f t="shared" si="0"/>
-        <v>1.9210501695985139E-3</v>
+        <v>2.8835488976694783E-3</v>
       </c>
       <c r="H21" s="72"/>
       <c r="Z21" s="71"/>
@@ -10045,27 +10412,27 @@
       </c>
       <c r="B22" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C22)</f>
-        <v>42887</v>
+        <v>42852</v>
       </c>
       <c r="C22" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>42891</v>
+        <v>42857</v>
       </c>
       <c r="D22" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C22)</f>
-        <v>43256</v>
+        <v>43222</v>
       </c>
       <c r="E22" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B22,,AllTriggers)</f>
-        <v>-1.5391144266039209E-3</v>
+        <v>-9.6110523127542445E-4</v>
       </c>
       <c r="F22" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C22,TRUE,E22)</f>
-        <v>3.650771854458063E-3</v>
+        <v>4.0087186850642411E-3</v>
       </c>
       <c r="G22" s="79">
         <f t="shared" si="0"/>
-        <v>2.1116574278541422E-3</v>
+        <v>3.0476134537888167E-3</v>
       </c>
       <c r="H22" s="72"/>
       <c r="Z22" s="71"/>
@@ -10078,27 +10445,27 @@
       </c>
       <c r="B23" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C23)</f>
-        <v>42915</v>
+        <v>42886</v>
       </c>
       <c r="C23" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>42919</v>
+        <v>42888</v>
       </c>
       <c r="D23" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C23)</f>
-        <v>43284</v>
+        <v>43255</v>
       </c>
       <c r="E23" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B23,,AllTriggers)</f>
-        <v>-1.3926872499891783E-3</v>
+        <v>-8.0427785416639175E-4</v>
       </c>
       <c r="F23" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C23,TRUE,E23)</f>
-        <v>3.678277496519014E-3</v>
+        <v>4.0430337870274967E-3</v>
       </c>
       <c r="G23" s="79">
         <f t="shared" si="0"/>
-        <v>2.2855902465298357E-3</v>
+        <v>3.238755932861105E-3</v>
       </c>
       <c r="H23" s="72"/>
       <c r="Z23" s="71"/>
@@ -10111,27 +10478,27 @@
       </c>
       <c r="B24" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C24)</f>
-        <v>42948</v>
+        <v>42915</v>
       </c>
       <c r="C24" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>42950</v>
+        <v>42919</v>
       </c>
       <c r="D24" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C24)</f>
-        <v>43315</v>
+        <v>43284</v>
       </c>
       <c r="E24" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B24,,AllTriggers)</f>
-        <v>-1.2207965629256465E-3</v>
+        <v>-6.4799627954878372E-4</v>
       </c>
       <c r="F24" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C24,TRUE,E24)</f>
-        <v>3.7084244891602636E-3</v>
+        <v>4.0761851700097081E-3</v>
       </c>
       <c r="G24" s="79">
         <f t="shared" si="0"/>
-        <v>2.4876279262346168E-3</v>
+        <v>3.4281888904609242E-3</v>
       </c>
       <c r="H24" s="72"/>
       <c r="Z24" s="71"/>
@@ -10144,27 +10511,27 @@
       </c>
       <c r="B25" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C25)</f>
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="C25" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A25&amp;"M","mf")</f>
-        <v>42982</v>
+        <v>42949</v>
       </c>
       <c r="D25" s="78">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C25)</f>
-        <v>43347</v>
+        <v>43314</v>
       </c>
       <c r="E25" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B25,,AllTriggers)</f>
-        <v>-1.0365085360007924E-3</v>
+        <v>-4.8184724752116289E-4</v>
       </c>
       <c r="F25" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C25,TRUE,E25)</f>
-        <v>3.7392908031518165E-3</v>
+        <v>4.1074376556199492E-3</v>
       </c>
       <c r="G25" s="79">
         <f t="shared" si="0"/>
-        <v>2.7027822671510243E-3</v>
+        <v>3.6255904080987863E-3</v>
       </c>
       <c r="H25" s="72"/>
       <c r="Z25" s="71"/>
@@ -10177,27 +10544,27 @@
       </c>
       <c r="B26" s="82">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C26)</f>
-        <v>43007</v>
+        <v>42978</v>
       </c>
       <c r="C26" s="82">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A26&amp;"M","mf")</f>
-        <v>43011</v>
+        <v>42982</v>
       </c>
       <c r="D26" s="82">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C26)</f>
-        <v>43376</v>
+        <v>43347</v>
       </c>
       <c r="E26" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B26,,AllTriggers)</f>
-        <v>-8.6404982649688914E-4</v>
+        <v>-2.895725641163645E-4</v>
       </c>
       <c r="F26" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C26,TRUE,E26)</f>
-        <v>3.7671155728861692E-3</v>
+        <v>4.1411963185296555E-3</v>
       </c>
       <c r="G26" s="83">
         <f t="shared" si="0"/>
-        <v>2.9030657463892801E-3</v>
+        <v>3.8516237544132912E-3</v>
       </c>
       <c r="H26" s="72"/>
       <c r="Z26" s="71"/>
@@ -10210,27 +10577,27 @@
       </c>
       <c r="B27" s="337">
         <f>_xll.qlInterestRateIndexFixingDate(ON_12M_index,C27)</f>
-        <v>43040</v>
+        <v>43006</v>
       </c>
       <c r="C27" s="337">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A27&amp;"M","mf")</f>
-        <v>43042</v>
+        <v>43010</v>
       </c>
       <c r="D27" s="337">
         <f>_xll.qlInterestRateIndexMaturity(ON_12M_index,C27)</f>
-        <v>43409</v>
+        <v>43375</v>
       </c>
       <c r="E27" s="338">
         <f>_xll.qlIndexFixing(ON_12M_index,B27,,AllTriggers)</f>
-        <v>-6.6678200104512892E-4</v>
+        <v>-1.1958855942131673E-4</v>
       </c>
       <c r="F27" s="339">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C27,TRUE,E27)</f>
-        <v>3.7967820010451287E-3</v>
+        <v>4.1695885594213175E-3</v>
       </c>
       <c r="G27" s="338">
         <f t="shared" si="0"/>
-        <v>3.13E-3</v>
+        <v>4.0500000000000006E-3</v>
       </c>
       <c r="H27" s="72"/>
       <c r="Z27" s="71"/>
@@ -10339,7 +10706,7 @@
       </c>
       <c r="N2" s="99">
         <f>_xll.ohTrigger(M3:M7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -10355,7 +10722,7 @@
       </c>
       <c r="D3" s="155" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH1M_Quote#0001</v>
+        <v>EURSND_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E3" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -10367,22 +10734,22 @@
       </c>
       <c r="H3" s="136">
         <f>'1MSynthDepo'!V11</f>
-        <v>-1.3274231898474653E-3</v>
+        <v>-1.1818933969509615E-3</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="129">
-        <v>-1.3274231898474653E-3</v>
+        <v>-1.1818933969509615E-3</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="117">
         <f t="array" ref="L3:L63">QuoteStatic</f>
-        <v>-1.3274231898474653E-3</v>
+        <v>-1.1818933969509615E-3</v>
       </c>
       <c r="M3" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND($L3,6),EvaluationDate)</f>
-        <v>1.0099999999999996E-4</v>
+        <v>-1.690000000000001E-4</v>
       </c>
       <c r="N3" s="101"/>
     </row>
@@ -10400,7 +10767,7 @@
       </c>
       <c r="D4" s="157" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH1M_Quote#0001</v>
+        <v>EURSWD_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E4" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -10412,21 +10779,21 @@
       </c>
       <c r="H4" s="136">
         <f>'1MSynthDepo'!V12</f>
-        <v>-1.3658298046616477E-3</v>
+        <v>-1.2193612458258737E-3</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="129">
-        <v>-1.3658298046616477E-3</v>
+        <v>-1.2193612458258737E-3</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="117">
-        <v>-1.3658298046616477E-3</v>
+        <v>-1.2193612458258737E-3</v>
       </c>
       <c r="M4" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND($L4,6),EvaluationDate)</f>
-        <v>6.7999999999999918E-5</v>
+        <v>-1.200000000000001E-4</v>
       </c>
       <c r="N4" s="101"/>
     </row>
@@ -10441,7 +10808,7 @@
       </c>
       <c r="D5" s="157" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH1M_Quote#0001</v>
+        <v>EUR2WD_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E5" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -10453,21 +10820,21 @@
       </c>
       <c r="H5" s="136">
         <f>'1MSynthDepo'!V13</f>
-        <v>-1.3000285639425918E-3</v>
+        <v>-1.1962377503417696E-3</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="129">
-        <v>-1.3000285639425918E-3</v>
+        <v>-1.1962377503417696E-3</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="117">
-        <v>-1.3000285639425918E-3</v>
+        <v>-1.1962377503417696E-3</v>
       </c>
       <c r="M5" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND($L5,6),EvaluationDate)</f>
-        <v>3.8999999999999972E-5</v>
+        <v>-7.2000000000000015E-5</v>
       </c>
       <c r="N5" s="101"/>
     </row>
@@ -10482,7 +10849,7 @@
       </c>
       <c r="D6" s="157" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH1M_Quote#0001</v>
+        <v>EUR3WD_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E6" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -10494,21 +10861,21 @@
       </c>
       <c r="H6" s="136">
         <f>'1MSynthDepo'!V14</f>
-        <v>-1.2441557417356261E-3</v>
+        <v>-1.1792565643663011E-3</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="130">
-        <v>-1.2441557417356261E-3</v>
+        <v>-1.1792565643663011E-3</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="119">
-        <v>-1.2441557417356261E-3</v>
+        <v>-1.1792565643663011E-3</v>
       </c>
       <c r="M6" s="120">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND($L6,6),EvaluationDate)</f>
-        <v>1.8000000000000004E-5</v>
+        <v>-3.6000000000000008E-5</v>
       </c>
       <c r="N6" s="101"/>
     </row>
@@ -10523,7 +10890,7 @@
       </c>
       <c r="D7" s="159" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH1M_Quote#0001</v>
+        <v>EUR1MD_SYNTH1M_Quote#0002</v>
       </c>
       <c r="E7" s="162" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -10535,21 +10902,21 @@
       </c>
       <c r="H7" s="139">
         <f>'1MSynthDepo'!V15</f>
-        <v>-1.1956808793867069E-3</v>
+        <v>-1.1341642445812157E-3</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="131">
-        <v>-1.1956808793867069E-3</v>
+        <v>-1.1341642445812157E-3</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="121">
-        <v>-1.1956808793867069E-3</v>
+        <v>-1.1341642445812157E-3</v>
       </c>
       <c r="M7" s="122">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND($L7,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.0000000000001327E-6</v>
       </c>
       <c r="N7" s="104"/>
     </row>
@@ -10566,7 +10933,7 @@
       </c>
       <c r="D8" s="155" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH3M_Quote#0001</v>
+        <v>EURSND_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E8" s="160"/>
       <c r="F8" s="16"/>
@@ -10574,24 +10941,24 @@
         <v>55</v>
       </c>
       <c r="H8" s="141">
-        <f>'3MSynthDepo'!I25</f>
-        <v>-6.7893388511208741E-5</v>
+        <f>'3MSynthDepo'!I31</f>
+        <v>-4.6216392257214522E-4</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="129">
-        <v>-6.7893388511208741E-5</v>
+        <v>-4.6216392257214522E-4</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="117">
-        <v>-6.7893388511208741E-5</v>
+        <v>-4.6216392257214522E-4</v>
       </c>
       <c r="M8" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND($L8,6),EvaluationDate)</f>
-        <v>1.5999999999999996E-5</v>
+        <v>-1.9000000000000028E-5</v>
       </c>
       <c r="N8" s="105">
         <f>_xll.ohTrigger(M8:M14)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -10608,7 +10975,7 @@
       </c>
       <c r="D9" s="157" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH3M_Quote#0001</v>
+        <v>EURSWD_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E9" s="161"/>
       <c r="F9" s="16"/>
@@ -10616,20 +10983,20 @@
         <v>57</v>
       </c>
       <c r="H9" s="136">
-        <f>'3MSynthDepo'!I26</f>
-        <v>-1.7542686747251679E-4</v>
+        <f>'3MSynthDepo'!I32</f>
+        <v>-5.1208307960872086E-4</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="129">
-        <v>-1.7542686747251679E-4</v>
+        <v>-5.1208307960872086E-4</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="117">
-        <v>-1.7542686747251679E-4</v>
+        <v>-5.1208307960872086E-4</v>
       </c>
       <c r="M9" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND($L9,6),EvaluationDate)</f>
-        <v>1.6000000000000009E-5</v>
+        <v>-1.9999999999999402E-6</v>
       </c>
       <c r="N9" s="101"/>
     </row>
@@ -10644,7 +11011,7 @@
       </c>
       <c r="D10" s="157" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH3M_Quote#0001</v>
+        <v>EUR2WD_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E10" s="161"/>
       <c r="F10" s="16"/>
@@ -10652,20 +11019,20 @@
         <v>58</v>
       </c>
       <c r="H10" s="136">
-        <f>'3MSynthDepo'!I27</f>
-        <v>-1.8026150816601621E-4</v>
+        <f>'3MSynthDepo'!I33</f>
+        <v>-5.0549147297105994E-4</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="129">
-        <v>-1.8026150816601621E-4</v>
+        <v>-5.0549147297105994E-4</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="117">
-        <v>-1.8026150816601621E-4</v>
+        <v>-5.0549147297105994E-4</v>
       </c>
       <c r="M10" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND($L10,6),EvaluationDate)</f>
-        <v>1.4999999999999985E-5</v>
+        <v>-2.0000000000000486E-6</v>
       </c>
       <c r="N10" s="101"/>
     </row>
@@ -10680,7 +11047,7 @@
       </c>
       <c r="D11" s="157" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH3M_Quote#0001</v>
+        <v>EUR3WD_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E11" s="161"/>
       <c r="F11" s="16"/>
@@ -10688,20 +11055,20 @@
         <v>59</v>
       </c>
       <c r="H11" s="144">
-        <f>'3MSynthDepo'!I28</f>
-        <v>-1.8497035113489751E-4</v>
+        <f>'3MSynthDepo'!I34</f>
+        <v>-4.9899359318634443E-4</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="130">
-        <v>-1.8497035113489751E-4</v>
+        <v>-4.9899359318634443E-4</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="119">
-        <v>-1.8497035113489751E-4</v>
+        <v>-4.9899359318634443E-4</v>
       </c>
       <c r="M11" s="120">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND($L11,6),EvaluationDate)</f>
-        <v>1.4000000000000015E-5</v>
+        <v>-1.9999999999999402E-6</v>
       </c>
       <c r="N11" s="101"/>
     </row>
@@ -10716,7 +11083,7 @@
       </c>
       <c r="D12" s="157" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH3M_Quote#0001</v>
+        <v>EUR1MD_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E12" s="161"/>
       <c r="F12" s="16"/>
@@ -10724,20 +11091,20 @@
         <v>60</v>
       </c>
       <c r="H12" s="136">
-        <f>'3MSynthDepo'!I29</f>
-        <v>-2.0084268985520737E-4</v>
+        <f>'3MSynthDepo'!I35</f>
+        <v>-4.5986928879109484E-4</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="129">
-        <v>-2.0084268985520737E-4</v>
+        <v>-4.5986928879109484E-4</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="117">
-        <v>-2.0084268985520737E-4</v>
+        <v>-4.5986928879109484E-4</v>
       </c>
       <c r="M12" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND($L12,6),EvaluationDate)</f>
-        <v>1.2999999999999991E-5</v>
+        <v>-1.9999999999999944E-6</v>
       </c>
       <c r="N12" s="101"/>
     </row>
@@ -10752,7 +11119,7 @@
       </c>
       <c r="D13" s="157" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH3M_Quote#0001</v>
+        <v>EUR2MD_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E13" s="161"/>
       <c r="F13" s="16"/>
@@ -10760,20 +11127,20 @@
         <v>61</v>
       </c>
       <c r="H13" s="136">
-        <f>'3MSynthDepo'!I30</f>
-        <v>-4.9014604394956578E-4</v>
+        <f>'3MSynthDepo'!I36</f>
+        <v>-4.8361993965124637E-4</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="129">
-        <v>-4.9014604394956578E-4</v>
+        <v>-4.8361993965124637E-4</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="117">
-        <v>-4.9014604394956578E-4</v>
+        <v>-4.8361993965124637E-4</v>
       </c>
       <c r="M13" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND($L13,6),EvaluationDate)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>-1.9999999999999998E-5</v>
       </c>
       <c r="N13" s="101"/>
     </row>
@@ -10788,7 +11155,7 @@
       </c>
       <c r="D14" s="159" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH3M_Quote#0001</v>
+        <v>EUR3MD_SYNTH3M_Quote#0002</v>
       </c>
       <c r="E14" s="162"/>
       <c r="F14" s="16"/>
@@ -10796,20 +11163,20 @@
         <v>62</v>
       </c>
       <c r="H14" s="144">
-        <f>'3MSynthDepo'!I31</f>
-        <v>-7.0832887756179107E-4</v>
+        <f>'3MSynthDepo'!I37</f>
+        <v>-4.3636004553916906E-4</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="130">
-        <v>-7.0832887756179107E-4</v>
+        <v>-4.3636004553916906E-4</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="119">
-        <v>-7.0832887756179107E-4</v>
+        <v>-4.3636004553916906E-4</v>
       </c>
       <c r="M14" s="120">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND($L14,6),EvaluationDate)</f>
-        <v>7.9999999999999776E-6</v>
+        <v>1.799999999999995E-5</v>
       </c>
       <c r="N14" s="101"/>
     </row>
@@ -10826,7 +11193,7 @@
       </c>
       <c r="D15" s="155" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH6M_Quote#0001</v>
+        <v>EURSND_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E15" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -10838,23 +11205,23 @@
       </c>
       <c r="H15" s="141">
         <f>'6MSynthDepo'!I25</f>
-        <v>1.0206039526305943E-3</v>
+        <v>2.4841679715947862E-4</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="129">
-        <v>1.0206039526305943E-3</v>
+        <v>2.4841679715947862E-4</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="117">
-        <v>1.0206039526305943E-3</v>
+        <v>2.4841679715947862E-4</v>
       </c>
       <c r="M15" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND($L15,6),EvaluationDate)</f>
-        <v>5.999999999999929E-6</v>
+        <v>-1.6000000000000009E-5</v>
       </c>
       <c r="N15" s="107">
         <f>_xll.ohTrigger(M15:M24)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -10871,7 +11238,7 @@
       </c>
       <c r="D16" s="157" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH6M_Quote#0001</v>
+        <v>EURSWD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E16" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -10883,19 +11250,19 @@
       </c>
       <c r="H16" s="136">
         <f>'6MSynthDepo'!I26</f>
-        <v>9.0919279760903748E-4</v>
+        <v>1.9915279379897503E-4</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="129">
-        <v>9.0919279760903748E-4</v>
+        <v>1.9915279379897503E-4</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="117">
-        <v>9.0919279760903748E-4</v>
+        <v>1.9915279379897503E-4</v>
       </c>
       <c r="M16" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND($L16,6),EvaluationDate)</f>
-        <v>5.0000000000000131E-6</v>
+        <v>0</v>
       </c>
       <c r="N16" s="108"/>
     </row>
@@ -10910,7 +11277,7 @@
       </c>
       <c r="D17" s="157" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH6M_Quote#0001</v>
+        <v>EUR2WD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E17" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -10922,19 +11289,19 @@
       </c>
       <c r="H17" s="136">
         <f>'6MSynthDepo'!I27</f>
-        <v>8.9992815750252115E-4</v>
+        <v>2.0689150706346533E-4</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="129">
-        <v>8.9992815750252115E-4</v>
+        <v>2.0689150706346533E-4</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="117">
-        <v>8.9992815750252115E-4</v>
+        <v>2.0689150706346533E-4</v>
       </c>
       <c r="M17" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND($L17,6),EvaluationDate)</f>
-        <v>5.0000000000000131E-6</v>
+        <v>0</v>
       </c>
       <c r="N17" s="108"/>
     </row>
@@ -10949,7 +11316,7 @@
       </c>
       <c r="D18" s="157" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH6M_Quote#0001</v>
+        <v>EUR3WD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E18" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -10961,19 +11328,19 @@
       </c>
       <c r="H18" s="136">
         <f>'6MSynthDepo'!I28</f>
-        <v>8.9088906333602475E-4</v>
+        <v>2.1453675867430126E-4</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="129">
-        <v>8.9088906333602475E-4</v>
+        <v>2.1453675867430126E-4</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="117">
-        <v>8.9088906333602475E-4</v>
+        <v>2.1453675867430126E-4</v>
       </c>
       <c r="M18" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND($L18,6),EvaluationDate)</f>
-        <v>5.0000000000000131E-6</v>
+        <v>9.999999999999972E-7</v>
       </c>
       <c r="N18" s="108"/>
     </row>
@@ -10988,7 +11355,7 @@
       </c>
       <c r="D19" s="157" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH6M_Quote#0001</v>
+        <v>EUR1MD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E19" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -11000,19 +11367,19 @@
       </c>
       <c r="H19" s="141">
         <f>'6MSynthDepo'!I29</f>
-        <v>8.6959317254731161E-4</v>
+        <v>2.5530299606777872E-4</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="132">
-        <v>8.6959317254731161E-4</v>
+        <v>2.5530299606777872E-4</v>
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="123">
-        <v>8.6959317254731161E-4</v>
+        <v>2.5530299606777872E-4</v>
       </c>
       <c r="M19" s="124">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND($L19,6),EvaluationDate)</f>
-        <v>3.9999999999999888E-6</v>
+        <v>0</v>
       </c>
       <c r="N19" s="108"/>
     </row>
@@ -11027,7 +11394,7 @@
       </c>
       <c r="D20" s="157" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH6M_Quote#0001</v>
+        <v>EUR2MD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E20" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -11039,19 +11406,19 @@
       </c>
       <c r="H20" s="136">
         <f>'6MSynthDepo'!I30</f>
-        <v>5.6224517115356686E-4</v>
+        <v>2.3648247379867021E-4</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="129">
-        <v>5.6224517115356686E-4</v>
+        <v>2.3648247379867021E-4</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="117">
-        <v>5.6224517115356686E-4</v>
+        <v>2.3648247379867021E-4</v>
       </c>
       <c r="M20" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND($L20,6),EvaluationDate)</f>
-        <v>2.0000000000000486E-6</v>
+        <v>-1.8000000000000004E-5</v>
       </c>
       <c r="N20" s="108"/>
     </row>
@@ -11066,7 +11433,7 @@
       </c>
       <c r="D21" s="157" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH6M_Quote#0001</v>
+        <v>EUR3MD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E21" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -11078,19 +11445,19 @@
       </c>
       <c r="H21" s="136">
         <f>'6MSynthDepo'!I31</f>
-        <v>3.2886751359194756E-4</v>
+        <v>2.8921669697613866E-4</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="129">
-        <v>3.2886751359194756E-4</v>
+        <v>2.8921669697613866E-4</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="117">
-        <v>3.2886751359194756E-4</v>
+        <v>2.8921669697613866E-4</v>
       </c>
       <c r="M21" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND($L21,6),EvaluationDate)</f>
-        <v>1.9999999999999944E-6</v>
+        <v>1.8000000000000004E-5</v>
       </c>
       <c r="N21" s="108"/>
     </row>
@@ -11105,7 +11472,7 @@
       </c>
       <c r="D22" s="157" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR4MD_SYNTH6M_Quote#0001</v>
+        <v>EUR4MD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E22" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -11117,19 +11484,19 @@
       </c>
       <c r="H22" s="136">
         <f>'6MSynthDepo'!I32</f>
-        <v>2.067783813081377E-4</v>
+        <v>2.5740963889514659E-4</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="129">
-        <v>2.067783813081377E-4</v>
+        <v>2.5740963889514659E-4</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="117">
-        <v>2.067783813081377E-4</v>
+        <v>2.5740963889514659E-4</v>
       </c>
       <c r="M22" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND($L22,6),EvaluationDate)</f>
-        <v>9.999999999999972E-7</v>
+        <v>-3.9999999999999888E-6</v>
       </c>
       <c r="N22" s="108"/>
     </row>
@@ -11144,7 +11511,7 @@
       </c>
       <c r="D23" s="157" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR5MD_SYNTH6M_Quote#0001</v>
+        <v>EUR5MD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E23" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -11156,19 +11523,19 @@
       </c>
       <c r="H23" s="136">
         <f>'6MSynthDepo'!I33</f>
-        <v>1.0314218224185284E-4</v>
+        <v>2.4767050351172165E-4</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="129">
-        <v>1.0314218224185284E-4</v>
+        <v>2.4767050351172165E-4</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="117">
-        <v>1.0314218224185284E-4</v>
+        <v>2.4767050351172165E-4</v>
       </c>
       <c r="M23" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND($L23,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-2.9999999999999645E-6</v>
       </c>
       <c r="N23" s="108"/>
     </row>
@@ -11183,7 +11550,7 @@
       </c>
       <c r="D24" s="159" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR6MD_SYNTH6M_Quote#0001</v>
+        <v>EUR6MD_SYNTH6M_Quote#0002</v>
       </c>
       <c r="E24" s="162" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -11195,19 +11562,19 @@
       </c>
       <c r="H24" s="144">
         <f>'6MSynthDepo'!I34</f>
-        <v>1.7461247375038705E-5</v>
+        <v>2.4264060312497609E-4</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="130">
-        <v>1.7461247375038705E-5</v>
+        <v>2.4264060312497609E-4</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="119">
-        <v>1.7461247375038705E-5</v>
+        <v>2.4264060312497609E-4</v>
       </c>
       <c r="M24" s="120">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND($L24,6),EvaluationDate)</f>
-        <v>-1.0000000000000006E-6</v>
+        <v>9.999999999999972E-7</v>
       </c>
       <c r="N24" s="108"/>
     </row>
@@ -11224,7 +11591,7 @@
       </c>
       <c r="D25" s="157" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH1Y_Quote#0001</v>
+        <v>EURSND_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E25" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -11236,23 +11603,23 @@
       </c>
       <c r="H25" s="141">
         <f>'1YSynthDepo'!I20</f>
-        <v>2.7265604548531996E-3</v>
+        <v>1.4175468018873261E-3</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="129">
-        <v>2.7265604548531996E-3</v>
+        <v>1.4175468018873261E-3</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="117">
-        <v>2.7265604548531996E-3</v>
+        <v>1.4175468018873261E-3</v>
       </c>
       <c r="M25" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND($L25,6),EvaluationDate)</f>
-        <v>3.9999999999996635E-6</v>
+        <v>-2.3000000000000017E-5</v>
       </c>
       <c r="N25" s="107">
         <f>_xll.ohTrigger(M25:M40)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -11269,7 +11636,7 @@
       </c>
       <c r="D26" s="157" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH1Y_Quote#0001</v>
+        <v>EURSWD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E26" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -11281,19 +11648,19 @@
       </c>
       <c r="H26" s="136">
         <f>'1YSynthDepo'!I21</f>
-        <v>2.6043100673029634E-3</v>
+        <v>1.3667900797211172E-3</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="129">
-        <v>2.6043100673029634E-3</v>
+        <v>1.3667900797211172E-3</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="117">
-        <v>2.6043100673029634E-3</v>
+        <v>1.3667900797211172E-3</v>
       </c>
       <c r="M26" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND($L26,6),EvaluationDate)</f>
-        <v>4.0000000000000972E-6</v>
+        <v>-7.0000000000000617E-6</v>
       </c>
       <c r="N26" s="108"/>
     </row>
@@ -11308,7 +11675,7 @@
       </c>
       <c r="D27" s="157" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH1Y_Quote#0001</v>
+        <v>EUR2WD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E27" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -11320,19 +11687,19 @@
       </c>
       <c r="H27" s="136">
         <f>'1YSynthDepo'!I22</f>
-        <v>2.5825939642271883E-3</v>
+        <v>1.3720079071712274E-3</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="129">
-        <v>2.5825939642271883E-3</v>
+        <v>1.3720079071712274E-3</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="117">
-        <v>2.5825939642271883E-3</v>
+        <v>1.3720079071712274E-3</v>
       </c>
       <c r="M27" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND($L27,6),EvaluationDate)</f>
-        <v>3.9999999999996635E-6</v>
+        <v>-7.0000000000000617E-6</v>
       </c>
       <c r="N27" s="108"/>
     </row>
@@ -11347,7 +11714,7 @@
       </c>
       <c r="D28" s="157" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH1Y_Quote#0001</v>
+        <v>EUR3WD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E28" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -11359,19 +11726,19 @@
       </c>
       <c r="H28" s="136">
         <f>'1YSynthDepo'!I23</f>
-        <v>2.5613106729454366E-3</v>
+        <v>1.3772460871981046E-3</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="129">
-        <v>2.5613106729454366E-3</v>
+        <v>1.3772460871981046E-3</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="117">
-        <v>2.5613106729454366E-3</v>
+        <v>1.3772460871981046E-3</v>
       </c>
       <c r="M28" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND($L28,6),EvaluationDate)</f>
-        <v>2.9999999999999645E-6</v>
+        <v>-7.0000000000000617E-6</v>
       </c>
       <c r="N28" s="108"/>
     </row>
@@ -11386,7 +11753,7 @@
       </c>
       <c r="D29" s="157" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR1MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E29" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -11398,19 +11765,19 @@
       </c>
       <c r="H29" s="144">
         <f>'1YSynthDepo'!I24</f>
-        <v>2.5245730915859355E-3</v>
+        <v>1.4147710458356499E-3</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="130">
-        <v>2.5245730915859355E-3</v>
+        <v>1.4147710458356499E-3</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="119">
-        <v>2.5245730915859355E-3</v>
+        <v>1.4147710458356499E-3</v>
       </c>
       <c r="M29" s="120">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND($L29,6),EvaluationDate)</f>
-        <v>4.0000000000000972E-6</v>
+        <v>-5.999999999999929E-6</v>
       </c>
       <c r="N29" s="108"/>
     </row>
@@ -11425,7 +11792,7 @@
       </c>
       <c r="D30" s="157" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR2MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E30" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -11437,19 +11804,19 @@
       </c>
       <c r="H30" s="136">
         <f>'1YSynthDepo'!I25</f>
-        <v>2.1649595494358772E-3</v>
+        <v>1.3875411050914604E-3</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="129">
-        <v>2.1649595494358772E-3</v>
+        <v>1.3875411050914604E-3</v>
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="117">
-        <v>2.1649595494358772E-3</v>
+        <v>1.3875411050914604E-3</v>
       </c>
       <c r="M30" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND($L30,6),EvaluationDate)</f>
-        <v>2.9999999999999645E-6</v>
+        <v>-2.3000000000000017E-5</v>
       </c>
       <c r="N30" s="107"/>
     </row>
@@ -11464,7 +11831,7 @@
       </c>
       <c r="D31" s="157" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR3MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E31" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -11476,19 +11843,19 @@
       </c>
       <c r="H31" s="136">
         <f>'1YSynthDepo'!I26</f>
-        <v>1.8862869050789469E-3</v>
+        <v>1.4332284729959347E-3</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="129">
-        <v>1.8862869050789469E-3</v>
+        <v>1.4332284729959347E-3</v>
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="117">
-        <v>1.8862869050789469E-3</v>
+        <v>1.4332284729959347E-3</v>
       </c>
       <c r="M31" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND($L31,6),EvaluationDate)</f>
-        <v>-2.8999999999999946E-5</v>
+        <v>1.4000000000000123E-5</v>
       </c>
       <c r="N31" s="108"/>
     </row>
@@ -11503,7 +11870,7 @@
       </c>
       <c r="D32" s="157" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR4MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR4MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E32" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -11515,19 +11882,19 @@
       </c>
       <c r="H32" s="136">
         <f>'1YSynthDepo'!I27</f>
-        <v>1.7237574751833979E-3</v>
+        <v>1.3969750873161605E-3</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="129">
-        <v>1.7237574751833979E-3</v>
+        <v>1.3969750873161605E-3</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="117">
-        <v>1.7237574751833979E-3</v>
+        <v>1.3969750873161605E-3</v>
       </c>
       <c r="M32" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND($L32,6),EvaluationDate)</f>
-        <v>-3.9999999999998804E-6</v>
+        <v>-7.0000000000000617E-6</v>
       </c>
       <c r="N32" s="108"/>
     </row>
@@ -11542,7 +11909,7 @@
       </c>
       <c r="D33" s="157" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR5MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR5MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E33" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -11554,19 +11921,19 @@
       </c>
       <c r="H33" s="136">
         <f>'1YSynthDepo'!I28</f>
-        <v>1.5791737653364176E-3</v>
+        <v>1.3843348357612864E-3</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="129">
-        <v>1.5791737653364176E-3</v>
+        <v>1.3843348357612864E-3</v>
       </c>
       <c r="K33" s="16"/>
       <c r="L33" s="117">
-        <v>1.5791737653364176E-3</v>
+        <v>1.3843348357612864E-3</v>
       </c>
       <c r="M33" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND($L33,6),EvaluationDate)</f>
-        <v>3.0000000000001813E-6</v>
+        <v>-5.999999999999929E-6</v>
       </c>
       <c r="N33" s="108"/>
     </row>
@@ -11581,7 +11948,7 @@
       </c>
       <c r="D34" s="157" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR6MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR6MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E34" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -11593,19 +11960,19 @@
       </c>
       <c r="H34" s="136">
         <f>'1YSynthDepo'!I29</f>
-        <v>1.4595960496213488E-3</v>
+        <v>1.3777408141027985E-3</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="129">
-        <v>1.4595960496213488E-3</v>
+        <v>1.3777408141027985E-3</v>
       </c>
       <c r="K34" s="16"/>
       <c r="L34" s="117">
-        <v>1.4595960496213488E-3</v>
+        <v>1.3777408141027985E-3</v>
       </c>
       <c r="M34" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND($L34,6),EvaluationDate)</f>
-        <v>9.9999999999991589E-7</v>
+        <v>-9.9999999999991589E-7</v>
       </c>
       <c r="N34" s="108"/>
     </row>
@@ -11620,7 +11987,7 @@
       </c>
       <c r="D35" s="157" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR7MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR7MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E35" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -11632,19 +11999,19 @@
       </c>
       <c r="H35" s="136">
         <f>'1YSynthDepo'!I30</f>
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="129">
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="117">
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="M35" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND($L35,6),EvaluationDate)</f>
-        <v>-1.0000000000001327E-6</v>
+        <v>0</v>
       </c>
       <c r="N35" s="108"/>
     </row>
@@ -11659,7 +12026,7 @@
       </c>
       <c r="D36" s="157" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR8MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR8MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E36" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -11671,19 +12038,19 @@
       </c>
       <c r="H36" s="136">
         <f>'1YSynthDepo'!I31</f>
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="129">
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="117">
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="M36" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND($L36,6),EvaluationDate)</f>
-        <v>-1.0000000000001327E-6</v>
+        <v>0</v>
       </c>
       <c r="N36" s="108"/>
     </row>
@@ -11698,7 +12065,7 @@
       </c>
       <c r="D37" s="157" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR9MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR9MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E37" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -11710,19 +12077,19 @@
       </c>
       <c r="H37" s="136">
         <f>'1YSynthDepo'!I32</f>
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="129">
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="117">
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="M37" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND($L37,6),EvaluationDate)</f>
-        <v>-1.0000000000001327E-6</v>
+        <v>0</v>
       </c>
       <c r="N37" s="108"/>
     </row>
@@ -11737,7 +12104,7 @@
       </c>
       <c r="D38" s="157" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR10MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR10MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E38" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -11749,19 +12116,19 @@
       </c>
       <c r="H38" s="136">
         <f>'1YSynthDepo'!I33</f>
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="129">
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="117">
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="M38" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND($L38,6),EvaluationDate)</f>
-        <v>-1.0000000000001327E-6</v>
+        <v>0</v>
       </c>
       <c r="N38" s="108"/>
     </row>
@@ -11776,7 +12143,7 @@
       </c>
       <c r="D39" s="157" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR11MD_SYNTH1Y_Quote#0001</v>
+        <v>EUR11MD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E39" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -11788,19 +12155,19 @@
       </c>
       <c r="H39" s="136">
         <f>'1YSynthDepo'!I34</f>
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="129">
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="117">
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="M39" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND($L39,6),EvaluationDate)</f>
-        <v>-1.0000000000001327E-6</v>
+        <v>0</v>
       </c>
       <c r="N39" s="108"/>
     </row>
@@ -11815,7 +12182,7 @@
       </c>
       <c r="D40" s="157" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1YD_SYNTH1Y_Quote#0001</v>
+        <v>EUR1YD_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E40" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
@@ -11827,19 +12194,19 @@
       </c>
       <c r="H40" s="144">
         <f>'1YSynthDepo'!I35</f>
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="130">
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="119">
-        <v>1.0371564016809971E-3</v>
+        <v>1.4030768007941069E-3</v>
       </c>
       <c r="M40" s="120">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND($L40,6),EvaluationDate)</f>
-        <v>-1.0000000000001327E-6</v>
+        <v>0</v>
       </c>
       <c r="N40" s="107"/>
     </row>
@@ -11857,7 +12224,7 @@
       </c>
       <c r="D41" s="155" t="str">
         <f>_xll.qlSimpleQuote(C41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR1x13F_SYNTH1Y_Quote#0001</v>
+        <v>EUR1x13F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E41" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(D41)</f>
@@ -11872,15 +12239,15 @@
       </c>
       <c r="H41" s="149">
         <f>SynthFra!G4</f>
-        <v>8.7000000000000011E-4</v>
+        <v>1.3999999999999998E-3</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="133">
-        <v>8.7000000000000011E-4</v>
+        <v>1.3999999999999998E-3</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="125">
-        <v>8.7000000000000011E-4</v>
+        <v>1.3999999999999998E-3</v>
       </c>
       <c r="M41" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(L41,6),EvaluationDate)</f>
@@ -11888,7 +12255,7 @@
       </c>
       <c r="N41" s="107">
         <f>_xll.ohTrigger(M41:M63)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -11905,7 +12272,7 @@
       </c>
       <c r="D42" s="157" t="str">
         <f>_xll.qlSimpleQuote(C42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR2x14F_SYNTH1Y_Quote#0001</v>
+        <v>EUR2x14F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E42" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D42)</f>
@@ -11920,15 +12287,15 @@
       </c>
       <c r="H42" s="151">
         <f>SynthFra!G5</f>
-        <v>7.2000000000000015E-4</v>
+        <v>1.3999999999999998E-3</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="133">
-        <v>7.2000000000000015E-4</v>
+        <v>1.3999999999999998E-3</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="125">
-        <v>7.2000000000000015E-4</v>
+        <v>1.3999999999999998E-3</v>
       </c>
       <c r="M42" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D42,ROUND(L42,6),EvaluationDate)</f>
@@ -11950,7 +12317,7 @@
       </c>
       <c r="D43" s="157" t="str">
         <f>_xll.qlSimpleQuote(C43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR3x15F_SYNTH1Y_Quote#0001</v>
+        <v>EUR3x15F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E43" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D43)</f>
@@ -11965,15 +12332,15 @@
       </c>
       <c r="H43" s="151">
         <f>SynthFra!G6</f>
-        <v>6.9000000000000008E-4</v>
+        <v>1.4199999999999998E-3</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="133">
-        <v>6.9000000000000008E-4</v>
+        <v>1.4199999999999998E-3</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="125">
-        <v>6.9000000000000008E-4</v>
+        <v>1.4199999999999998E-3</v>
       </c>
       <c r="M43" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D43,ROUND(L43,6),EvaluationDate)</f>
@@ -11995,7 +12362,7 @@
       </c>
       <c r="D44" s="157" t="str">
         <f>_xll.qlSimpleQuote(C44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR4x16F_SYNTH1Y_Quote#0001</v>
+        <v>EUR4x16F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E44" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D44)</f>
@@ -12010,15 +12377,15 @@
       </c>
       <c r="H44" s="151">
         <f>SynthFra!G7</f>
-        <v>6.6E-4</v>
+        <v>1.4599999999999997E-3</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="133">
-        <v>6.6E-4</v>
+        <v>1.4599999999999997E-3</v>
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="125">
-        <v>6.6E-4</v>
+        <v>1.4599999999999997E-3</v>
       </c>
       <c r="M44" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(L44,6),EvaluationDate)</f>
@@ -12040,7 +12407,7 @@
       </c>
       <c r="D45" s="157" t="str">
         <f>_xll.qlSimpleQuote(C45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR5x17F_SYNTH1Y_Quote#0001</v>
+        <v>EUR5x17F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E45" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D45)</f>
@@ -12055,15 +12422,15 @@
       </c>
       <c r="H45" s="151">
         <f>SynthFra!G8</f>
-        <v>6.6E-4</v>
+        <v>1.4899999999999998E-3</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="133">
-        <v>6.6E-4</v>
+        <v>1.4899999999999998E-3</v>
       </c>
       <c r="K45" s="19"/>
       <c r="L45" s="125">
-        <v>6.6E-4</v>
+        <v>1.4899999999999998E-3</v>
       </c>
       <c r="M45" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D45,ROUND(L45,6),EvaluationDate)</f>
@@ -12085,7 +12452,7 @@
       </c>
       <c r="D46" s="157" t="str">
         <f>_xll.qlSimpleQuote(C46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR6x18F_SYNTH1Y_Quote#0001</v>
+        <v>EUR6x18F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E46" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D46)</f>
@@ -12100,15 +12467,15 @@
       </c>
       <c r="H46" s="151">
         <f>SynthFra!G9</f>
-        <v>6.7000000000000002E-4</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="133">
-        <v>6.7000000000000002E-4</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="125">
-        <v>6.7000000000000002E-4</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="M46" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(L46,6),EvaluationDate)</f>
@@ -12130,7 +12497,7 @@
       </c>
       <c r="D47" s="157" t="str">
         <f>_xll.qlSimpleQuote(C47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR7x19F_SYNTH1Y_Quote#0001</v>
+        <v>EUR7x19F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E47" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D47)</f>
@@ -12145,15 +12512,15 @@
       </c>
       <c r="H47" s="151">
         <f>SynthFra!G10</f>
-        <v>6.9000000000000008E-4</v>
+        <v>1.6099999999999997E-3</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="133">
-        <v>6.9000000000000008E-4</v>
+        <v>1.6099999999999997E-3</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="125">
-        <v>6.9000000000000008E-4</v>
+        <v>1.6099999999999997E-3</v>
       </c>
       <c r="M47" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(L47,6),EvaluationDate)</f>
@@ -12175,7 +12542,7 @@
       </c>
       <c r="D48" s="157" t="str">
         <f>_xll.qlSimpleQuote(C48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR8x20F_SYNTH1Y_Quote#0001</v>
+        <v>EUR8x20F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E48" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D48)</f>
@@ -12190,15 +12557,15 @@
       </c>
       <c r="H48" s="151">
         <f>SynthFra!G11</f>
-        <v>7.4000000000000021E-4</v>
+        <v>1.6699999999999998E-3</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="133">
-        <v>7.4000000000000021E-4</v>
+        <v>1.6699999999999998E-3</v>
       </c>
       <c r="K48" s="19"/>
       <c r="L48" s="125">
-        <v>7.4000000000000021E-4</v>
+        <v>1.6699999999999998E-3</v>
       </c>
       <c r="M48" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D48,ROUND(L48,6),EvaluationDate)</f>
@@ -12220,7 +12587,7 @@
       </c>
       <c r="D49" s="157" t="str">
         <f>_xll.qlSimpleQuote(C49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR9x21F_SYNTH1Y_Quote#0001</v>
+        <v>EUR9x21F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E49" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D49)</f>
@@ -12235,15 +12602,15 @@
       </c>
       <c r="H49" s="151">
         <f>SynthFra!G12</f>
-        <v>8.0999999999999996E-4</v>
+        <v>1.7499999999999996E-3</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="133">
-        <v>8.0999999999999996E-4</v>
+        <v>1.7499999999999996E-3</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="125">
-        <v>8.0999999999999996E-4</v>
+        <v>1.7499999999999996E-3</v>
       </c>
       <c r="M49" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(L49,6),EvaluationDate)</f>
@@ -12265,7 +12632,7 @@
       </c>
       <c r="D50" s="157" t="str">
         <f>_xll.qlSimpleQuote(C50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR10x22F_SYNTH1Y_Quote#0001</v>
+        <v>EUR10x22F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E50" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D50)</f>
@@ -12280,15 +12647,15 @@
       </c>
       <c r="H50" s="151">
         <f>SynthFra!G13</f>
-        <v>8.8999999999999973E-4</v>
+        <v>1.83E-3</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="133">
-        <v>8.8999999999999973E-4</v>
+        <v>1.83E-3</v>
       </c>
       <c r="K50" s="19"/>
       <c r="L50" s="125">
-        <v>8.8999999999999973E-4</v>
+        <v>1.83E-3</v>
       </c>
       <c r="M50" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D50,ROUND(L50,6),EvaluationDate)</f>
@@ -12310,7 +12677,7 @@
       </c>
       <c r="D51" s="157" t="str">
         <f>_xll.qlSimpleQuote(C51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR11x23F_SYNTH1Y_Quote#0001</v>
+        <v>EUR11x23F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E51" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D51)</f>
@@ -12325,15 +12692,15 @@
       </c>
       <c r="H51" s="151">
         <f>SynthFra!G14</f>
-        <v>9.6999999999999994E-4</v>
+        <v>1.9199999999999998E-3</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="133">
-        <v>9.6999999999999994E-4</v>
+        <v>1.9199999999999998E-3</v>
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="125">
-        <v>9.6999999999999994E-4</v>
+        <v>1.9199999999999998E-3</v>
       </c>
       <c r="M51" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(L51,6),EvaluationDate)</f>
@@ -12355,7 +12722,7 @@
       </c>
       <c r="D52" s="157" t="str">
         <f>_xll.qlSimpleQuote(C52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR13x25F_SYNTH1Y_Quote#0001</v>
+        <v>EUR13x25F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E52" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D52)</f>
@@ -12370,15 +12737,15 @@
       </c>
       <c r="H52" s="151">
         <f>SynthFra!G16</f>
-        <v>1.2051181763845253E-3</v>
+        <v>2.1517531953002779E-3</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="133">
-        <v>1.2051181763845253E-3</v>
+        <v>2.1517531953002779E-3</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="125">
-        <v>1.2051181763845253E-3</v>
+        <v>2.1517531953002779E-3</v>
       </c>
       <c r="M52" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(L52,6),EvaluationDate)</f>
@@ -12400,7 +12767,7 @@
       </c>
       <c r="D53" s="157" t="str">
         <f>_xll.qlSimpleQuote(C53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR14x26F_SYNTH1Y_Quote#0001</v>
+        <v>EUR14x26F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E53" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D53)</f>
@@ -12415,19 +12782,19 @@
       </c>
       <c r="H53" s="151">
         <f>SynthFra!G17</f>
-        <v>1.3161443528732913E-3</v>
+        <v>2.284267302278127E-3</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="133">
-        <v>1.3161443528732913E-3</v>
+        <v>2.284267302278127E-3</v>
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="125">
-        <v>1.3161443528732913E-3</v>
+        <v>2.284267302278127E-3</v>
       </c>
       <c r="M53" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(L53,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.9999999999998318E-6</v>
       </c>
       <c r="N53" s="108"/>
     </row>
@@ -12445,7 +12812,7 @@
       </c>
       <c r="D54" s="157" t="str">
         <f>_xll.qlSimpleQuote(C54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR15x27F_SYNTH1Y_Quote#0001</v>
+        <v>EUR15x27F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E54" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D54)</f>
@@ -12460,19 +12827,19 @@
       </c>
       <c r="H54" s="151">
         <f>SynthFra!G18</f>
-        <v>1.4669142040804046E-3</v>
+        <v>2.4186588575187814E-3</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="133">
-        <v>1.4669142040804046E-3</v>
+        <v>2.4186588575187814E-3</v>
       </c>
       <c r="K54" s="19"/>
       <c r="L54" s="125">
-        <v>1.4669142040804046E-3</v>
+        <v>2.4186588575187814E-3</v>
       </c>
       <c r="M54" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(L54,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.0000000000001327E-6</v>
       </c>
       <c r="N54" s="108"/>
     </row>
@@ -12490,7 +12857,7 @@
       </c>
       <c r="D55" s="157" t="str">
         <f>_xll.qlSimpleQuote(C55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR16x28F_SYNTH1Y_Quote#0001</v>
+        <v>EUR16x28F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E55" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D55)</f>
@@ -12505,19 +12872,19 @@
       </c>
       <c r="H55" s="151">
         <f>SynthFra!G19</f>
-        <v>1.6049065573168031E-3</v>
+        <v>2.5706199629160769E-3</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="133">
-        <v>1.6049065573168031E-3</v>
+        <v>2.5706199629160769E-3</v>
       </c>
       <c r="K55" s="19"/>
       <c r="L55" s="125">
-        <v>1.6049065573168031E-3</v>
+        <v>2.5706199629160769E-3</v>
       </c>
       <c r="M55" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(L55,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.9999999999998318E-6</v>
       </c>
       <c r="N55" s="108"/>
     </row>
@@ -12535,7 +12902,7 @@
       </c>
       <c r="D56" s="157" t="str">
         <f>_xll.qlSimpleQuote(C56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR17x29F_SYNTH1Y_Quote#0001</v>
+        <v>EUR17x29F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E56" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D56)</f>
@@ -12550,19 +12917,19 @@
       </c>
       <c r="H56" s="151">
         <f>SynthFra!G20</f>
-        <v>1.7595914325525162E-3</v>
+        <v>2.7128984030866865E-3</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="133">
-        <v>1.7595914325525162E-3</v>
+        <v>2.7128984030866865E-3</v>
       </c>
       <c r="K56" s="19"/>
       <c r="L56" s="125">
-        <v>1.7595914325525162E-3</v>
+        <v>2.7128984030866865E-3</v>
       </c>
       <c r="M56" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(L56,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.0000000000001327E-6</v>
       </c>
       <c r="N56" s="108"/>
     </row>
@@ -12580,7 +12947,7 @@
       </c>
       <c r="D57" s="157" t="str">
         <f>_xll.qlSimpleQuote(C57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR18x30F_SYNTH1Y_Quote#0001</v>
+        <v>EUR18x30F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E57" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D57)</f>
@@ -12595,19 +12962,19 @@
       </c>
       <c r="H57" s="151">
         <f>SynthFra!G21</f>
-        <v>1.9210501695985139E-3</v>
+        <v>2.8835488976694783E-3</v>
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="133">
-        <v>1.9210501695985139E-3</v>
+        <v>2.8835488976694783E-3</v>
       </c>
       <c r="K57" s="19"/>
       <c r="L57" s="125">
-        <v>1.9210501695985139E-3</v>
+        <v>2.8835488976694783E-3</v>
       </c>
       <c r="M57" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(L57,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.0000000000001327E-6</v>
       </c>
       <c r="N57" s="108"/>
     </row>
@@ -12625,7 +12992,7 @@
       </c>
       <c r="D58" s="157" t="str">
         <f>_xll.qlSimpleQuote(C58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR19x31F_SYNTH1Y_Quote#0001</v>
+        <v>EUR19x31F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E58" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D58)</f>
@@ -12640,19 +13007,19 @@
       </c>
       <c r="H58" s="151">
         <f>SynthFra!G22</f>
-        <v>2.1116574278541422E-3</v>
+        <v>3.0476134537888167E-3</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="133">
-        <v>2.1116574278541422E-3</v>
+        <v>3.0476134537888167E-3</v>
       </c>
       <c r="K58" s="19"/>
       <c r="L58" s="125">
-        <v>2.1116574278541422E-3</v>
+        <v>3.0476134537888167E-3</v>
       </c>
       <c r="M58" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(L58,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-2.0000000000002655E-6</v>
       </c>
       <c r="N58" s="108"/>
     </row>
@@ -12670,7 +13037,7 @@
       </c>
       <c r="D59" s="157" t="str">
         <f>_xll.qlSimpleQuote(C59,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR20x32F_SYNTH1Y_Quote#0001</v>
+        <v>EUR20x32F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E59" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D59)</f>
@@ -12685,19 +13052,19 @@
       </c>
       <c r="H59" s="151">
         <f>SynthFra!G23</f>
-        <v>2.2855902465298357E-3</v>
+        <v>3.238755932861105E-3</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="133">
-        <v>2.2855902465298357E-3</v>
+        <v>3.238755932861105E-3</v>
       </c>
       <c r="K59" s="19"/>
       <c r="L59" s="125">
-        <v>2.2855902465298357E-3</v>
+        <v>3.238755932861105E-3</v>
       </c>
       <c r="M59" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(L59,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-9.9999999999969905E-7</v>
       </c>
       <c r="N59" s="108"/>
     </row>
@@ -12715,7 +13082,7 @@
       </c>
       <c r="D60" s="157" t="str">
         <f>_xll.qlSimpleQuote(C60,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR21x33F_SYNTH1Y_Quote#0001</v>
+        <v>EUR21x33F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E60" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D60)</f>
@@ -12730,19 +13097,19 @@
       </c>
       <c r="H60" s="151">
         <f>SynthFra!G24</f>
-        <v>2.4876279262346168E-3</v>
+        <v>3.4281888904609242E-3</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="133">
-        <v>2.4876279262346168E-3</v>
+        <v>3.4281888904609242E-3</v>
       </c>
       <c r="K60" s="19"/>
       <c r="L60" s="125">
-        <v>2.4876279262346168E-3</v>
+        <v>3.4281888904609242E-3</v>
       </c>
       <c r="M60" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(L60,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-1.0000000000001327E-6</v>
       </c>
       <c r="N60" s="108"/>
     </row>
@@ -12760,7 +13127,7 @@
       </c>
       <c r="D61" s="157" t="str">
         <f>_xll.qlSimpleQuote(C61,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR22x34F_SYNTH1Y_Quote#0001</v>
+        <v>EUR22x34F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E61" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D61)</f>
@@ -12775,15 +13142,15 @@
       </c>
       <c r="H61" s="151">
         <f>SynthFra!G25</f>
-        <v>2.7027822671510243E-3</v>
+        <v>3.6255904080987863E-3</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="133">
-        <v>2.7027822671510243E-3</v>
+        <v>3.6255904080987863E-3</v>
       </c>
       <c r="K61" s="19"/>
       <c r="L61" s="125">
-        <v>2.7027822671510243E-3</v>
+        <v>3.6255904080987863E-3</v>
       </c>
       <c r="M61" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(L61,6),EvaluationDate)</f>
@@ -12805,7 +13172,7 @@
       </c>
       <c r="D62" s="157" t="str">
         <f>_xll.qlSimpleQuote(C62,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR23x35F_SYNTH1Y_Quote#0001</v>
+        <v>EUR23x35F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E62" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D62)</f>
@@ -12820,19 +13187,19 @@
       </c>
       <c r="H62" s="151">
         <f>SynthFra!G26</f>
-        <v>2.9030657463892801E-3</v>
+        <v>3.8516237544132912E-3</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="133">
-        <v>2.9030657463892801E-3</v>
+        <v>3.8516237544132912E-3</v>
       </c>
       <c r="K62" s="19"/>
       <c r="L62" s="125">
-        <v>2.9030657463892801E-3</v>
+        <v>3.8516237544132912E-3</v>
       </c>
       <c r="M62" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(L62,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>1.0000000000001327E-6</v>
       </c>
       <c r="N62" s="108"/>
     </row>
@@ -12850,7 +13217,7 @@
       </c>
       <c r="D63" s="159" t="str">
         <f>_xll.qlSimpleQuote(C63,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR24x36F_SYNTH1Y_Quote#0001</v>
+        <v>EUR24x36F_SYNTH1Y_Quote#0002</v>
       </c>
       <c r="E63" s="162" t="str">
         <f>_xll.ohRangeRetrieveError(D63)</f>
@@ -12865,15 +13232,15 @@
       </c>
       <c r="H63" s="153">
         <f>SynthFra!G27</f>
-        <v>3.13E-3</v>
+        <v>4.0500000000000006E-3</v>
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="134">
-        <v>3.13E-3</v>
+        <v>4.0500000000000006E-3</v>
       </c>
       <c r="K63" s="19"/>
       <c r="L63" s="127">
-        <v>3.13E-3</v>
+        <v>4.0500000000000006E-3</v>
       </c>
       <c r="M63" s="128">
         <f>_xll.qlSimpleQuoteSetValue(D63,ROUND(L63,6),EvaluationDate)</f>

--- a/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_SynthQuotesFeed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19065" yWindow="-15" windowWidth="19110" windowHeight="12810" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="19065" yWindow="-15" windowWidth="19110" windowHeight="12810" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="29" r:id="rId1"/>
@@ -2035,12 +2035,12 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D19" s="25" t="str">
         <f>_xll.qlInterpolation(,BasisInterpolation,'1YSynthDepo'!E5:E17,'1YSynthDepo'!I5:I17)</f>
-        <v>obj_0059e#0002</v>
+        <v>obj_00966#0000</v>
       </c>
       <c r="E19" s="209"/>
       <c r="G19" s="222"/>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="I19" s="34">
         <f>[1]!TriggerCounter</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="108"/>
     </row>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="I20" s="35">
         <f>[1]!LastFixingsTrigger</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="108"/>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D28" s="36" t="str">
         <f>_xll.qlEuribor(,"1M",D34,,Trigger)</f>
-        <v>obj_0048f#0002</v>
+        <v>obj_0048f#0001</v>
       </c>
       <c r="E28" s="209"/>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="D34" s="52" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,2,Calendar,_xll.ohPack('1MSynthDepo'!G13:G21),"actual/365",,,,D31,D32,,Trigger)</f>
-        <v>obj_0048e#0002</v>
+        <v>obj_0048e#0001</v>
       </c>
       <c r="E34" s="209"/>
     </row>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="D38" s="38">
         <f>_xll.qlYieldTSDiscount(D34,C38,,Trigger)</f>
-        <v>1.0007402016501707</v>
+        <v>1.0007402015043523</v>
       </c>
       <c r="E38" s="226"/>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="K3" s="307" t="str">
         <f>_xll.qlDepositRateHelper(,J3,K1,,Trigger)</f>
-        <v>obj_00467#0002</v>
+        <v>obj_00485#0001</v>
       </c>
       <c r="L3" s="306" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -3408,7 +3408,7 @@
       <c r="V3" s="236"/>
       <c r="W3" s="187">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R3,Trigger)</f>
-        <v>2.6999999976827808E-4</v>
+        <v>2.7000000000292914E-4</v>
       </c>
       <c r="X3" s="236"/>
       <c r="Y3" s="236"/>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="AA3" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R3,,AllTriggers)</f>
-        <v>1.0000063889195219</v>
+        <v>1.0000063889195221</v>
       </c>
       <c r="AB3" s="254"/>
       <c r="AD3" s="274" t="s">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="AE3" s="187" t="str">
         <f>_xll.qlIborIndex(,,S1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_0044c#0002</v>
+        <v>obj_0044c#0001</v>
       </c>
       <c r="AF3" s="54"/>
       <c r="AG3" s="54"/>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="K4" s="155" t="str">
         <f>_xll.qlSwapRateHelper2(,$J4,,C4,Calendar,$F4,$G4,$H4,$K$1,$I4,B4,Discounting,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0044b#0002</v>
+        <v>obj_0044b#0001</v>
       </c>
       <c r="L4" s="306" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -3499,15 +3499,15 @@
       </c>
       <c r="U4" s="187">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R4),,AllTriggers)</f>
-        <v>-1.3999999997693635E-3</v>
+        <v>-1.4000000000040146E-3</v>
       </c>
       <c r="V4" s="255">
         <f>T4-U4</f>
-        <v>2.6999999976936358E-4</v>
+        <v>2.7000000000401464E-4</v>
       </c>
       <c r="W4" s="183">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R4,Trigger)</f>
-        <v>2.6999999976827808E-4</v>
+        <v>2.7000000000292914E-4</v>
       </c>
       <c r="X4" s="184">
         <f>Y4*10000</f>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="AA4" s="333">
         <f>_xll.qlYieldTSDiscount(Discounting,R4,,AllTriggers)</f>
-        <v>1.0000063889195219</v>
+        <v>1.0000063889195221</v>
       </c>
       <c r="AB4" s="238" t="b">
         <v>0</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="K5" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,,C5,Calendar,$F5,$G5,$H5,$K$1,$I5,B5,Discounting,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0044a#0002</v>
+        <v>obj_00448#0001</v>
       </c>
       <c r="L5" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -3602,15 +3602,15 @@
       </c>
       <c r="U5" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R5),,AllTriggers)</f>
-        <v>-1.3999999997693635E-3</v>
+        <v>-1.4000000000040146E-3</v>
       </c>
       <c r="V5" s="262">
         <f>T5-U5</f>
-        <v>2.6999999976827808E-4</v>
+        <v>2.7000000000292914E-4</v>
       </c>
       <c r="W5" s="67">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R5,Trigger)</f>
-        <v>2.6999999976827808E-4</v>
+        <v>2.7000000000292914E-4</v>
       </c>
       <c r="X5" s="237">
         <f>Y5*10000</f>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="AA5" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R5,,AllTriggers)</f>
-        <v>1.0000063889195219</v>
+        <v>1.0000063889195221</v>
       </c>
       <c r="AB5" s="238" t="b">
         <v>1</v>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="K6" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,,C6,Calendar,$F6,$G6,$H6,$K$1,$I6,B6,Discounting,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00449#0002</v>
+        <v>obj_0044a#0001</v>
       </c>
       <c r="L6" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -3707,15 +3707,15 @@
       </c>
       <c r="U6" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R6),,AllTriggers)</f>
-        <v>-1.501847722991112E-3</v>
+        <v>-1.5018477227486393E-3</v>
       </c>
       <c r="V6" s="262">
         <f>T6-U6</f>
-        <v>2.7003491819943548E-4</v>
+        <v>2.7003491795696277E-4</v>
       </c>
       <c r="W6" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R6,Trigger)</f>
-        <v>2.7003491819943548E-4</v>
+        <v>2.7003491795696283E-4</v>
       </c>
       <c r="X6" s="185">
         <f t="shared" ref="X6:X8" si="1">Y6*10000</f>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="AA6" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R6,,AllTriggers)</f>
-        <v>1.0001269597807645</v>
+        <v>1.0001269597807849</v>
       </c>
       <c r="AB6" s="234" t="b">
         <v>1</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="AE6" s="279" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($Z$5:$Z$8,$AB$5:$AB$8),_xll.ohFilter($V$5:$V$8,$AB$5:$AB$8),_xll.ohFilter($AA$5:$AA$8,$AB$5:$AB$8),_xll.ohFilter(AG13:AG17,AF13:AF17),,,,,Trigger)</f>
-        <v>obj_0059c#0002</v>
+        <v>obj_00962#0000</v>
       </c>
       <c r="AF6" s="54"/>
       <c r="AG6" s="55"/>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="K7" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,,C7,Calendar,$F7,$G7,$H7,$K$1,$I7,B7,Discounting,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00448#0002</v>
+        <v>obj_00447#0001</v>
       </c>
       <c r="L7" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -3811,19 +3811,19 @@
       </c>
       <c r="T7" s="62">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R7,Trigger),TRUE,AllTriggers)</f>
-        <v>-1.1802784638134415E-3</v>
+        <v>-1.1802817101184845E-3</v>
       </c>
       <c r="U7" s="62">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R7),,AllTriggers)</f>
-        <v>-1.3927059087363732E-3</v>
+        <v>-1.4089419477223623E-3</v>
       </c>
       <c r="V7" s="262">
         <f>T7-U7</f>
-        <v>2.1242744492293167E-4</v>
+        <v>2.2866023760387787E-4</v>
       </c>
       <c r="W7" s="62">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R7,Trigger)</f>
-        <v>2.1242744492293156E-4</v>
+        <v>2.2866023760387787E-4</v>
       </c>
       <c r="X7" s="185">
         <f t="shared" si="1"/>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="AA7" s="59">
         <f>_xll.qlYieldTSDiscount(Discounting,R7,,AllTriggers)</f>
-        <v>1.0002521453146693</v>
+        <v>1.0002521453146695</v>
       </c>
       <c r="AB7" s="234" t="b">
         <v>1</v>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="K8" s="157" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,,C8,Calendar,$F8,$G8,$H8,$K$1,$I8,B8,Discounting,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00446#0002</v>
+        <v>obj_00449#0001</v>
       </c>
       <c r="L8" s="199" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -3919,19 +3919,19 @@
       </c>
       <c r="T8" s="65">
         <f>_xll.qlIndexFixing(iborindex1M,_xll.qlInterestRateIndexFixingDate(iborindex1M,R8,Trigger),TRUE,AllTriggers)</f>
-        <v>-1.30825497960518E-3</v>
+        <v>-1.3082474716767075E-3</v>
       </c>
       <c r="U8" s="65">
         <f>_xll.qlIndexFixing(ON_1M_index,_xll.qlInterestRateIndexFixingDate(ON_1M_index,R8),,AllTriggers)</f>
-        <v>-1.6807117566641056E-3</v>
+        <v>-1.6550023715929342E-3</v>
       </c>
       <c r="V8" s="257">
         <f>T8-U8</f>
-        <v>3.7245677705892563E-4</v>
+        <v>3.4675489991622672E-4</v>
       </c>
       <c r="W8" s="65">
         <f>_xll.qlTenorBasisValue(TenorBasis1M,R8,Trigger)</f>
-        <v>3.7245677705892563E-4</v>
+        <v>3.4675489991622661E-4</v>
       </c>
       <c r="X8" s="186">
         <f t="shared" si="1"/>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="AA8" s="60">
         <f>_xll.qlYieldTSDiscount(Discounting,R8,,AllTriggers)</f>
-        <v>1.000379858517497</v>
+        <v>1.0003813475787324</v>
       </c>
       <c r="AB8" s="235" t="b">
         <v>1</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="K9" s="159" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,,C9,Calendar,$F9,$G9,$H9,$K$1,$I9,B9,Discounting,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00447#0002</v>
+        <v>obj_00446#0001</v>
       </c>
       <c r="L9" s="200" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="AE9" s="187">
         <f>_xll.qlPolynomialCalibrationError(AE6,)</f>
-        <v>6.2598344377647085E-20</v>
+        <v>6.9989803742772989E-20</v>
       </c>
       <c r="AF9" s="54"/>
       <c r="AG9" s="55"/>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="V11" s="284">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T11,U11,AllTriggers)</f>
-        <v>-1.1818933969509615E-3</v>
+        <v>-1.1460180260103314E-3</v>
       </c>
       <c r="AD11" s="54"/>
       <c r="AE11" s="54"/>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="V12" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T12,U12,AllTriggers)</f>
-        <v>-1.2193612458258737E-3</v>
+        <v>-1.2041417597030701E-3</v>
       </c>
       <c r="AD12" s="258" t="s">
         <v>111</v>
@@ -4124,7 +4124,7 @@
     <row r="13" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G13" s="306" t="str">
         <f t="array" ref="G13:G19">_xll.ohFilter(K3:K9,M3:M9)</f>
-        <v>obj_00467#0002</v>
+        <v>obj_00485#0001</v>
       </c>
       <c r="H13" s="190" t="str">
         <f>_xll.qlRateHelperQuoteName(G13,Trigger)</f>
@@ -4162,14 +4162,14 @@
       </c>
       <c r="V13" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T13,U13,AllTriggers)</f>
-        <v>-1.1962377503417696E-3</v>
+        <v>-1.1873380266980149E-3</v>
       </c>
       <c r="AD13" s="274" t="s">
         <v>113</v>
       </c>
       <c r="AE13" s="187">
         <f t="array" ref="AE13:AE17">_xll.qlPolynomialCalibrationCoefficients($AE$6,AE7)</f>
-        <v>2.6999999976827808E-4</v>
+        <v>2.7000000000292914E-4</v>
       </c>
       <c r="AF13" s="187" t="b">
         <v>1</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G14" s="199" t="str">
-        <v>obj_0044b#0002</v>
+        <v>obj_0044b#0001</v>
       </c>
       <c r="H14" s="190" t="str">
         <f>_xll.qlRateHelperQuoteName(G14,Trigger)</f>
@@ -4218,13 +4218,13 @@
       </c>
       <c r="V14" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T14,U14,AllTriggers)</f>
-        <v>-1.1792565643663011E-3</v>
+        <v>-1.1750022293981793E-3</v>
       </c>
       <c r="AD14" s="274" t="s">
         <v>114</v>
       </c>
       <c r="AE14" s="187">
-        <v>1.3770972945503928E-3</v>
+        <v>1.0004244723611562E-3</v>
       </c>
       <c r="AF14" s="187" t="b">
         <v>1</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="15" spans="1:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G15" s="199" t="str">
-        <v>obj_0044a#0002</v>
+        <v>obj_00448#0001</v>
       </c>
       <c r="H15" s="190" t="str">
         <f>_xll.qlRateHelperQuoteName(G15,Trigger)</f>
@@ -4258,7 +4258,7 @@
         <v>42373</v>
       </c>
       <c r="M15" s="193">
-        <v>1.0003082121594198</v>
+        <v>1.0003082124571216</v>
       </c>
       <c r="S15" s="264" t="s">
         <v>35</v>
@@ -4273,13 +4273,13 @@
       </c>
       <c r="V15" s="335">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis1M,T15,U15,AllTriggers)</f>
-        <v>-1.1341642445812157E-3</v>
+        <v>-1.1340445794298794E-3</v>
       </c>
       <c r="AD15" s="274" t="s">
         <v>115</v>
       </c>
       <c r="AE15" s="187">
-        <v>-2.2314363769644938E-2</v>
+        <v>-1.6226047828567951E-2</v>
       </c>
       <c r="AF15" s="187" t="b">
         <v>1</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="16" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="199" t="str">
-        <v>obj_00449#0002</v>
+        <v>obj_0044a#0001</v>
       </c>
       <c r="H16" s="190" t="str">
         <f>_xll.qlRateHelperQuoteName(G16,Trigger)</f>
@@ -4313,13 +4313,13 @@
         <v>42402</v>
       </c>
       <c r="M16" s="193">
-        <v>1.0004136029847832</v>
+        <v>1.000413602641385</v>
       </c>
       <c r="AD16" s="274" t="s">
         <v>116</v>
       </c>
       <c r="AE16" s="187">
-        <v>7.188138671126991E-2</v>
+        <v>5.2415144374589974E-2</v>
       </c>
       <c r="AF16" s="187" t="b">
         <v>1</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="17" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="199" t="str">
-        <v>obj_00448#0002</v>
+        <v>obj_00447#0001</v>
       </c>
       <c r="H17" s="190" t="str">
         <f>_xll.qlRateHelperQuoteName(G17,Trigger)</f>
@@ -4353,7 +4353,7 @@
         <v>42431</v>
       </c>
       <c r="M17" s="193">
-        <v>1.000519630516616</v>
+        <v>1.0005196300901624</v>
       </c>
       <c r="AD17" s="274" t="s">
         <v>117</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="18" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="199" t="str">
-        <v>obj_00446#0002</v>
+        <v>obj_00449#0001</v>
       </c>
       <c r="H18" s="190" t="str">
         <f>_xll.qlRateHelperQuoteName(G18,Trigger)</f>
@@ -4393,21 +4393,21 @@
         <v>42464</v>
       </c>
       <c r="M18" s="193">
-        <v>1.0006376760091424</v>
+        <v>1.0006376761307179</v>
       </c>
       <c r="AD18" s="274" t="s">
         <v>118</v>
       </c>
       <c r="AE18" s="187" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$S1,Discounting,SettlementDate,TRUE,_xll.ohFilter(AE13:AE17,AF13:AF17),,Trigger)</f>
-        <v>obj_005a1#0002</v>
+        <v>obj_00967#0000</v>
       </c>
       <c r="AF18" s="54"/>
       <c r="AG18" s="55"/>
     </row>
     <row r="19" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="200" t="str">
-        <v>obj_00447#0002</v>
+        <v>obj_00446#0001</v>
       </c>
       <c r="H19" s="194" t="str">
         <f>_xll.qlRateHelperQuoteName(G19,Trigger)</f>
@@ -4430,7 +4430,7 @@
         <v>42492</v>
       </c>
       <c r="M19" s="197">
-        <v>1.0007402016501707</v>
+        <v>1.0007402015043523</v>
       </c>
       <c r="X19" s="54"/>
       <c r="Y19" s="54"/>
@@ -4609,13 +4609,13 @@
       </c>
       <c r="G3" s="255">
         <f>J3+$H$4</f>
-        <v>-4.2126914632234437E-4</v>
+        <v>-4.3065449681137778E-4</v>
       </c>
       <c r="H3" s="236"/>
       <c r="I3" s="236"/>
       <c r="J3" s="187">
         <f>_xll.qlTenorBasisValue($R$19,E3,Trigger)</f>
-        <v>1.0084968435163785E-3</v>
+        <v>1.0048099786239312E-3</v>
       </c>
       <c r="K3" s="236"/>
       <c r="L3" s="280">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="R3" s="187" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_0044f#0012</v>
+        <v>obj_0044f#0001</v>
       </c>
       <c r="X3" s="57"/>
     </row>
@@ -4663,19 +4663,19 @@
       </c>
       <c r="H4" s="187">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E4),,AllTriggers)</f>
-        <v>-1.4297659898387229E-3</v>
+        <v>-1.435464475435309E-3</v>
       </c>
       <c r="I4" s="255">
         <f t="shared" ref="I4:I28" si="0">G4-H4</f>
-        <v>1.0297659898387229E-3</v>
+        <v>1.035464475435309E-3</v>
       </c>
       <c r="J4" s="183">
         <f>_xll.qlTenorBasisValue($R$19,E4,Trigger)</f>
-        <v>1.0084968435163785E-3</v>
+        <v>1.0048099786239312E-3</v>
       </c>
       <c r="K4" s="184">
         <f>M4*10000</f>
-        <v>0.21269146322344407</v>
+        <v>0.30654496811377813</v>
       </c>
       <c r="L4" s="281">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -4683,11 +4683,11 @@
       </c>
       <c r="M4" s="275">
         <f t="shared" ref="M4:M28" si="1">I4-J4</f>
-        <v>2.1269146322344407E-5</v>
+        <v>3.0654496811377812E-5</v>
       </c>
       <c r="N4" s="278">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000063889195219</v>
+        <v>1.0000063889195221</v>
       </c>
       <c r="O4" s="233" t="b">
         <v>0</v>
@@ -4723,19 +4723,19 @@
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E5),,AllTriggers)</f>
-        <v>-1.5186614339271127E-3</v>
+        <v>-1.5163475713998792E-3</v>
       </c>
       <c r="I5" s="277">
         <f t="shared" si="0"/>
-        <v>1.0586614339271128E-3</v>
+        <v>1.0563475713998793E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$19,E5,Trigger)</f>
-        <v>1.058319505105145E-3</v>
+        <v>1.0555129542814223E-3</v>
       </c>
       <c r="K5" s="237">
         <f t="shared" ref="K5:K28" si="4">M5*10000</f>
-        <v>3.4192882196774563E-3</v>
+        <v>8.3461711845693454E-3</v>
       </c>
       <c r="L5" s="282">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
@@ -4743,11 +4743,11 @@
       </c>
       <c r="M5" s="276">
         <f t="shared" si="1"/>
-        <v>3.4192882196774563E-7</v>
+        <v>8.3461711845693454E-7</v>
       </c>
       <c r="N5" s="180">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001269597807645</v>
+        <v>1.0001269597807849</v>
       </c>
       <c r="O5" s="238" t="b">
         <v>1</v>
@@ -4788,19 +4788,19 @@
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E6),,AllTriggers)</f>
-        <v>-1.5741704349917715E-3</v>
+        <v>-1.5710374520171812E-3</v>
       </c>
       <c r="I6" s="262">
         <f t="shared" si="0"/>
-        <v>1.0841704349917715E-3</v>
+        <v>1.0810374520171813E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E6,Trigger)</f>
-        <v>1.1018726334625563E-3</v>
+        <v>1.0997851110479534E-3</v>
       </c>
       <c r="K6" s="185">
         <f t="shared" si="4"/>
-        <v>-0.17702198470784811</v>
+        <v>-0.18747659030772176</v>
       </c>
       <c r="L6" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
@@ -4808,11 +4808,11 @@
       </c>
       <c r="M6" s="231">
         <f t="shared" si="1"/>
-        <v>-1.7702198470784811E-5</v>
+        <v>-1.8747659030772176E-5</v>
       </c>
       <c r="N6" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002521453146693</v>
+        <v>1.0002521453146695</v>
       </c>
       <c r="O6" s="234" t="b">
         <v>1</v>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="R6" s="279" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$28,$O$4:$O$28),_xll.ohFilter($I$4:$I$28,$O$4:$O$28),_xll.ohFilter($N$4:$N$28,$O$4:$O$28),_xll.ohFilter(T14:T18,S14:S18),,,,,Trigger)</f>
-        <v>obj_0059f#0014</v>
+        <v>obj_00963#0000</v>
       </c>
       <c r="T6" s="55"/>
       <c r="X6" s="57"/>
@@ -4857,19 +4857,19 @@
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E7),,AllTriggers)</f>
-        <v>-1.6889836863753173E-3</v>
+        <v>-1.6841354952182096E-3</v>
       </c>
       <c r="I7" s="262">
         <f t="shared" si="0"/>
-        <v>1.1589836863753174E-3</v>
+        <v>1.1541354952182095E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E7,Trigger)</f>
-        <v>1.1448276293711834E-3</v>
+        <v>1.1433918695901739E-3</v>
       </c>
       <c r="K7" s="185">
         <f t="shared" si="4"/>
-        <v>0.14156057004134029</v>
+        <v>0.10743625628035613</v>
       </c>
       <c r="L7" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -4877,11 +4877,11 @@
       </c>
       <c r="M7" s="231">
         <f t="shared" si="1"/>
-        <v>1.415605700413403E-5</v>
+        <v>1.0743625628035613E-5</v>
       </c>
       <c r="N7" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.000379858517497</v>
+        <v>1.0003813475787324</v>
       </c>
       <c r="O7" s="234" t="b">
         <v>1</v>
@@ -4926,19 +4926,19 @@
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E8),,AllTriggers)</f>
-        <v>-1.7231792205825158E-3</v>
+        <v>-1.7249171019897425E-3</v>
       </c>
       <c r="I8" s="262">
         <f t="shared" si="0"/>
-        <v>1.1731792205825157E-3</v>
+        <v>1.1749171019897423E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E8,Trigger)</f>
-        <v>1.1785826014393305E-3</v>
+        <v>1.1776092334487846E-3</v>
       </c>
       <c r="K8" s="185">
         <f t="shared" si="4"/>
-        <v>-5.4033808568147976E-2</v>
+        <v>-2.6921314590423219E-2</v>
       </c>
       <c r="L8" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -4946,11 +4946,11 @@
       </c>
       <c r="M8" s="231">
         <f t="shared" si="1"/>
-        <v>-5.4033808568147972E-6</v>
+        <v>-2.6921314590423219E-6</v>
       </c>
       <c r="N8" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0005152621216613</v>
+        <v>1.000514670267223</v>
       </c>
       <c r="O8" s="234" t="b">
         <v>1</v>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="R8" s="279" t="str">
         <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>StationaryFunctionValue</v>
+        <v>None</v>
       </c>
       <c r="T8" s="55"/>
       <c r="X8" s="57"/>
@@ -4995,19 +4995,19 @@
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E9),,AllTriggers)</f>
-        <v>-1.7770579331012194E-3</v>
+        <v>-1.7796168682845345E-3</v>
       </c>
       <c r="I9" s="262">
         <f t="shared" si="0"/>
-        <v>1.2070579331012194E-3</v>
+        <v>1.2096168682845345E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E9,Trigger)</f>
-        <v>1.2088707247650339E-3</v>
+        <v>1.2082657429389144E-3</v>
       </c>
       <c r="K9" s="185">
         <f t="shared" si="4"/>
-        <v>-1.8127916638144888E-2</v>
+        <v>1.3511253456200811E-2</v>
       </c>
       <c r="L9" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
@@ -5015,11 +5015,11 @@
       </c>
       <c r="M9" s="231">
         <f t="shared" si="1"/>
-        <v>-1.8127916638144888E-6</v>
+        <v>1.3511253456200811E-6</v>
       </c>
       <c r="N9" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0006503193911085</v>
+        <v>1.0006495266127844</v>
       </c>
       <c r="O9" s="234" t="b">
         <v>1</v>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="R9" s="187">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>9.1655900618315892E-6</v>
+        <v>1.4475958199607042E-4</v>
       </c>
       <c r="T9" s="55"/>
       <c r="X9" s="57"/>
@@ -5064,19 +5064,19 @@
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E10),,AllTriggers)</f>
-        <v>-1.8442645914370174E-3</v>
+        <v>-1.8433021946927422E-3</v>
       </c>
       <c r="I10" s="262">
         <f t="shared" si="0"/>
-        <v>1.2442645914370176E-3</v>
+        <v>1.2433021946927423E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E10,Trigger)</f>
-        <v>1.239446473618301E-3</v>
+        <v>1.2391575839204338E-3</v>
       </c>
       <c r="K10" s="185">
         <f t="shared" si="4"/>
-        <v>4.8181178187165552E-2</v>
+        <v>4.1446107723085768E-2</v>
       </c>
       <c r="L10" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
@@ -5084,11 +5084,11 @@
       </c>
       <c r="M10" s="231">
         <f t="shared" si="1"/>
-        <v>4.8181178187165549E-6</v>
+        <v>4.1446107723085764E-6</v>
       </c>
       <c r="N10" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0008071406590917</v>
+        <v>1.0008074033279986</v>
       </c>
       <c r="O10" s="234" t="b">
         <v>1</v>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="R10" s="187">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>2.4259521209725118E-5</v>
+        <v>2.4522341044038842E-5</v>
       </c>
       <c r="T10" s="55"/>
       <c r="X10" s="57"/>
@@ -5133,19 +5133,19 @@
       </c>
       <c r="H11" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E11),,AllTriggers)</f>
-        <v>-1.8909719771031954E-3</v>
+        <v>-1.8911061142376387E-3</v>
       </c>
       <c r="I11" s="262">
         <f t="shared" ref="I11:I16" si="8">G11-H11</f>
-        <v>1.2709719771031953E-3</v>
+        <v>1.2711061142376386E-3</v>
       </c>
       <c r="J11" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E11,Trigger)</f>
-        <v>1.2624121526341988E-3</v>
+        <v>1.2623146723556001E-3</v>
       </c>
       <c r="K11" s="185">
         <f t="shared" ref="K11:K16" si="9">M11*10000</f>
-        <v>8.5598244689965436E-2</v>
+        <v>8.7914418820385198E-2</v>
       </c>
       <c r="L11" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
@@ -5153,11 +5153,11 @@
       </c>
       <c r="M11" s="231">
         <f t="shared" ref="M11:M16" si="10">I11-J11</f>
-        <v>8.5598244689965436E-6</v>
+        <v>8.7914418820385191E-6</v>
       </c>
       <c r="N11" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0009464646588653</v>
+        <v>1.000946307618269</v>
       </c>
       <c r="O11" s="234" t="b">
         <v>1</v>
@@ -5195,19 +5195,19 @@
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E12),,AllTriggers)</f>
-        <v>-1.9308440846384043E-3</v>
+        <v>-1.9308031098183456E-3</v>
       </c>
       <c r="I12" s="262">
         <f t="shared" si="8"/>
-        <v>1.2808440846384043E-3</v>
+        <v>1.2808031098183457E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E12,Trigger)</f>
-        <v>1.2849457168812727E-3</v>
+        <v>1.2849880855160395E-3</v>
       </c>
       <c r="K12" s="185">
         <f t="shared" si="9"/>
-        <v>-4.1016322428683638E-2</v>
+        <v>-4.1849756976938213E-2</v>
       </c>
       <c r="L12" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
@@ -5215,11 +5215,11 @@
       </c>
       <c r="M12" s="231">
         <f t="shared" si="10"/>
-        <v>-4.1016322428683635E-6</v>
+        <v>-4.1849756976938216E-6</v>
       </c>
       <c r="N12" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0011049582208984</v>
+        <v>1.0011048200524264</v>
       </c>
       <c r="O12" s="234" t="b">
         <v>1</v>
@@ -5257,19 +5257,19 @@
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E13),,AllTriggers)</f>
-        <v>-1.9608274772662539E-3</v>
+        <v>-1.9607248886960066E-3</v>
       </c>
       <c r="I13" s="262">
         <f t="shared" si="8"/>
-        <v>1.3108274772662539E-3</v>
+        <v>1.3107248886960066E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E13,Trigger)</f>
-        <v>1.3053399541220734E-3</v>
+        <v>1.3054583243614099E-3</v>
       </c>
       <c r="K13" s="185">
         <f t="shared" si="9"/>
-        <v>5.4875231441805193E-2</v>
+        <v>5.2665643345967128E-2</v>
       </c>
       <c r="L13" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
@@ -5277,11 +5277,11 @@
       </c>
       <c r="M13" s="231">
         <f t="shared" si="10"/>
-        <v>5.4875231441805193E-6</v>
+        <v>5.2665643345967128E-6</v>
       </c>
       <c r="N13" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0012739236534773</v>
+        <v>1.0012739427488606</v>
       </c>
       <c r="O13" s="234" t="b">
         <v>1</v>
@@ -5328,19 +5328,19 @@
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E14),,AllTriggers)</f>
-        <v>-1.9752694976449756E-3</v>
+        <v>-1.9752111840948996E-3</v>
       </c>
       <c r="I14" s="262">
         <f t="shared" si="8"/>
-        <v>1.3252694976449756E-3</v>
+        <v>1.3252111840948997E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E14,Trigger)</f>
-        <v>1.3215930714413641E-3</v>
+        <v>1.3217301628528893E-3</v>
       </c>
       <c r="K14" s="185">
         <f t="shared" si="9"/>
-        <v>3.6764262036114492E-2</v>
+        <v>3.4810212420103778E-2</v>
       </c>
       <c r="L14" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
@@ -5348,11 +5348,11 @@
       </c>
       <c r="M14" s="231">
         <f t="shared" si="10"/>
-        <v>3.6764262036114489E-6</v>
+        <v>3.4810212420103778E-6</v>
       </c>
       <c r="N14" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0014304042935918</v>
+        <v>1.0014302815221856</v>
       </c>
       <c r="O14" s="234" t="b">
         <v>1</v>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="R14" s="187">
         <f t="array" ref="R14:R18">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>1.0084968435163785E-3</v>
+        <v>1.0048099786239312E-3</v>
       </c>
       <c r="S14" s="187" t="b">
         <v>1</v>
@@ -5402,19 +5402,19 @@
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E15),,AllTriggers)</f>
-        <v>-1.9755242991646152E-3</v>
+        <v>-1.975420859333409E-3</v>
       </c>
       <c r="I15" s="262">
         <f t="shared" si="8"/>
-        <v>1.3355242991646152E-3</v>
+        <v>1.335420859333409E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E15,Trigger)</f>
-        <v>1.3369238560283403E-3</v>
+        <v>1.3370385579516409E-3</v>
       </c>
       <c r="K15" s="185">
         <f t="shared" si="9"/>
-        <v>-1.3995568637250721E-2</v>
+        <v>-1.6176986182318224E-2</v>
       </c>
       <c r="L15" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="M15" s="231">
         <f t="shared" si="10"/>
-        <v>-1.3995568637250721E-6</v>
+        <v>-1.6176986182318224E-6</v>
       </c>
       <c r="N15" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0015991852523043</v>
+        <v>1.0015990365223564</v>
       </c>
       <c r="O15" s="234" t="b">
         <v>1</v>
@@ -5435,7 +5435,7 @@
         <v>114</v>
       </c>
       <c r="R15" s="187">
-        <v>6.1666170543504557E-4</v>
+        <v>6.2789003142326772E-4</v>
       </c>
       <c r="S15" s="187" t="b">
         <v>1</v>
@@ -5475,19 +5475,19 @@
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E16),,AllTriggers)</f>
-        <v>-1.9424117584394167E-3</v>
+        <v>-1.9424418537235075E-3</v>
       </c>
       <c r="I16" s="262">
         <f t="shared" si="8"/>
-        <v>1.3524117584394167E-3</v>
+        <v>1.3524418537235075E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E16,Trigger)</f>
-        <v>1.3504505330253014E-3</v>
+        <v>1.3505095922477302E-3</v>
       </c>
       <c r="K16" s="185">
         <f t="shared" si="9"/>
-        <v>1.9612254141153015E-2</v>
+        <v>1.9322614757772902E-2</v>
       </c>
       <c r="L16" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
@@ -5495,11 +5495,11 @@
       </c>
       <c r="M16" s="231">
         <f t="shared" si="10"/>
-        <v>1.9612254141153015E-6</v>
+        <v>1.9322614757772902E-6</v>
       </c>
       <c r="N16" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0017703617001901</v>
+        <v>1.0017703535801519</v>
       </c>
       <c r="O16" s="234" t="b">
         <v>1</v>
@@ -5508,7 +5508,7 @@
         <v>115</v>
       </c>
       <c r="R16" s="187">
-        <v>-3.6095213007046188E-4</v>
+        <v>-3.7136663625851667E-4</v>
       </c>
       <c r="S16" s="187" t="b">
         <v>1</v>
@@ -5545,19 +5545,19 @@
       </c>
       <c r="H17" s="67">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E17),,AllTriggers)</f>
-        <v>-1.4730746465816693E-3</v>
+        <v>-1.4750505523502377E-3</v>
       </c>
       <c r="I17" s="277">
         <f t="shared" si="0"/>
-        <v>1.0480746465815496E-3</v>
+        <v>1.050050552350118E-3</v>
       </c>
       <c r="J17" s="67">
         <f>_xll.qlTenorBasisValue($R$19,E17,Trigger)</f>
-        <v>1.0396310180147323E-3</v>
+        <v>1.0365008353202495E-3</v>
       </c>
       <c r="K17" s="237">
         <f t="shared" si="4"/>
-        <v>8.4436285668172073E-2</v>
+        <v>0.13549717029868491</v>
       </c>
       <c r="L17" s="282">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
@@ -5565,11 +5565,11 @@
       </c>
       <c r="M17" s="276">
         <f t="shared" si="1"/>
-        <v>8.4436285668172077E-6</v>
+        <v>1.3549717029868492E-5</v>
       </c>
       <c r="N17" s="180">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0000818852243938</v>
+        <v>1.0000818957354036</v>
       </c>
       <c r="O17" s="238" t="b">
         <v>1</v>
@@ -5578,7 +5578,7 @@
         <v>116</v>
       </c>
       <c r="R17" s="187">
-        <v>8.5419754614082691E-5</v>
+        <v>8.8356242109586657E-5</v>
       </c>
       <c r="S17" s="187" t="b">
         <v>1</v>
@@ -5615,19 +5615,19 @@
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E18),,AllTriggers)</f>
-        <v>-1.5510412744285831E-3</v>
+        <v>-1.5424324030641082E-3</v>
       </c>
       <c r="I18" s="262">
         <f t="shared" si="0"/>
-        <v>1.0760412744285799E-3</v>
+        <v>1.067432403064105E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E18,Trigger)</f>
-        <v>1.0821000385479351E-3</v>
+        <v>1.079692599904091E-3</v>
       </c>
       <c r="K18" s="185">
         <f t="shared" si="4"/>
-        <v>-6.0587641193552214E-2</v>
+        <v>-0.12260196839985983</v>
       </c>
       <c r="L18" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
@@ -5635,11 +5635,11 @@
       </c>
       <c r="M18" s="231">
         <f t="shared" si="1"/>
-        <v>-6.0587641193552214E-6</v>
+        <v>-1.2260196839985983E-5</v>
       </c>
       <c r="N18" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.0001933936690752</v>
+        <v>1.0001944525760798</v>
       </c>
       <c r="O18" s="234" t="b">
         <v>1</v>
@@ -5685,19 +5685,19 @@
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E19),,AllTriggers)</f>
-        <v>-1.6219754461787529E-3</v>
+        <v>-1.6201424550335117E-3</v>
       </c>
       <c r="I19" s="262">
         <f t="shared" si="0"/>
-        <v>1.1219754461785859E-3</v>
+        <v>1.1201424550333447E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E19,Trigger)</f>
-        <v>1.1207091796337349E-3</v>
+        <v>1.1189152618850551E-3</v>
       </c>
       <c r="K19" s="185">
         <f t="shared" si="4"/>
-        <v>1.2662665448510621E-2</v>
+        <v>1.2271931482895921E-2</v>
       </c>
       <c r="L19" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
@@ -5705,11 +5705,11 @@
       </c>
       <c r="M19" s="231">
         <f t="shared" si="1"/>
-        <v>1.2662665448510621E-6</v>
+        <v>1.2271931482895921E-6</v>
       </c>
       <c r="N19" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0003054818747072</v>
+        <v>1.0003058579234136</v>
       </c>
       <c r="O19" s="234" t="b">
         <v>1</v>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="R19" s="187" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R14:R18,S14:S18),,Trigger)</f>
-        <v>obj_005a2#0014</v>
+        <v>obj_00968#0000</v>
       </c>
       <c r="T19" s="55"/>
       <c r="X19" s="57"/>
@@ -5751,19 +5751,19 @@
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E20),,AllTriggers)</f>
-        <v>-1.8073896993099216E-3</v>
+        <v>-1.807619146925177E-3</v>
       </c>
       <c r="I20" s="262">
         <f t="shared" si="0"/>
-        <v>1.2323896993099294E-3</v>
+        <v>1.2326191469251848E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E20,Trigger)</f>
-        <v>1.2223279063650295E-3</v>
+        <v>1.2218697382910613E-3</v>
       </c>
       <c r="K20" s="185">
         <f t="shared" si="4"/>
-        <v>0.10061792944899856</v>
+        <v>0.10749408634123503</v>
       </c>
       <c r="L20" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
@@ -5771,11 +5771,11 @@
       </c>
       <c r="M20" s="231">
         <f t="shared" si="1"/>
-        <v>1.0061792944899856E-5</v>
+        <v>1.0749408634123502E-5</v>
       </c>
       <c r="N20" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0007157746907596</v>
+        <v>1.0007156870324918</v>
       </c>
       <c r="O20" s="234" t="b">
         <v>1</v>
@@ -5808,19 +5808,19 @@
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E21),,AllTriggers)</f>
-        <v>-1.9443034318716616E-3</v>
+        <v>-1.9441215753092441E-3</v>
       </c>
       <c r="I21" s="262">
         <f t="shared" si="0"/>
-        <v>1.2693034318716804E-3</v>
+        <v>1.2691215753092629E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E21,Trigger)</f>
-        <v>1.2935629530814055E-3</v>
+        <v>1.2936439163533018E-3</v>
       </c>
       <c r="K21" s="185">
         <f t="shared" si="4"/>
-        <v>-0.24259521209725118</v>
+        <v>-0.24522341044038842</v>
       </c>
       <c r="L21" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
@@ -5828,11 +5828,11 @@
       </c>
       <c r="M21" s="231">
         <f t="shared" si="1"/>
-        <v>-2.4259521209725118E-5</v>
+        <v>-2.4522341044038842E-5</v>
       </c>
       <c r="N21" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.001172937288769</v>
+        <v>1.0011729019409239</v>
       </c>
       <c r="O21" s="234" t="b">
         <v>1</v>
@@ -5865,19 +5865,19 @@
       </c>
       <c r="H22" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E22),,AllTriggers)</f>
-        <v>-1.9724181850110391E-3</v>
+        <v>-1.9724722435203565E-3</v>
       </c>
       <c r="I22" s="262">
         <f t="shared" si="0"/>
-        <v>1.3474181850109414E-3</v>
+        <v>1.3474722435202588E-3</v>
       </c>
       <c r="J22" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E22,Trigger)</f>
-        <v>1.3454083892826556E-3</v>
+        <v>1.3454922439035467E-3</v>
       </c>
       <c r="K22" s="185">
         <f t="shared" si="4"/>
-        <v>2.0097957282858622E-2</v>
+        <v>1.979999616712148E-2</v>
       </c>
       <c r="L22" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
@@ -5885,11 +5885,11 @@
       </c>
       <c r="M22" s="231">
         <f t="shared" si="1"/>
-        <v>2.0097957282858622E-6</v>
+        <v>1.979999616712148E-6</v>
       </c>
       <c r="N22" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.0017038095513664</v>
+        <v>1.0017037610473145</v>
       </c>
       <c r="O22" s="234" t="b">
         <v>1</v>
@@ -5922,19 +5922,19 @@
       </c>
       <c r="H23" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E23),,AllTriggers)</f>
-        <v>-1.8348999336903482E-3</v>
+        <v>-1.8346461831710847E-3</v>
       </c>
       <c r="I23" s="262">
         <f t="shared" si="0"/>
-        <v>1.359899933690345E-3</v>
+        <v>1.3596461831710815E-3</v>
       </c>
       <c r="J23" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E23,Trigger)</f>
-        <v>1.3789171512172313E-3</v>
+        <v>1.3787580551139337E-3</v>
       </c>
       <c r="K23" s="185">
         <f t="shared" si="4"/>
-        <v>-0.1901721752688634</v>
+        <v>-0.19111871942852163</v>
       </c>
       <c r="L23" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E23,,,Trigger)</f>
@@ -5942,11 +5942,11 @@
       </c>
       <c r="M23" s="231">
         <f t="shared" si="1"/>
-        <v>-1.901721752688634E-5</v>
+        <v>-1.9111871942852163E-5</v>
       </c>
       <c r="N23" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E23,,AllTriggers)</f>
-        <v>1.0022034916615752</v>
+        <v>1.0022034568350591</v>
       </c>
       <c r="O23" s="234" t="b">
         <v>0</v>
@@ -5979,19 +5979,19 @@
       </c>
       <c r="H24" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E24),,AllTriggers)</f>
-        <v>-1.6800928635114607E-3</v>
+        <v>-1.680758647704455E-3</v>
       </c>
       <c r="I24" s="262">
         <f t="shared" si="0"/>
-        <v>1.4550928635113189E-3</v>
+        <v>1.4557586477043133E-3</v>
       </c>
       <c r="J24" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E24,Trigger)</f>
-        <v>1.4043906345690251E-3</v>
+        <v>1.4040396738236984E-3</v>
       </c>
       <c r="K24" s="185">
         <f t="shared" si="4"/>
-        <v>0.50702228942293848</v>
+        <v>0.51718973880614905</v>
       </c>
       <c r="L24" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E24,,,Trigger)</f>
@@ -5999,11 +5999,11 @@
       </c>
       <c r="M24" s="231">
         <f t="shared" si="1"/>
-        <v>5.0702228942293851E-5</v>
+        <v>5.17189738806149E-5</v>
       </c>
       <c r="N24" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E24,,AllTriggers)</f>
-        <v>1.0026340345514717</v>
+        <v>1.0026338933786159</v>
       </c>
       <c r="O24" s="234" t="b">
         <v>0</v>
@@ -6036,19 +6036,19 @@
       </c>
       <c r="H25" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E25),,AllTriggers)</f>
-        <v>-1.4042404588627919E-3</v>
+        <v>-1.4045211983805118E-3</v>
       </c>
       <c r="I25" s="262">
         <f t="shared" si="0"/>
-        <v>1.5292404588628337E-3</v>
+        <v>1.5295211983805536E-3</v>
       </c>
       <c r="J25" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E25,Trigger)</f>
-        <v>1.4360411323487399E-3</v>
+        <v>1.435799680773057E-3</v>
       </c>
       <c r="K25" s="185">
         <f t="shared" si="4"/>
-        <v>0.93199326514093728</v>
+        <v>0.93721517607496529</v>
       </c>
       <c r="L25" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E25,,,Trigger)</f>
@@ -6056,11 +6056,11 @@
       </c>
       <c r="M25" s="231">
         <f t="shared" si="1"/>
-        <v>9.319932651409373E-5</v>
+        <v>9.3721517607496529E-5</v>
       </c>
       <c r="N25" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E25,,AllTriggers)</f>
-        <v>1.0030909587369332</v>
+        <v>1.003090972788536</v>
       </c>
       <c r="O25" s="234" t="b">
         <v>0</v>
@@ -6094,19 +6094,19 @@
       </c>
       <c r="H26" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E26),,AllTriggers)</f>
-        <v>-1.0033691236714401E-3</v>
+        <v>-9.9781768803410085E-4</v>
       </c>
       <c r="I26" s="262">
         <f t="shared" si="0"/>
-        <v>1.5283691236715488E-3</v>
+        <v>1.5228176880342096E-3</v>
       </c>
       <c r="J26" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E26,Trigger)</f>
-        <v>1.4755412758312735E-3</v>
+        <v>1.4760064978910476E-3</v>
       </c>
       <c r="K26" s="185">
         <f t="shared" si="4"/>
-        <v>0.52827847840275277</v>
+        <v>0.46811190143161968</v>
       </c>
       <c r="L26" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E26,,,Trigger)</f>
@@ -6114,11 +6114,11 @@
       </c>
       <c r="M26" s="231">
         <f t="shared" si="1"/>
-        <v>5.2827847840275282E-5</v>
+        <v>4.6811190143161967E-5</v>
       </c>
       <c r="N26" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E26,,AllTriggers)</f>
-        <v>1.003447645816721</v>
+        <v>1.0034477377036939</v>
       </c>
       <c r="O26" s="234" t="b">
         <v>0</v>
@@ -6152,19 +6152,19 @@
       </c>
       <c r="H27" s="62">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E27),,AllTriggers)</f>
-        <v>-5.0913265329066704E-4</v>
+        <v>-5.0612540001582218E-4</v>
       </c>
       <c r="I27" s="262">
         <f t="shared" si="0"/>
-        <v>1.5841326532907152E-3</v>
+        <v>1.5811254000158703E-3</v>
       </c>
       <c r="J27" s="62">
         <f>_xll.qlTenorBasisValue($R$19,E27,Trigger)</f>
-        <v>1.532923470782061E-3</v>
+        <v>1.5349579863141597E-3</v>
       </c>
       <c r="K27" s="185">
         <f t="shared" si="4"/>
-        <v>0.51209182508654216</v>
+        <v>0.46167413701710647</v>
       </c>
       <c r="L27" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E27,,,Trigger)</f>
@@ -6172,11 +6172,11 @@
       </c>
       <c r="M27" s="231">
         <f t="shared" si="1"/>
-        <v>5.1209182508654217E-5</v>
+        <v>4.6167413701710645E-5</v>
       </c>
       <c r="N27" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E27,,AllTriggers)</f>
-        <v>1.0037022142245302</v>
+        <v>1.003700897304536</v>
       </c>
       <c r="O27" s="234" t="b">
         <v>0</v>
@@ -6210,19 +6210,19 @@
       </c>
       <c r="H28" s="65">
         <f>_xll.qlIndexFixing(ON_3M_index,_xll.qlInterestRateIndexFixingDate(ON_3M_index,E28),,AllTriggers)</f>
-        <v>5.8914404855484172E-5</v>
+        <v>5.4156772571695882E-5</v>
       </c>
       <c r="I28" s="257">
         <f t="shared" si="0"/>
-        <v>1.6160855951446089E-3</v>
+        <v>1.6208432274283971E-3</v>
       </c>
       <c r="J28" s="65">
         <f>_xll.qlTenorBasisValue($R$19,E28,Trigger)</f>
-        <v>1.6161301793439029E-3</v>
+        <v>1.6208696473770212E-3</v>
       </c>
       <c r="K28" s="186">
         <f t="shared" si="4"/>
-        <v>-4.4584199294017343E-4</v>
+        <v>-2.6419948624028036E-4</v>
       </c>
       <c r="L28" s="204">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E28,,,Trigger)</f>
@@ -6230,11 +6230,11 @@
       </c>
       <c r="M28" s="232">
         <f t="shared" si="1"/>
-        <v>-4.4584199294017343E-8</v>
+        <v>-2.6419948624028036E-8</v>
       </c>
       <c r="N28" s="182">
         <f>_xll.qlYieldTSDiscount(Discounting,E28,,AllTriggers)</f>
-        <v>1.0038306484911559</v>
+        <v>1.0038285797156876</v>
       </c>
       <c r="O28" s="235" t="b">
         <v>1</v>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="I31" s="284">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G31,H31,AllTriggers)</f>
-        <v>-4.6216392257214522E-4</v>
+        <v>-4.5109144639621235E-4</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="I32" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G32,H32,AllTriggers)</f>
-        <v>-5.1208307960872086E-4</v>
+        <v>-5.1715048259737273E-4</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="I33" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G33,H33,AllTriggers)</f>
-        <v>-5.0549147297105994E-4</v>
+        <v>-5.1043012987163545E-4</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="I34" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G34,H34,AllTriggers)</f>
-        <v>-4.9899359318634443E-4</v>
+        <v>-5.0380624186211311E-4</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="I35" s="286">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G35,H35,AllTriggers)</f>
-        <v>-4.5986928879109484E-4</v>
+        <v>-4.6450662902420084E-4</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="I36" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G36,H36,AllTriggers)</f>
-        <v>-4.8361993965124637E-4</v>
+        <v>-4.8776355641701798E-4</v>
       </c>
     </row>
     <row r="37" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="I37" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis3M,G37,H37,AllTriggers)</f>
-        <v>-4.3636004553916906E-4</v>
+        <v>-4.45714194648509E-4</v>
       </c>
     </row>
     <row r="38" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6670,13 +6670,13 @@
       </c>
       <c r="G3" s="255">
         <f>J3+$H$4</f>
-        <v>2.7039529257642716E-4</v>
+        <v>2.6980021422014092E-4</v>
       </c>
       <c r="H3" s="236"/>
       <c r="I3" s="236"/>
       <c r="J3" s="187">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>1.8273582058294271E-3</v>
+        <v>1.8272734459687102E-3</v>
       </c>
       <c r="K3" s="236"/>
       <c r="L3" s="280">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="R3" s="187" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_0044e#0002</v>
+        <v>obj_0044e#0001</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6722,19 +6722,19 @@
       </c>
       <c r="H4" s="187">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E4),,AllTriggers)</f>
-        <v>-1.556962913253E-3</v>
+        <v>-1.5574732317485693E-3</v>
       </c>
       <c r="I4" s="255">
         <f t="shared" ref="I4:I22" si="0">G4-H4</f>
-        <v>1.8469629132529999E-3</v>
+        <v>1.8474732317485692E-3</v>
       </c>
       <c r="J4" s="183">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>1.8273582058294271E-3</v>
+        <v>1.8272734459687102E-3</v>
       </c>
       <c r="K4" s="184">
         <f>M4*10000</f>
-        <v>0.19604707423572734</v>
+        <v>0.20199785779858975</v>
       </c>
       <c r="L4" s="281">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -6742,11 +6742,11 @@
       </c>
       <c r="M4" s="275">
         <f t="shared" ref="M4:M22" si="1">I4-J4</f>
-        <v>1.9604707423572735E-5</v>
+        <v>2.0199785779858974E-5</v>
       </c>
       <c r="N4" s="278">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000063889195219</v>
+        <v>1.0000063889195221</v>
       </c>
       <c r="O4" s="233" t="b">
         <v>1</v>
@@ -6781,19 +6781,19 @@
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E5),,AllTriggers)</f>
-        <v>-1.6194658927457797E-3</v>
+        <v>-1.6191558107094683E-3</v>
       </c>
       <c r="I5" s="277">
         <f t="shared" si="0"/>
-        <v>1.8694658927457797E-3</v>
+        <v>1.8691558107094683E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>1.8813249670941057E-3</v>
+        <v>1.8811471917404845E-3</v>
       </c>
       <c r="K5" s="237">
         <f t="shared" ref="K5:K22" si="4">M5*10000</f>
-        <v>-0.11859074348326021</v>
+        <v>-0.11991381031016242</v>
       </c>
       <c r="L5" s="282">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
@@ -6801,11 +6801,11 @@
       </c>
       <c r="M5" s="276">
         <f t="shared" si="1"/>
-        <v>-1.1859074348326022E-5</v>
+        <v>-1.1991381031016242E-5</v>
       </c>
       <c r="N5" s="180">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001269597807645</v>
+        <v>1.0001269597807849</v>
       </c>
       <c r="O5" s="238" t="b">
         <v>1</v>
@@ -6844,19 +6844,19 @@
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E6),,AllTriggers)</f>
-        <v>-1.6758130301811013E-3</v>
+        <v>-1.6755417546055465E-3</v>
       </c>
       <c r="I6" s="262">
         <f t="shared" si="0"/>
-        <v>1.9058130301811012E-3</v>
+        <v>1.9055417546055464E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>1.9296662926708329E-3</v>
+        <v>1.9294328209040715E-3</v>
       </c>
       <c r="K6" s="185">
         <f t="shared" si="4"/>
-        <v>-0.23853262489731669</v>
+        <v>-0.23891066298525107</v>
       </c>
       <c r="L6" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
@@ -6864,11 +6864,11 @@
       </c>
       <c r="M6" s="231">
         <f t="shared" si="1"/>
-        <v>-2.3853262489731668E-5</v>
+        <v>-2.3891066298525106E-5</v>
       </c>
       <c r="N6" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002521453146693</v>
+        <v>1.0002521453146695</v>
       </c>
       <c r="O6" s="234" t="b">
         <v>1</v>
@@ -6878,7 +6878,7 @@
       </c>
       <c r="R6" s="279" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($L$4:$L$22,$O$4:$O$22),_xll.ohFilter($I$4:$I$22,$O$4:$O$22),_xll.ohFilter($N$4:$N$22,$O$4:$O$22),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_005a0#0002</v>
+        <v>obj_00965#0000</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6911,19 +6911,19 @@
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E7),,AllTriggers)</f>
-        <v>-1.7662304460096426E-3</v>
+        <v>-1.7633264869979235E-3</v>
       </c>
       <c r="I7" s="262">
         <f t="shared" si="0"/>
-        <v>1.9862304460096427E-3</v>
+        <v>1.9833264869979234E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>1.9788745412316982E-3</v>
+        <v>1.9786136035979426E-3</v>
       </c>
       <c r="K7" s="185">
         <f t="shared" si="4"/>
-        <v>7.3559047779445275E-2</v>
+        <v>4.712883399980803E-2</v>
       </c>
       <c r="L7" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -6931,11 +6931,11 @@
       </c>
       <c r="M7" s="231">
         <f t="shared" si="1"/>
-        <v>7.3559047779445282E-6</v>
+        <v>4.712883399980803E-6</v>
       </c>
       <c r="N7" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.000379858517497</v>
+        <v>1.0003813475787324</v>
       </c>
       <c r="O7" s="234" t="b">
         <v>1</v>
@@ -6978,19 +6978,19 @@
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E8),,AllTriggers)</f>
-        <v>-1.8075857506743571E-3</v>
+        <v>-1.8085125036239036E-3</v>
       </c>
       <c r="I8" s="262">
         <f t="shared" si="0"/>
-        <v>2.017585750674357E-3</v>
+        <v>2.0185125036239035E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>2.0190645997408426E-3</v>
+        <v>2.018804365856859E-3</v>
       </c>
       <c r="K8" s="185">
         <f t="shared" si="4"/>
-        <v>-1.4788490664855922E-2</v>
+        <v>-2.9186223295552677E-3</v>
       </c>
       <c r="L8" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -6998,11 +6998,11 @@
       </c>
       <c r="M8" s="231">
         <f t="shared" si="1"/>
-        <v>-1.4788490664855922E-6</v>
+        <v>-2.9186223295552677E-7</v>
       </c>
       <c r="N8" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0005152621216613</v>
+        <v>1.000514670267223</v>
       </c>
       <c r="O8" s="234" t="b">
         <v>1</v>
@@ -7045,19 +7045,19 @@
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E9),,AllTriggers)</f>
-        <v>-1.8535125749734498E-3</v>
+        <v>-1.8547709331345995E-3</v>
       </c>
       <c r="I9" s="262">
         <f t="shared" si="0"/>
-        <v>2.0535125749734499E-3</v>
+        <v>2.0547709331345996E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>2.0567473618959622E-3</v>
+        <v>2.0565070062411113E-3</v>
       </c>
       <c r="K9" s="185">
         <f t="shared" si="4"/>
-        <v>-3.2347869225123581E-2</v>
+        <v>-1.7360731065117416E-2</v>
       </c>
       <c r="L9" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
@@ -7065,11 +7065,11 @@
       </c>
       <c r="M9" s="231">
         <f t="shared" si="1"/>
-        <v>-3.2347869225123581E-6</v>
+        <v>-1.7360731065117416E-6</v>
       </c>
       <c r="N9" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0006503193911085</v>
+        <v>1.0006495266127844</v>
       </c>
       <c r="O9" s="234" t="b">
         <v>1</v>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="R9" s="187">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>1.1339044162289581E-5</v>
+        <v>1.5815385205790995E-4</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7112,19 +7112,19 @@
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E10),,AllTriggers)</f>
-        <v>-1.9024049563927188E-3</v>
+        <v>-1.9018750767799632E-3</v>
       </c>
       <c r="I10" s="262">
         <f t="shared" si="0"/>
-        <v>2.1024049563927189E-3</v>
+        <v>2.101875076779963E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>2.0970026842366887E-3</v>
+        <v>2.0968033299699198E-3</v>
       </c>
       <c r="K10" s="185">
         <f t="shared" si="4"/>
-        <v>5.4022721560301884E-2</v>
+        <v>5.071746810043215E-2</v>
       </c>
       <c r="L10" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
@@ -7132,11 +7132,11 @@
       </c>
       <c r="M10" s="231">
         <f t="shared" si="1"/>
-        <v>5.4022721560301884E-6</v>
+        <v>5.071746810043215E-6</v>
       </c>
       <c r="N10" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0008071406590917</v>
+        <v>1.0008074033279986</v>
       </c>
       <c r="O10" s="234" t="b">
         <v>1</v>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="R10" s="187">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>2.3853262489731668E-5</v>
+        <v>2.3891066298525106E-5</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7179,19 +7179,19 @@
       </c>
       <c r="H11" s="67">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E11),,AllTriggers)</f>
-        <v>-1.9326434644676717E-3</v>
+        <v>-1.932681356495231E-3</v>
       </c>
       <c r="I11" s="277">
         <f t="shared" si="0"/>
-        <v>2.1426434644676719E-3</v>
+        <v>2.1426813564952309E-3</v>
       </c>
       <c r="J11" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>2.1293180698774058E-3</v>
+        <v>2.1291647685963005E-3</v>
       </c>
       <c r="K11" s="237">
         <f t="shared" si="4"/>
-        <v>0.13325394590266074</v>
+        <v>0.13516587898930368</v>
       </c>
       <c r="L11" s="282">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
@@ -7199,11 +7199,11 @@
       </c>
       <c r="M11" s="276">
         <f t="shared" si="1"/>
-        <v>1.3325394590266073E-5</v>
+        <v>1.3516587898930368E-5</v>
       </c>
       <c r="N11" s="180">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0009464646588653</v>
+        <v>1.000946307618269</v>
       </c>
       <c r="O11" s="238" t="b">
         <v>1</v>
@@ -7239,19 +7239,19 @@
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E12),,AllTriggers)</f>
-        <v>-1.9525773788836487E-3</v>
+        <v>-1.952505377894871E-3</v>
       </c>
       <c r="I12" s="262">
         <f t="shared" si="0"/>
-        <v>2.1625773788836486E-3</v>
+        <v>2.1625053778948711E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>2.1635087266186686E-3</v>
+        <v>2.1634140074653914E-3</v>
       </c>
       <c r="K12" s="185">
         <f t="shared" si="4"/>
-        <v>-9.3134773502005427E-3</v>
+        <v>-9.0862957052026752E-3</v>
       </c>
       <c r="L12" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
@@ -7259,11 +7259,11 @@
       </c>
       <c r="M12" s="231">
         <f t="shared" si="1"/>
-        <v>-9.3134773502005427E-7</v>
+        <v>-9.0862957052026752E-7</v>
       </c>
       <c r="N12" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0011049582208984</v>
+        <v>1.0011048200524264</v>
       </c>
       <c r="O12" s="234" t="b">
         <v>1</v>
@@ -7309,19 +7309,19 @@
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E13),,AllTriggers)</f>
-        <v>-1.9508822083120143E-3</v>
+        <v>-1.9508408617647415E-3</v>
       </c>
       <c r="I13" s="262">
         <f t="shared" si="0"/>
-        <v>2.2008822083120143E-3</v>
+        <v>2.2008408617647415E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>2.197471555735517E-3</v>
+        <v>2.1974408096619024E-3</v>
       </c>
       <c r="K13" s="185">
         <f t="shared" si="4"/>
-        <v>3.4106525764973118E-2</v>
+        <v>3.4000521028391614E-2</v>
       </c>
       <c r="L13" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
@@ -7329,11 +7329,11 @@
       </c>
       <c r="M13" s="231">
         <f t="shared" si="1"/>
-        <v>3.4106525764973118E-6</v>
+        <v>3.4000521028391614E-6</v>
       </c>
       <c r="N13" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0012739236534773</v>
+        <v>1.0012739427488606</v>
       </c>
       <c r="O13" s="234" t="b">
         <v>1</v>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="R13" s="187">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>1.8273582058294271E-3</v>
+        <v>1.8272734459687102E-3</v>
       </c>
       <c r="S13" s="187" t="b">
         <v>1</v>
@@ -7382,19 +7382,19 @@
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E14),,AllTriggers)</f>
-        <v>-1.945400900621018E-3</v>
+        <v>-1.945324973436044E-3</v>
       </c>
       <c r="I14" s="262">
         <f t="shared" si="0"/>
-        <v>2.2354009006210181E-3</v>
+        <v>2.2353249734360439E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>2.227454016484086E-3</v>
+        <v>2.2274799977848674E-3</v>
       </c>
       <c r="K14" s="185">
         <f t="shared" si="4"/>
-        <v>7.9468841369320642E-2</v>
+        <v>7.8449756511765084E-2</v>
       </c>
       <c r="L14" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
@@ -7402,11 +7402,11 @@
       </c>
       <c r="M14" s="231">
         <f t="shared" si="1"/>
-        <v>7.9468841369320642E-6</v>
+        <v>7.8449756511765091E-6</v>
       </c>
       <c r="N14" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0014304042935918</v>
+        <v>1.0014302815221856</v>
       </c>
       <c r="O14" s="234" t="b">
         <v>1</v>
@@ -7415,7 +7415,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="187">
-        <v>6.6100855687893146E-4</v>
+        <v>6.5968285749678558E-4</v>
       </c>
       <c r="S14" s="187" t="b">
         <v>1</v>
@@ -7454,19 +7454,19 @@
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E15),,AllTriggers)</f>
-        <v>-1.9252099783542314E-3</v>
+        <v>-1.9250974245285243E-3</v>
       </c>
       <c r="I15" s="262">
         <f t="shared" si="0"/>
-        <v>2.2552099783542312E-3</v>
+        <v>2.2550974245285245E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>2.259057372856939E-3</v>
+        <v>2.2591381386060671E-3</v>
       </c>
       <c r="K15" s="185">
         <f t="shared" si="4"/>
-        <v>-3.8473945027078099E-2</v>
+        <v>-4.0407140775426155E-2</v>
       </c>
       <c r="L15" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
@@ -7474,11 +7474,11 @@
       </c>
       <c r="M15" s="231">
         <f t="shared" si="1"/>
-        <v>-3.8473945027078099E-6</v>
+        <v>-4.0407140775426155E-6</v>
       </c>
       <c r="N15" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0015991852523043</v>
+        <v>1.0015990365223564</v>
       </c>
       <c r="O15" s="234" t="b">
         <v>1</v>
@@ -7487,7 +7487,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="187">
-        <v>-3.1076610578557038E-4</v>
+        <v>-3.0794231605800384E-4</v>
       </c>
       <c r="S15" s="187" t="b">
         <v>1</v>
@@ -7526,19 +7526,19 @@
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E16),,AllTriggers)</f>
-        <v>-1.8861878294122222E-3</v>
+        <v>-1.8862043216986599E-3</v>
       </c>
       <c r="I16" s="262">
         <f t="shared" si="0"/>
-        <v>2.2761878294122223E-3</v>
+        <v>2.2762043216986599E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>2.2905980617379381E-3</v>
+        <v>2.290722918485063E-3</v>
       </c>
       <c r="K16" s="185">
         <f t="shared" si="4"/>
-        <v>-0.14410232325715813</v>
+        <v>-0.14518596786403104</v>
       </c>
       <c r="L16" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
@@ -7546,11 +7546,11 @@
       </c>
       <c r="M16" s="231">
         <f t="shared" si="1"/>
-        <v>-1.4410232325715814E-5</v>
+        <v>-1.4518596786403104E-5</v>
       </c>
       <c r="N16" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0017703617001901</v>
+        <v>1.0017703535801519</v>
       </c>
       <c r="O16" s="234" t="b">
         <v>1</v>
@@ -7559,7 +7559,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="187">
-        <v>1.1095647217264012E-4</v>
+        <v>1.0966556893320198E-4</v>
       </c>
       <c r="S16" s="187" t="b">
         <v>1</v>
@@ -7598,19 +7598,19 @@
       </c>
       <c r="H17" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E17),,AllTriggers)</f>
-        <v>-1.8411467937071541E-3</v>
+        <v>-1.8416476317897629E-3</v>
       </c>
       <c r="I17" s="262">
         <f t="shared" si="0"/>
-        <v>2.3211467937071543E-3</v>
+        <v>2.3216476317897629E-3</v>
       </c>
       <c r="J17" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>2.3214458019691557E-3</v>
+        <v>2.3215986763856855E-3</v>
       </c>
       <c r="K17" s="185">
         <f t="shared" si="4"/>
-        <v>-2.990082620013719E-3</v>
+        <v>4.8955404077354742E-4</v>
       </c>
       <c r="L17" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
@@ -7618,11 +7618,11 @@
       </c>
       <c r="M17" s="231">
         <f t="shared" si="1"/>
-        <v>-2.990082620013719E-7</v>
+        <v>4.8955404077354742E-8</v>
       </c>
       <c r="N17" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.0019361727501948</v>
+        <v>1.0019360349780393</v>
       </c>
       <c r="O17" s="234" t="b">
         <v>0</v>
@@ -7670,19 +7670,19 @@
       </c>
       <c r="H18" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E18),,AllTriggers)</f>
-        <v>-1.7892768647274585E-3</v>
+        <v>-1.7897589466750066E-3</v>
       </c>
       <c r="I18" s="262">
         <f t="shared" si="0"/>
-        <v>2.3492768647274584E-3</v>
+        <v>2.3497589466750066E-3</v>
       </c>
       <c r="J18" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E18,Trigger)</f>
-        <v>2.3529864713740098E-3</v>
+        <v>2.3531486042074963E-3</v>
       </c>
       <c r="K18" s="185">
         <f t="shared" si="4"/>
-        <v>-3.7096066465513132E-2</v>
+        <v>-3.3896575324897371E-2</v>
       </c>
       <c r="L18" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E18,,,Trigger)</f>
@@ -7690,11 +7690,11 @@
       </c>
       <c r="M18" s="231">
         <f t="shared" si="1"/>
-        <v>-3.7096066465513132E-6</v>
+        <v>-3.3896575324897371E-6</v>
       </c>
       <c r="N18" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E18,,AllTriggers)</f>
-        <v>1.002099602370178</v>
+        <v>1.0020994273506458</v>
       </c>
       <c r="O18" s="234" t="b">
         <v>0</v>
@@ -7704,7 +7704,7 @@
       </c>
       <c r="R18" s="187" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005a4#0002</v>
+        <v>obj_0096a#0000</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -7738,19 +7738,19 @@
       </c>
       <c r="H19" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E19),,AllTriggers)</f>
-        <v>-1.7354869528748711E-3</v>
+        <v>-1.7354856451233815E-3</v>
       </c>
       <c r="I19" s="262">
         <f t="shared" si="0"/>
-        <v>2.3954869528748711E-3</v>
+        <v>2.3954856451233815E-3</v>
       </c>
       <c r="J19" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E19,Trigger)</f>
-        <v>2.3866991082537085E-3</v>
+        <v>2.3868465322505745E-3</v>
       </c>
       <c r="K19" s="185">
         <f t="shared" si="4"/>
-        <v>8.7878446211626243E-2</v>
+        <v>8.6391128728069769E-2</v>
       </c>
       <c r="L19" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E19,,,Trigger)</f>
@@ -7758,11 +7758,11 @@
       </c>
       <c r="M19" s="231">
         <f t="shared" si="1"/>
-        <v>8.7878446211626243E-6</v>
+        <v>8.6391128728069769E-6</v>
       </c>
       <c r="N19" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E19,,AllTriggers)</f>
-        <v>1.0022624468364867</v>
+        <v>1.0022624475256374</v>
       </c>
       <c r="O19" s="234" t="b">
         <v>0</v>
@@ -7799,19 +7799,19 @@
       </c>
       <c r="H20" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E20),,AllTriggers)</f>
-        <v>-1.6631490120679992E-3</v>
+        <v>-1.6636287110431271E-3</v>
       </c>
       <c r="I20" s="262">
         <f t="shared" si="0"/>
-        <v>2.4331490120679993E-3</v>
+        <v>2.4336287110431273E-3</v>
       </c>
       <c r="J20" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E20,Trigger)</f>
-        <v>2.4219542013716277E-3</v>
+        <v>2.4220575485564395E-3</v>
       </c>
       <c r="K20" s="185">
         <f t="shared" si="4"/>
-        <v>0.1119481069637154</v>
+        <v>0.11571162486687883</v>
       </c>
       <c r="L20" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E20,,,Trigger)</f>
@@ -7819,11 +7819,11 @@
       </c>
       <c r="M20" s="231">
         <f t="shared" si="1"/>
-        <v>1.119481069637154E-5</v>
+        <v>1.1571162486687884E-5</v>
       </c>
       <c r="N20" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E20,,AllTriggers)</f>
-        <v>1.0024271336473229</v>
+        <v>1.002426971813591</v>
       </c>
       <c r="O20" s="234" t="b">
         <v>0</v>
@@ -7860,19 +7860,19 @@
       </c>
       <c r="H21" s="62">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E21),,AllTriggers)</f>
-        <v>-1.5850956108551517E-3</v>
+        <v>-1.5857700273006372E-3</v>
       </c>
       <c r="I21" s="262">
         <f t="shared" si="0"/>
-        <v>2.4650956108551517E-3</v>
+        <v>2.4657700273006374E-3</v>
       </c>
       <c r="J21" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E21,Trigger)</f>
-        <v>2.4554625405920805E-3</v>
+        <v>2.4554968870566614E-3</v>
       </c>
       <c r="K21" s="185">
         <f t="shared" si="4"/>
-        <v>9.6330702630711806E-2</v>
+        <v>0.10273140243976034</v>
       </c>
       <c r="L21" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E21,,,Trigger)</f>
@@ -7880,11 +7880,11 @@
       </c>
       <c r="M21" s="231">
         <f t="shared" si="1"/>
-        <v>9.6330702630711799E-6</v>
+        <v>1.0273140243976034E-5</v>
       </c>
       <c r="N21" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E21,,AllTriggers)</f>
-        <v>1.0025696253229894</v>
+        <v>1.0025694196590038</v>
       </c>
       <c r="O21" s="234" t="b">
         <v>0</v>
@@ -7921,19 +7921,19 @@
       </c>
       <c r="H22" s="65">
         <f>_xll.qlIndexFixing(ON_6M_index,_xll.qlInterestRateIndexFixingDate(ON_6M_index,E22),,AllTriggers)</f>
-        <v>-1.4986612017675049E-3</v>
+        <v>-1.4986412683407923E-3</v>
       </c>
       <c r="I22" s="257">
         <f t="shared" si="0"/>
-        <v>2.4986612017675047E-3</v>
+        <v>2.4986412683407925E-3</v>
       </c>
       <c r="J22" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E22,Trigger)</f>
-        <v>2.4960916012925836E-3</v>
+        <v>2.4960085267696098E-3</v>
       </c>
       <c r="K22" s="186">
         <f t="shared" si="4"/>
-        <v>2.5696004749210972E-2</v>
+        <v>2.6327415711827409E-2</v>
       </c>
       <c r="L22" s="204">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E22,,,Trigger)</f>
@@ -7941,11 +7941,11 @@
       </c>
       <c r="M22" s="232">
         <f t="shared" si="1"/>
-        <v>2.5696004749210972E-6</v>
+        <v>2.6327415711827409E-6</v>
       </c>
       <c r="N22" s="182">
         <f>_xll.qlYieldTSDiscount(Discounting,E22,,AllTriggers)</f>
-        <v>1.002726534385024</v>
+        <v>1.0027265346257155</v>
       </c>
       <c r="O22" s="235" t="b">
         <v>1</v>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="I25" s="284">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G25,H25,AllTriggers)</f>
-        <v>2.4841679715947862E-4</v>
+        <v>2.6499467479013106E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8011,7 +8011,7 @@
       </c>
       <c r="I26" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G26,H26,AllTriggers)</f>
-        <v>1.9915279379897503E-4</v>
+        <v>1.9950032922798146E-4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="I27" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G27,H27,AllTriggers)</f>
-        <v>2.0689150706346533E-4</v>
+        <v>2.0721253829363611E-4</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8045,7 +8045,7 @@
       </c>
       <c r="I28" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G28,H28,AllTriggers)</f>
-        <v>2.1453675867430126E-4</v>
+        <v>2.148321835093725E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="I29" s="286">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G29,H29,AllTriggers)</f>
-        <v>2.5530299606777872E-4</v>
+        <v>2.5556336852943445E-4</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="I30" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G30,H30,AllTriggers)</f>
-        <v>2.3648247379867021E-4</v>
+        <v>2.3664810563085427E-4</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="I31" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G31,H31,AllTriggers)</f>
-        <v>2.8921669697613866E-4</v>
+        <v>2.8359412905085087E-4</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="I32" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G32,H32,AllTriggers)</f>
-        <v>2.5740963889514659E-4</v>
+        <v>2.5915671097759681E-4</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="I33" s="287">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G33,H33,AllTriggers)</f>
-        <v>2.4767050351172165E-4</v>
+        <v>2.4951153325826844E-4</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="I34" s="288">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis6M,G34,H34,AllTriggers)</f>
-        <v>2.4264060312497609E-4</v>
+        <v>2.4204916456760375E-4</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8350,13 +8350,13 @@
       </c>
       <c r="G3" s="255">
         <f>J3+$H$4</f>
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="H3" s="236"/>
       <c r="I3" s="236"/>
       <c r="J3" s="187">
         <f>_xll.qlTenorBasisValue($R$18,E3,Trigger)</f>
-        <v>3.1303464320642811E-3</v>
+        <v>3.1300994073015375E-3</v>
       </c>
       <c r="K3" s="236"/>
       <c r="L3" s="236"/>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="R3" s="187" t="str">
         <f>_xll.qlIborIndex(,,F1,2,Currency,Calendar,"mf",TRUE,DayCounter,Discounting,,Trigger)</f>
-        <v>obj_0044d#0002</v>
+        <v>obj_0044d#0001</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8403,23 +8403,23 @@
       </c>
       <c r="H4" s="187">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E4),,AllTriggers)</f>
-        <v>-1.7272696312701742E-3</v>
+        <v>-1.7272616941868132E-3</v>
       </c>
       <c r="I4" s="255">
         <f t="shared" ref="I4:I14" si="0">G4-H4</f>
-        <v>3.147269631270174E-3</v>
+        <v>3.1472616941868132E-3</v>
       </c>
       <c r="J4" s="183">
         <f>_xll.qlTenorBasisValue($R$18,E4,Trigger)</f>
-        <v>3.1303464320642811E-3</v>
+        <v>3.1300994073015375E-3</v>
       </c>
       <c r="K4" s="184">
         <f>L4*10000</f>
-        <v>0.16923199205892953</v>
+        <v>0.17162286885275771</v>
       </c>
       <c r="L4" s="275">
         <f t="shared" ref="L4:L16" si="1">I4-J4</f>
-        <v>1.6923199205892952E-5</v>
+        <v>1.7162286885275772E-5</v>
       </c>
       <c r="M4" s="281">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E4,,,Trigger)</f>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="N4" s="278">
         <f>_xll.qlYieldTSDiscount(Discounting,E4,,AllTriggers)</f>
-        <v>1.0000063889195219</v>
+        <v>1.0000063889195221</v>
       </c>
       <c r="O4" s="233" t="b">
         <v>1</v>
@@ -8462,23 +8462,23 @@
       </c>
       <c r="H5" s="67">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E5),,AllTriggers)</f>
-        <v>-1.7761148752006815E-3</v>
+        <v>-1.7759798676635098E-3</v>
       </c>
       <c r="I5" s="277">
         <f t="shared" ref="I5:I13" si="3">G5-H5</f>
-        <v>3.1761148752006813E-3</v>
+        <v>3.1759798676635094E-3</v>
       </c>
       <c r="J5" s="67">
         <f>_xll.qlTenorBasisValue($R$18,E5,Trigger)</f>
-        <v>3.1814406688396987E-3</v>
+        <v>3.1812302847571859E-3</v>
       </c>
       <c r="K5" s="237">
         <f t="shared" ref="K5:K16" si="4">L5*10000</f>
-        <v>-5.3257936390173864E-2</v>
+        <v>-5.2504170936764835E-2</v>
       </c>
       <c r="L5" s="276">
         <f t="shared" si="1"/>
-        <v>-5.3257936390173864E-6</v>
+        <v>-5.2504170936764835E-6</v>
       </c>
       <c r="M5" s="282">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E5,,,Trigger)</f>
@@ -8486,7 +8486,7 @@
       </c>
       <c r="N5" s="180">
         <f>_xll.qlYieldTSDiscount(Discounting,E5,,AllTriggers)</f>
-        <v>1.0001269597807645</v>
+        <v>1.0001269597807849</v>
       </c>
       <c r="O5" s="238" t="b">
         <v>1</v>
@@ -8526,23 +8526,23 @@
       </c>
       <c r="H6" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E6),,AllTriggers)</f>
-        <v>-1.813363531901284E-3</v>
+        <v>-1.8131920589106142E-3</v>
       </c>
       <c r="I6" s="262">
         <f t="shared" si="3"/>
-        <v>3.2133635319012838E-3</v>
+        <v>3.2131920589106139E-3</v>
       </c>
       <c r="J6" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E6,Trigger)</f>
-        <v>3.2311940175810613E-3</v>
+        <v>3.2310218748214832E-3</v>
       </c>
       <c r="K6" s="185">
         <f t="shared" si="4"/>
-        <v>-0.17830485679777575</v>
+        <v>-0.17829815910869271</v>
       </c>
       <c r="L6" s="231">
         <f t="shared" si="1"/>
-        <v>-1.7830485679777575E-5</v>
+        <v>-1.7829815910869271E-5</v>
       </c>
       <c r="M6" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E6,,,Trigger)</f>
@@ -8550,7 +8550,7 @@
       </c>
       <c r="N6" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E6,,AllTriggers)</f>
-        <v>1.0002521453146693</v>
+        <v>1.0002521453146695</v>
       </c>
       <c r="O6" s="234" t="b">
         <v>1</v>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="R6" s="279" t="str">
         <f>_xll.qlPolynomialCalibration(,_xll.ohFilter($M$4:$M$17,$O$4:$O$17),_xll.ohFilter($I$4:$I$17,$O$4:$O$17),_xll.ohFilter($N$4:$N$17,$O$4:$O$17),_xll.ohFilter(T13:T17,S13:S17),,,,,Trigger)</f>
-        <v>obj_0059d#0002</v>
+        <v>obj_00964#0000</v>
       </c>
       <c r="T6" s="55"/>
     </row>
@@ -8594,23 +8594,23 @@
       </c>
       <c r="H7" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E7),,AllTriggers)</f>
-        <v>-1.8581850823209912E-3</v>
+        <v>-1.8567217092998706E-3</v>
       </c>
       <c r="I7" s="262">
         <f t="shared" si="3"/>
-        <v>3.278185082320991E-3</v>
+        <v>3.2767217092998704E-3</v>
       </c>
       <c r="J7" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E7,Trigger)</f>
-        <v>3.2861280724972783E-3</v>
+        <v>3.2860003544474873E-3</v>
       </c>
       <c r="K7" s="185">
         <f t="shared" si="4"/>
-        <v>-7.9429901762872485E-2</v>
+        <v>-9.2786451476169041E-2</v>
       </c>
       <c r="L7" s="231">
         <f t="shared" si="1"/>
-        <v>-7.9429901762872492E-6</v>
+        <v>-9.2786451476169034E-6</v>
       </c>
       <c r="M7" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E7,,,Trigger)</f>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="N7" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E7,,AllTriggers)</f>
-        <v>1.000379858517497</v>
+        <v>1.0003813475787324</v>
       </c>
       <c r="O7" s="234" t="b">
         <v>1</v>
@@ -8662,23 +8662,23 @@
       </c>
       <c r="H8" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E8),,AllTriggers)</f>
-        <v>-1.8759761247293504E-3</v>
+        <v>-1.8763983747233366E-3</v>
       </c>
       <c r="I8" s="262">
         <f t="shared" si="3"/>
-        <v>3.3359761247293502E-3</v>
+        <v>3.3363983747233365E-3</v>
       </c>
       <c r="J8" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E8,Trigger)</f>
-        <v>3.3344593861252998E-3</v>
+        <v>3.3343720695361697E-3</v>
       </c>
       <c r="K8" s="185">
         <f t="shared" si="4"/>
-        <v>1.5167386040503342E-2</v>
+        <v>2.026305187166795E-2</v>
       </c>
       <c r="L8" s="231">
         <f t="shared" si="1"/>
-        <v>1.5167386040503342E-6</v>
+        <v>2.026305187166795E-6</v>
       </c>
       <c r="M8" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E8,,,Trigger)</f>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="N8" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E8,,AllTriggers)</f>
-        <v>1.0005152621216613</v>
+        <v>1.000514670267223</v>
       </c>
       <c r="O8" s="234" t="b">
         <v>1</v>
@@ -8696,7 +8696,7 @@
       </c>
       <c r="R8" s="279" t="str">
         <f>_xll.qlPolynomialCalibrationEndCriteria(R6,)</f>
-        <v>StationaryFunctionValue</v>
+        <v>None</v>
       </c>
       <c r="T8" s="55"/>
     </row>
@@ -8730,23 +8730,23 @@
       </c>
       <c r="H9" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E9),,AllTriggers)</f>
-        <v>-1.888162200396386E-3</v>
+        <v>-1.8887401753394696E-3</v>
       </c>
       <c r="I9" s="262">
         <f t="shared" si="3"/>
-        <v>3.3781622003963858E-3</v>
+        <v>3.3787401753394694E-3</v>
       </c>
       <c r="J9" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E9,Trigger)</f>
-        <v>3.3827304299022375E-3</v>
+        <v>3.3826841603808522E-3</v>
       </c>
       <c r="K9" s="185">
         <f t="shared" si="4"/>
-        <v>-4.5682295058517564E-2</v>
+        <v>-3.9439850413828387E-2</v>
       </c>
       <c r="L9" s="231">
         <f t="shared" si="1"/>
-        <v>-4.5682295058517564E-6</v>
+        <v>-3.9439850413828387E-6</v>
       </c>
       <c r="M9" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E9,,,Trigger)</f>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="N9" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E9,,AllTriggers)</f>
-        <v>1.0006503193911085</v>
+        <v>1.0006495266127844</v>
       </c>
       <c r="O9" s="234" t="b">
         <v>1</v>
@@ -8764,7 +8764,7 @@
       </c>
       <c r="R9" s="187">
         <f>_xll.qlPolynomialCalibrationError(R6,)</f>
-        <v>3.2344813679542947E-4</v>
+        <v>3.2347542901713599E-4</v>
       </c>
       <c r="T9" s="55"/>
     </row>
@@ -8798,23 +8798,23 @@
       </c>
       <c r="H10" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E10),,AllTriggers)</f>
-        <v>-1.8926872068370569E-3</v>
+        <v>-1.8924358551712199E-3</v>
       </c>
       <c r="I10" s="262">
         <f t="shared" si="3"/>
-        <v>3.4426872068370569E-3</v>
+        <v>3.4424358551712201E-3</v>
       </c>
       <c r="J10" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E10,Trigger)</f>
-        <v>3.437449276301447E-3</v>
+        <v>3.4374497367907664E-3</v>
       </c>
       <c r="K10" s="185">
         <f t="shared" si="4"/>
-        <v>5.2379305356098881E-2</v>
+        <v>4.9861183804536698E-2</v>
       </c>
       <c r="L10" s="231">
         <f t="shared" si="1"/>
-        <v>5.2379305356098881E-6</v>
+        <v>4.9861183804536698E-6</v>
       </c>
       <c r="M10" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E10,,,Trigger)</f>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="N10" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E10,,AllTriggers)</f>
-        <v>1.0008071406590917</v>
+        <v>1.0008074033279986</v>
       </c>
       <c r="O10" s="234" t="b">
         <v>1</v>
@@ -8832,7 +8832,7 @@
       </c>
       <c r="R10" s="187">
         <f>_xll.qlPolynomialCalibrationMaxError(R6,)</f>
-        <v>5.4884881937923916E-4</v>
+        <v>5.4884882469235889E-4</v>
       </c>
       <c r="T10" s="55"/>
     </row>
@@ -8866,23 +8866,23 @@
       </c>
       <c r="H11" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E11),,AllTriggers)</f>
-        <v>-1.8863692785127696E-3</v>
+        <v>-1.8866364780331423E-3</v>
       </c>
       <c r="I11" s="262">
         <f t="shared" si="3"/>
-        <v>3.4963692785127693E-3</v>
+        <v>3.4966364780331417E-3</v>
       </c>
       <c r="J11" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E11,Trigger)</f>
-        <v>3.4835887756993257E-3</v>
+        <v>3.4836282728434773E-3</v>
       </c>
       <c r="K11" s="185">
         <f t="shared" si="4"/>
-        <v>0.12780502813443656</v>
+        <v>0.13008205189664421</v>
       </c>
       <c r="L11" s="231">
         <f t="shared" si="1"/>
-        <v>1.2780502813443655E-5</v>
+        <v>1.3008205189664421E-5</v>
       </c>
       <c r="M11" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E11,,,Trigger)</f>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="N11" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E11,,AllTriggers)</f>
-        <v>1.0009464646588653</v>
+        <v>1.000946307618269</v>
       </c>
       <c r="O11" s="234" t="b">
         <v>1</v>
@@ -8927,23 +8927,23 @@
       </c>
       <c r="H12" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E12),,AllTriggers)</f>
-        <v>-1.870265271496427E-3</v>
+        <v>-1.8704693470291188E-3</v>
       </c>
       <c r="I12" s="262">
         <f t="shared" si="3"/>
-        <v>3.5402652714964268E-3</v>
+        <v>3.5404693470291186E-3</v>
       </c>
       <c r="J12" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E12,Trigger)</f>
-        <v>3.5342389549789617E-3</v>
+        <v>3.5343203242805261E-3</v>
       </c>
       <c r="K12" s="185">
         <f t="shared" si="4"/>
-        <v>6.026316517465137E-2</v>
+        <v>6.1490227485925045E-2</v>
       </c>
       <c r="L12" s="231">
         <f t="shared" si="1"/>
-        <v>6.026316517465137E-6</v>
+        <v>6.1490227485925045E-6</v>
       </c>
       <c r="M12" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E12,,,Trigger)</f>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="N12" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E12,,AllTriggers)</f>
-        <v>1.0011049582208984</v>
+        <v>1.0011048200524264</v>
       </c>
       <c r="O12" s="234" t="b">
         <v>1</v>
@@ -8997,23 +8997,23 @@
       </c>
       <c r="H13" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E13),,AllTriggers)</f>
-        <v>-1.841462166369908E-3</v>
+        <v>-1.8414437202698085E-3</v>
       </c>
       <c r="I13" s="262">
         <f t="shared" si="3"/>
-        <v>3.5914621663699076E-3</v>
+        <v>3.5914437202698084E-3</v>
       </c>
       <c r="J13" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E13,Trigger)</f>
-        <v>3.5859109676464438E-3</v>
+        <v>3.586033322264042E-3</v>
       </c>
       <c r="K13" s="185">
         <f t="shared" si="4"/>
-        <v>5.5511987234638065E-2</v>
+        <v>5.4103980057663287E-2</v>
       </c>
       <c r="L13" s="231">
         <f t="shared" si="1"/>
-        <v>5.5511987234638065E-6</v>
+        <v>5.4103980057663287E-6</v>
       </c>
       <c r="M13" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E13,,,Trigger)</f>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="N13" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E13,,AllTriggers)</f>
-        <v>1.0012739236534773</v>
+        <v>1.0012739427488606</v>
       </c>
       <c r="O13" s="234" t="b">
         <v>1</v>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="R13" s="187">
         <f t="array" ref="R13:R17">_xll.qlPolynomialCalibrationCoefficients($R$6,R7)</f>
-        <v>3.1303464320642811E-3</v>
+        <v>3.1300994073015375E-3</v>
       </c>
       <c r="S13" s="187" t="b">
         <v>1</v>
@@ -9070,23 +9070,23 @@
       </c>
       <c r="H14" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E14),,AllTriggers)</f>
-        <v>-1.8046148437726216E-3</v>
+        <v>-1.8048142417614816E-3</v>
       </c>
       <c r="I14" s="262">
         <f t="shared" si="0"/>
-        <v>3.6346148437726216E-3</v>
+        <v>3.6348142417614816E-3</v>
       </c>
       <c r="J14" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E14,Trigger)</f>
-        <v>3.6320819547688782E-3</v>
+        <v>3.6322388210557307E-3</v>
       </c>
       <c r="K14" s="185">
         <f t="shared" si="4"/>
-        <v>2.5328890037434187E-2</v>
+        <v>2.5754207057509387E-2</v>
       </c>
       <c r="L14" s="231">
         <f t="shared" si="1"/>
-        <v>2.5328890037434187E-6</v>
+        <v>2.5754207057509387E-6</v>
       </c>
       <c r="M14" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E14,,,Trigger)</f>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="N14" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E14,,AllTriggers)</f>
-        <v>1.0014304042935918</v>
+        <v>1.0014302815221856</v>
       </c>
       <c r="O14" s="234" t="b">
         <v>1</v>
@@ -9103,7 +9103,7 @@
         <v>114</v>
       </c>
       <c r="R14" s="187">
-        <v>5.9918557082299392E-4</v>
+        <v>5.995969478929283E-4</v>
       </c>
       <c r="S14" s="187" t="b">
         <v>1</v>
@@ -9142,23 +9142,23 @@
       </c>
       <c r="H15" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E15),,AllTriggers)</f>
-        <v>-1.7520583387576148E-3</v>
+        <v>-1.7523443455322815E-3</v>
       </c>
       <c r="I15" s="262">
         <f>G15-H15</f>
-        <v>3.6720583387576146E-3</v>
+        <v>3.6723443455322817E-3</v>
       </c>
       <c r="J15" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E15,Trigger)</f>
-        <v>3.6806207111433923E-3</v>
+        <v>3.6808110003664646E-3</v>
       </c>
       <c r="K15" s="185">
         <f t="shared" si="4"/>
-        <v>-8.5623723857777487E-2</v>
+        <v>-8.4666548341829143E-2</v>
       </c>
       <c r="L15" s="231">
         <f t="shared" si="1"/>
-        <v>-8.5623723857777487E-6</v>
+        <v>-8.4666548341829143E-6</v>
       </c>
       <c r="M15" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E15,,,Trigger)</f>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="N15" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E15,,AllTriggers)</f>
-        <v>1.0015991852523043</v>
+        <v>1.0015990365223564</v>
       </c>
       <c r="O15" s="234" t="b">
         <v>1</v>
@@ -9175,7 +9175,7 @@
         <v>115</v>
       </c>
       <c r="R15" s="187">
-        <v>3.1388670846379781E-5</v>
+        <v>3.16415429733173E-5</v>
       </c>
       <c r="S15" s="187" t="b">
         <v>1</v>
@@ -9214,23 +9214,23 @@
       </c>
       <c r="H16" s="62">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E16),,AllTriggers)</f>
-        <v>-1.6911771583174098E-3</v>
+        <v>-1.6911753911141494E-3</v>
       </c>
       <c r="I16" s="262">
         <f>G16-H16</f>
-        <v>3.7211771583174095E-3</v>
+        <v>3.7211753911141491E-3</v>
       </c>
       <c r="J16" s="62">
         <f>_xll.qlTenorBasisValue($R$18,E16,Trigger)</f>
-        <v>3.7281871571942689E-3</v>
+        <v>3.7284065671389756E-3</v>
       </c>
       <c r="K16" s="185">
         <f t="shared" si="4"/>
-        <v>-7.0099988768593594E-2</v>
+        <v>-7.2311760248265633E-2</v>
       </c>
       <c r="L16" s="231">
         <f t="shared" si="1"/>
-        <v>-7.0099988768593594E-6</v>
+        <v>-7.2311760248265633E-6</v>
       </c>
       <c r="M16" s="203">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E16,,,Trigger)</f>
@@ -9238,7 +9238,7 @@
       </c>
       <c r="N16" s="181">
         <f>_xll.qlYieldTSDiscount(Discounting,E16,,AllTriggers)</f>
-        <v>1.0017703617001901</v>
+        <v>1.0017703535801519</v>
       </c>
       <c r="O16" s="234" t="b">
         <v>1</v>
@@ -9247,7 +9247,7 @@
         <v>116</v>
       </c>
       <c r="R16" s="187">
-        <v>-3.5770418290078184E-5</v>
+        <v>-3.5969967427505409E-5</v>
       </c>
       <c r="S16" s="187" t="b">
         <v>1</v>
@@ -9284,23 +9284,23 @@
       </c>
       <c r="H17" s="65">
         <f>_xll.qlIndexFixing(ON_12M_index,_xll.qlInterestRateIndexFixingDate(ON_12M_index,E17),,AllTriggers)</f>
-        <v>-1.1958855942131673E-4</v>
+        <v>-1.1958856473443654E-4</v>
       </c>
       <c r="I17" s="257">
         <f>G17-H17</f>
-        <v>4.1695885594213175E-3</v>
+        <v>4.1695885647344373E-3</v>
       </c>
       <c r="J17" s="65">
         <f>_xll.qlTenorBasisValue($R$18,E17,Trigger)</f>
-        <v>4.1689171106538301E-3</v>
+        <v>4.1689052660885233E-3</v>
       </c>
       <c r="K17" s="186">
         <f t="shared" ref="K17" si="7">L17*10000</f>
-        <v>6.71448767487412E-3</v>
+        <v>6.8329864591400863E-3</v>
       </c>
       <c r="L17" s="232">
         <f t="shared" ref="L17" si="8">I17-J17</f>
-        <v>6.71448767487412E-7</v>
+        <v>6.8329864591400863E-7</v>
       </c>
       <c r="M17" s="204">
         <f>_xll.qlDayCounterYearFraction("actual/365 (fixed)",SettlementDate,E17,,,Trigger)</f>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="N17" s="182">
         <f>_xll.qlYieldTSDiscount(Discounting,E17,,AllTriggers)</f>
-        <v>1.003487755432563</v>
+        <v>1.0034877554175099</v>
       </c>
       <c r="O17" s="235" t="b">
         <v>1</v>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="R18" s="187" t="str">
         <f>_xll.qlPolynomialTenorBasis(,PROPER(Currency)&amp;IborType&amp;$F$1,Discounting,SettlementDate,TRUE,_xll.ohFilter(R13:R17,S13:S17),,Trigger)</f>
-        <v>obj_005a3#0002</v>
+        <v>obj_00969#0000</v>
       </c>
       <c r="T18" s="55"/>
     </row>
@@ -9383,7 +9383,7 @@
       </c>
       <c r="I20" s="284">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G20,H20,AllTriggers)</f>
-        <v>1.4175468018873261E-3</v>
+        <v>1.4333547028755333E-3</v>
       </c>
       <c r="T20" s="55"/>
     </row>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="I21" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G21,H21,AllTriggers)</f>
-        <v>1.3667900797211172E-3</v>
+        <v>1.3663833517441049E-3</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="I22" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G22,H22,AllTriggers)</f>
-        <v>1.3720079071712274E-3</v>
+        <v>1.3716018395060203E-3</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="I23" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G23,H23,AllTriggers)</f>
-        <v>1.3772460871981046E-3</v>
+        <v>1.3768408118914571E-3</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9452,7 +9452,7 @@
       </c>
       <c r="I24" s="286">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G24,H24,AllTriggers)</f>
-        <v>1.4147710458356499E-3</v>
+        <v>1.4143671232447913E-3</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="I25" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G25,H25,AllTriggers)</f>
-        <v>1.3875411050914604E-3</v>
+        <v>1.3871427618524104E-3</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="I26" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G26,H26,AllTriggers)</f>
-        <v>1.4332284729959347E-3</v>
+        <v>1.4271359885300735E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="I27" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G27,H27,AllTriggers)</f>
-        <v>1.3969750873161605E-3</v>
+        <v>1.3983270840694114E-3</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="I28" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G28,H28,AllTriggers)</f>
-        <v>1.3843348357612864E-3</v>
+        <v>1.3858433833996724E-3</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="I29" s="285">
         <f>_xll.qlTenorBasisForwardRate2(TenorBasis12M,G29,H29,AllTriggers)</f>
-        <v>1.3777408141027985E-3</v>
+        <v>1.3768754129557309E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="I30" s="285">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G30,AllTriggers)</f>
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="I31" s="285">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G31,AllTriggers)</f>
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="I32" s="285">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G32,AllTriggers)</f>
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
     </row>
     <row r="33" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="I33" s="285">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G33,AllTriggers)</f>
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
     </row>
     <row r="34" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="I34" s="285">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G34,AllTriggers)</f>
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="I35" s="288">
         <f>_xll.qlTenorBasisTenorForwardRate(TenorBasis12M,G35,AllTriggers)</f>
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
     </row>
     <row r="36" spans="5:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9804,15 +9804,15 @@
       </c>
       <c r="E3" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B3,,AllTriggers)</f>
-        <v>-1.7272696312701742E-3</v>
+        <v>-1.7272616941868132E-3</v>
       </c>
       <c r="F3" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C3,TRUE,E3)</f>
-        <v>3.1372653265116395E-3</v>
+        <v>3.1372064626577073E-3</v>
       </c>
       <c r="G3" s="75">
         <f t="shared" ref="G3:G27" si="0">E3+F3</f>
-        <v>1.4099956952414654E-3</v>
+        <v>1.4099447684708941E-3</v>
       </c>
       <c r="Z3" s="71"/>
       <c r="AA3" s="71"/>
@@ -9836,15 +9836,15 @@
       </c>
       <c r="E4" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B4,,AllTriggers)</f>
-        <v>-1.7761148752006815E-3</v>
+        <v>-1.7759798676635098E-3</v>
       </c>
       <c r="F4" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C4,TRUE,E4)</f>
-        <v>3.1761148752006813E-3</v>
+        <v>3.1759798676635094E-3</v>
       </c>
       <c r="G4" s="79">
         <f t="shared" si="0"/>
-        <v>1.3999999999999998E-3</v>
+        <v>1.3999999999999996E-3</v>
       </c>
       <c r="Z4" s="71"/>
       <c r="AA4" s="71"/>
@@ -9868,11 +9868,11 @@
       </c>
       <c r="E5" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B5,,AllTriggers)</f>
-        <v>-1.813363531901284E-3</v>
+        <v>-1.8131920589106142E-3</v>
       </c>
       <c r="F5" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C5,TRUE,E5)</f>
-        <v>3.2133635319012838E-3</v>
+        <v>3.2131920589106139E-3</v>
       </c>
       <c r="G5" s="79">
         <f t="shared" si="0"/>
@@ -9900,11 +9900,11 @@
       </c>
       <c r="E6" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B6,,AllTriggers)</f>
-        <v>-1.8581850823209912E-3</v>
+        <v>-1.8567217092998706E-3</v>
       </c>
       <c r="F6" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C6,TRUE,E6)</f>
-        <v>3.278185082320991E-3</v>
+        <v>3.2767217092998704E-3</v>
       </c>
       <c r="G6" s="79">
         <f t="shared" si="0"/>
@@ -9932,15 +9932,15 @@
       </c>
       <c r="E7" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B7,,AllTriggers)</f>
-        <v>-1.8759761247293504E-3</v>
+        <v>-1.8763983747233366E-3</v>
       </c>
       <c r="F7" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C7,TRUE,E7)</f>
-        <v>3.3359761247293502E-3</v>
+        <v>3.3363983747233365E-3</v>
       </c>
       <c r="G7" s="79">
         <f t="shared" si="0"/>
-        <v>1.4599999999999997E-3</v>
+        <v>1.4599999999999999E-3</v>
       </c>
       <c r="Z7" s="71"/>
       <c r="AA7" s="71"/>
@@ -9964,11 +9964,11 @@
       </c>
       <c r="E8" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B8,,AllTriggers)</f>
-        <v>-1.888162200396386E-3</v>
+        <v>-1.8887401753394696E-3</v>
       </c>
       <c r="F8" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C8,TRUE,E8)</f>
-        <v>3.3781622003963858E-3</v>
+        <v>3.3787401753394694E-3</v>
       </c>
       <c r="G8" s="79">
         <f t="shared" si="0"/>
@@ -9996,15 +9996,15 @@
       </c>
       <c r="E9" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B9,,AllTriggers)</f>
-        <v>-1.8926872068370569E-3</v>
+        <v>-1.8924358551712199E-3</v>
       </c>
       <c r="F9" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C9,TRUE,E9)</f>
-        <v>3.4426872068370569E-3</v>
+        <v>3.4424358551712201E-3</v>
       </c>
       <c r="G9" s="79">
         <f t="shared" si="0"/>
-        <v>1.5499999999999999E-3</v>
+        <v>1.5500000000000002E-3</v>
       </c>
       <c r="Z9" s="71"/>
       <c r="AA9" s="71"/>
@@ -10028,15 +10028,15 @@
       </c>
       <c r="E10" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B10,,AllTriggers)</f>
-        <v>-1.8863692785127696E-3</v>
+        <v>-1.8866364780331423E-3</v>
       </c>
       <c r="F10" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C10,TRUE,E10)</f>
-        <v>3.4963692785127693E-3</v>
+        <v>3.4966364780331417E-3</v>
       </c>
       <c r="G10" s="79">
         <f t="shared" si="0"/>
-        <v>1.6099999999999997E-3</v>
+        <v>1.6099999999999995E-3</v>
       </c>
       <c r="H10" s="72"/>
       <c r="Z10" s="71"/>
@@ -10061,11 +10061,11 @@
       </c>
       <c r="E11" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B11,,AllTriggers)</f>
-        <v>-1.870265271496427E-3</v>
+        <v>-1.8704693470291188E-3</v>
       </c>
       <c r="F11" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C11,TRUE,E11)</f>
-        <v>3.5402652714964268E-3</v>
+        <v>3.5404693470291186E-3</v>
       </c>
       <c r="G11" s="79">
         <f t="shared" si="0"/>
@@ -10094,15 +10094,15 @@
       </c>
       <c r="E12" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B12,,AllTriggers)</f>
-        <v>-1.841462166369908E-3</v>
+        <v>-1.8414437202698085E-3</v>
       </c>
       <c r="F12" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C12,TRUE,E12)</f>
-        <v>3.5914621663699076E-3</v>
+        <v>3.5914437202698084E-3</v>
       </c>
       <c r="G12" s="79">
         <f t="shared" si="0"/>
-        <v>1.7499999999999996E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="H12" s="72"/>
       <c r="Z12" s="71"/>
@@ -10127,11 +10127,11 @@
       </c>
       <c r="E13" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B13,,AllTriggers)</f>
-        <v>-1.8046148437726216E-3</v>
+        <v>-1.8048142417614816E-3</v>
       </c>
       <c r="F13" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C13,TRUE,E13)</f>
-        <v>3.6346148437726216E-3</v>
+        <v>3.6348142417614816E-3</v>
       </c>
       <c r="G13" s="79">
         <f t="shared" si="0"/>
@@ -10160,15 +10160,15 @@
       </c>
       <c r="E14" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B14,,AllTriggers)</f>
-        <v>-1.7520583387576148E-3</v>
+        <v>-1.7523443455322815E-3</v>
       </c>
       <c r="F14" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C14,TRUE,E14)</f>
-        <v>3.6720583387576146E-3</v>
+        <v>3.6723443455322817E-3</v>
       </c>
       <c r="G14" s="83">
         <f t="shared" si="0"/>
-        <v>1.9199999999999998E-3</v>
+        <v>1.9200000000000003E-3</v>
       </c>
       <c r="H14" s="72"/>
       <c r="Z14" s="71"/>
@@ -10193,11 +10193,11 @@
       </c>
       <c r="E15" s="75">
         <f>_xll.qlIndexFixing(ON_12M_index,B15,,AllTriggers)</f>
-        <v>-1.6911771583174098E-3</v>
+        <v>-1.6911753911141494E-3</v>
       </c>
       <c r="F15" s="76">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C15,TRUE,E15)</f>
-        <v>3.7211771583174095E-3</v>
+        <v>3.7211753911141491E-3</v>
       </c>
       <c r="G15" s="75">
         <f t="shared" si="0"/>
@@ -10226,15 +10226,15 @@
       </c>
       <c r="E16" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B16,,AllTriggers)</f>
-        <v>-1.617951038122894E-3</v>
+        <v>-1.6176578005712835E-3</v>
       </c>
       <c r="F16" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C16,TRUE,E16)</f>
-        <v>3.7697042334231719E-3</v>
+        <v>3.7694094063513528E-3</v>
       </c>
       <c r="G16" s="79">
         <f t="shared" si="0"/>
-        <v>2.1517531953002779E-3</v>
+        <v>2.1517516057800693E-3</v>
       </c>
       <c r="H16" s="72"/>
       <c r="Z16" s="71"/>
@@ -10259,15 +10259,15 @@
       </c>
       <c r="E17" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B17,,AllTriggers)</f>
-        <v>-1.530980315033481E-3</v>
+        <v>-1.5301490025410671E-3</v>
       </c>
       <c r="F17" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C17,TRUE,E17)</f>
-        <v>3.815247617311608E-3</v>
+        <v>3.8147353422221092E-3</v>
       </c>
       <c r="G17" s="79">
         <f t="shared" si="0"/>
-        <v>2.284267302278127E-3</v>
+        <v>2.2845863396810419E-3</v>
       </c>
       <c r="H17" s="72"/>
       <c r="Z17" s="71"/>
@@ -10292,15 +10292,15 @@
       </c>
       <c r="E18" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B18,,AllTriggers)</f>
-        <v>-1.4408003962847191E-3</v>
+        <v>-1.4392966663350642E-3</v>
       </c>
       <c r="F18" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C18,TRUE,E18)</f>
-        <v>3.8594592538035008E-3</v>
+        <v>3.8587945027723351E-3</v>
       </c>
       <c r="G18" s="79">
         <f t="shared" si="0"/>
-        <v>2.4186588575187814E-3</v>
+        <v>2.4194978364372706E-3</v>
       </c>
       <c r="H18" s="72"/>
       <c r="Z18" s="71"/>
@@ -10325,15 +10325,15 @@
       </c>
       <c r="E19" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B19,,AllTriggers)</f>
-        <v>-1.3304468676922274E-3</v>
+        <v>-1.3287192003415664E-3</v>
       </c>
       <c r="F19" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C19,TRUE,E19)</f>
-        <v>3.9010668306083043E-3</v>
+        <v>3.9003155949725093E-3</v>
       </c>
       <c r="G19" s="79">
         <f t="shared" si="0"/>
-        <v>2.5706199629160769E-3</v>
+        <v>2.5715963946309432E-3</v>
       </c>
       <c r="H19" s="72"/>
       <c r="Z19" s="71"/>
@@ -10358,15 +10358,15 @@
       </c>
       <c r="E20" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B20,,AllTriggers)</f>
-        <v>-1.2237571807575257E-3</v>
+        <v>-1.2219170370512929E-3</v>
       </c>
       <c r="F20" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C20,TRUE,E20)</f>
-        <v>3.9366555838442124E-3</v>
+        <v>3.9358767209708261E-3</v>
       </c>
       <c r="G20" s="79">
         <f t="shared" si="0"/>
-        <v>2.7128984030866865E-3</v>
+        <v>2.7139596839195331E-3</v>
       </c>
       <c r="H20" s="72"/>
       <c r="Z20" s="71"/>
@@ -10391,15 +10391,15 @@
       </c>
       <c r="E21" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B21,,AllTriggers)</f>
-        <v>-1.091753098582873E-3</v>
+        <v>-1.0897859131782735E-3</v>
       </c>
       <c r="F21" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C21,TRUE,E21)</f>
-        <v>3.9753019962523511E-3</v>
+        <v>3.9745429130707086E-3</v>
       </c>
       <c r="G21" s="79">
         <f t="shared" si="0"/>
-        <v>2.8835488976694783E-3</v>
+        <v>2.8847569998924349E-3</v>
       </c>
       <c r="H21" s="72"/>
       <c r="Z21" s="71"/>
@@ -10424,15 +10424,15 @@
       </c>
       <c r="E22" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B22,,AllTriggers)</f>
-        <v>-9.6110523127542445E-4</v>
+        <v>-9.5931610074873519E-4</v>
       </c>
       <c r="F22" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C22,TRUE,E22)</f>
-        <v>4.0087186850642411E-3</v>
+        <v>4.0080182417951901E-3</v>
       </c>
       <c r="G22" s="79">
         <f t="shared" si="0"/>
-        <v>3.0476134537888167E-3</v>
+        <v>3.0487021410464548E-3</v>
       </c>
       <c r="H22" s="72"/>
       <c r="Z22" s="71"/>
@@ -10457,15 +10457,15 @@
       </c>
       <c r="E23" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B23,,AllTriggers)</f>
-        <v>-8.0427785416639175E-4</v>
+        <v>-8.0306693677246002E-4</v>
       </c>
       <c r="F23" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C23,TRUE,E23)</f>
-        <v>4.0430337870274967E-3</v>
+        <v>4.0424316629689878E-3</v>
       </c>
       <c r="G23" s="79">
         <f t="shared" si="0"/>
-        <v>3.238755932861105E-3</v>
+        <v>3.239364726196528E-3</v>
       </c>
       <c r="H23" s="72"/>
       <c r="Z23" s="71"/>
@@ -10490,15 +10490,15 @@
       </c>
       <c r="E24" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B24,,AllTriggers)</f>
-        <v>-6.4799627954878372E-4</v>
+        <v>-6.4738931074479877E-4</v>
       </c>
       <c r="F24" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C24,TRUE,E24)</f>
-        <v>4.0761851700097081E-3</v>
+        <v>4.0757108557958749E-3</v>
       </c>
       <c r="G24" s="79">
         <f t="shared" si="0"/>
-        <v>3.4281888904609242E-3</v>
+        <v>3.4283215450510761E-3</v>
       </c>
       <c r="H24" s="72"/>
       <c r="Z24" s="71"/>
@@ -10523,15 +10523,15 @@
       </c>
       <c r="E25" s="79">
         <f>_xll.qlIndexFixing(ON_12M_index,B25,,AllTriggers)</f>
-        <v>-4.8184724752116289E-4</v>
+        <v>-4.8166732676998848E-4</v>
       </c>
       <c r="F25" s="80">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C25,TRUE,E25)</f>
-        <v>4.1074376556199492E-3</v>
+        <v>4.1071080492520373E-3</v>
       </c>
       <c r="G25" s="79">
         <f t="shared" si="0"/>
-        <v>3.6255904080987863E-3</v>
+        <v>3.6254407224820488E-3</v>
       </c>
       <c r="H25" s="72"/>
       <c r="Z25" s="71"/>
@@ -10556,15 +10556,15 @@
       </c>
       <c r="E26" s="83">
         <f>_xll.qlIndexFixing(ON_12M_index,B26,,AllTriggers)</f>
-        <v>-2.895725641163645E-4</v>
+        <v>-2.8961586445140804E-4</v>
       </c>
       <c r="F26" s="84">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C26,TRUE,E26)</f>
-        <v>4.1411963185296555E-3</v>
+        <v>4.1410415791194007E-3</v>
       </c>
       <c r="G26" s="83">
         <f t="shared" si="0"/>
-        <v>3.8516237544132912E-3</v>
+        <v>3.8514257146679927E-3</v>
       </c>
       <c r="H26" s="72"/>
       <c r="Z26" s="71"/>
@@ -10589,11 +10589,11 @@
       </c>
       <c r="E27" s="338">
         <f>_xll.qlIndexFixing(ON_12M_index,B27,,AllTriggers)</f>
-        <v>-1.1958855942131673E-4</v>
+        <v>-1.1958856473443654E-4</v>
       </c>
       <c r="F27" s="339">
         <f>_xll.qlInterpolationInterpolate(BasisInterpolator,C27,TRUE,E27)</f>
-        <v>4.1695885594213175E-3</v>
+        <v>4.1695885647344373E-3</v>
       </c>
       <c r="G27" s="338">
         <f t="shared" si="0"/>
@@ -10638,7 +10638,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="N2" s="99">
         <f>_xll.ohTrigger(M3:M7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -10722,7 +10722,7 @@
       </c>
       <c r="D3" s="155" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH1M_Quote#0002</v>
+        <v>EURSND_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E3" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -10734,22 +10734,22 @@
       </c>
       <c r="H3" s="136">
         <f>'1MSynthDepo'!V11</f>
-        <v>-1.1818933969509615E-3</v>
+        <v>-1.1460180260103314E-3</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="129">
-        <v>-1.1818933969509615E-3</v>
+        <v>-1.1460180260103314E-3</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="117">
         <f t="array" ref="L3:L63">QuoteStatic</f>
-        <v>-1.1818933969509615E-3</v>
+        <v>-1.1460180260103314E-3</v>
       </c>
       <c r="M3" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D3,ROUND($L3,6),EvaluationDate)</f>
-        <v>-1.690000000000001E-4</v>
+        <v>3.6000000000000008E-5</v>
       </c>
       <c r="N3" s="101"/>
     </row>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="D4" s="157" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH1M_Quote#0002</v>
+        <v>EURSWD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E4" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -10779,21 +10779,21 @@
       </c>
       <c r="H4" s="136">
         <f>'1MSynthDepo'!V12</f>
-        <v>-1.2193612458258737E-3</v>
+        <v>-1.2041417597030701E-3</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J4" s="129">
-        <v>-1.2193612458258737E-3</v>
+        <v>-1.2041417597030701E-3</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="117">
-        <v>-1.2193612458258737E-3</v>
+        <v>-1.2041417597030701E-3</v>
       </c>
       <c r="M4" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D4,ROUND($L4,6),EvaluationDate)</f>
-        <v>-1.200000000000001E-4</v>
+        <v>1.5000000000000039E-5</v>
       </c>
       <c r="N4" s="101"/>
     </row>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="D5" s="157" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH1M_Quote#0002</v>
+        <v>EUR2WD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E5" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -10820,21 +10820,21 @@
       </c>
       <c r="H5" s="136">
         <f>'1MSynthDepo'!V13</f>
-        <v>-1.1962377503417696E-3</v>
+        <v>-1.1873380266980149E-3</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J5" s="129">
-        <v>-1.1962377503417696E-3</v>
+        <v>-1.1873380266980149E-3</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="117">
-        <v>-1.1962377503417696E-3</v>
+        <v>-1.1873380266980149E-3</v>
       </c>
       <c r="M5" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D5,ROUND($L5,6),EvaluationDate)</f>
-        <v>-7.2000000000000015E-5</v>
+        <v>9.0000000000001103E-6</v>
       </c>
       <c r="N5" s="101"/>
     </row>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="D6" s="157" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH1M_Quote#0002</v>
+        <v>EUR3WD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E6" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -10861,21 +10861,21 @@
       </c>
       <c r="H6" s="136">
         <f>'1MSynthDepo'!V14</f>
-        <v>-1.1792565643663011E-3</v>
+        <v>-1.1750022293981793E-3</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="130">
-        <v>-1.1792565643663011E-3</v>
+        <v>-1.1750022293981793E-3</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="119">
-        <v>-1.1792565643663011E-3</v>
+        <v>-1.1750022293981793E-3</v>
       </c>
       <c r="M6" s="120">
         <f>_xll.qlSimpleQuoteSetValue(D6,ROUND($L6,6),EvaluationDate)</f>
-        <v>-3.6000000000000008E-5</v>
+        <v>3.9999999999998804E-6</v>
       </c>
       <c r="N6" s="101"/>
     </row>
@@ -10890,7 +10890,7 @@
       </c>
       <c r="D7" s="159" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH1M_Quote#0002</v>
+        <v>EUR1MD_SYNTH1M_Quote#0001</v>
       </c>
       <c r="E7" s="162" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -10902,21 +10902,21 @@
       </c>
       <c r="H7" s="139">
         <f>'1MSynthDepo'!V15</f>
-        <v>-1.1341642445812157E-3</v>
+        <v>-1.1340445794298794E-3</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="131">
-        <v>-1.1341642445812157E-3</v>
+        <v>-1.1340445794298794E-3</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="121">
-        <v>-1.1341642445812157E-3</v>
+        <v>-1.1340445794298794E-3</v>
       </c>
       <c r="M7" s="122">
         <f>_xll.qlSimpleQuoteSetValue(D7,ROUND($L7,6),EvaluationDate)</f>
-        <v>-1.0000000000001327E-6</v>
+        <v>0</v>
       </c>
       <c r="N7" s="104"/>
     </row>
@@ -10933,7 +10933,7 @@
       </c>
       <c r="D8" s="155" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH3M_Quote#0002</v>
+        <v>EURSND_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E8" s="160"/>
       <c r="F8" s="16"/>
@@ -10942,23 +10942,23 @@
       </c>
       <c r="H8" s="141">
         <f>'3MSynthDepo'!I31</f>
-        <v>-4.6216392257214522E-4</v>
+        <v>-4.5109144639621235E-4</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="129">
-        <v>-4.6216392257214522E-4</v>
+        <v>-4.5109144639621235E-4</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="117">
-        <v>-4.6216392257214522E-4</v>
+        <v>-4.5109144639621235E-4</v>
       </c>
       <c r="M8" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND($L8,6),EvaluationDate)</f>
-        <v>-1.9000000000000028E-5</v>
+        <v>1.0999999999999996E-5</v>
       </c>
       <c r="N8" s="105">
         <f>_xll.ohTrigger(M8:M14)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="D9" s="157" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH3M_Quote#0002</v>
+        <v>EURSWD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E9" s="161"/>
       <c r="F9" s="16"/>
@@ -10984,19 +10984,19 @@
       </c>
       <c r="H9" s="136">
         <f>'3MSynthDepo'!I32</f>
-        <v>-5.1208307960872086E-4</v>
+        <v>-5.1715048259737273E-4</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="129">
-        <v>-5.1208307960872086E-4</v>
+        <v>-5.1715048259737273E-4</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="117">
-        <v>-5.1208307960872086E-4</v>
+        <v>-5.1715048259737273E-4</v>
       </c>
       <c r="M9" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND($L9,6),EvaluationDate)</f>
-        <v>-1.9999999999999402E-6</v>
+        <v>-5.0000000000000131E-6</v>
       </c>
       <c r="N9" s="101"/>
     </row>
@@ -11011,7 +11011,7 @@
       </c>
       <c r="D10" s="157" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH3M_Quote#0002</v>
+        <v>EUR2WD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E10" s="161"/>
       <c r="F10" s="16"/>
@@ -11020,19 +11020,19 @@
       </c>
       <c r="H10" s="136">
         <f>'3MSynthDepo'!I33</f>
-        <v>-5.0549147297105994E-4</v>
+        <v>-5.1043012987163545E-4</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="129">
-        <v>-5.0549147297105994E-4</v>
+        <v>-5.1043012987163545E-4</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="117">
-        <v>-5.0549147297105994E-4</v>
+        <v>-5.1043012987163545E-4</v>
       </c>
       <c r="M10" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND($L10,6),EvaluationDate)</f>
-        <v>-2.0000000000000486E-6</v>
+        <v>-5.0000000000000131E-6</v>
       </c>
       <c r="N10" s="101"/>
     </row>
@@ -11047,7 +11047,7 @@
       </c>
       <c r="D11" s="157" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH3M_Quote#0002</v>
+        <v>EUR3WD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E11" s="161"/>
       <c r="F11" s="16"/>
@@ -11056,19 +11056,19 @@
       </c>
       <c r="H11" s="144">
         <f>'3MSynthDepo'!I34</f>
-        <v>-4.9899359318634443E-4</v>
+        <v>-5.0380624186211311E-4</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="130">
-        <v>-4.9899359318634443E-4</v>
+        <v>-5.0380624186211311E-4</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="119">
-        <v>-4.9899359318634443E-4</v>
+        <v>-5.0380624186211311E-4</v>
       </c>
       <c r="M11" s="120">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND($L11,6),EvaluationDate)</f>
-        <v>-1.9999999999999402E-6</v>
+        <v>-5.0000000000000131E-6</v>
       </c>
       <c r="N11" s="101"/>
     </row>
@@ -11083,7 +11083,7 @@
       </c>
       <c r="D12" s="157" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH3M_Quote#0002</v>
+        <v>EUR1MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E12" s="161"/>
       <c r="F12" s="16"/>
@@ -11092,19 +11092,19 @@
       </c>
       <c r="H12" s="136">
         <f>'3MSynthDepo'!I35</f>
-        <v>-4.5986928879109484E-4</v>
+        <v>-4.6450662902420084E-4</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="129">
-        <v>-4.5986928879109484E-4</v>
+        <v>-4.6450662902420084E-4</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="117">
-        <v>-4.5986928879109484E-4</v>
+        <v>-4.6450662902420084E-4</v>
       </c>
       <c r="M12" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND($L12,6),EvaluationDate)</f>
-        <v>-1.9999999999999944E-6</v>
+        <v>-5.0000000000000131E-6</v>
       </c>
       <c r="N12" s="101"/>
     </row>
@@ -11119,7 +11119,7 @@
       </c>
       <c r="D13" s="157" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH3M_Quote#0002</v>
+        <v>EUR2MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E13" s="161"/>
       <c r="F13" s="16"/>
@@ -11128,19 +11128,19 @@
       </c>
       <c r="H13" s="136">
         <f>'3MSynthDepo'!I36</f>
-        <v>-4.8361993965124637E-4</v>
+        <v>-4.8776355641701798E-4</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="129">
-        <v>-4.8361993965124637E-4</v>
+        <v>-4.8776355641701798E-4</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="117">
-        <v>-4.8361993965124637E-4</v>
+        <v>-4.8776355641701798E-4</v>
       </c>
       <c r="M13" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND($L13,6),EvaluationDate)</f>
-        <v>-1.9999999999999998E-5</v>
+        <v>-3.9999999999999888E-6</v>
       </c>
       <c r="N13" s="101"/>
     </row>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="D14" s="159" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH3M_Quote#0002</v>
+        <v>EUR3MD_SYNTH3M_Quote#0001</v>
       </c>
       <c r="E14" s="162"/>
       <c r="F14" s="16"/>
@@ -11164,19 +11164,19 @@
       </c>
       <c r="H14" s="144">
         <f>'3MSynthDepo'!I37</f>
-        <v>-4.3636004553916906E-4</v>
+        <v>-4.45714194648509E-4</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="130">
-        <v>-4.3636004553916906E-4</v>
+        <v>-4.45714194648509E-4</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="119">
-        <v>-4.3636004553916906E-4</v>
+        <v>-4.45714194648509E-4</v>
       </c>
       <c r="M14" s="120">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND($L14,6),EvaluationDate)</f>
-        <v>1.799999999999995E-5</v>
+        <v>-9.999999999999972E-6</v>
       </c>
       <c r="N14" s="101"/>
     </row>
@@ -11193,7 +11193,7 @@
       </c>
       <c r="D15" s="155" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH6M_Quote#0002</v>
+        <v>EURSND_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E15" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -11205,23 +11205,23 @@
       </c>
       <c r="H15" s="141">
         <f>'6MSynthDepo'!I25</f>
-        <v>2.4841679715947862E-4</v>
+        <v>2.6499467479013106E-4</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="129">
-        <v>2.4841679715947862E-4</v>
+        <v>2.6499467479013106E-4</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="117">
-        <v>2.4841679715947862E-4</v>
+        <v>2.6499467479013106E-4</v>
       </c>
       <c r="M15" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND($L15,6),EvaluationDate)</f>
-        <v>-1.6000000000000009E-5</v>
+        <v>1.699999999999998E-5</v>
       </c>
       <c r="N15" s="107">
         <f>_xll.ohTrigger(M15:M24)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -11238,7 +11238,7 @@
       </c>
       <c r="D16" s="157" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH6M_Quote#0002</v>
+        <v>EURSWD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E16" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -11250,19 +11250,19 @@
       </c>
       <c r="H16" s="136">
         <f>'6MSynthDepo'!I26</f>
-        <v>1.9915279379897503E-4</v>
+        <v>1.9950032922798146E-4</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="129">
-        <v>1.9915279379897503E-4</v>
+        <v>1.9950032922798146E-4</v>
       </c>
       <c r="K16" s="16"/>
       <c r="L16" s="117">
-        <v>1.9915279379897503E-4</v>
+        <v>1.9950032922798146E-4</v>
       </c>
       <c r="M16" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND($L16,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>9.999999999999972E-7</v>
       </c>
       <c r="N16" s="108"/>
     </row>
@@ -11277,7 +11277,7 @@
       </c>
       <c r="D17" s="157" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH6M_Quote#0002</v>
+        <v>EUR2WD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E17" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -11289,15 +11289,15 @@
       </c>
       <c r="H17" s="136">
         <f>'6MSynthDepo'!I27</f>
-        <v>2.0689150706346533E-4</v>
+        <v>2.0721253829363611E-4</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="129">
-        <v>2.0689150706346533E-4</v>
+        <v>2.0721253829363611E-4</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="117">
-        <v>2.0689150706346533E-4</v>
+        <v>2.0721253829363611E-4</v>
       </c>
       <c r="M17" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND($L17,6),EvaluationDate)</f>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="D18" s="157" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH6M_Quote#0002</v>
+        <v>EUR3WD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E18" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -11328,19 +11328,19 @@
       </c>
       <c r="H18" s="136">
         <f>'6MSynthDepo'!I28</f>
-        <v>2.1453675867430126E-4</v>
+        <v>2.148321835093725E-4</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="129">
-        <v>2.1453675867430126E-4</v>
+        <v>2.148321835093725E-4</v>
       </c>
       <c r="K18" s="16"/>
       <c r="L18" s="117">
-        <v>2.1453675867430126E-4</v>
+        <v>2.148321835093725E-4</v>
       </c>
       <c r="M18" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND($L18,6),EvaluationDate)</f>
-        <v>9.999999999999972E-7</v>
+        <v>0</v>
       </c>
       <c r="N18" s="108"/>
     </row>
@@ -11355,7 +11355,7 @@
       </c>
       <c r="D19" s="157" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH6M_Quote#0002</v>
+        <v>EUR1MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E19" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -11367,19 +11367,19 @@
       </c>
       <c r="H19" s="141">
         <f>'6MSynthDepo'!I29</f>
-        <v>2.5530299606777872E-4</v>
+        <v>2.5556336852943445E-4</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="132">
-        <v>2.5530299606777872E-4</v>
+        <v>2.5556336852943445E-4</v>
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="123">
-        <v>2.5530299606777872E-4</v>
+        <v>2.5556336852943445E-4</v>
       </c>
       <c r="M19" s="124">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND($L19,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>9.999999999999701E-7</v>
       </c>
       <c r="N19" s="108"/>
     </row>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="D20" s="157" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH6M_Quote#0002</v>
+        <v>EUR2MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E20" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -11406,19 +11406,19 @@
       </c>
       <c r="H20" s="136">
         <f>'6MSynthDepo'!I30</f>
-        <v>2.3648247379867021E-4</v>
+        <v>2.3664810563085427E-4</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="129">
-        <v>2.3648247379867021E-4</v>
+        <v>2.3664810563085427E-4</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="117">
-        <v>2.3648247379867021E-4</v>
+        <v>2.3664810563085427E-4</v>
       </c>
       <c r="M20" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND($L20,6),EvaluationDate)</f>
-        <v>-1.8000000000000004E-5</v>
+        <v>9.999999999999972E-7</v>
       </c>
       <c r="N20" s="108"/>
     </row>
@@ -11433,7 +11433,7 @@
       </c>
       <c r="D21" s="157" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH6M_Quote#0002</v>
+        <v>EUR3MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E21" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -11445,19 +11445,19 @@
       </c>
       <c r="H21" s="136">
         <f>'6MSynthDepo'!I31</f>
-        <v>2.8921669697613866E-4</v>
+        <v>2.8359412905085087E-4</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="129">
-        <v>2.8921669697613866E-4</v>
+        <v>2.8359412905085087E-4</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="117">
-        <v>2.8921669697613866E-4</v>
+        <v>2.8359412905085087E-4</v>
       </c>
       <c r="M21" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND($L21,6),EvaluationDate)</f>
-        <v>1.8000000000000004E-5</v>
+        <v>-4.9999999999999589E-6</v>
       </c>
       <c r="N21" s="108"/>
     </row>
@@ -11472,7 +11472,7 @@
       </c>
       <c r="D22" s="157" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR4MD_SYNTH6M_Quote#0002</v>
+        <v>EUR4MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E22" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -11484,19 +11484,19 @@
       </c>
       <c r="H22" s="136">
         <f>'6MSynthDepo'!I32</f>
-        <v>2.5740963889514659E-4</v>
+        <v>2.5915671097759681E-4</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="129">
-        <v>2.5740963889514659E-4</v>
+        <v>2.5915671097759681E-4</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="117">
-        <v>2.5740963889514659E-4</v>
+        <v>2.5915671097759681E-4</v>
       </c>
       <c r="M22" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND($L22,6),EvaluationDate)</f>
-        <v>-3.9999999999999888E-6</v>
+        <v>1.9999999999999944E-6</v>
       </c>
       <c r="N22" s="108"/>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="D23" s="157" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR5MD_SYNTH6M_Quote#0002</v>
+        <v>EUR5MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E23" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -11523,19 +11523,19 @@
       </c>
       <c r="H23" s="136">
         <f>'6MSynthDepo'!I33</f>
-        <v>2.4767050351172165E-4</v>
+        <v>2.4951153325826844E-4</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="129">
-        <v>2.4767050351172165E-4</v>
+        <v>2.4951153325826844E-4</v>
       </c>
       <c r="K23" s="16"/>
       <c r="L23" s="117">
-        <v>2.4767050351172165E-4</v>
+        <v>2.4951153325826844E-4</v>
       </c>
       <c r="M23" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND($L23,6),EvaluationDate)</f>
-        <v>-2.9999999999999645E-6</v>
+        <v>1.9999999999999944E-6</v>
       </c>
       <c r="N23" s="108"/>
     </row>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="D24" s="159" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR6MD_SYNTH6M_Quote#0002</v>
+        <v>EUR6MD_SYNTH6M_Quote#0001</v>
       </c>
       <c r="E24" s="162" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -11562,19 +11562,19 @@
       </c>
       <c r="H24" s="144">
         <f>'6MSynthDepo'!I34</f>
-        <v>2.4264060312497609E-4</v>
+        <v>2.4204916456760375E-4</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="130">
-        <v>2.4264060312497609E-4</v>
+        <v>2.4204916456760375E-4</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="119">
-        <v>2.4264060312497609E-4</v>
+        <v>2.4204916456760375E-4</v>
       </c>
       <c r="M24" s="120">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND($L24,6),EvaluationDate)</f>
-        <v>9.999999999999972E-7</v>
+        <v>-9.999999999999972E-7</v>
       </c>
       <c r="N24" s="108"/>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="D25" s="157" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSND_SYNTH1Y_Quote#0002</v>
+        <v>EURSND_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E25" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -11603,23 +11603,23 @@
       </c>
       <c r="H25" s="141">
         <f>'1YSynthDepo'!I20</f>
-        <v>1.4175468018873261E-3</v>
+        <v>1.4333547028755333E-3</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="129">
-        <v>1.4175468018873261E-3</v>
+        <v>1.4333547028755333E-3</v>
       </c>
       <c r="K25" s="16"/>
       <c r="L25" s="117">
-        <v>1.4175468018873261E-3</v>
+        <v>1.4333547028755333E-3</v>
       </c>
       <c r="M25" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D25,ROUND($L25,6),EvaluationDate)</f>
-        <v>-2.3000000000000017E-5</v>
+        <v>1.5000000000000039E-5</v>
       </c>
       <c r="N25" s="107">
         <f>_xll.ohTrigger(M25:M40)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="D26" s="157" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EURSWD_SYNTH1Y_Quote#0002</v>
+        <v>EURSWD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E26" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -11648,19 +11648,19 @@
       </c>
       <c r="H26" s="136">
         <f>'1YSynthDepo'!I21</f>
-        <v>1.3667900797211172E-3</v>
+        <v>1.3663833517441049E-3</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="129">
-        <v>1.3667900797211172E-3</v>
+        <v>1.3663833517441049E-3</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="117">
-        <v>1.3667900797211172E-3</v>
+        <v>1.3663833517441049E-3</v>
       </c>
       <c r="M26" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D26,ROUND($L26,6),EvaluationDate)</f>
-        <v>-7.0000000000000617E-6</v>
+        <v>-9.9999999999991589E-7</v>
       </c>
       <c r="N26" s="108"/>
     </row>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="D27" s="157" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2WD_SYNTH1Y_Quote#0002</v>
+        <v>EUR2WD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E27" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -11687,19 +11687,19 @@
       </c>
       <c r="H27" s="136">
         <f>'1YSynthDepo'!I22</f>
-        <v>1.3720079071712274E-3</v>
+        <v>1.3716018395060203E-3</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="129">
-        <v>1.3720079071712274E-3</v>
+        <v>1.3716018395060203E-3</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="117">
-        <v>1.3720079071712274E-3</v>
+        <v>1.3716018395060203E-3</v>
       </c>
       <c r="M27" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D27,ROUND($L27,6),EvaluationDate)</f>
-        <v>-7.0000000000000617E-6</v>
+        <v>0</v>
       </c>
       <c r="N27" s="108"/>
     </row>
@@ -11714,7 +11714,7 @@
       </c>
       <c r="D28" s="157" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3WD_SYNTH1Y_Quote#0002</v>
+        <v>EUR3WD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E28" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -11726,19 +11726,19 @@
       </c>
       <c r="H28" s="136">
         <f>'1YSynthDepo'!I23</f>
-        <v>1.3772460871981046E-3</v>
+        <v>1.3768408118914571E-3</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="129">
-        <v>1.3772460871981046E-3</v>
+        <v>1.3768408118914571E-3</v>
       </c>
       <c r="K28" s="16"/>
       <c r="L28" s="117">
-        <v>1.3772460871981046E-3</v>
+        <v>1.3768408118914571E-3</v>
       </c>
       <c r="M28" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D28,ROUND($L28,6),EvaluationDate)</f>
-        <v>-7.0000000000000617E-6</v>
+        <v>0</v>
       </c>
       <c r="N28" s="108"/>
     </row>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="D29" s="157" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1MD_SYNTH1Y_Quote#0002</v>
+        <v>EUR1MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E29" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -11765,19 +11765,19 @@
       </c>
       <c r="H29" s="144">
         <f>'1YSynthDepo'!I24</f>
-        <v>1.4147710458356499E-3</v>
+        <v>1.4143671232447913E-3</v>
       </c>
       <c r="I29" s="17"/>
       <c r="J29" s="130">
-        <v>1.4147710458356499E-3</v>
+        <v>1.4143671232447913E-3</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="119">
-        <v>1.4147710458356499E-3</v>
+        <v>1.4143671232447913E-3</v>
       </c>
       <c r="M29" s="120">
         <f>_xll.qlSimpleQuoteSetValue(D29,ROUND($L29,6),EvaluationDate)</f>
-        <v>-5.999999999999929E-6</v>
+        <v>-1.0000000000001327E-6</v>
       </c>
       <c r="N29" s="108"/>
     </row>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="D30" s="157" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR2MD_SYNTH1Y_Quote#0002</v>
+        <v>EUR2MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E30" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -11804,19 +11804,19 @@
       </c>
       <c r="H30" s="136">
         <f>'1YSynthDepo'!I25</f>
-        <v>1.3875411050914604E-3</v>
+        <v>1.3871427618524104E-3</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="129">
-        <v>1.3875411050914604E-3</v>
+        <v>1.3871427618524104E-3</v>
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="117">
-        <v>1.3875411050914604E-3</v>
+        <v>1.3871427618524104E-3</v>
       </c>
       <c r="M30" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D30,ROUND($L30,6),EvaluationDate)</f>
-        <v>-2.3000000000000017E-5</v>
+        <v>-9.9999999999991589E-7</v>
       </c>
       <c r="N30" s="107"/>
     </row>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="D31" s="157" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR3MD_SYNTH1Y_Quote#0002</v>
+        <v>EUR3MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E31" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -11843,19 +11843,19 @@
       </c>
       <c r="H31" s="136">
         <f>'1YSynthDepo'!I26</f>
-        <v>1.4332284729959347E-3</v>
+        <v>1.4271359885300735E-3</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="129">
-        <v>1.4332284729959347E-3</v>
+        <v>1.4271359885300735E-3</v>
       </c>
       <c r="K31" s="16"/>
       <c r="L31" s="117">
-        <v>1.4332284729959347E-3</v>
+        <v>1.4271359885300735E-3</v>
       </c>
       <c r="M31" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D31,ROUND($L31,6),EvaluationDate)</f>
-        <v>1.4000000000000123E-5</v>
+        <v>-5.999999999999929E-6</v>
       </c>
       <c r="N31" s="108"/>
     </row>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="D32" s="157" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR4MD_SYNTH1Y_Quote#0002</v>
+        <v>EUR4MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E32" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -11882,19 +11882,19 @@
       </c>
       <c r="H32" s="136">
         <f>'1YSynthDepo'!I27</f>
-        <v>1.3969750873161605E-3</v>
+        <v>1.3983270840694114E-3</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="129">
-        <v>1.3969750873161605E-3</v>
+        <v>1.3983270840694114E-3</v>
       </c>
       <c r="K32" s="16"/>
       <c r="L32" s="117">
-        <v>1.3969750873161605E-3</v>
+        <v>1.3983270840694114E-3</v>
       </c>
       <c r="M32" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D32,ROUND($L32,6),EvaluationDate)</f>
-        <v>-7.0000000000000617E-6</v>
+        <v>9.9999999999991589E-7</v>
       </c>
       <c r="N32" s="108"/>
     </row>
@@ -11909,7 +11909,7 @@
       </c>
       <c r="D33" s="157" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR5MD_SYNTH1Y_Quote#0002</v>
+        <v>EUR5MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E33" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -11921,19 +11921,19 @@
       </c>
       <c r="H33" s="136">
         <f>'1YSynthDepo'!I28</f>
-        <v>1.3843348357612864E-3</v>
+        <v>1.3858433833996724E-3</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="129">
-        <v>1.3843348357612864E-3</v>
+        <v>1.3858433833996724E-3</v>
       </c>
       <c r="K33" s="16"/>
       <c r="L33" s="117">
-        <v>1.3843348357612864E-3</v>
+        <v>1.3858433833996724E-3</v>
       </c>
       <c r="M33" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D33,ROUND($L33,6),EvaluationDate)</f>
-        <v>-5.999999999999929E-6</v>
+        <v>2.0000000000000486E-6</v>
       </c>
       <c r="N33" s="108"/>
     </row>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="D34" s="157" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR6MD_SYNTH1Y_Quote#0002</v>
+        <v>EUR6MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E34" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -11960,19 +11960,19 @@
       </c>
       <c r="H34" s="136">
         <f>'1YSynthDepo'!I29</f>
-        <v>1.3777408141027985E-3</v>
+        <v>1.3768754129557309E-3</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="129">
-        <v>1.3777408141027985E-3</v>
+        <v>1.3768754129557309E-3</v>
       </c>
       <c r="K34" s="16"/>
       <c r="L34" s="117">
-        <v>1.3777408141027985E-3</v>
+        <v>1.3768754129557309E-3</v>
       </c>
       <c r="M34" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D34,ROUND($L34,6),EvaluationDate)</f>
-        <v>-9.9999999999991589E-7</v>
+        <v>-1.0000000000001327E-6</v>
       </c>
       <c r="N34" s="108"/>
     </row>
@@ -11987,7 +11987,7 @@
       </c>
       <c r="D35" s="157" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR7MD_SYNTH1Y_Quote#0002</v>
+        <v>EUR7MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E35" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -11999,15 +11999,15 @@
       </c>
       <c r="H35" s="136">
         <f>'1YSynthDepo'!I30</f>
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="129">
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="K35" s="16"/>
       <c r="L35" s="117">
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="M35" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D35,ROUND($L35,6),EvaluationDate)</f>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="D36" s="157" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR8MD_SYNTH1Y_Quote#0002</v>
+        <v>EUR8MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E36" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -12038,15 +12038,15 @@
       </c>
       <c r="H36" s="136">
         <f>'1YSynthDepo'!I31</f>
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="129">
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="117">
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="M36" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D36,ROUND($L36,6),EvaluationDate)</f>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="D37" s="157" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR9MD_SYNTH1Y_Quote#0002</v>
+        <v>EUR9MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E37" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -12077,15 +12077,15 @@
       </c>
       <c r="H37" s="136">
         <f>'1YSynthDepo'!I32</f>
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="129">
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="117">
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="M37" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D37,ROUND($L37,6),EvaluationDate)</f>
@@ -12104,7 +12104,7 @@
       </c>
       <c r="D38" s="157" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR10MD_SYNTH1Y_Quote#0002</v>
+        <v>EUR10MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E38" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -12116,15 +12116,15 @@
       </c>
       <c r="H38" s="136">
         <f>'1YSynthDepo'!I33</f>
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="129">
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="117">
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="M38" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D38,ROUND($L38,6),EvaluationDate)</f>
@@ -12143,7 +12143,7 @@
       </c>
       <c r="D39" s="157" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR11MD_SYNTH1Y_Quote#0002</v>
+        <v>EUR11MD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E39" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -12155,15 +12155,15 @@
       </c>
       <c r="H39" s="136">
         <f>'1YSynthDepo'!I34</f>
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="129">
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="K39" s="16"/>
       <c r="L39" s="117">
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="M39" s="118">
         <f>_xll.qlSimpleQuoteSetValue(D39,ROUND($L39,6),EvaluationDate)</f>
@@ -12182,7 +12182,7 @@
       </c>
       <c r="D40" s="157" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>EUR1YD_SYNTH1Y_Quote#0002</v>
+        <v>EUR1YD_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E40" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
@@ -12194,15 +12194,15 @@
       </c>
       <c r="H40" s="144">
         <f>'1YSynthDepo'!I35</f>
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="I40" s="17"/>
       <c r="J40" s="130">
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="K40" s="16"/>
       <c r="L40" s="119">
-        <v>1.4030768007941069E-3</v>
+        <v>1.4028377131147243E-3</v>
       </c>
       <c r="M40" s="120">
         <f>_xll.qlSimpleQuoteSetValue(D40,ROUND($L40,6),EvaluationDate)</f>
@@ -12224,7 +12224,7 @@
       </c>
       <c r="D41" s="155" t="str">
         <f>_xll.qlSimpleQuote(C41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR1x13F_SYNTH1Y_Quote#0002</v>
+        <v>EUR1x13F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E41" s="160" t="str">
         <f>_xll.ohRangeRetrieveError(D41)</f>
@@ -12239,15 +12239,15 @@
       </c>
       <c r="H41" s="149">
         <f>SynthFra!G4</f>
-        <v>1.3999999999999998E-3</v>
+        <v>1.3999999999999996E-3</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="133">
-        <v>1.3999999999999998E-3</v>
+        <v>1.3999999999999996E-3</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="125">
-        <v>1.3999999999999998E-3</v>
+        <v>1.3999999999999996E-3</v>
       </c>
       <c r="M41" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D41,ROUND(L41,6),EvaluationDate)</f>
@@ -12255,7 +12255,7 @@
       </c>
       <c r="N41" s="107">
         <f>_xll.ohTrigger(M41:M63)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -12272,7 +12272,7 @@
       </c>
       <c r="D42" s="157" t="str">
         <f>_xll.qlSimpleQuote(C42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR2x14F_SYNTH1Y_Quote#0002</v>
+        <v>EUR2x14F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E42" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D42)</f>
@@ -12317,7 +12317,7 @@
       </c>
       <c r="D43" s="157" t="str">
         <f>_xll.qlSimpleQuote(C43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR3x15F_SYNTH1Y_Quote#0002</v>
+        <v>EUR3x15F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E43" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D43)</f>
@@ -12362,7 +12362,7 @@
       </c>
       <c r="D44" s="157" t="str">
         <f>_xll.qlSimpleQuote(C44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR4x16F_SYNTH1Y_Quote#0002</v>
+        <v>EUR4x16F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E44" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D44)</f>
@@ -12377,15 +12377,15 @@
       </c>
       <c r="H44" s="151">
         <f>SynthFra!G7</f>
-        <v>1.4599999999999997E-3</v>
+        <v>1.4599999999999999E-3</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="133">
-        <v>1.4599999999999997E-3</v>
+        <v>1.4599999999999999E-3</v>
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="125">
-        <v>1.4599999999999997E-3</v>
+        <v>1.4599999999999999E-3</v>
       </c>
       <c r="M44" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D44,ROUND(L44,6),EvaluationDate)</f>
@@ -12407,7 +12407,7 @@
       </c>
       <c r="D45" s="157" t="str">
         <f>_xll.qlSimpleQuote(C45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR5x17F_SYNTH1Y_Quote#0002</v>
+        <v>EUR5x17F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E45" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D45)</f>
@@ -12452,7 +12452,7 @@
       </c>
       <c r="D46" s="157" t="str">
         <f>_xll.qlSimpleQuote(C46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR6x18F_SYNTH1Y_Quote#0002</v>
+        <v>EUR6x18F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E46" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D46)</f>
@@ -12467,15 +12467,15 @@
       </c>
       <c r="H46" s="151">
         <f>SynthFra!G9</f>
-        <v>1.5499999999999999E-3</v>
+        <v>1.5500000000000002E-3</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="133">
-        <v>1.5499999999999999E-3</v>
+        <v>1.5500000000000002E-3</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="125">
-        <v>1.5499999999999999E-3</v>
+        <v>1.5500000000000002E-3</v>
       </c>
       <c r="M46" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D46,ROUND(L46,6),EvaluationDate)</f>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="D47" s="157" t="str">
         <f>_xll.qlSimpleQuote(C47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR7x19F_SYNTH1Y_Quote#0002</v>
+        <v>EUR7x19F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E47" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D47)</f>
@@ -12512,15 +12512,15 @@
       </c>
       <c r="H47" s="151">
         <f>SynthFra!G10</f>
-        <v>1.6099999999999997E-3</v>
+        <v>1.6099999999999995E-3</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="133">
-        <v>1.6099999999999997E-3</v>
+        <v>1.6099999999999995E-3</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="125">
-        <v>1.6099999999999997E-3</v>
+        <v>1.6099999999999995E-3</v>
       </c>
       <c r="M47" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D47,ROUND(L47,6),EvaluationDate)</f>
@@ -12542,7 +12542,7 @@
       </c>
       <c r="D48" s="157" t="str">
         <f>_xll.qlSimpleQuote(C48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR8x20F_SYNTH1Y_Quote#0002</v>
+        <v>EUR8x20F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E48" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D48)</f>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="D49" s="157" t="str">
         <f>_xll.qlSimpleQuote(C49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR9x21F_SYNTH1Y_Quote#0002</v>
+        <v>EUR9x21F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E49" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D49)</f>
@@ -12602,15 +12602,15 @@
       </c>
       <c r="H49" s="151">
         <f>SynthFra!G12</f>
-        <v>1.7499999999999996E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="133">
-        <v>1.7499999999999996E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="K49" s="19"/>
       <c r="L49" s="125">
-        <v>1.7499999999999996E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="M49" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D49,ROUND(L49,6),EvaluationDate)</f>
@@ -12632,7 +12632,7 @@
       </c>
       <c r="D50" s="157" t="str">
         <f>_xll.qlSimpleQuote(C50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR10x22F_SYNTH1Y_Quote#0002</v>
+        <v>EUR10x22F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E50" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D50)</f>
@@ -12677,7 +12677,7 @@
       </c>
       <c r="D51" s="157" t="str">
         <f>_xll.qlSimpleQuote(C51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR11x23F_SYNTH1Y_Quote#0002</v>
+        <v>EUR11x23F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E51" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D51)</f>
@@ -12692,15 +12692,15 @@
       </c>
       <c r="H51" s="151">
         <f>SynthFra!G14</f>
-        <v>1.9199999999999998E-3</v>
+        <v>1.9200000000000003E-3</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="133">
-        <v>1.9199999999999998E-3</v>
+        <v>1.9200000000000003E-3</v>
       </c>
       <c r="K51" s="19"/>
       <c r="L51" s="125">
-        <v>1.9199999999999998E-3</v>
+        <v>1.9200000000000003E-3</v>
       </c>
       <c r="M51" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D51,ROUND(L51,6),EvaluationDate)</f>
@@ -12722,7 +12722,7 @@
       </c>
       <c r="D52" s="157" t="str">
         <f>_xll.qlSimpleQuote(C52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR13x25F_SYNTH1Y_Quote#0002</v>
+        <v>EUR13x25F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E52" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D52)</f>
@@ -12737,15 +12737,15 @@
       </c>
       <c r="H52" s="151">
         <f>SynthFra!G16</f>
-        <v>2.1517531953002779E-3</v>
+        <v>2.1517516057800693E-3</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="133">
-        <v>2.1517531953002779E-3</v>
+        <v>2.1517516057800693E-3</v>
       </c>
       <c r="K52" s="19"/>
       <c r="L52" s="125">
-        <v>2.1517531953002779E-3</v>
+        <v>2.1517516057800693E-3</v>
       </c>
       <c r="M52" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D52,ROUND(L52,6),EvaluationDate)</f>
@@ -12767,7 +12767,7 @@
       </c>
       <c r="D53" s="157" t="str">
         <f>_xll.qlSimpleQuote(C53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR14x26F_SYNTH1Y_Quote#0002</v>
+        <v>EUR14x26F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E53" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D53)</f>
@@ -12782,19 +12782,19 @@
       </c>
       <c r="H53" s="151">
         <f>SynthFra!G17</f>
-        <v>2.284267302278127E-3</v>
+        <v>2.2845863396810419E-3</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="133">
-        <v>2.284267302278127E-3</v>
+        <v>2.2845863396810419E-3</v>
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="125">
-        <v>2.284267302278127E-3</v>
+        <v>2.2845863396810419E-3</v>
       </c>
       <c r="M53" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D53,ROUND(L53,6),EvaluationDate)</f>
-        <v>-1.9999999999998318E-6</v>
+        <v>1.0000000000001327E-6</v>
       </c>
       <c r="N53" s="108"/>
     </row>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="D54" s="157" t="str">
         <f>_xll.qlSimpleQuote(C54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR15x27F_SYNTH1Y_Quote#0002</v>
+        <v>EUR15x27F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E54" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D54)</f>
@@ -12827,19 +12827,19 @@
       </c>
       <c r="H54" s="151">
         <f>SynthFra!G18</f>
-        <v>2.4186588575187814E-3</v>
+        <v>2.4194978364372706E-3</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="133">
-        <v>2.4186588575187814E-3</v>
+        <v>2.4194978364372706E-3</v>
       </c>
       <c r="K54" s="19"/>
       <c r="L54" s="125">
-        <v>2.4186588575187814E-3</v>
+        <v>2.4194978364372706E-3</v>
       </c>
       <c r="M54" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D54,ROUND(L54,6),EvaluationDate)</f>
-        <v>1.0000000000001327E-6</v>
+        <v>0</v>
       </c>
       <c r="N54" s="108"/>
     </row>
@@ -12857,7 +12857,7 @@
       </c>
       <c r="D55" s="157" t="str">
         <f>_xll.qlSimpleQuote(C55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR16x28F_SYNTH1Y_Quote#0002</v>
+        <v>EUR16x28F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E55" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D55)</f>
@@ -12872,19 +12872,19 @@
       </c>
       <c r="H55" s="151">
         <f>SynthFra!G19</f>
-        <v>2.5706199629160769E-3</v>
+        <v>2.5715963946309432E-3</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="133">
-        <v>2.5706199629160769E-3</v>
+        <v>2.5715963946309432E-3</v>
       </c>
       <c r="K55" s="19"/>
       <c r="L55" s="125">
-        <v>2.5706199629160769E-3</v>
+        <v>2.5715963946309432E-3</v>
       </c>
       <c r="M55" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D55,ROUND(L55,6),EvaluationDate)</f>
-        <v>1.9999999999998318E-6</v>
+        <v>1.0000000000001327E-6</v>
       </c>
       <c r="N55" s="108"/>
     </row>
@@ -12902,7 +12902,7 @@
       </c>
       <c r="D56" s="157" t="str">
         <f>_xll.qlSimpleQuote(C56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR17x29F_SYNTH1Y_Quote#0002</v>
+        <v>EUR17x29F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E56" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D56)</f>
@@ -12917,19 +12917,19 @@
       </c>
       <c r="H56" s="151">
         <f>SynthFra!G20</f>
-        <v>2.7128984030866865E-3</v>
+        <v>2.7139596839195331E-3</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="133">
-        <v>2.7128984030866865E-3</v>
+        <v>2.7139596839195331E-3</v>
       </c>
       <c r="K56" s="19"/>
       <c r="L56" s="125">
-        <v>2.7128984030866865E-3</v>
+        <v>2.7139596839195331E-3</v>
       </c>
       <c r="M56" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D56,ROUND(L56,6),EvaluationDate)</f>
-        <v>1.0000000000001327E-6</v>
+        <v>9.9999999999969905E-7</v>
       </c>
       <c r="N56" s="108"/>
     </row>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="D57" s="157" t="str">
         <f>_xll.qlSimpleQuote(C57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR18x30F_SYNTH1Y_Quote#0002</v>
+        <v>EUR18x30F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E57" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D57)</f>
@@ -12962,19 +12962,19 @@
       </c>
       <c r="H57" s="151">
         <f>SynthFra!G21</f>
-        <v>2.8835488976694783E-3</v>
+        <v>2.8847569998924349E-3</v>
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="133">
-        <v>2.8835488976694783E-3</v>
+        <v>2.8847569998924349E-3</v>
       </c>
       <c r="K57" s="19"/>
       <c r="L57" s="125">
-        <v>2.8835488976694783E-3</v>
+        <v>2.8847569998924349E-3</v>
       </c>
       <c r="M57" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D57,ROUND(L57,6),EvaluationDate)</f>
-        <v>-1.0000000000001327E-6</v>
+        <v>1.0000000000001327E-6</v>
       </c>
       <c r="N57" s="108"/>
     </row>
@@ -12992,7 +12992,7 @@
       </c>
       <c r="D58" s="157" t="str">
         <f>_xll.qlSimpleQuote(C58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR19x31F_SYNTH1Y_Quote#0002</v>
+        <v>EUR19x31F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E58" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D58)</f>
@@ -13007,19 +13007,19 @@
       </c>
       <c r="H58" s="151">
         <f>SynthFra!G22</f>
-        <v>3.0476134537888167E-3</v>
+        <v>3.0487021410464548E-3</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="133">
-        <v>3.0476134537888167E-3</v>
+        <v>3.0487021410464548E-3</v>
       </c>
       <c r="K58" s="19"/>
       <c r="L58" s="125">
-        <v>3.0476134537888167E-3</v>
+        <v>3.0487021410464548E-3</v>
       </c>
       <c r="M58" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D58,ROUND(L58,6),EvaluationDate)</f>
-        <v>-2.0000000000002655E-6</v>
+        <v>1.0000000000001327E-6</v>
       </c>
       <c r="N58" s="108"/>
     </row>
@@ -13037,7 +13037,7 @@
       </c>
       <c r="D59" s="157" t="str">
         <f>_xll.qlSimpleQuote(C59,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR20x32F_SYNTH1Y_Quote#0002</v>
+        <v>EUR20x32F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E59" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D59)</f>
@@ -13052,19 +13052,19 @@
       </c>
       <c r="H59" s="151">
         <f>SynthFra!G23</f>
-        <v>3.238755932861105E-3</v>
+        <v>3.239364726196528E-3</v>
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="133">
-        <v>3.238755932861105E-3</v>
+        <v>3.239364726196528E-3</v>
       </c>
       <c r="K59" s="19"/>
       <c r="L59" s="125">
-        <v>3.238755932861105E-3</v>
+        <v>3.239364726196528E-3</v>
       </c>
       <c r="M59" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D59,ROUND(L59,6),EvaluationDate)</f>
-        <v>-9.9999999999969905E-7</v>
+        <v>0</v>
       </c>
       <c r="N59" s="108"/>
     </row>
@@ -13082,7 +13082,7 @@
       </c>
       <c r="D60" s="157" t="str">
         <f>_xll.qlSimpleQuote(C60,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR21x33F_SYNTH1Y_Quote#0002</v>
+        <v>EUR21x33F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E60" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D60)</f>
@@ -13097,19 +13097,19 @@
       </c>
       <c r="H60" s="151">
         <f>SynthFra!G24</f>
-        <v>3.4281888904609242E-3</v>
+        <v>3.4283215450510761E-3</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="133">
-        <v>3.4281888904609242E-3</v>
+        <v>3.4283215450510761E-3</v>
       </c>
       <c r="K60" s="19"/>
       <c r="L60" s="125">
-        <v>3.4281888904609242E-3</v>
+        <v>3.4283215450510761E-3</v>
       </c>
       <c r="M60" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D60,ROUND(L60,6),EvaluationDate)</f>
-        <v>-1.0000000000001327E-6</v>
+        <v>0</v>
       </c>
       <c r="N60" s="108"/>
     </row>
@@ -13127,7 +13127,7 @@
       </c>
       <c r="D61" s="157" t="str">
         <f>_xll.qlSimpleQuote(C61,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR22x34F_SYNTH1Y_Quote#0002</v>
+        <v>EUR22x34F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E61" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D61)</f>
@@ -13142,19 +13142,19 @@
       </c>
       <c r="H61" s="151">
         <f>SynthFra!G25</f>
-        <v>3.6255904080987863E-3</v>
+        <v>3.6254407224820488E-3</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="133">
-        <v>3.6255904080987863E-3</v>
+        <v>3.6254407224820488E-3</v>
       </c>
       <c r="K61" s="19"/>
       <c r="L61" s="125">
-        <v>3.6255904080987863E-3</v>
+        <v>3.6254407224820488E-3</v>
       </c>
       <c r="M61" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D61,ROUND(L61,6),EvaluationDate)</f>
-        <v>0</v>
+        <v>-9.9999999999969905E-7</v>
       </c>
       <c r="N61" s="108"/>
     </row>
@@ -13172,7 +13172,7 @@
       </c>
       <c r="D62" s="157" t="str">
         <f>_xll.qlSimpleQuote(C62,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR23x35F_SYNTH1Y_Quote#0002</v>
+        <v>EUR23x35F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E62" s="161" t="str">
         <f>_xll.ohRangeRetrieveError(D62)</f>
@@ -13187,19 +13187,19 @@
       </c>
       <c r="H62" s="151">
         <f>SynthFra!G26</f>
-        <v>3.8516237544132912E-3</v>
+        <v>3.8514257146679927E-3</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="133">
-        <v>3.8516237544132912E-3</v>
+        <v>3.8514257146679927E-3</v>
       </c>
       <c r="K62" s="19"/>
       <c r="L62" s="125">
-        <v>3.8516237544132912E-3</v>
+        <v>3.8514257146679927E-3</v>
       </c>
       <c r="M62" s="126">
         <f>_xll.qlSimpleQuoteSetValue(D62,ROUND(L62,6),EvaluationDate)</f>
-        <v>1.0000000000001327E-6</v>
+        <v>-1.0000000000001327E-6</v>
       </c>
       <c r="N62" s="108"/>
     </row>
@@ -13217,7 +13217,7 @@
       </c>
       <c r="D63" s="159" t="str">
         <f>_xll.qlSimpleQuote(C63,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR24x36F_SYNTH1Y_Quote#0002</v>
+        <v>EUR24x36F_SYNTH1Y_Quote#0001</v>
       </c>
       <c r="E63" s="162" t="str">
         <f>_xll.ohRangeRetrieveError(D63)</f>
